--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -8,24 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MENU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611D11EC-515B-41A5-A16B-545FC94E1E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F96BB8-B613-471F-8306-D696729069F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1800" windowWidth="29040" windowHeight="15840" tabRatio="712" activeTab="12" xr2:uid="{07A4EBFC-A5F7-43B6-A6A1-AE7A8C14B3ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="712" firstSheet="1" activeTab="14" xr2:uid="{07A4EBFC-A5F7-43B6-A6A1-AE7A8C14B3ED}"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
-    <sheet name="Total" sheetId="4" r:id="rId2"/>
-    <sheet name="BE" sheetId="10" r:id="rId3"/>
-    <sheet name="FE" sheetId="12" r:id="rId4"/>
-    <sheet name="JS" sheetId="11" r:id="rId5"/>
-    <sheet name="CSS" sheetId="13" r:id="rId6"/>
-    <sheet name="boostrap" sheetId="14" r:id="rId7"/>
-    <sheet name="jekyll" sheetId="15" r:id="rId8"/>
-    <sheet name="software" sheetId="6" r:id="rId9"/>
-    <sheet name="PHP core" sheetId="1" r:id="rId10"/>
-    <sheet name="mysql" sheetId="7" r:id="rId11"/>
-    <sheet name="git" sheetId="8" r:id="rId12"/>
-    <sheet name="tiêu chuẩn code" sheetId="9" r:id="rId13"/>
+    <sheet name="MENU JS" sheetId="16" r:id="rId2"/>
+    <sheet name="WR" sheetId="4" r:id="rId3"/>
+    <sheet name="BE" sheetId="10" r:id="rId4"/>
+    <sheet name="FE" sheetId="12" r:id="rId5"/>
+    <sheet name="JS" sheetId="11" r:id="rId6"/>
+    <sheet name="ajax" sheetId="17" r:id="rId7"/>
+    <sheet name="CSS" sheetId="13" r:id="rId8"/>
+    <sheet name="boostrap" sheetId="14" r:id="rId9"/>
+    <sheet name="jekyll" sheetId="15" r:id="rId10"/>
+    <sheet name="software" sheetId="6" r:id="rId11"/>
+    <sheet name="PHP core" sheetId="1" r:id="rId12"/>
+    <sheet name="mysql" sheetId="7" r:id="rId13"/>
+    <sheet name="git" sheetId="8" r:id="rId14"/>
+    <sheet name="plugin" sheetId="18" r:id="rId15"/>
+    <sheet name="tiêu chuẩn code" sheetId="9" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="740">
   <si>
     <t>-</t>
   </si>
@@ -2111,6 +2114,162 @@
   </si>
   <si>
     <t>hiển thị 1 form thông báo lên màn hình có z-index cao nhất</t>
+  </si>
+  <si>
+    <t>thêm text sau nội dung</t>
+  </si>
+  <si>
+    <t>lấy nội dung trong thẻ</t>
+  </si>
+  <si>
+    <t>.text.html.val</t>
+  </si>
+  <si>
+    <t>gg map click</t>
+  </si>
+  <si>
+    <t>giới hạn độ dài text</t>
+  </si>
+  <si>
+    <t>swiper slider</t>
+  </si>
+  <si>
+    <t>scroll anination</t>
+  </si>
+  <si>
+    <t>thêm class khi scroll ở header</t>
+  </si>
+  <si>
+    <t>thêm class mới</t>
+  </si>
+  <si>
+    <t>ẩn nếu click chuột ngoài div đó</t>
+  </si>
+  <si>
+    <t>placehoder</t>
+  </si>
+  <si>
+    <t>ssh, xshell</t>
+  </si>
+  <si>
+    <t>Bem</t>
+  </si>
+  <si>
+    <t>truy cập server code thông qua 2 thằng này</t>
+  </si>
+  <si>
+    <t>quy tắc đặt tên class theo tiêu chuẩn</t>
+  </si>
+  <si>
+    <t>backup</t>
+  </si>
+  <si>
+    <t>sao lưu lại dữ liệu của website</t>
+  </si>
+  <si>
+    <t>học về ajax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. val() lấy giá trị hiện tại của thành phần, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  hoặc thay đổi giá trị cho thành phần. </t>
+  </si>
+  <si>
+    <t>. val() sẽ lấy giá trị đầu tiên nếu thành phần chọn là một danh sách.</t>
+  </si>
+  <si>
+    <t>- công dụng</t>
+  </si>
+  <si>
+    <t>+ Đọc dữ liệu từ máy chủ web - sau khi trang được tải</t>
+  </si>
+  <si>
+    <t>+ Cập nhật một trang web mà không cần tải lại trang</t>
+  </si>
+  <si>
+    <t>+ Gửi dữ liệu tới máy chủ web - ở chế độ nền</t>
+  </si>
+  <si>
+    <t>- kết hợp</t>
+  </si>
+  <si>
+    <t>+ Đối tượng XMLHttpRequest tích hợp trong trình duyệt (để yêu cầu dữ liệu từ máy chủ web)</t>
+  </si>
+  <si>
+    <t>+ JavaScript và HTML DOM (để hiển thị hoặc sử dụng dữ liệu)</t>
+  </si>
+  <si>
+    <t>- truyền dữ liệu</t>
+  </si>
+  <si>
+    <t>+ XML</t>
+  </si>
+  <si>
+    <t>+ JSON</t>
+  </si>
+  <si>
+    <t>- nền tảng là XMLHttpRequest</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Button contact VR</t>
+  </si>
+  <si>
+    <t>desception</t>
+  </si>
+  <si>
+    <t>contact form 7 captcha</t>
+  </si>
+  <si>
+    <t>hiển thị số điện thoại</t>
+  </si>
+  <si>
+    <t>hiển thị recaptcha</t>
+  </si>
+  <si>
+    <t>Table of Contents Plus</t>
+  </si>
+  <si>
+    <t>hiển thị menu  cho bài viết</t>
+  </si>
+  <si>
+    <t>Classic Editor</t>
+  </si>
+  <si>
+    <t>trình soạn thảo văn bản</t>
+  </si>
+  <si>
+    <t>contact form 7</t>
+  </si>
+  <si>
+    <t>các loại form</t>
+  </si>
+  <si>
+    <t>kk Star Ratings</t>
+  </si>
+  <si>
+    <t>xếp hạng sao cho bài viết</t>
+  </si>
+  <si>
+    <t>UpdraftPlus - Backup/Restore</t>
+  </si>
+  <si>
+    <t>sao lưu dữ liệu</t>
+  </si>
+  <si>
+    <t>WPBakery Page Builder</t>
+  </si>
+  <si>
+    <t>trình chỉnh sửa</t>
+  </si>
+  <si>
+    <t>elementor</t>
   </si>
 </sst>
 </file>
@@ -2281,18 +2440,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2926,10 +3081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50483D0-DC91-498B-B37A-AFFEE867E6AA}">
-  <dimension ref="C2:M65"/>
+  <dimension ref="C2:M64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3142,7 +3297,7 @@
       <c r="C26">
         <v>12</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="23" t="s">
         <v>182</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -3153,7 +3308,7 @@
       <c r="C27">
         <v>13</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="8" t="s">
         <v>184</v>
       </c>
@@ -3247,6 +3402,9 @@
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>19</v>
+      </c>
       <c r="D41" t="s">
         <v>135</v>
       </c>
@@ -3260,6 +3418,9 @@
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>20</v>
+      </c>
       <c r="D44" t="s">
         <v>280</v>
       </c>
@@ -3268,6 +3429,9 @@
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>21</v>
+      </c>
       <c r="D46" t="s">
         <v>282</v>
       </c>
@@ -3276,6 +3440,9 @@
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>22</v>
+      </c>
       <c r="D48" t="s">
         <v>284</v>
       </c>
@@ -3283,7 +3450,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>23</v>
+      </c>
       <c r="D50" t="s">
         <v>285</v>
       </c>
@@ -3291,12 +3461,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E51" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E52" t="s">
         <v>289</v>
       </c>
@@ -3304,70 +3474,124 @@
         <v>290</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D55" t="s">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>24</v>
+      </c>
+      <c r="D53" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D57" t="s">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
         <v>293</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E54" s="8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="E58" t="s">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
         <v>344</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M55" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>26</v>
+      </c>
+      <c r="D56" t="s">
+        <v>329</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>27</v>
+      </c>
+      <c r="D58" t="s">
+        <v>345</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>28</v>
+      </c>
       <c r="D59" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="E60" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="61" spans="4:13" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>29</v>
+      </c>
+      <c r="D60" t="s">
+        <v>361</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>30</v>
+      </c>
       <c r="D61" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>31</v>
+      </c>
+      <c r="D62" t="s">
+        <v>699</v>
+      </c>
+      <c r="E62" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>32</v>
+      </c>
       <c r="D63" t="s">
-        <v>352</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
+        <v>700</v>
+      </c>
+      <c r="E63" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>33</v>
+      </c>
       <c r="D64" t="s">
-        <v>361</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D65" t="s">
-        <v>363</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>364</v>
+        <v>703</v>
+      </c>
+      <c r="E64" t="s">
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -3384,14 +3608,14 @@
     <hyperlink ref="E26" r:id="rId7" xr:uid="{0A8C76A4-978A-4A81-AA89-06A5F165D14F}"/>
     <hyperlink ref="E29" r:id="rId8" xr:uid="{A66E7849-0925-48CE-92AF-2095AE4DE02F}"/>
     <hyperlink ref="E30" r:id="rId9" xr:uid="{618F6B7B-FE11-4A6D-818F-A7840C9B404E}"/>
-    <hyperlink ref="E57" r:id="rId10" xr:uid="{5D29F1C0-C481-40CC-9F92-9A26DEB1328A}"/>
-    <hyperlink ref="E59" r:id="rId11" xr:uid="{753D1F33-4D72-4DFF-89E7-AF3B9A66B991}"/>
+    <hyperlink ref="E54" r:id="rId10" xr:uid="{5D29F1C0-C481-40CC-9F92-9A26DEB1328A}"/>
+    <hyperlink ref="E56" r:id="rId11" xr:uid="{753D1F33-4D72-4DFF-89E7-AF3B9A66B991}"/>
     <hyperlink ref="E19" r:id="rId12" location="vi-tri-dat-widget-primary-widget-area-la-gi" xr:uid="{76C463C9-4460-4343-A168-191E72EB887B}"/>
     <hyperlink ref="E22" r:id="rId13" xr:uid="{1D989DBE-5AE2-4F73-80C5-7353D150D444}"/>
-    <hyperlink ref="E61" r:id="rId14" display="https://vi.wikipedia.org/wiki/H%E1%BB%87_qu%E1%BA%A3n_tr%E1%BB%8B_n%E1%BB%99i_dung" xr:uid="{6DA0F755-AEE7-420D-BBBC-A49B50A6A853}"/>
-    <hyperlink ref="E63" r:id="rId15" xr:uid="{62E2084C-7AE9-4D24-A74A-88860171C83B}"/>
-    <hyperlink ref="E64" r:id="rId16" xr:uid="{25543621-5D68-4A44-A049-615F9C8447A8}"/>
-    <hyperlink ref="E65" r:id="rId17" xr:uid="{B5F4EF87-3D05-4277-A85C-F39F127D5E2E}"/>
+    <hyperlink ref="E58" r:id="rId14" display="https://vi.wikipedia.org/wiki/H%E1%BB%87_qu%E1%BA%A3n_tr%E1%BB%8B_n%E1%BB%99i_dung" xr:uid="{6DA0F755-AEE7-420D-BBBC-A49B50A6A853}"/>
+    <hyperlink ref="E59" r:id="rId15" xr:uid="{62E2084C-7AE9-4D24-A74A-88860171C83B}"/>
+    <hyperlink ref="E60" r:id="rId16" xr:uid="{25543621-5D68-4A44-A049-615F9C8447A8}"/>
+    <hyperlink ref="E61" r:id="rId17" xr:uid="{B5F4EF87-3D05-4277-A85C-F39F127D5E2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>
@@ -3399,10 +3623,229 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC455A8-61B8-42E6-9BE7-032F59EBD6BA}">
+  <dimension ref="C2:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>664</v>
+      </c>
+      <c r="F16" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>665</v>
+      </c>
+      <c r="F17" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" t="s">
+        <v>668</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C8F176-1D72-4957-B993-E5BE43382EF9}">
+  <dimension ref="E3:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="8.88671875" style="5"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="9">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="9">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="9">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="9">
+        <v>7</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6526E53-C090-4792-893B-4590F55E7179}">
   <dimension ref="A16:G182"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView topLeftCell="A166" workbookViewId="0">
       <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
@@ -4140,7 +4583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAD69DA-7C67-407D-8309-4C0DEA437143}">
   <dimension ref="H5:K17"/>
   <sheetViews>
@@ -4273,7 +4716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145EDC40-06EE-4DAF-9E1F-5D134D4E1D19}">
   <dimension ref="D4:F14"/>
   <sheetViews>
@@ -4304,7 +4747,7 @@
       <c r="E5" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="22" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4315,7 +4758,7 @@
       <c r="E6" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="22" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4326,7 +4769,7 @@
       <c r="E7" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="22" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4337,7 +4780,7 @@
       <c r="E8" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="22" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4348,7 +4791,7 @@
       <c r="E9" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="22" t="s">
         <v>678</v>
       </c>
     </row>
@@ -4356,10 +4799,10 @@
       <c r="D10" s="9">
         <v>7</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="22" t="s">
         <v>675</v>
       </c>
     </row>
@@ -4367,10 +4810,10 @@
       <c r="D11" s="9">
         <v>8</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="13" t="s">
         <v>676</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="22" t="s">
         <v>677</v>
       </c>
     </row>
@@ -4378,10 +4821,10 @@
       <c r="D12" s="9">
         <v>9</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="13" t="s">
         <v>679</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="22" t="s">
         <v>680</v>
       </c>
     </row>
@@ -4389,10 +4832,10 @@
       <c r="D13" s="9">
         <v>10</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="22" t="s">
         <v>682</v>
       </c>
     </row>
@@ -4400,10 +4843,10 @@
       <c r="D14" s="9">
         <v>11</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="22" t="s">
         <v>684</v>
       </c>
     </row>
@@ -4413,12 +4856,142 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDCACE9-A93E-4F91-9C50-E8BAB1DB4871}">
+  <dimension ref="D3:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D3" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D6" s="9">
+        <v>3</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="9">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="9">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="9">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="9">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="9">
+        <v>9</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>738</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861A6D39-0D10-4CB5-B18C-2336B6635AEF}">
   <dimension ref="D3:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4487,11 +5060,173 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266CE0CA-5AFD-476B-A66D-8A9DA04A4E9A}">
+  <dimension ref="E3:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="8.88671875" style="5"/>
+    <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="G4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="9">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="9">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="9">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="9">
+        <v>7</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="9">
+        <v>8</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="9">
+        <v>9</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="9">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="9">
+        <v>11</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="9">
+        <v>12</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E15" s="9">
+        <v>13</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E16" s="9">
+        <v>14</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="9">
+        <v>15</v>
+      </c>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="9">
+        <v>16</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="9">
+        <v>17</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="9">
+        <v>18</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E21" s="9">
+        <v>19</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="9">
+        <v>20</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4617281-CF3A-4F47-BF4D-F23F8BCBE87B}">
   <dimension ref="B2:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5050,6 +5785,9 @@
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="5">
+        <v>50</v>
+      </c>
       <c r="C51" t="s">
         <v>359</v>
       </c>
@@ -5066,11 +5804,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748B90AD-AFCE-49EA-A54C-B0768D9A7E72}">
   <dimension ref="D3:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -5269,11 +6007,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895FAC42-4E37-4B97-B55D-25053A10B481}">
   <dimension ref="C2:U110"/>
   <sheetViews>
-    <sheetView topLeftCell="B82" workbookViewId="0">
+    <sheetView topLeftCell="B40" workbookViewId="0">
       <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
@@ -5996,7 +6734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CE0D02-758E-4162-BEC3-6755D8CFC64E}">
   <dimension ref="B3:F31"/>
   <sheetViews>
@@ -6218,7 +6956,97 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2934C37A-445C-4245-812A-74CBC83B0BE8}">
+  <dimension ref="D3:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="24" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="24" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="24" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="24" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="24" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="24" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="24" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="24" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="24" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="24" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="24" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>708</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80774C0A-17D0-43F2-9608-86259E98C230}">
   <dimension ref="G3:J15"/>
   <sheetViews>
@@ -6355,7 +7183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B7CBCA-E9B0-47B9-9F69-1C340EBE8449}">
   <dimension ref="B2:X41"/>
   <sheetViews>
@@ -7177,223 +8005,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC455A8-61B8-42E6-9BE7-032F59EBD6BA}">
-  <dimension ref="C2:F18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
-        <v>664</v>
-      </c>
-      <c r="F16" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E17" t="s">
-        <v>665</v>
-      </c>
-      <c r="F17" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" t="s">
-        <v>668</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C8F176-1D72-4957-B993-E5BE43382EF9}">
-  <dimension ref="E3:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="8.88671875" style="5"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="9">
-        <v>2</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E5" s="9">
-        <v>3</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E6" s="9">
-        <v>4</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E7" s="9">
-        <v>5</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="9">
-        <v>6</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E9" s="9">
-        <v>7</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MENU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F96BB8-B613-471F-8306-D696729069F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F640A37-652F-4151-83C9-EB61A24AA6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="712" firstSheet="1" activeTab="14" xr2:uid="{07A4EBFC-A5F7-43B6-A6A1-AE7A8C14B3ED}"/>
   </bookViews>
@@ -2399,7 +2399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2448,6 +2448,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3845,8 +3848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6526E53-C090-4792-893B-4590F55E7179}">
   <dimension ref="A16:G182"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="L157" sqref="L157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4858,10 +4861,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDCACE9-A93E-4F91-9C50-E8BAB1DB4871}">
-  <dimension ref="D3:F12"/>
+  <dimension ref="D3:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D13" sqref="D13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4979,6 +4982,13 @@
       <c r="F12" s="12" t="s">
         <v>738</v>
       </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="26">
+        <v>10</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MENU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F640A37-652F-4151-83C9-EB61A24AA6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="712" firstSheet="1" activeTab="14" xr2:uid="{07A4EBFC-A5F7-43B6-A6A1-AE7A8C14B3ED}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="712" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <sheet name="plugin" sheetId="18" r:id="rId15"/>
     <sheet name="tiêu chuẩn code" sheetId="9" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="741">
   <si>
     <t>-</t>
   </si>
@@ -2270,12 +2269,15 @@
   </si>
   <si>
     <t>elementor</t>
+  </si>
+  <si>
+    <t>user/pass postman : phandong7522/phandong752</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2443,13 +2445,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3083,25 +3085,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50483D0-DC91-498B-B37A-AFFEE867E6AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M64"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>260</v>
       </c>
@@ -3109,7 +3111,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="G4" t="s">
         <v>262</v>
@@ -3118,7 +3120,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>264</v>
       </c>
@@ -3126,7 +3128,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>266</v>
       </c>
@@ -3134,7 +3136,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>268</v>
       </c>
@@ -3142,7 +3144,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>269</v>
       </c>
@@ -3150,17 +3152,17 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>341</v>
       </c>
@@ -3168,17 +3170,17 @@
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>1</v>
       </c>
@@ -3186,7 +3188,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>2</v>
       </c>
@@ -3197,7 +3199,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>3</v>
       </c>
@@ -3208,7 +3210,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>4</v>
       </c>
@@ -3219,7 +3221,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>5</v>
       </c>
@@ -3230,7 +3232,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>6</v>
       </c>
@@ -3241,7 +3243,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>7</v>
       </c>
@@ -3252,7 +3254,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>8</v>
       </c>
@@ -3263,7 +3265,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>9</v>
       </c>
@@ -3274,7 +3276,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>10</v>
       </c>
@@ -3285,7 +3287,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>11</v>
       </c>
@@ -3296,27 +3298,27 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>12</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="26" t="s">
         <v>182</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>13</v>
       </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>14</v>
       </c>
@@ -3327,7 +3329,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>15</v>
       </c>
@@ -3338,7 +3340,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>16</v>
       </c>
@@ -3349,13 +3351,13 @@
         <v>328</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>330</v>
       </c>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>17</v>
       </c>
@@ -3366,7 +3368,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>18</v>
       </c>
@@ -3374,37 +3376,37 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>19</v>
       </c>
@@ -3415,12 +3417,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>20</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>21</v>
       </c>
@@ -3442,7 +3444,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>22</v>
       </c>
@@ -3453,7 +3455,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>23</v>
       </c>
@@ -3464,12 +3466,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>289</v>
       </c>
@@ -3477,7 +3479,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>24</v>
       </c>
@@ -3485,7 +3487,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>25</v>
       </c>
@@ -3496,7 +3498,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>344</v>
       </c>
@@ -3504,7 +3506,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>26</v>
       </c>
@@ -3515,12 +3517,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>27</v>
       </c>
@@ -3531,7 +3533,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>28</v>
       </c>
@@ -3542,7 +3544,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>29</v>
       </c>
@@ -3553,7 +3555,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>30</v>
       </c>
@@ -3564,7 +3566,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>31</v>
       </c>
@@ -3575,7 +3577,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C63">
         <v>32</v>
       </c>
@@ -3586,7 +3588,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C64">
         <v>33</v>
       </c>
@@ -3602,23 +3604,23 @@
     <mergeCell ref="D26:D27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E16" r:id="rId1" xr:uid="{1D1677C3-7EFC-48BB-90A1-8E282736032F}"/>
-    <hyperlink ref="E20" r:id="rId2" xr:uid="{421749DA-730A-4070-9A7D-63D9FCE47B1B}"/>
-    <hyperlink ref="E21" r:id="rId3" location=":~:text=Custom%20field%20WordPress%20l%C3%A0%20metadata,b%E1%BA%B1ng%20tr%C3%ACnh%20so%E1%BA%A1n%20th%E1%BA%A3o%20editor." xr:uid="{72EFCAD8-8660-4FC9-BD40-42A90C9F2AEA}"/>
-    <hyperlink ref="E23" r:id="rId4" xr:uid="{03CDA3D9-4ECA-4F78-A395-1A16FEC31514}"/>
-    <hyperlink ref="E28" r:id="rId5" xr:uid="{0BA4C8CF-DC83-41BE-8156-A7D6FFF382CE}"/>
-    <hyperlink ref="E27" r:id="rId6" xr:uid="{6208E7BD-11E9-4CAD-B61E-2E73D1E1FF03}"/>
-    <hyperlink ref="E26" r:id="rId7" xr:uid="{0A8C76A4-978A-4A81-AA89-06A5F165D14F}"/>
-    <hyperlink ref="E29" r:id="rId8" xr:uid="{A66E7849-0925-48CE-92AF-2095AE4DE02F}"/>
-    <hyperlink ref="E30" r:id="rId9" xr:uid="{618F6B7B-FE11-4A6D-818F-A7840C9B404E}"/>
-    <hyperlink ref="E54" r:id="rId10" xr:uid="{5D29F1C0-C481-40CC-9F92-9A26DEB1328A}"/>
-    <hyperlink ref="E56" r:id="rId11" xr:uid="{753D1F33-4D72-4DFF-89E7-AF3B9A66B991}"/>
-    <hyperlink ref="E19" r:id="rId12" location="vi-tri-dat-widget-primary-widget-area-la-gi" xr:uid="{76C463C9-4460-4343-A168-191E72EB887B}"/>
-    <hyperlink ref="E22" r:id="rId13" xr:uid="{1D989DBE-5AE2-4F73-80C5-7353D150D444}"/>
-    <hyperlink ref="E58" r:id="rId14" display="https://vi.wikipedia.org/wiki/H%E1%BB%87_qu%E1%BA%A3n_tr%E1%BB%8B_n%E1%BB%99i_dung" xr:uid="{6DA0F755-AEE7-420D-BBBC-A49B50A6A853}"/>
-    <hyperlink ref="E59" r:id="rId15" xr:uid="{62E2084C-7AE9-4D24-A74A-88860171C83B}"/>
-    <hyperlink ref="E60" r:id="rId16" xr:uid="{25543621-5D68-4A44-A049-615F9C8447A8}"/>
-    <hyperlink ref="E61" r:id="rId17" xr:uid="{B5F4EF87-3D05-4277-A85C-F39F127D5E2E}"/>
+    <hyperlink ref="E16" r:id="rId1"/>
+    <hyperlink ref="E20" r:id="rId2"/>
+    <hyperlink ref="E21" r:id="rId3" location=":~:text=Custom%20field%20WordPress%20l%C3%A0%20metadata,b%E1%BA%B1ng%20tr%C3%ACnh%20so%E1%BA%A1n%20th%E1%BA%A3o%20editor."/>
+    <hyperlink ref="E23" r:id="rId4"/>
+    <hyperlink ref="E28" r:id="rId5"/>
+    <hyperlink ref="E27" r:id="rId6"/>
+    <hyperlink ref="E26" r:id="rId7"/>
+    <hyperlink ref="E29" r:id="rId8"/>
+    <hyperlink ref="E30" r:id="rId9"/>
+    <hyperlink ref="E54" r:id="rId10"/>
+    <hyperlink ref="E56" r:id="rId11"/>
+    <hyperlink ref="E19" r:id="rId12" location="vi-tri-dat-widget-primary-widget-area-la-gi"/>
+    <hyperlink ref="E22" r:id="rId13"/>
+    <hyperlink ref="E58" r:id="rId14" display="https://vi.wikipedia.org/wiki/H%E1%BB%87_qu%E1%BA%A3n_tr%E1%BB%8B_n%E1%BB%99i_dung"/>
+    <hyperlink ref="E59" r:id="rId15"/>
+    <hyperlink ref="E60" r:id="rId16"/>
+    <hyperlink ref="E61" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>
@@ -3626,21 +3628,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC455A8-61B8-42E6-9BE7-032F59EBD6BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>1</v>
       </c>
@@ -3648,7 +3650,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2</v>
       </c>
@@ -3656,7 +3658,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>3</v>
       </c>
@@ -3664,22 +3666,22 @@
         <v>655</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>4</v>
       </c>
@@ -3687,22 +3689,22 @@
         <v>658</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>5</v>
       </c>
@@ -3710,7 +3712,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>6</v>
       </c>
@@ -3718,7 +3720,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>664</v>
       </c>
@@ -3726,7 +3728,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>665</v>
       </c>
@@ -3734,7 +3736,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>136</v>
       </c>
@@ -3748,21 +3750,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C8F176-1D72-4957-B993-E5BE43382EF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="8.88671875" style="5"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="5"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E3" s="9">
         <v>1</v>
       </c>
@@ -3773,7 +3775,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E4" s="9">
         <v>2</v>
       </c>
@@ -3784,7 +3786,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E5" s="9">
         <v>3</v>
       </c>
@@ -3795,7 +3797,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E6" s="9">
         <v>4</v>
       </c>
@@ -3806,7 +3808,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E7" s="9">
         <v>5</v>
       </c>
@@ -3817,7 +3819,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E8" s="9">
         <v>6</v>
       </c>
@@ -3828,7 +3830,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E9" s="9">
         <v>7</v>
       </c>
@@ -3845,16 +3847,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6526E53-C090-4792-893B-4590F55E7179}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A16:G182"/>
   <sheetViews>
     <sheetView topLeftCell="A135" workbookViewId="0">
       <selection activeCell="L157" sqref="L157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -3862,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -3876,7 +3878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>4</v>
       </c>
@@ -3884,7 +3886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>0</v>
       </c>
@@ -3892,7 +3894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -3900,7 +3902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -3908,7 +3910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>10</v>
       </c>
@@ -3916,7 +3918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -3924,12 +3926,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>0</v>
       </c>
@@ -3937,7 +3939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>10</v>
       </c>
@@ -3945,7 +3947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>0</v>
       </c>
@@ -3953,7 +3955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -3961,7 +3963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>10</v>
       </c>
@@ -3969,7 +3971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C85" s="5" t="s">
         <v>47</v>
       </c>
@@ -3983,7 +3985,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C86" s="5" t="s">
         <v>47</v>
       </c>
@@ -3994,7 +3996,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C87" s="5" t="s">
         <v>47</v>
       </c>
@@ -4005,7 +4007,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C88" s="5" t="s">
         <v>47</v>
       </c>
@@ -4016,7 +4018,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C89" s="5" t="s">
         <v>47</v>
       </c>
@@ -4027,7 +4029,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C90" s="5" t="s">
         <v>47</v>
       </c>
@@ -4038,7 +4040,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C91" s="5" t="s">
         <v>47</v>
       </c>
@@ -4049,7 +4051,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C92" s="5" t="s">
         <v>47</v>
       </c>
@@ -4057,7 +4059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C93" s="5" t="s">
         <v>47</v>
       </c>
@@ -4065,7 +4067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>10</v>
       </c>
@@ -4073,7 +4075,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>10</v>
       </c>
@@ -4081,7 +4083,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>10</v>
       </c>
@@ -4092,7 +4094,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C118" s="5" t="s">
         <v>47</v>
       </c>
@@ -4100,7 +4102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C119" s="5" t="s">
         <v>47</v>
       </c>
@@ -4108,7 +4110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C120" s="5" t="s">
         <v>47</v>
       </c>
@@ -4116,7 +4118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C121" s="5" t="s">
         <v>47</v>
       </c>
@@ -4124,12 +4126,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C122" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>11</v>
       </c>
@@ -4140,7 +4142,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C124" s="5" t="s">
         <v>47</v>
       </c>
@@ -4151,7 +4153,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C125" s="5" t="s">
         <v>47</v>
       </c>
@@ -4162,7 +4164,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C126" s="5" t="s">
         <v>47</v>
       </c>
@@ -4173,7 +4175,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C127" s="5" t="s">
         <v>47</v>
       </c>
@@ -4184,7 +4186,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>54</v>
       </c>
@@ -4198,7 +4200,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C129" s="5" t="s">
         <v>47</v>
       </c>
@@ -4209,7 +4211,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C130" s="5" t="s">
         <v>47</v>
       </c>
@@ -4218,7 +4220,7 @@
       </c>
       <c r="F130" s="14"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C131" s="5" t="s">
         <v>47</v>
       </c>
@@ -4229,7 +4231,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C132" s="5" t="s">
         <v>47</v>
       </c>
@@ -4240,7 +4242,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>12</v>
       </c>
@@ -4248,7 +4250,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>56</v>
       </c>
@@ -4256,7 +4258,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C137">
         <v>1</v>
       </c>
@@ -4264,7 +4266,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C138">
         <v>2</v>
       </c>
@@ -4272,7 +4274,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C139">
         <v>3</v>
       </c>
@@ -4280,7 +4282,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C140">
         <v>4</v>
       </c>
@@ -4288,12 +4290,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C142">
         <v>5</v>
       </c>
@@ -4301,32 +4303,32 @@
         <v>62</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>120</v>
       </c>
@@ -4334,7 +4336,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C151">
         <v>1</v>
       </c>
@@ -4342,22 +4344,22 @@
         <v>121</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C155">
         <v>2</v>
       </c>
@@ -4368,7 +4370,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
         <v>125</v>
       </c>
@@ -4376,7 +4378,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
         <v>127</v>
       </c>
@@ -4384,7 +4386,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C158">
         <v>3</v>
       </c>
@@ -4392,7 +4394,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C159">
         <v>4</v>
       </c>
@@ -4400,7 +4402,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C160">
         <v>5</v>
       </c>
@@ -4408,7 +4410,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C161">
         <v>6</v>
       </c>
@@ -4416,7 +4418,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C162">
         <v>7</v>
       </c>
@@ -4424,7 +4426,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C163">
         <v>8</v>
       </c>
@@ -4432,7 +4434,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C164">
         <v>9</v>
       </c>
@@ -4440,7 +4442,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C165">
         <v>10</v>
       </c>
@@ -4448,7 +4450,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C166">
         <v>11</v>
       </c>
@@ -4456,7 +4458,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C167">
         <v>12</v>
       </c>
@@ -4464,7 +4466,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>140</v>
       </c>
@@ -4472,7 +4474,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C170">
         <v>1</v>
       </c>
@@ -4480,7 +4482,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C171">
         <v>2</v>
       </c>
@@ -4488,7 +4490,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C172">
         <v>3</v>
       </c>
@@ -4499,7 +4501,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C173">
         <v>4</v>
       </c>
@@ -4507,7 +4509,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C174">
         <v>5</v>
       </c>
@@ -4515,7 +4517,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C175">
         <v>6</v>
       </c>
@@ -4523,7 +4525,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C176">
         <v>7</v>
       </c>
@@ -4531,7 +4533,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C177">
         <v>8</v>
       </c>
@@ -4539,7 +4541,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C178">
         <v>9</v>
       </c>
@@ -4547,7 +4549,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C179">
         <v>10</v>
       </c>
@@ -4555,7 +4557,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C180">
         <v>11</v>
       </c>
@@ -4563,7 +4565,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C181">
         <v>12</v>
       </c>
@@ -4571,7 +4573,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C182">
         <v>13</v>
       </c>
@@ -4587,20 +4589,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAD69DA-7C67-407D-8309-4C0DEA437143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H5:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="8.88671875" style="5"/>
-    <col min="9" max="9" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H5" s="11">
         <v>1</v>
       </c>
@@ -4608,7 +4610,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H6" s="11">
         <v>2</v>
       </c>
@@ -4616,7 +4618,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H7" s="11">
         <v>3</v>
       </c>
@@ -4624,7 +4626,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H8" s="11">
         <v>4</v>
       </c>
@@ -4632,7 +4634,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H9" s="11">
         <v>5</v>
       </c>
@@ -4643,7 +4645,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H10" s="11">
         <v>6</v>
       </c>
@@ -4654,7 +4656,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H11" s="11">
         <v>7</v>
       </c>
@@ -4665,7 +4667,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H12" s="11">
         <v>8</v>
       </c>
@@ -4673,7 +4675,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H13" s="11">
         <v>9</v>
       </c>
@@ -4681,7 +4683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H14" s="11">
         <v>10</v>
       </c>
@@ -4689,7 +4691,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H15" s="11">
         <v>11</v>
       </c>
@@ -4697,7 +4699,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H16" s="11">
         <v>12</v>
       </c>
@@ -4705,7 +4707,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H17" s="11">
         <v>13</v>
       </c>
@@ -4720,19 +4722,19 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145EDC40-06EE-4DAF-9E1F-5D134D4E1D19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="146.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="146.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D4" s="9">
         <v>1</v>
       </c>
@@ -4743,7 +4745,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D5" s="9">
         <v>2</v>
       </c>
@@ -4754,7 +4756,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D6" s="9">
         <v>3</v>
       </c>
@@ -4765,7 +4767,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D7" s="9">
         <v>4</v>
       </c>
@@ -4776,7 +4778,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D8" s="9">
         <v>5</v>
       </c>
@@ -4787,7 +4789,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D9" s="9">
         <v>6</v>
       </c>
@@ -4798,7 +4800,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D10" s="9">
         <v>7</v>
       </c>
@@ -4809,7 +4811,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D11" s="9">
         <v>8</v>
       </c>
@@ -4820,7 +4822,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D12" s="9">
         <v>9</v>
       </c>
@@ -4831,7 +4833,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D13" s="9">
         <v>10</v>
       </c>
@@ -4842,7 +4844,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D14" s="9">
         <v>11</v>
       </c>
@@ -4860,20 +4862,20 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDCACE9-A93E-4F91-9C50-E8BAB1DB4871}">
-  <dimension ref="D3:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:F13"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D3" s="9" t="s">
         <v>720</v>
       </c>
@@ -4884,7 +4886,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D4" s="9">
         <v>1</v>
       </c>
@@ -4895,7 +4897,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D5" s="9">
         <v>2</v>
       </c>
@@ -4906,18 +4908,18 @@
         <v>726</v>
       </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D6" s="9">
         <v>3</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>727</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D7" s="9">
         <v>4</v>
       </c>
@@ -4928,7 +4930,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D8" s="9">
         <v>5</v>
       </c>
@@ -4939,7 +4941,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D9" s="9">
         <v>6</v>
       </c>
@@ -4950,7 +4952,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D10" s="9">
         <v>7</v>
       </c>
@@ -4961,7 +4963,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D11" s="9">
         <v>8</v>
       </c>
@@ -4971,8 +4973,11 @@
       <c r="F11" s="12" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D12" s="9">
         <v>9</v>
       </c>
@@ -4983,8 +4988,8 @@
         <v>738</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D13" s="26">
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="25">
         <v>10</v>
       </c>
       <c r="E13" s="12"/>
@@ -4997,16 +5002,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861A6D39-0D10-4CB5-B18C-2336B6635AEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:G58"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E3" s="1" t="s">
         <v>167</v>
       </c>
@@ -5014,7 +5019,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>0</v>
       </c>
@@ -5022,7 +5027,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>0</v>
       </c>
@@ -5030,7 +5035,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>47</v>
       </c>
@@ -5041,7 +5046,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>47</v>
       </c>
@@ -5049,13 +5054,13 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E57" s="1" t="s">
         <v>174</v>
       </c>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E58" s="1" t="s">
         <v>175</v>
       </c>
@@ -5070,20 +5075,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266CE0CA-5AFD-476B-A66D-8A9DA04A4E9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="8.88671875" style="5"/>
-    <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="5"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E3" s="9">
         <v>1</v>
       </c>
@@ -5091,7 +5096,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E4" s="9">
         <v>2</v>
       </c>
@@ -5102,7 +5107,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E5" s="9">
         <v>3</v>
       </c>
@@ -5110,7 +5115,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E6" s="9">
         <v>4</v>
       </c>
@@ -5118,7 +5123,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E7" s="9">
         <v>5</v>
       </c>
@@ -5126,7 +5131,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E8" s="9">
         <v>6</v>
       </c>
@@ -5134,7 +5139,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E9" s="9">
         <v>7</v>
       </c>
@@ -5142,7 +5147,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E10" s="9">
         <v>8</v>
       </c>
@@ -5150,7 +5155,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E11" s="9">
         <v>9</v>
       </c>
@@ -5158,7 +5163,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E12" s="9">
         <v>10</v>
       </c>
@@ -5166,61 +5171,61 @@
         <v>698</v>
       </c>
     </row>
-    <row r="13" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E13" s="9">
         <v>11</v>
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E14" s="9">
         <v>12</v>
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E15" s="9">
         <v>13</v>
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E16" s="9">
         <v>14</v>
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" s="9">
         <v>15</v>
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" s="9">
         <v>16</v>
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" s="9">
         <v>17</v>
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" s="9">
         <v>18</v>
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E21" s="9">
         <v>19</v>
       </c>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E22" s="9">
         <v>20</v>
       </c>
@@ -5232,24 +5237,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4617281-CF3A-4F47-BF4D-F23F8BCBE87B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="5"/>
-    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="5"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -5257,7 +5262,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -5265,7 +5270,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>3</v>
       </c>
@@ -5279,7 +5284,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>4</v>
       </c>
@@ -5290,7 +5295,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>5</v>
       </c>
@@ -5298,7 +5303,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>6</v>
       </c>
@@ -5309,7 +5314,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>7</v>
       </c>
@@ -5320,7 +5325,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>8</v>
       </c>
@@ -5331,7 +5336,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>9</v>
       </c>
@@ -5342,7 +5347,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>10</v>
       </c>
@@ -5353,7 +5358,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>11</v>
       </c>
@@ -5364,7 +5369,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>12</v>
       </c>
@@ -5375,7 +5380,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>13</v>
       </c>
@@ -5386,7 +5391,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>14</v>
       </c>
@@ -5397,7 +5402,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>15</v>
       </c>
@@ -5408,7 +5413,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>16</v>
       </c>
@@ -5419,7 +5424,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>17</v>
       </c>
@@ -5430,7 +5435,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>18</v>
       </c>
@@ -5441,7 +5446,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>19</v>
       </c>
@@ -5452,7 +5457,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>20</v>
       </c>
@@ -5463,7 +5468,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>21</v>
       </c>
@@ -5474,7 +5479,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>22</v>
       </c>
@@ -5482,7 +5487,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>23</v>
       </c>
@@ -5493,7 +5498,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>24</v>
       </c>
@@ -5504,7 +5509,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>25</v>
       </c>
@@ -5515,7 +5520,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>26</v>
       </c>
@@ -5527,7 +5532,7 @@
       </c>
       <c r="K27"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <v>27</v>
       </c>
@@ -5539,7 +5544,7 @@
       </c>
       <c r="K28"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <v>28</v>
       </c>
@@ -5551,7 +5556,7 @@
       </c>
       <c r="K29"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <v>29</v>
       </c>
@@ -5563,7 +5568,7 @@
       </c>
       <c r="K30"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <v>30</v>
       </c>
@@ -5575,7 +5580,7 @@
       </c>
       <c r="K31"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <v>31</v>
       </c>
@@ -5587,7 +5592,7 @@
       </c>
       <c r="K32"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>32</v>
       </c>
@@ -5599,7 +5604,7 @@
       </c>
       <c r="K33"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <v>33</v>
       </c>
@@ -5611,7 +5616,7 @@
       </c>
       <c r="K34"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <v>34</v>
       </c>
@@ -5623,7 +5628,7 @@
       </c>
       <c r="K35"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <v>35</v>
       </c>
@@ -5635,7 +5640,7 @@
       </c>
       <c r="K36"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <v>36</v>
       </c>
@@ -5647,7 +5652,7 @@
       </c>
       <c r="K37"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
         <v>37</v>
       </c>
@@ -5659,7 +5664,7 @@
       </c>
       <c r="K38"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="5">
         <v>38</v>
       </c>
@@ -5671,7 +5676,7 @@
       </c>
       <c r="K39"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="5">
         <v>39</v>
       </c>
@@ -5683,7 +5688,7 @@
       </c>
       <c r="K40"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="5">
         <v>40</v>
       </c>
@@ -5695,7 +5700,7 @@
       </c>
       <c r="K41"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="5">
         <v>41</v>
       </c>
@@ -5706,7 +5711,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="5">
         <v>42</v>
       </c>
@@ -5717,7 +5722,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="5">
         <v>43</v>
       </c>
@@ -5728,7 +5733,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="5">
         <v>44</v>
       </c>
@@ -5739,7 +5744,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="5">
         <v>45</v>
       </c>
@@ -5750,7 +5755,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="5">
         <v>46</v>
       </c>
@@ -5761,7 +5766,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="5">
         <v>47</v>
       </c>
@@ -5772,7 +5777,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="5">
         <v>48</v>
       </c>
@@ -5783,7 +5788,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="5">
         <v>49</v>
       </c>
@@ -5794,7 +5799,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="5">
         <v>50</v>
       </c>
@@ -5807,7 +5812,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1" xr:uid="{01505D38-F028-4632-B657-7FDA4E5F1304}"/>
+    <hyperlink ref="D16" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5815,21 +5820,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748B90AD-AFCE-49EA-A54C-B0768D9A7E72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:G25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>1</v>
       </c>
@@ -5837,7 +5842,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>2</v>
       </c>
@@ -5845,7 +5850,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>3</v>
       </c>
@@ -5853,7 +5858,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>4</v>
       </c>
@@ -5861,7 +5866,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>5</v>
       </c>
@@ -5869,7 +5874,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>6</v>
       </c>
@@ -5877,7 +5882,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>7</v>
       </c>
@@ -5885,7 +5890,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>8</v>
       </c>
@@ -5893,7 +5898,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>9</v>
       </c>
@@ -5901,7 +5906,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>10</v>
       </c>
@@ -5909,7 +5914,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>11</v>
       </c>
@@ -5920,7 +5925,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>12</v>
       </c>
@@ -5931,7 +5936,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>13</v>
       </c>
@@ -5939,7 +5944,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>14</v>
       </c>
@@ -5947,7 +5952,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>15</v>
       </c>
@@ -5955,7 +5960,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>16</v>
       </c>
@@ -5963,7 +5968,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>17</v>
       </c>
@@ -5971,7 +5976,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>18</v>
       </c>
@@ -5982,7 +5987,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>19</v>
       </c>
@@ -5990,7 +5995,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>20</v>
       </c>
@@ -6001,7 +6006,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>21</v>
       </c>
@@ -6018,59 +6023,59 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895FAC42-4E37-4B97-B55D-25053A10B481}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:U110"/>
   <sheetViews>
     <sheetView topLeftCell="B40" workbookViewId="0">
       <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D2" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="7" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="8" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="9" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="10" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>427</v>
       </c>
@@ -6084,18 +6089,18 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>428</v>
       </c>
       <c r="Q11" s="19"/>
     </row>
-    <row r="12" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="13" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>430</v>
       </c>
@@ -6105,24 +6110,24 @@
         <v>529</v>
       </c>
     </row>
-    <row r="14" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>431</v>
       </c>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="16" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D16" s="4" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="17" t="s">
         <v>435</v>
       </c>
@@ -6130,7 +6135,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>433</v>
       </c>
@@ -6138,7 +6143,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>434</v>
       </c>
@@ -6146,7 +6151,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>47</v>
       </c>
@@ -6154,106 +6159,106 @@
         <v>439</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="16"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" s="16"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="16"/>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="45" spans="4:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D45" s="18" t="s">
         <v>456</v>
       </c>
@@ -6261,7 +6266,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D46" s="5" t="s">
         <v>0</v>
       </c>
@@ -6269,7 +6274,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D47" s="5" t="s">
         <v>0</v>
       </c>
@@ -6277,7 +6282,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D48" s="5" t="s">
         <v>0</v>
       </c>
@@ -6285,7 +6290,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D49" s="5" t="s">
         <v>0</v>
       </c>
@@ -6293,7 +6298,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D50" s="5" t="s">
         <v>0</v>
       </c>
@@ -6301,7 +6306,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D51" s="5" t="s">
         <v>0</v>
       </c>
@@ -6309,7 +6314,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D52" s="5" t="s">
         <v>0</v>
       </c>
@@ -6317,7 +6322,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D53" s="5" t="s">
         <v>0</v>
       </c>
@@ -6325,7 +6330,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D54" s="5" t="s">
         <v>0</v>
       </c>
@@ -6333,7 +6338,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D55" s="5" t="s">
         <v>0</v>
       </c>
@@ -6341,7 +6346,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D56" s="5" t="s">
         <v>0</v>
       </c>
@@ -6349,7 +6354,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D57" s="5" t="s">
         <v>0</v>
       </c>
@@ -6357,12 +6362,12 @@
         <v>469</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C59" s="4" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C60" s="4"/>
       <c r="D60" s="10" t="s">
         <v>483</v>
@@ -6371,7 +6376,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C61" s="4"/>
       <c r="D61" s="10" t="s">
         <v>485</v>
@@ -6380,12 +6385,12 @@
         <v>486</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D62" s="4" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D63" s="5" t="s">
         <v>0</v>
       </c>
@@ -6396,7 +6401,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D64" s="5" t="s">
         <v>0</v>
       </c>
@@ -6407,7 +6412,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D65" s="5" t="s">
         <v>0</v>
       </c>
@@ -6418,7 +6423,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D66" s="5" t="s">
         <v>0</v>
       </c>
@@ -6429,7 +6434,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D67" s="5" t="s">
         <v>0</v>
       </c>
@@ -6440,7 +6445,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D68" s="5" t="s">
         <v>0</v>
       </c>
@@ -6451,7 +6456,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D69" s="5" t="s">
         <v>0</v>
       </c>
@@ -6462,7 +6467,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D70" s="5" t="s">
         <v>0</v>
       </c>
@@ -6473,12 +6478,12 @@
         <v>499</v>
       </c>
     </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D71" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D72" s="5" t="s">
         <v>0</v>
       </c>
@@ -6486,12 +6491,12 @@
         <v>405</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E74" s="5" t="s">
         <v>47</v>
       </c>
@@ -6499,7 +6504,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E75" s="5" t="s">
         <v>47</v>
       </c>
@@ -6507,7 +6512,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E76" s="5" t="s">
         <v>47</v>
       </c>
@@ -6515,7 +6520,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E77" s="5" t="s">
         <v>47</v>
       </c>
@@ -6523,7 +6528,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E78" s="5" t="s">
         <v>47</v>
       </c>
@@ -6531,7 +6536,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E79" s="5" t="s">
         <v>47</v>
       </c>
@@ -6539,7 +6544,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E80" s="5" t="s">
         <v>47</v>
       </c>
@@ -6547,7 +6552,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E81" s="5" t="s">
         <v>47</v>
       </c>
@@ -6555,7 +6560,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="82" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E82" s="5" t="s">
         <v>47</v>
       </c>
@@ -6563,7 +6568,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D84" s="4" t="s">
         <v>470</v>
       </c>
@@ -6571,7 +6576,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E85" s="10" t="s">
         <v>471</v>
       </c>
@@ -6579,7 +6584,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E86" s="10" t="s">
         <v>473</v>
       </c>
@@ -6587,7 +6592,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E87" s="10" t="s">
         <v>475</v>
       </c>
@@ -6598,7 +6603,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E88" s="10" t="s">
         <v>477</v>
       </c>
@@ -6606,27 +6611,27 @@
         <v>478</v>
       </c>
     </row>
-    <row r="89" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E89" s="10" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="90" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E90" s="10" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="92" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D92" s="4" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="93" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D93" s="10" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="94" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E94" s="10" t="s">
         <v>501</v>
       </c>
@@ -6634,7 +6639,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="95" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E95" s="10" t="s">
         <v>502</v>
       </c>
@@ -6642,7 +6647,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="96" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E96" s="10" t="s">
         <v>503</v>
       </c>
@@ -6650,22 +6655,22 @@
         <v>506</v>
       </c>
     </row>
-    <row r="97" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E98" s="10" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="99" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="100" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E100" s="10" t="s">
         <v>510</v>
       </c>
@@ -6673,7 +6678,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="101" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
         <v>512</v>
       </c>
@@ -6681,7 +6686,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="102" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E102" s="10" t="s">
         <v>514</v>
       </c>
@@ -6689,7 +6694,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="103" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
         <v>516</v>
       </c>
@@ -6697,7 +6702,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="104" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>518</v>
       </c>
@@ -6705,12 +6710,12 @@
         <v>519</v>
       </c>
     </row>
-    <row r="105" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="106" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E106" s="10" t="s">
         <v>521</v>
       </c>
@@ -6718,7 +6723,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="107" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
         <v>522</v>
       </c>
@@ -6726,7 +6731,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="110" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E110" s="8" t="s">
         <v>525</v>
       </c>
@@ -6736,8 +6741,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I84" r:id="rId1" xr:uid="{4EAE03F9-EF7B-492C-B96E-6DCF7FDD0136}"/>
-    <hyperlink ref="E110" r:id="rId2" xr:uid="{747341AF-227E-4CD5-BC65-C9C7FD006D34}"/>
+    <hyperlink ref="I84" r:id="rId1"/>
+    <hyperlink ref="E110" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -6745,30 +6750,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CE0D02-758E-4162-BEC3-6755D8CFC64E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="F3" s="15" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>487</v>
       </c>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="2:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D5" s="5" t="s">
         <v>0</v>
       </c>
@@ -6777,7 +6782,7 @@
       </c>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="2:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D6" s="5" t="s">
         <v>0</v>
       </c>
@@ -6786,7 +6791,7 @@
       </c>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="2:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
@@ -6795,7 +6800,7 @@
       </c>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="2:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="5" t="s">
         <v>0</v>
       </c>
@@ -6803,7 +6808,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1</v>
       </c>
@@ -6811,7 +6816,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2</v>
       </c>
@@ -6819,7 +6824,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>3</v>
       </c>
@@ -6827,7 +6832,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>192</v>
       </c>
@@ -6835,7 +6840,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>194</v>
       </c>
@@ -6843,7 +6848,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>196</v>
       </c>
@@ -6851,7 +6856,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>197</v>
       </c>
@@ -6859,7 +6864,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>198</v>
       </c>
@@ -6867,7 +6872,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>200</v>
       </c>
@@ -6875,7 +6880,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>4</v>
       </c>
@@ -6883,27 +6888,27 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>208</v>
       </c>
@@ -6911,22 +6916,22 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>5</v>
       </c>
@@ -6934,7 +6939,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>6</v>
       </c>
@@ -6942,7 +6947,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>7</v>
       </c>
@@ -6950,12 +6955,12 @@
         <v>671</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>673</v>
       </c>
@@ -6967,86 +6972,86 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2934C37A-445C-4245-812A-74CBC83B0BE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D5" s="24" t="s">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="23" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E6" s="24" t="s">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="23" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="24" t="s">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="23" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E8" s="24" t="s">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="23" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D10" s="24" t="s">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="23" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="24" t="s">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="23" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E12" s="24" t="s">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="23" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D13" s="24" t="s">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="23" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="24" t="s">
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="23" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E15" s="24" t="s">
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="23" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D16" s="24" t="s">
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="23" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>708</v>
       </c>
@@ -7057,24 +7062,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80774C0A-17D0-43F2-9608-86259E98C230}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G3:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G5">
         <v>1</v>
       </c>
@@ -7085,7 +7090,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G6">
         <v>2</v>
       </c>
@@ -7096,7 +7101,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="7" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G7">
         <v>3</v>
       </c>
@@ -7104,7 +7109,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="8" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>4</v>
       </c>
@@ -7112,7 +7117,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="9" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>5</v>
       </c>
@@ -7120,7 +7125,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="10" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G10">
         <v>6</v>
       </c>
@@ -7132,7 +7137,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="11" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H11" s="4" t="s">
         <v>530</v>
       </c>
@@ -7143,7 +7148,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="12" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H12" s="4" t="s">
         <v>533</v>
       </c>
@@ -7154,7 +7159,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="13" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H13" s="4" t="s">
         <v>535</v>
       </c>
@@ -7165,7 +7170,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H14" s="4" t="s">
         <v>537</v>
       </c>
@@ -7176,7 +7181,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="15" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H15" s="4" t="s">
         <v>539</v>
       </c>
@@ -7194,23 +7199,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B7CBCA-E9B0-47B9-9F69-1C340EBE8449}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="5"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="5"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="9">
         <v>1</v>
       </c>
@@ -7233,7 +7238,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="9">
         <v>2</v>
       </c>
@@ -7253,7 +7258,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <v>3</v>
       </c>
@@ -7282,7 +7287,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>4</v>
       </c>
@@ -7311,7 +7316,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>5</v>
       </c>
@@ -7334,7 +7339,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>6</v>
       </c>
@@ -7360,7 +7365,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>7</v>
       </c>
@@ -7390,7 +7395,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>8</v>
       </c>
@@ -7416,7 +7421,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>9</v>
       </c>
@@ -7442,7 +7447,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <v>10</v>
       </c>
@@ -7468,7 +7473,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>11</v>
       </c>
@@ -7494,7 +7499,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>12</v>
       </c>
@@ -7520,7 +7525,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>13</v>
       </c>
@@ -7540,7 +7545,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>14</v>
       </c>
@@ -7576,7 +7581,7 @@
       </c>
       <c r="R15" s="20"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>15</v>
       </c>
@@ -7612,7 +7617,7 @@
       </c>
       <c r="R16" s="20"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>16</v>
       </c>
@@ -7644,7 +7649,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>17</v>
       </c>
@@ -7676,7 +7681,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>18</v>
       </c>
@@ -7708,7 +7713,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>19</v>
       </c>
@@ -7740,7 +7745,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>20</v>
       </c>
@@ -7772,7 +7777,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>21</v>
       </c>
@@ -7804,7 +7809,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="9">
         <v>22</v>
       </c>
@@ -7836,7 +7841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
         <v>23</v>
       </c>
@@ -7850,7 +7855,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
         <v>24</v>
       </c>
@@ -7864,7 +7869,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
         <v>25</v>
       </c>
@@ -7878,7 +7883,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
         <v>26</v>
       </c>
@@ -7889,7 +7894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="9">
         <v>27</v>
       </c>
@@ -7906,7 +7911,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J29">
         <v>28</v>
       </c>
@@ -7917,7 +7922,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
         <v>592</v>
       </c>
@@ -7925,7 +7930,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
         <v>594</v>
       </c>
@@ -7933,7 +7938,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
         <v>598</v>
       </c>
@@ -7941,7 +7946,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K33" t="s">
         <v>599</v>
       </c>
@@ -7949,7 +7954,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
         <v>601</v>
       </c>
@@ -7957,13 +7962,13 @@
         <v>602</v>
       </c>
     </row>
-    <row r="35" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
         <v>603</v>
       </c>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
         <v>604</v>
       </c>
@@ -7971,7 +7976,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="37" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K37" t="s">
         <v>606</v>
       </c>
@@ -7979,7 +7984,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="38" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K38" t="s">
         <v>620</v>
       </c>
@@ -7987,7 +7992,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="39" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K39" t="s">
         <v>623</v>
       </c>
@@ -7995,7 +8000,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="40" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
         <v>630</v>
       </c>
@@ -8003,7 +8008,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="41" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
         <v>632</v>
       </c>

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="712" firstSheet="1" activeTab="14"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <sheet name="mysql" sheetId="7" r:id="rId13"/>
     <sheet name="git" sheetId="8" r:id="rId14"/>
     <sheet name="plugin" sheetId="18" r:id="rId15"/>
-    <sheet name="tiêu chuẩn code" sheetId="9" r:id="rId16"/>
+    <sheet name="REST API" sheetId="19" r:id="rId16"/>
+    <sheet name="shopify" sheetId="21" r:id="rId17"/>
+    <sheet name="tiêu chuẩn code" sheetId="9" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="768">
   <si>
     <t>-</t>
   </si>
@@ -2272,6 +2274,87 @@
   </si>
   <si>
     <t>user/pass postman : phandong7522/phandong752</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>REST APIT của wr</t>
+  </si>
+  <si>
+    <t>REST API chung</t>
+  </si>
+  <si>
+    <t>REST API hoạt động băng cách xử lí dữ liệu từ một nơi tới 1 nơi khác mà không cần truy cập trực tiếp cào DB hoặc giao diện người dùng</t>
+  </si>
+  <si>
+    <t>API là 1 tập hợp cá quy tắc và cơ chế mà theo đó, 1 ứng dụng là tương tác qua lại với 1 ứng dụng khác, rồi nó sẽ trả về dữ liệu mà bạn cần cho trang web(phổ biến XML , JSON)</t>
+  </si>
+  <si>
+    <t>REST là sử dụng phương thức HTTP đơn giản để giao tiếp giữa các máy với nhau. REST gửi 1 yêu cầu HTTP(get post delete put) đến 1 url để xử lí dữ liệu</t>
+  </si>
+  <si>
+    <t>RESTful API tiêu chuẩn để thiết kế REST API</t>
+  </si>
+  <si>
+    <t>- routes và endpoitns</t>
+  </si>
+  <si>
+    <t>+ route đại diện cho: bài viết, trang, danh mục, người dùng...</t>
+  </si>
+  <si>
+    <t>+ endpoints: các phương thức HTTP như GET, POST, PUT, DELETE...Ví dụ, một endpoint có thể là wp-json/wp/V2/posts để truy cập danh sách các bài viết trên WordPress.</t>
+  </si>
+  <si>
+    <t>- Requests. Được tạo ra để kích hoạt đúng endpoints và chuyển dữ liệu đi.</t>
+  </si>
+  <si>
+    <t>- Responses. Cung cấp dữ liệu Được yêu cầu hoặc trả về lỗi để bạn biết có gì đó không đúng.</t>
+  </si>
+  <si>
+    <t>- Schemas. Những mẫu responses, để bạn luôn biết chính xác nơi nào cần tìm cho ra đúng dữ liệu.</t>
+  </si>
+  <si>
+    <t>- Controller classes. Trong điều kiện của layman, họ cho phép dựng route và endpoint riêng. Bây giờ, bạn không cần phải nghĩ tới Những điều này, mặc dù có thể chúng sẽ hữu dụng sau này.</t>
+  </si>
+  <si>
+    <t>test trên mọi ngôn ngữ</t>
+  </si>
+  <si>
+    <t>ỦI : Ví dụ: URI /wp-json/wp/v2/posts định danh tài nguyên của bài đăng trong WordPress.</t>
+  </si>
+  <si>
+    <t>method: get, post, put, delete</t>
+  </si>
+  <si>
+    <t>url: domain-&gt;path,parameter, query string</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>shopify là 1 nền tảng thương mại điện tử, cho phép ng dùng tạo cửa hàng trực tuyến, quản lí sản phẩm, xử lí thanh toán và giao hàng</t>
+  </si>
+  <si>
+    <t>khái niệm</t>
+  </si>
+  <si>
+    <t>nó là nền tảng thương mại điện tử độc lập</t>
+  </si>
+  <si>
+    <t>cài đặt môi trường</t>
+  </si>
+  <si>
+    <t>tài liệu shopify theme</t>
+  </si>
+  <si>
+    <t>xem trước thay đổi mã ở local</t>
+  </si>
+  <si>
+    <t>tải mã lên shopift và xuất bản theme</t>
   </si>
 </sst>
 </file>
@@ -4865,8 +4948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5002,6 +5085,210 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2" t="s">
+        <v>743</v>
+      </c>
+      <c r="F2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="23" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="23" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="23" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="23" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="23" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="23" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="23" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:G58"/>
   <sheetViews>

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -36,21 +36,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="852">
   <si>
     <t>-</t>
   </si>
@@ -2355,6 +2346,273 @@
   </si>
   <si>
     <t>tải mã lên shopift và xuất bản theme</t>
+  </si>
+  <si>
+    <t>có thể miễn phí hoặc có phí</t>
+  </si>
+  <si>
+    <t>ko giới hạn băng thông</t>
+  </si>
+  <si>
+    <t>bảo mật, shopify nó tự bảo mật cho bạn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node.js là một nền tảng phát triển ứng dụng web mã nguồn mở được xây dựng dựa trên JavaScript runtime của Chrome (V8 Engine). Node.js cho phép thực thi mã JavaScript ở phía máy chủ thay vì chỉ ở phía trình duyệt, giúp xây dựng các ứng dụng web động mạnh và hiệu quả. laf </t>
+  </si>
+  <si>
+    <t>cài node.js</t>
+  </si>
+  <si>
+    <t>cài ruby</t>
+  </si>
+  <si>
+    <t>cài git</t>
+  </si>
+  <si>
+    <t>cài bundler</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">có git rồi thì cập nhật </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git clone https://github.com/git/git</t>
+    </r>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>khởi tạo theme mới sử dụng dawn</t>
+  </si>
+  <si>
+    <t>các lệnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chuyển đường dẫn </t>
+  </si>
+  <si>
+    <t>cd /d "D:\Shopify"\</t>
+  </si>
+  <si>
+    <t>shopify theme init</t>
+  </si>
+  <si>
+    <t>tạo thư mục</t>
+  </si>
+  <si>
+    <t>cd "my-new-theme"</t>
+  </si>
+  <si>
+    <t>shopify theme dev --store {store-name}</t>
+  </si>
+  <si>
+    <t>Shopify CLI là tập hợp các câu lệnh để tương tác với shopify web</t>
+  </si>
+  <si>
+    <t>sử dụng lệnh để git clone theme dawn về máy local</t>
+  </si>
+  <si>
+    <t>thiết lập môi trường</t>
+  </si>
+  <si>
+    <t>xem trước theme ở local, thay đổi chỉnh sửa, rồi đẩy lên sever</t>
+  </si>
+  <si>
+    <t>tối ưu hóa theme của bạn</t>
+  </si>
+  <si>
+    <t>các quy tắc về theme của shopify</t>
+  </si>
+  <si>
+    <t>shopify xây dựng bằng liquid html css javascript và json</t>
+  </si>
+  <si>
+    <t>tạo môi trường shopify cli</t>
+  </si>
+  <si>
+    <t>npm install -g @shopify/cli @shopify/theme</t>
+  </si>
+  <si>
+    <t>khởi tạo shopify</t>
+  </si>
+  <si>
+    <t>truy cập vào cửa hàng shopify</t>
+  </si>
+  <si>
+    <t>shopify theme dev --store https://shoppingssssss.myshopify.com/</t>
+  </si>
+  <si>
+    <t>đăng lên lần đầu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shopify theme push --unpublished
+</t>
+  </si>
+  <si>
+    <t>cập nhật đăng lên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shopify theme push
+</t>
+  </si>
+  <si>
+    <t>tất cả các mẫu được hiển thị tại đây như header, footer</t>
+  </si>
+  <si>
+    <t>json template được chỉ định sử dụng the layout attribute</t>
+  </si>
+  <si>
+    <t>liquid template được chỉ định sử dụng the layout liquid tag</t>
+  </si>
+  <si>
+    <t>có thể tạo thêm nhiều file tùy chỉnh để phù hợp hơn với nhu cầu</t>
+  </si>
+  <si>
+    <t>có thể chỉ định bố cục nào sẽ được sử dụng</t>
+  </si>
+  <si>
+    <t>{% layout name %}</t>
+  </si>
+  <si>
+    <t>1. assets: Thư mục này chứa các tệp tài nguyên như hình ảnh, font chữ, file CSS và JavaScript được sử dụng trong theme.</t>
+  </si>
+  <si>
+    <t>2. config: Thư mục này chứa các file cấu hình cho theme, bao gồm các file JSON để cấu hình các tính năng và tùy chọn của theme.</t>
+  </si>
+  <si>
+    <t>3. layout: Thư mục này chứa các file layout mặc định của trang web, bao gồm các file template cho trang chủ, trang sản phẩm, trang danh mục, v.v.</t>
+  </si>
+  <si>
+    <t>4. sections: Thư mục này chứa các file sections, là các phần tái sử dụng có thể được thêm vào các trang để hiển thị các phần như tiêu đề, slider, sản phẩm nổi bật, v.v.</t>
+  </si>
+  <si>
+    <t>5. snippets: Thư mục này chứa các file snippet, là các đoạn mã tái sử dụng nhỏ hơn có thể được gọi từ các template hoặc sections.</t>
+  </si>
+  <si>
+    <t>6. templates: Thư mục này chứa các file template cho các trang cụ thể, ví dụ như template cho trang chủ, trang sản phẩm, trang danh mục, v.v.</t>
+  </si>
+  <si>
+    <t>7. locales: Thư mục này chứa các file ngôn ngữ để hỗ trợ đa ngôn ngữ trên trang web.</t>
+  </si>
+  <si>
+    <t>8. config.yml: File này chứa cấu hình chung cho theme, bao gồm các thông tin như tên theme, tác giả, phiên bản, v.v.</t>
+  </si>
+  <si>
+    <t>khi truy cập vào website thì theme.liquid sẽ được load đầu tiên</t>
+  </si>
+  <si>
+    <t>Liquid là ngôn ngữ template engine được sử dụng rộng rãi trong các hệ thống CMS như Shopify, Jekyll, và nhiều hệ thống khác. Liquid cho phép bạn tạo các template linh hoạt bằng cách sử dụng các biến, hàm, và cú pháp đơn giản để hiển thị dữ liệu và quản lý giao diện trang web.</t>
+  </si>
+  <si>
+    <t>Liquid hỗ trợ nhiều tính năng mạnh mẽ như:</t>
+  </si>
+  <si>
+    <t>1. Biến: Bạn có thể sử dụng biến để lưu trữ và hiển thị dữ liệu như tên sản phẩm, giá sản phẩm, v.v.</t>
+  </si>
+  <si>
+    <t>2. Filters: Filters cho phép bạn xử lý và định dạng dữ liệu trước khi hiển thị, ví dụ: chuyển đổi chữ hoa thành chữ thường.</t>
+  </si>
+  <si>
+    <t>3. Tags: Tags là các cú pháp đặc biệt để thực hiện các hành động như vòng lặp, điều kiện, include file, v.v.</t>
+  </si>
+  <si>
+    <t>4. Blocks: Blocks cho phép bạn tạo các khối mã có thể được mở rộng và ghi đè trong các template khác.</t>
+  </si>
+  <si>
+    <t>5. Comments: Bạn có thể thêm comment vào code Liquid để giúp giải thích và tổ chức mã code một cách dễ dàng.</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>Shopify sử dụng JSON (JavaScript Object Notation) để lưu trữ và truy xuất dữ liệu trong hệ thống của mình vì một số lý do sau:</t>
+  </si>
+  <si>
+    <t>1. Đơn giản và dễ đọc: JSON là một định dạng dữ liệu rất đơn giản và dễ đọc cho cả con người và máy tính. Dữ liệu được lưu trữ dưới dạng cặp key-value, giúp dễ dàng hiểu và xử lý.</t>
+  </si>
+  <si>
+    <t>2. Dễ dàng tích hợp với JavaScript: Shopify, giống như nhiều trang web khác, thường sử dụng JavaScript để tạo ra các chức năng tương tác trên trang web. JSON là một định dạng dữ liệu phù hợp với JavaScript, giúp việc truy xuất và xử lý dữ liệu trở nên thuận lợi.</t>
+  </si>
+  <si>
+    <t>3. Hỗ trợ RESTful API: JSON thường được sử dụng trong việc truyền tải dữ liệu qua mạng thông qua RESTful API. Shopify cung cấp API cho các developer để tương tác với dữ liệu trên hệ thống của họ, và JSON là một định dạng dữ liệu phổ biến được sử dụng trong các yêu cầu và phản hồi của API.</t>
+  </si>
+  <si>
+    <t>4. Khả năng mở rộng: JSON là một định dạng linh hoạt và dễ mở rộng. Khi Shopify cần thêm thông tin hoặc tính năng mới, họ có thể dễ dàng mở rộng cấu trúc JSON mà không cần thay đổi nhiều trong hệ thống hiện tại.</t>
+  </si>
+  <si>
+    <t>5. Hiệu suất: JSON là một định dạng dữ liệu nhẹ và hiệu quả, giúp giảm tải cho hệ thống và tăng tốc độ truy xuất dữ liệu.</t>
+  </si>
+  <si>
+    <t>Tóm lại, việc sử dụng JSON trong Shopify giúp cho việc lưu trữ, truy xuất và tương tác với dữ liệu trở nên dễ dàng, linh hoạt và hiệu quả.</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>custom JS</t>
+  </si>
+  <si>
+    <t>tạo child theme</t>
+  </si>
+  <si>
+    <t>Shopify Script Editor:</t>
+  </si>
+  <si>
+    <t>hook</t>
+  </si>
+  <si>
+    <t>cài đặt paypal</t>
+  </si>
+  <si>
+    <t>nếu tài khoản mail đăng nhập, đã đăng kí paypal thì sử dụng luôn</t>
+  </si>
+  <si>
+    <t>bật test mode hoặc sandbox</t>
+  </si>
+  <si>
+    <t>phương thức vận chuyển</t>
+  </si>
+  <si>
+    <t>phương thức thanh toán</t>
+  </si>
+  <si>
+    <t>trọng lượng, địa điểm, thời gian, theo lượng tiền mua</t>
+  </si>
+  <si>
+    <t>tích hợp các hãng vận chuyển grap, uber</t>
+  </si>
+  <si>
+    <t>tài khoản paypal</t>
+  </si>
+  <si>
+    <t>phandong752@gmail.com/phandong752</t>
+  </si>
+  <si>
+    <t>tài khoản stripe</t>
+  </si>
+  <si>
+    <t>phandong752@gmail.com/phandong75222222222222</t>
+  </si>
+  <si>
+    <t>tài khoản paypal người mua</t>
+  </si>
+  <si>
+    <t>phandong.hungthinhme@gmail.com/phandong752</t>
+  </si>
+  <si>
+    <t>tài khoản shopify site shopingssssss</t>
+  </si>
+  <si>
+    <t>phandong752@gmail.com/123456789</t>
   </si>
 </sst>
 </file>
@@ -2484,7 +2742,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2533,6 +2791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2780,6 +3039,49 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>351259</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10353675" y="7019925"/>
+          <a:ext cx="2799184" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3385,7 +3687,7 @@
       <c r="C26">
         <v>12</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="27" t="s">
         <v>182</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -3396,7 +3698,7 @@
       <c r="C27">
         <v>13</v>
       </c>
-      <c r="D27" s="26"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="8" t="s">
         <v>184</v>
       </c>
@@ -5233,15 +5535,15 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:W94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>762</v>
       </c>
@@ -5252,7 +5554,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -5260,31 +5562,493 @@
         <v>763</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>767</v>
       </c>
+      <c r="M8" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>772</v>
+      </c>
+      <c r="P13" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>773</v>
+      </c>
+      <c r="P14" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>774</v>
+      </c>
+      <c r="P15" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>775</v>
+      </c>
+      <c r="P16" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="21" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="22" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>780</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="23" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>793</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="24" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>795</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="25" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="26" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>785</v>
+      </c>
+      <c r="W26" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="27" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>798</v>
+      </c>
+      <c r="Q27" s="26" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="28" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q28" s="26" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="31" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="32" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>6</v>
+      </c>
+      <c r="K36" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="45" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>804</v>
+      </c>
+      <c r="R46" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="47" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="48" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D73" s="4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D79" s="4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D82" s="4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E88" s="8" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E90" s="8" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E92" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E94" s="8" t="s">
+        <v>851</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E88" r:id="rId1"/>
+    <hyperlink ref="E90" r:id="rId2"/>
+    <hyperlink ref="E92" r:id="rId3"/>
+    <hyperlink ref="E94" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="873">
   <si>
     <t>-</t>
   </si>
@@ -2585,9 +2585,6 @@
     <t>phương thức thanh toán</t>
   </si>
   <si>
-    <t>trọng lượng, địa điểm, thời gian, theo lượng tiền mua</t>
-  </si>
-  <si>
     <t>tích hợp các hãng vận chuyển grap, uber</t>
   </si>
   <si>
@@ -2613,13 +2610,79 @@
   </si>
   <si>
     <t>phandong752@gmail.com/123456789</t>
+  </si>
+  <si>
+    <t>ko giao ở những thị trường cấm, ko hoạt động</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 phương thức vận chuyển chính </t>
+  </si>
+  <si>
+    <t>vận chuyển</t>
+  </si>
+  <si>
+    <t>giao hàng tận nơi</t>
+  </si>
+  <si>
+    <t>đến nơi lấy hàng</t>
+  </si>
+  <si>
+    <t>một số lưu ý</t>
+  </si>
+  <si>
+    <t>thay đổi ngôn ngữ có thể mất 1 số thông tin ở cửa hàng</t>
+  </si>
+  <si>
+    <t>cài plugin thay đổi ngôn ngữ</t>
+  </si>
+  <si>
+    <t>cài plugin thời gian giao hàng</t>
+  </si>
+  <si>
+    <t>cài plugin thuế cho full quốc gia</t>
+  </si>
+  <si>
+    <t>cài plugin cho bên dịch vụ giao hàng</t>
+  </si>
+  <si>
+    <t>theo mức độ hóa đơn</t>
+  </si>
+  <si>
+    <t>theo khu vực: nội địa hoặc quốc tế</t>
+  </si>
+  <si>
+    <t>theo nhóm sản phẩm: dỡ vỡ, cao tiền</t>
+  </si>
+  <si>
+    <t>1 sản phẩm chỉ thuộc trong 1 gói thôi, nhiều gói nó sẽ cộng gộp phí giao hàng</t>
+  </si>
+  <si>
+    <t>theo trọng lượng (kg)</t>
+  </si>
+  <si>
+    <t>setup theo các tính chất</t>
+  </si>
+  <si>
+    <t>cửa hàng tự tính phí</t>
+  </si>
+  <si>
+    <t>kết nối với dịch vụ giao hàng: phải nâng cấp gói shopify lên</t>
+  </si>
+  <si>
+    <t>gói hàng…</t>
+  </si>
+  <si>
+    <t>App shipping "FedEx by Shippo"</t>
+  </si>
+  <si>
+    <t>App shipping "UPS"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2699,6 +2762,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2742,7 +2811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2795,6 +2864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3070,6 +3140,44 @@
         <a:xfrm>
           <a:off x="10353675" y="7019925"/>
           <a:ext cx="2799184" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>279199</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848725" y="15220950"/>
+          <a:ext cx="7889674" cy="4019550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5535,10 +5643,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W94"/>
+  <dimension ref="B2:W114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+      <selection activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5976,7 +6084,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>0</v>
       </c>
@@ -5984,67 +6092,221 @@
         <v>839</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D82" s="4" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
+    <row r="83" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D83" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="28" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="84" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D84" s="5"/>
+      <c r="F84" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="85" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D85" s="5"/>
+      <c r="G85" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q85" s="4"/>
+    </row>
+    <row r="86" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D86" s="5"/>
+      <c r="G86" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="87" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D87" s="5"/>
+      <c r="G87" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="88" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D88" s="5"/>
+      <c r="H88" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="89" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D89" s="5"/>
+      <c r="G89" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="90" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D90" s="5"/>
+      <c r="G90" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="91" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D91" s="5"/>
+      <c r="G91" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="92" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D92" s="5"/>
+      <c r="G92" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="93" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D93" s="5"/>
+      <c r="G93" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
+    <row r="94" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D94" s="5"/>
+      <c r="G94" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="95" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D95" s="5"/>
+      <c r="G95" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="96" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D96" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E97" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E98" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E99" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
+    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E101" s="8" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E88" s="8" t="s">
+    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
+    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E103" s="8" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E90" s="8" t="s">
+    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D91" t="s">
+    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E105" s="8" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E92" s="8" t="s">
+    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
+    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E107" s="8" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E94" s="8" t="s">
-        <v>851</v>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>861</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E88" r:id="rId1"/>
-    <hyperlink ref="E90" r:id="rId2"/>
-    <hyperlink ref="E92" r:id="rId3"/>
-    <hyperlink ref="E94" r:id="rId4"/>
+    <hyperlink ref="E101" r:id="rId1"/>
+    <hyperlink ref="E103" r:id="rId2"/>
+    <hyperlink ref="E105" r:id="rId3"/>
+    <hyperlink ref="E107" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="1245">
   <si>
     <t>-</t>
   </si>
@@ -3810,6 +3810,9 @@
   </si>
   <si>
     <t>php artisan breeze:install</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -9361,10 +9364,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:X140"/>
+  <dimension ref="D2:X143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="J147" sqref="J147"/>
+      <selection activeCell="T140" sqref="T140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10158,7 +10161,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="130" spans="4:8">
+    <row r="130" spans="4:17">
       <c r="D130" t="s">
         <v>1230</v>
       </c>
@@ -10166,7 +10169,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="131" spans="4:8">
+    <row r="131" spans="4:17">
       <c r="D131" t="s">
         <v>1232</v>
       </c>
@@ -10174,7 +10177,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="132" spans="4:8">
+    <row r="132" spans="4:17">
       <c r="D132" t="s">
         <v>1233</v>
       </c>
@@ -10182,7 +10185,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="133" spans="4:8">
+    <row r="133" spans="4:17">
       <c r="D133" t="s">
         <v>1235</v>
       </c>
@@ -10190,12 +10193,12 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="135" spans="4:8">
+    <row r="135" spans="4:17">
       <c r="D135" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="136" spans="4:8">
+    <row r="136" spans="4:17">
       <c r="D136">
         <v>1</v>
       </c>
@@ -10203,7 +10206,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="137" spans="4:8">
+    <row r="137" spans="4:17">
       <c r="D137">
         <v>2</v>
       </c>
@@ -10211,19 +10214,24 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="138" spans="4:8">
+    <row r="138" spans="4:17">
       <c r="D138" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="139" spans="4:8">
+    <row r="139" spans="4:17">
       <c r="E139" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="140" spans="4:8">
+    <row r="140" spans="4:17">
       <c r="E140" t="s">
         <v>1243</v>
+      </c>
+    </row>
+    <row r="143" spans="4:17">
+      <c r="Q143" t="s">
+        <v>1244</v>
       </c>
     </row>
   </sheetData>

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="1244">
   <si>
     <t>-</t>
   </si>
@@ -3810,9 +3810,6 @@
   </si>
   <si>
     <t>php artisan breeze:install</t>
-  </si>
-  <si>
-    <t>f</t>
   </si>
 </sst>
 </file>
@@ -9364,10 +9361,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:X143"/>
+  <dimension ref="D2:X140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="T140" sqref="T140"/>
+      <selection activeCell="R145" sqref="R145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10161,7 +10158,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="130" spans="4:17">
+    <row r="130" spans="4:8">
       <c r="D130" t="s">
         <v>1230</v>
       </c>
@@ -10169,7 +10166,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="131" spans="4:17">
+    <row r="131" spans="4:8">
       <c r="D131" t="s">
         <v>1232</v>
       </c>
@@ -10177,7 +10174,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="132" spans="4:17">
+    <row r="132" spans="4:8">
       <c r="D132" t="s">
         <v>1233</v>
       </c>
@@ -10185,7 +10182,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="133" spans="4:17">
+    <row r="133" spans="4:8">
       <c r="D133" t="s">
         <v>1235</v>
       </c>
@@ -10193,12 +10190,12 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="135" spans="4:17">
+    <row r="135" spans="4:8">
       <c r="D135" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="136" spans="4:17">
+    <row r="136" spans="4:8">
       <c r="D136">
         <v>1</v>
       </c>
@@ -10206,7 +10203,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="137" spans="4:17">
+    <row r="137" spans="4:8">
       <c r="D137">
         <v>2</v>
       </c>
@@ -10214,24 +10211,19 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="138" spans="4:17">
+    <row r="138" spans="4:8">
       <c r="D138" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="139" spans="4:17">
+    <row r="139" spans="4:8">
       <c r="E139" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="140" spans="4:17">
+    <row r="140" spans="4:8">
       <c r="E140" t="s">
         <v>1243</v>
-      </c>
-    </row>
-    <row r="143" spans="4:17">
-      <c r="Q143" t="s">
-        <v>1244</v>
       </c>
     </row>
   </sheetData>

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="1325">
   <si>
     <t>-</t>
   </si>
@@ -3496,13 +3496,7 @@
     <t>các lỗi</t>
   </si>
   <si>
-    <t>chưa tạo db, sai name pass</t>
-  </si>
-  <si>
     <t>2 máy tính khác version php, vào  Control Panel -&gt; System and Security -&gt; System -&gt; Advanced system settings-&gt;advanced-&gt;edit và tạo path</t>
-  </si>
-  <si>
-    <t>chưa hiểu về service container lắm</t>
   </si>
   <si>
     <t>relationship</t>
@@ -3810,6 +3804,255 @@
   </si>
   <si>
     <t>php artisan breeze:install</t>
+  </si>
+  <si>
+    <t>OneUi</t>
+  </si>
+  <si>
+    <t>có win và macoss</t>
+  </si>
+  <si>
+    <t>có 3 bản</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>Starter kit</t>
+  </si>
+  <si>
+    <t>chạy cùng với laravel starter kit</t>
+  </si>
+  <si>
+    <t>thêm config ở trong vite.config.js</t>
+  </si>
+  <si>
+    <t>phải cài node: node install và npm run build, để tạo ra thử mục public/build</t>
+  </si>
+  <si>
+    <t>có thể lấy 100% của nó chạy luôn, hoặc copy những thứ cần qua dự án của mình</t>
+  </si>
+  <si>
+    <t>factory</t>
+  </si>
+  <si>
+    <t>mục này để fake dữ liệu Api</t>
+  </si>
+  <si>
+    <t>LARAVEL</t>
+  </si>
+  <si>
+    <t>nó kết hợp với React.js, node.js, next.js</t>
+  </si>
+  <si>
+    <t>1. Vue.js: Laravel đi kèm với Laravel Mix, một công cụ xây dựng asset pipeline, giúp tích hợp Vue.js vào dự án Laravel một cách dễ dàng.</t>
+  </si>
+  <si>
+    <t>2. React: Laravel cũng có thể kết hợp với React thông qua Laravel Mix hoặc sử dụng các công cụ khác như Laravel React Preset.</t>
+  </si>
+  <si>
+    <t>3. Angular: Mặc dù Angular không phải là lựa chọn phổ biến nhất khi kết hợp với Laravel, nhưng vẫn có thể tích hợp Angular vào dự án Laravel thông qua Laravel Mix hoặc cấu hình tùy chỉnh.</t>
+  </si>
+  <si>
+    <t>4. jQuery: jQuery là một thư viện JavaScript phổ biến và Laravel cũng có thể kết hợp với jQuery để xử lý các tác vụ front-end đơn giản.</t>
+  </si>
+  <si>
+    <t>5. Axios: Laravel thường sử dụng Axios để thực hiện các yêu cầu HTTP từ phía client đến server.</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>đầu tiên là thêm bài viết mới</t>
+  </si>
+  <si>
+    <t>tiêu đề</t>
+  </si>
+  <si>
+    <t>tác giả</t>
+  </si>
+  <si>
+    <t>ngày đăng</t>
+  </si>
+  <si>
+    <t>nội dung ngắn</t>
+  </si>
+  <si>
+    <t>nội dung chính</t>
+  </si>
+  <si>
+    <t>danh mục</t>
+  </si>
+  <si>
+    <t>ngày cập nhật</t>
+  </si>
+  <si>
+    <t>tên</t>
+  </si>
+  <si>
+    <t>trạng thái</t>
+  </si>
+  <si>
+    <t>danh mục cha</t>
+  </si>
+  <si>
+    <t>ngày tạo</t>
+  </si>
+  <si>
+    <t>chức năng</t>
+  </si>
+  <si>
+    <t>hiển thị</t>
+  </si>
+  <si>
+    <t>thêm</t>
+  </si>
+  <si>
+    <t>sửa</t>
+  </si>
+  <si>
+    <t>xóa</t>
+  </si>
+  <si>
+    <t>cập nhật</t>
+  </si>
+  <si>
+    <t>tìm kiếm: theo tên, theo danh mục</t>
+  </si>
+  <si>
+    <t>render UI</t>
+  </si>
+  <si>
+    <t>tạo mirgration, bảng trong phpadmin</t>
+  </si>
+  <si>
+    <t>tạo routes</t>
+  </si>
+  <si>
+    <t>tạo views</t>
+  </si>
+  <si>
+    <t>xử lí upload ảnh</t>
+  </si>
+  <si>
+    <t>xử lí logic crud</t>
+  </si>
+  <si>
+    <t>login authen</t>
+  </si>
+  <si>
+    <t>cách tạo bảng</t>
+  </si>
+  <si>
+    <t>php artisan make:migration create_posts</t>
+  </si>
+  <si>
+    <t>schema để tạo cấu trúc cột</t>
+  </si>
+  <si>
+    <t>php artisan migrate đẩy lên phpadmin</t>
+  </si>
+  <si>
+    <t>php artisan migrate:refresh xóa dữ liệu trong phpadmin</t>
+  </si>
+  <si>
+    <t>lưu ý chạy bảng có khóa chính trước, rồi mới chạy bảng có khóa phụ sau</t>
+  </si>
+  <si>
+    <t>trong model sẽ tạo mối quan hệ</t>
+  </si>
+  <si>
+    <t>tạo crud trong đây</t>
+  </si>
+  <si>
+    <t>lưu</t>
+  </si>
+  <si>
+    <t>khi tải ảnh lên lưu vào db, chỉ lưu link ảnh, ko lưu trực tiếp ảnh</t>
+  </si>
+  <si>
+    <t>lưu hình ảnh vào folder storage</t>
+  </si>
+  <si>
+    <t>khi lấy ra thì phải từ link truy xuất ra hình ảnh để hiển thị lên UI</t>
+  </si>
+  <si>
+    <t>kiểm tra đường link của thư mục "storage"</t>
+  </si>
+  <si>
+    <t>kết quả: [C:\xampp\htdocs\laravel-crud-api\storage\app/public</t>
+  </si>
+  <si>
+    <t>php artisan storage:link</t>
+  </si>
+  <si>
+    <t>ngrok</t>
+  </si>
+  <si>
+    <t>tạo tài khoản, window</t>
+  </si>
+  <si>
+    <t>tải ngrok về máy https://ngrok.com/download</t>
+  </si>
+  <si>
+    <t>chạy lệnh lấy auth ngrok config add-authtoken 2gVUkPLpXJbZcDuO3iV0rkM1CHu_5EAWzpZ7chRk5ayiqTWda</t>
+  </si>
+  <si>
+    <t>hiển thị lên online ngrok http http://localhost:8000</t>
+  </si>
+  <si>
+    <t>cập nhật phiên bản với lệnh ngrok update</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> composer require cviebrock/eloquent-sluggable:^10</t>
+  </si>
+  <si>
+    <t>lệnh cài package "eloquent-sluggable"</t>
+  </si>
+  <si>
+    <t>php artisan --version</t>
+  </si>
+  <si>
+    <t>lệnh check phiên bản laravel</t>
+  </si>
+  <si>
+    <t>cài elequent</t>
+  </si>
+  <si>
+    <t>php artisan vendor:publish --provider="Cviebrock\EloquentSluggable\ServiceProvider"</t>
+  </si>
+  <si>
+    <t>lệnh tạo thư mục Auth</t>
+  </si>
+  <si>
+    <t>chạy ngrok</t>
+  </si>
+  <si>
+    <t>C:\Users\Fgc Dev\Downloads\ngrok-v3-stable-windows-amd64</t>
+  </si>
+  <si>
+    <t>chạy vào dưới vào gõ cmd</t>
+  </si>
+  <si>
+    <t>tiếp tục gõ</t>
+  </si>
+  <si>
+    <t>ngrok http --domain=fond-eminent-molly.ngrok-free.app 8000</t>
+  </si>
+  <si>
+    <t>trait</t>
+  </si>
+  <si>
+    <t>trait là một cấu trúc cho phép bạn tái sử dụng các phương thức trong các lớp khác nhau mà không cần kế thừa từ một lớp cha chung. Trait cho phép bạn "mix in" các phương thức và thuộc tính vào các lớp mà không làm tăng độ phức tạp của kế thừa đa cấp (multiple inheritance).</t>
+  </si>
+  <si>
+    <t>Khi một lớp sử dụng trait, nó có thể sử dụng tất cả các phương thức và thuộc tính được định nghĩa trong trait đó như chúng được định nghĩa trong lớp đó. Điều này giúp tăng tính linh hoạt và tái sử dụng code trong ứng dụng.</t>
+  </si>
+  <si>
+    <t>php artisan make:policy PostPolicy --model=Post</t>
+  </si>
+  <si>
+    <t>tạo postplolicy</t>
   </si>
 </sst>
 </file>
@@ -4050,13 +4293,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -4988,7 +5231,7 @@
       <c r="C26">
         <v>12</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="35" t="s">
         <v>180</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -4999,7 +5242,7 @@
       <c r="C27">
         <v>13</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="8" t="s">
         <v>182</v>
       </c>
@@ -5318,7 +5561,7 @@
   <dimension ref="B2:X41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9361,10 +9604,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:X140"/>
+  <dimension ref="D2:X192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="R145" sqref="R145"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="P80" sqref="P80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9573,662 +9816,1082 @@
         <v>1099</v>
       </c>
     </row>
+    <row r="52" spans="4:24">
+      <c r="D52" s="4" t="s">
+        <v>1253</v>
+      </c>
+    </row>
     <row r="53" spans="4:24">
       <c r="E53" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G53" t="s">
-        <v>1109</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="54" spans="4:24">
-      <c r="E54" t="s">
-        <v>1110</v>
-      </c>
       <c r="F54" t="s">
-        <v>1111</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="55" spans="4:24">
-      <c r="E55" t="s">
-        <v>1112</v>
+      <c r="F55" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="56" spans="4:24">
-      <c r="E56" t="s">
-        <v>1125</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>1101</v>
-      </c>
-      <c r="X56" t="s">
-        <v>1100</v>
+      <c r="F56" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="57" spans="4:24">
-      <c r="D57" s="4" t="s">
-        <v>1113</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>1102</v>
-      </c>
-      <c r="X57" t="s">
-        <v>1103</v>
+      <c r="F57" t="s">
+        <v>1258</v>
       </c>
     </row>
     <row r="58" spans="4:24">
-      <c r="E58" t="s">
-        <v>1114</v>
-      </c>
       <c r="F58" t="s">
-        <v>1120</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>1104</v>
-      </c>
-      <c r="X58" t="s">
-        <v>1105</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="59" spans="4:24">
-      <c r="E59" t="s">
-        <v>354</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1121</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>1106</v>
-      </c>
-      <c r="X59" t="s">
-        <v>1107</v>
+      <c r="D59" s="4" t="s">
+        <v>1260</v>
       </c>
     </row>
     <row r="60" spans="4:24">
       <c r="E60" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1122</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>1133</v>
-      </c>
-      <c r="X60" t="s">
-        <v>1132</v>
+        <v>1108</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="61" spans="4:24">
       <c r="E61" t="s">
-        <v>1116</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>1136</v>
-      </c>
-      <c r="X61" t="s">
-        <v>1137</v>
+        <v>1110</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="62" spans="4:24">
       <c r="E62" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>1138</v>
-      </c>
-      <c r="X62" t="s">
-        <v>1139</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="63" spans="4:24">
       <c r="E63" t="s">
-        <v>1117</v>
+        <v>1125</v>
       </c>
       <c r="Q63" t="s">
-        <v>1155</v>
+        <v>1101</v>
       </c>
       <c r="X63" t="s">
-        <v>1156</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="64" spans="4:24">
       <c r="E64" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1123</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>1158</v>
-      </c>
-      <c r="X64" t="s">
-        <v>1159</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="65" spans="4:24">
       <c r="E65" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F65" t="s">
-        <v>1124</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>1162</v>
-      </c>
-      <c r="X65" t="s">
-        <v>1163</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="66" spans="4:24">
       <c r="E66" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F66" t="s">
-        <v>1127</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>1188</v>
-      </c>
-      <c r="X66" t="s">
-        <v>1189</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="67" spans="4:24">
-      <c r="E67" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F67" t="s">
-        <v>1129</v>
+      <c r="D67" s="4" t="s">
+        <v>1113</v>
       </c>
       <c r="Q67" t="s">
-        <v>1190</v>
+        <v>1102</v>
       </c>
       <c r="X67" t="s">
-        <v>1191</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="68" spans="4:24">
       <c r="E68" t="s">
-        <v>1130</v>
+        <v>1114</v>
       </c>
       <c r="F68" t="s">
-        <v>1131</v>
-      </c>
-      <c r="Q68" s="36" t="s">
-        <v>1196</v>
+        <v>1120</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>1104</v>
       </c>
       <c r="X68" t="s">
-        <v>1197</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="69" spans="4:24">
-      <c r="D69" t="s">
-        <v>1134</v>
+      <c r="E69" t="s">
+        <v>354</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1121</v>
       </c>
       <c r="Q69" t="s">
-        <v>1198</v>
+        <v>1106</v>
       </c>
       <c r="X69" t="s">
-        <v>1199</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="70" spans="4:24">
-      <c r="D70" t="s">
-        <v>1135</v>
+      <c r="E70" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1122</v>
       </c>
       <c r="Q70" t="s">
-        <v>1200</v>
+        <v>1133</v>
       </c>
       <c r="X70" t="s">
-        <v>1201</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="71" spans="4:24">
-      <c r="D71" t="s">
-        <v>1140</v>
+      <c r="E71" t="s">
+        <v>1116</v>
       </c>
       <c r="Q71" t="s">
-        <v>1202</v>
+        <v>1136</v>
       </c>
       <c r="X71" t="s">
-        <v>1203</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="72" spans="4:24">
-      <c r="D72" t="s">
-        <v>1143</v>
+      <c r="E72" t="s">
+        <v>102</v>
       </c>
       <c r="Q72" t="s">
-        <v>1228</v>
+        <v>1138</v>
       </c>
       <c r="X72" t="s">
-        <v>1229</v>
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="73" spans="4:24">
+      <c r="E73" t="s">
+        <v>1117</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>1153</v>
+      </c>
+      <c r="X73" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="74" spans="4:24">
+      <c r="E74" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1123</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>1156</v>
+      </c>
+      <c r="X74" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="75" spans="4:24">
-      <c r="D75" s="4" t="s">
-        <v>1144</v>
+      <c r="E75" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1124</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>1160</v>
+      </c>
+      <c r="X75" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="76" spans="4:24">
       <c r="E76" t="s">
-        <v>1145</v>
+        <v>1126</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1127</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X76" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="77" spans="4:24">
       <c r="E77" t="s">
-        <v>1146</v>
-      </c>
-      <c r="S77" s="4" t="s">
-        <v>1141</v>
+        <v>1128</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>1188</v>
+      </c>
+      <c r="X77" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="78" spans="4:24">
       <c r="E78" t="s">
-        <v>1157</v>
-      </c>
-      <c r="T78" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1131</v>
+      </c>
+      <c r="Q78" s="34" t="s">
+        <v>1194</v>
+      </c>
+      <c r="X78" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="79" spans="4:24">
+      <c r="D79" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>1196</v>
+      </c>
+      <c r="X79" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="80" spans="4:24">
+      <c r="Q80" t="s">
+        <v>1198</v>
+      </c>
+      <c r="X80" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="81" spans="4:24">
+      <c r="Q81" t="s">
+        <v>1200</v>
+      </c>
+      <c r="X81" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="82" spans="4:24">
+      <c r="Q82" t="s">
+        <v>1226</v>
+      </c>
+      <c r="X82" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="83" spans="4:24">
+      <c r="Q83" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X83" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="84" spans="4:24">
+      <c r="X84" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="85" spans="4:24">
+      <c r="D85" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X85" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="86" spans="4:24">
+      <c r="Q86" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="87" spans="4:24">
+      <c r="Q87" t="s">
+        <v>1308</v>
+      </c>
+      <c r="X87" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="88" spans="4:24">
+      <c r="Q88" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="89" spans="4:24">
+      <c r="Q89" t="s">
+        <v>1237</v>
+      </c>
+      <c r="X89" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="90" spans="4:24">
+      <c r="Q90" t="s">
+        <v>1323</v>
+      </c>
+      <c r="X90" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="92" spans="4:24">
+      <c r="E92" t="s">
+        <v>1145</v>
+      </c>
+      <c r="S92" s="4" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="93" spans="4:24">
+      <c r="E93" t="s">
+        <v>1155</v>
+      </c>
+      <c r="T93" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="79" spans="4:24">
-      <c r="T79" t="s">
+    <row r="95" spans="4:24">
+      <c r="T95" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="96" spans="4:24">
+      <c r="D96" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E96" s="23"/>
+    </row>
+    <row r="97" spans="4:18">
+      <c r="E97" s="23" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="80" spans="4:24">
-      <c r="T80" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="81" spans="4:18">
-      <c r="D81" s="4" t="s">
+      <c r="F97" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="98" spans="4:18">
+      <c r="E98" t="s">
         <v>1148</v>
       </c>
-      <c r="E81" s="23"/>
-    </row>
-    <row r="82" spans="4:18">
-      <c r="E82" s="23" t="s">
+      <c r="F98" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="99" spans="4:18">
+      <c r="E99" t="s">
         <v>1149</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F99" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="83" spans="4:18">
-      <c r="E83" t="s">
-        <v>1150</v>
-      </c>
-      <c r="F83" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="84" spans="4:18">
-      <c r="E84" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="85" spans="4:18">
-      <c r="D85" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="86" spans="4:18">
-      <c r="D86" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="89" spans="4:18">
-      <c r="D89" s="4" t="s">
+    <row r="100" spans="4:18">
+      <c r="E100" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="101" spans="4:18">
+      <c r="E101" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="104" spans="4:18">
+      <c r="D104" s="4" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="105" spans="4:18" ht="52.5" customHeight="1">
+      <c r="E105" s="36" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
+      <c r="L105" s="36"/>
+      <c r="M105" s="36"/>
+      <c r="N105" s="36"/>
+      <c r="O105" s="36"/>
+      <c r="P105" s="36"/>
+      <c r="Q105" s="36"/>
+      <c r="R105" s="36"/>
+    </row>
+    <row r="106" spans="4:18">
+      <c r="E106" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="90" spans="4:18" ht="52.5" customHeight="1">
-      <c r="E90" s="35" t="s">
+    <row r="107" spans="4:18">
+      <c r="E107" t="s">
         <v>1165</v>
       </c>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="35"/>
-      <c r="I90" s="35"/>
-      <c r="J90" s="35"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="35"/>
-      <c r="M90" s="35"/>
-      <c r="N90" s="35"/>
-      <c r="O90" s="35"/>
-      <c r="P90" s="35"/>
-      <c r="Q90" s="35"/>
-      <c r="R90" s="35"/>
-    </row>
-    <row r="91" spans="4:18">
-      <c r="E91" t="s">
+    </row>
+    <row r="108" spans="4:18">
+      <c r="E108" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="92" spans="4:18">
-      <c r="E92" t="s">
+    <row r="109" spans="4:18">
+      <c r="E109" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="93" spans="4:18">
-      <c r="E93" t="s">
+    <row r="110" spans="4:18">
+      <c r="E110" t="s">
         <v>1168</v>
-      </c>
-    </row>
-    <row r="94" spans="4:18">
-      <c r="E94" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="95" spans="4:18">
-      <c r="E95" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="97" spans="4:18">
-      <c r="D97" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="98" spans="4:18">
-      <c r="D98" s="4" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E98" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="99" spans="4:18">
-      <c r="D99" s="4" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E99" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="101" spans="4:18">
-      <c r="D101" s="4" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="102" spans="4:18">
-      <c r="E102" t="s">
-        <v>1182</v>
-      </c>
-      <c r="F102" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="103" spans="4:18">
-      <c r="F103" t="s">
-        <v>1178</v>
-      </c>
-      <c r="H103" t="s">
-        <v>1180</v>
-      </c>
-      <c r="R103" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="104" spans="4:18">
-      <c r="F104" t="s">
-        <v>1179</v>
-      </c>
-      <c r="H104" t="s">
-        <v>1181</v>
-      </c>
-      <c r="R104" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="105" spans="4:18">
-      <c r="E105" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F105" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="106" spans="4:18">
-      <c r="D106" s="4" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E106" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="107" spans="4:18">
-      <c r="D107" s="4" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E107" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="109" spans="4:18">
-      <c r="D109" s="4" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="110" spans="4:18">
-      <c r="D110" t="s">
-        <v>0</v>
-      </c>
-      <c r="E110" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="111" spans="4:18">
-      <c r="D111" t="s">
-        <v>0</v>
-      </c>
-      <c r="E111" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="112" spans="4:18">
       <c r="D112" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="113" spans="4:18">
+      <c r="D113" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="114" spans="4:18">
+      <c r="D114" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="116" spans="4:18">
+      <c r="D116" s="4" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="117" spans="4:18">
+      <c r="E117" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="118" spans="4:18">
+      <c r="F118" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1178</v>
+      </c>
+      <c r="R118" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="119" spans="4:18">
+      <c r="F119" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1179</v>
+      </c>
+      <c r="R119" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="120" spans="4:18">
+      <c r="E120" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="121" spans="4:18">
+      <c r="D121" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="122" spans="4:18">
+      <c r="D122" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="124" spans="4:18">
+      <c r="D124" s="4" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="125" spans="4:18">
+      <c r="D125" t="s">
         <v>0</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E125" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="126" spans="4:18">
+      <c r="D126" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="127" spans="4:18">
+      <c r="D127" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="128" spans="4:18">
+      <c r="D128" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="129" spans="4:8">
+      <c r="D129" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="113" spans="4:8">
-      <c r="D113" t="s">
+    <row r="130" spans="4:8">
+      <c r="E130" t="s">
         <v>0</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F130" s="23" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="131" spans="4:8">
+      <c r="E131" t="s">
+        <v>0</v>
+      </c>
+      <c r="F131" s="23" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H131" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="132" spans="4:8">
+      <c r="E132" t="s">
+        <v>0</v>
+      </c>
+      <c r="F132" s="23" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="133" spans="4:8">
+      <c r="E133" t="s">
+        <v>0</v>
+      </c>
+      <c r="F133" s="23" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="114" spans="4:8">
-      <c r="D114" t="s">
+      <c r="H133" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="134" spans="4:8">
+      <c r="E134" t="s">
         <v>0</v>
       </c>
-      <c r="E114" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="115" spans="4:8">
-      <c r="E115" t="s">
-        <v>0</v>
-      </c>
-      <c r="F115" s="23" t="s">
-        <v>1207</v>
-      </c>
-      <c r="H115" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="116" spans="4:8">
-      <c r="E116" t="s">
-        <v>0</v>
-      </c>
-      <c r="F116" s="23" t="s">
-        <v>1208</v>
-      </c>
-      <c r="H116" t="s">
+      <c r="F134" s="23" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="117" spans="4:8">
-      <c r="E117" t="s">
-        <v>0</v>
-      </c>
-      <c r="F117" s="23" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="118" spans="4:8">
-      <c r="E118" t="s">
-        <v>0</v>
-      </c>
-      <c r="F118" s="23" t="s">
-        <v>1213</v>
-      </c>
-      <c r="H118" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="119" spans="4:8">
-      <c r="E119" t="s">
-        <v>0</v>
-      </c>
-      <c r="F119" s="23" t="s">
+      <c r="H134" t="s">
         <v>1219</v>
-      </c>
-      <c r="H119" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="120" spans="4:8">
-      <c r="D120" t="s">
-        <v>0</v>
-      </c>
-      <c r="E120" t="s">
-        <v>1214</v>
-      </c>
-      <c r="H120" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="121" spans="4:8">
-      <c r="D121" t="s">
-        <v>0</v>
-      </c>
-      <c r="E121" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="123" spans="4:8">
-      <c r="D123" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="124" spans="4:8">
-      <c r="D124" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="125" spans="4:8">
-      <c r="D125" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="126" spans="4:8">
-      <c r="D126" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="127" spans="4:8">
-      <c r="D127" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="128" spans="4:8">
-      <c r="D128" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="130" spans="4:8">
-      <c r="D130" t="s">
-        <v>1230</v>
-      </c>
-      <c r="H130" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="131" spans="4:8">
-      <c r="D131" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H131" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="132" spans="4:8">
-      <c r="D132" t="s">
-        <v>1233</v>
-      </c>
-      <c r="H132" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="133" spans="4:8">
-      <c r="D133" t="s">
-        <v>1235</v>
-      </c>
-      <c r="H133" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="135" spans="4:8">
       <c r="D135" t="s">
-        <v>1238</v>
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="136" spans="4:8">
-      <c r="D136">
-        <v>1</v>
+      <c r="D136" t="s">
+        <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="137" spans="4:8">
-      <c r="D137">
-        <v>2</v>
-      </c>
-      <c r="E137" t="s">
-        <v>1240</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="138" spans="4:8">
       <c r="D138" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="139" spans="4:8">
+      <c r="D139" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="140" spans="4:8">
+      <c r="D140" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="141" spans="4:8">
+      <c r="D141" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="142" spans="4:8">
+      <c r="D142" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="143" spans="4:8">
+      <c r="D143" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="145" spans="4:21">
+      <c r="D145" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="146" spans="4:21">
+      <c r="D146" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H146" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="147" spans="4:21">
+      <c r="D147" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="148" spans="4:21">
+      <c r="D148" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="149" spans="4:21">
+      <c r="D149" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H149" t="s">
+        <v>1252</v>
+      </c>
+      <c r="S149">
+        <v>1</v>
+      </c>
+      <c r="T149" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="150" spans="4:21">
+      <c r="U150" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="151" spans="4:21">
+      <c r="D151" t="s">
+        <v>1236</v>
+      </c>
+      <c r="U151" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="152" spans="4:21">
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1237</v>
+      </c>
+      <c r="U152" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="153" spans="4:21">
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1238</v>
+      </c>
+      <c r="U153" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="154" spans="4:21">
+      <c r="D154" t="s">
+        <v>1239</v>
+      </c>
+      <c r="U154" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="155" spans="4:21">
+      <c r="E155" t="s">
+        <v>1240</v>
+      </c>
+      <c r="U155" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="156" spans="4:21">
+      <c r="E156" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="139" spans="4:8">
-      <c r="E139" t="s">
+      <c r="U156" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="157" spans="4:21">
+      <c r="U157" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="158" spans="4:21">
+      <c r="D158" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="140" spans="4:8">
-      <c r="E140" t="s">
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="159" spans="4:21">
+      <c r="E159" t="s">
         <v>1243</v>
+      </c>
+      <c r="U159" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="160" spans="4:21">
+      <c r="E160" t="s">
+        <v>1244</v>
+      </c>
+      <c r="U160" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="161" spans="4:22">
+      <c r="F161" t="s">
+        <v>415</v>
+      </c>
+      <c r="U161" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="162" spans="4:22">
+      <c r="F162" t="s">
+        <v>1245</v>
+      </c>
+      <c r="U162" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="163" spans="4:22">
+      <c r="F163" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1250</v>
+      </c>
+      <c r="U163" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="164" spans="4:22">
+      <c r="E164" t="s">
+        <v>1249</v>
+      </c>
+      <c r="S164">
+        <v>3</v>
+      </c>
+      <c r="T164" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="165" spans="4:22">
+      <c r="E165" t="s">
+        <v>1248</v>
+      </c>
+      <c r="U165" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="166" spans="4:22">
+      <c r="E166" t="s">
+        <v>1247</v>
+      </c>
+      <c r="U166" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="167" spans="4:22">
+      <c r="U167" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="168" spans="4:22">
+      <c r="D168" t="s">
+        <v>1287</v>
+      </c>
+      <c r="U168" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="169" spans="4:22">
+      <c r="E169" t="s">
+        <v>1288</v>
+      </c>
+      <c r="U169" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="170" spans="4:22">
+      <c r="E170" t="s">
+        <v>1289</v>
+      </c>
+      <c r="U170" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="171" spans="4:22">
+      <c r="E171" t="s">
+        <v>1290</v>
+      </c>
+      <c r="S171">
+        <v>4</v>
+      </c>
+      <c r="T171" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="172" spans="4:22">
+      <c r="E172" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="173" spans="4:22">
+      <c r="E173" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="174" spans="4:22">
+      <c r="R174" t="s">
+        <v>775</v>
+      </c>
+      <c r="S174" t="s">
+        <v>0</v>
+      </c>
+      <c r="T174" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="175" spans="4:22">
+      <c r="D175" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1296</v>
+      </c>
+      <c r="R175" t="s">
+        <v>775</v>
+      </c>
+      <c r="S175" t="s">
+        <v>0</v>
+      </c>
+      <c r="T175" t="s">
+        <v>1157</v>
+      </c>
+      <c r="V175" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="176" spans="4:22">
+      <c r="E176" t="s">
+        <v>1297</v>
+      </c>
+      <c r="R176" t="s">
+        <v>775</v>
+      </c>
+      <c r="S176" t="s">
+        <v>0</v>
+      </c>
+      <c r="T176" t="s">
+        <v>1132</v>
+      </c>
+      <c r="V176" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="177" spans="4:20">
+      <c r="E177" t="s">
+        <v>1298</v>
+      </c>
+      <c r="R177" t="s">
+        <v>775</v>
+      </c>
+      <c r="S177" t="s">
+        <v>0</v>
+      </c>
+      <c r="T177" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="178" spans="4:20">
+      <c r="S178" t="s">
+        <v>0</v>
+      </c>
+      <c r="T178" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="179" spans="4:20">
+      <c r="D179" t="s">
+        <v>1302</v>
+      </c>
+      <c r="S179" t="s">
+        <v>0</v>
+      </c>
+      <c r="T179" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="180" spans="4:20">
+      <c r="E180" t="s">
+        <v>1303</v>
+      </c>
+      <c r="S180" t="s">
+        <v>0</v>
+      </c>
+      <c r="T180" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="181" spans="4:20">
+      <c r="E181" t="s">
+        <v>1304</v>
+      </c>
+      <c r="S181" t="s">
+        <v>0</v>
+      </c>
+      <c r="T181" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="182" spans="4:20">
+      <c r="E182" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="183" spans="4:20">
+      <c r="E183" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="184" spans="4:20">
+      <c r="E184" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="185" spans="4:20">
+      <c r="E185" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="186" spans="4:20">
+      <c r="F186" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="187" spans="4:20">
+      <c r="F187" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="188" spans="4:20">
+      <c r="F188" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="189" spans="4:20">
+      <c r="F189" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="190" spans="4:20">
+      <c r="D190" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="191" spans="4:20">
+      <c r="E191" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="192" spans="4:20">
+      <c r="E192" t="s">
+        <v>1322</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E90:R90"/>
+    <mergeCell ref="E105:R105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="1326">
   <si>
     <t>-</t>
   </si>
@@ -4053,6 +4053,9 @@
   </si>
   <si>
     <t>tạo postplolicy</t>
+  </si>
+  <si>
+    <t>validation</t>
   </si>
 </sst>
 </file>
@@ -9604,10 +9607,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:X192"/>
+  <dimension ref="D2:X194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="P80" sqref="P80"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="D194" sqref="D194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10542,7 +10545,7 @@
       </c>
     </row>
     <row r="151" spans="4:21">
-      <c r="D151" t="s">
+      <c r="D151" s="4" t="s">
         <v>1236</v>
       </c>
       <c r="U151" t="s">
@@ -10572,7 +10575,7 @@
       </c>
     </row>
     <row r="154" spans="4:21">
-      <c r="D154" t="s">
+      <c r="D154" s="4" t="s">
         <v>1239</v>
       </c>
       <c r="U154" t="s">
@@ -10601,7 +10604,7 @@
       </c>
     </row>
     <row r="158" spans="4:21">
-      <c r="D158" t="s">
+      <c r="D158" s="4" t="s">
         <v>1242</v>
       </c>
       <c r="S158">
@@ -10687,7 +10690,7 @@
       </c>
     </row>
     <row r="168" spans="4:22">
-      <c r="D168" t="s">
+      <c r="D168" s="4" t="s">
         <v>1287</v>
       </c>
       <c r="U168" t="s">
@@ -10743,7 +10746,7 @@
       </c>
     </row>
     <row r="175" spans="4:22">
-      <c r="D175" t="s">
+      <c r="D175" s="4" t="s">
         <v>1295</v>
       </c>
       <c r="E175" t="s">
@@ -10802,7 +10805,7 @@
       </c>
     </row>
     <row r="179" spans="4:20">
-      <c r="D179" t="s">
+      <c r="D179" s="4" t="s">
         <v>1302</v>
       </c>
       <c r="S179" t="s">
@@ -10875,7 +10878,7 @@
       </c>
     </row>
     <row r="190" spans="4:20">
-      <c r="D190" t="s">
+      <c r="D190" s="4" t="s">
         <v>1320</v>
       </c>
     </row>
@@ -10887,6 +10890,11 @@
     <row r="192" spans="4:20">
       <c r="E192" t="s">
         <v>1322</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4">
+      <c r="D194" t="s">
+        <v>1325</v>
       </c>
     </row>
   </sheetData>

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="18"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -23,17 +23,17 @@
     <sheet name="CSS" sheetId="13" r:id="rId9"/>
     <sheet name="boostrap" sheetId="14" r:id="rId10"/>
     <sheet name="jekyll" sheetId="15" r:id="rId11"/>
-    <sheet name="software" sheetId="6" r:id="rId12"/>
-    <sheet name="PHP core" sheetId="1" r:id="rId13"/>
-    <sheet name="mysql" sheetId="7" r:id="rId14"/>
-    <sheet name="git" sheetId="8" r:id="rId15"/>
-    <sheet name="plugin" sheetId="18" r:id="rId16"/>
-    <sheet name="REST API" sheetId="19" r:id="rId17"/>
-    <sheet name="shopify" sheetId="21" r:id="rId18"/>
-    <sheet name="laravel" sheetId="22" r:id="rId19"/>
+    <sheet name="talwind" sheetId="23" r:id="rId12"/>
+    <sheet name="software" sheetId="6" r:id="rId13"/>
+    <sheet name="PHP core" sheetId="1" r:id="rId14"/>
+    <sheet name="mysql" sheetId="7" r:id="rId15"/>
+    <sheet name="git" sheetId="8" r:id="rId16"/>
+    <sheet name="plugin" sheetId="18" r:id="rId17"/>
+    <sheet name="REST API" sheetId="19" r:id="rId18"/>
+    <sheet name="shopify" sheetId="21" r:id="rId19"/>
+    <sheet name="laravel" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="1326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="1355">
   <si>
     <t>-</t>
   </si>
@@ -4056,6 +4056,93 @@
   </si>
   <si>
     <t>validation</t>
+  </si>
+  <si>
+    <t>cách làm</t>
+  </si>
+  <si>
+    <t>tạo dự án : jekyll new mytheme</t>
+  </si>
+  <si>
+    <t>tạo server ảo: jekyll serve --trace</t>
+  </si>
+  <si>
+    <t>xây dự án: jekyll build</t>
+  </si>
+  <si>
+    <t>các class</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>top  và bottom</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>left và right</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>pb</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>số chạy từ 0 đến 64 hoặc auto</t>
+  </si>
+  <si>
+    <t>front-size</t>
+  </si>
+  <si>
+    <t>text-xs</t>
+  </si>
+  <si>
+    <t>14px</t>
+  </si>
+  <si>
+    <t>text-sm</t>
+  </si>
+  <si>
+    <t>12px</t>
+  </si>
+  <si>
+    <t>16px</t>
+  </si>
+  <si>
+    <t>18px</t>
+  </si>
+  <si>
+    <t>1. Tailwind CSS: Tailwind CSS là một thư viện CSS framework điều chỉnh được và rất mạnh mẽ được thiết kế để giúp bạn xây dựng các giao diện web nhanh chóng. Thay vì sử dụng các lớp CSS đặc biệt, Tailwind CSS cung cấp một bộ utility class để tạo ra các giao diện linh hoạt. Bạn có thể kết hợp, tùy chỉnh và mở rộng Tailwind CSS để tạo ra thiết kế giao diện theo ý muốn.</t>
+  </si>
+  <si>
+    <t>2. PostCSS: PostCSS là một công cụ xử lý CSS dựa trên plugin, cho phép bạn viết CSS bằng cú pháp mở rộng và sau đó biên dịch lại thành CSS chuẩn. Công nghệ này giúp tăng cường hiệu suất và khả năng mở rộng của quy trình phát triển CSS. PostCSS cung cấp các plugin hữu ích cho việc biên dịch, tối ưu hóa hoặc mở rộng CSS, giúp cải thiện quy trình phát triển.</t>
+  </si>
+  <si>
+    <t>Trong một dự án web, bạn có thể sử dụng cả hai công nghệ này cùng nhau: sử dụng Tailwind CSS để xây dựng giao diện và sử dụng PostCSS để xử lý các plugin hoặc tối ưu hóa CSS của bạn. Dường như có một sự nhầm lẫn trong việc liên kết PostCSS với Tailwind CSS, vì có thể sử dụng PostCSS để xử lý Tailwind CSS nhưng chúng vẫn là hai công nghệ riêng biệt.</t>
   </si>
 </sst>
 </file>
@@ -5020,8 +5107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6385,59 +6472,89 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F18"/>
+  <dimension ref="C2:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="3:6">
+    <row r="2" spans="3:13">
       <c r="D2" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="3" spans="3:6">
+      <c r="L2" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13">
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="4" spans="3:6">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13">
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="5" spans="3:6">
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="6" spans="3:6">
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13">
       <c r="E6" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="7" spans="3:6">
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13">
       <c r="E7" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="8" spans="3:6">
+      <c r="L7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13">
       <c r="E8" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:13">
       <c r="C9">
         <v>4</v>
       </c>
@@ -6445,22 +6562,22 @@
         <v>656</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:13">
       <c r="E10" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="3:13">
       <c r="E11" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="3:13">
       <c r="E12" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
+    <row r="13" spans="3:13">
       <c r="C13">
         <v>5</v>
       </c>
@@ -6468,7 +6585,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="15" spans="3:6">
+    <row r="15" spans="3:13">
       <c r="C15">
         <v>6</v>
       </c>
@@ -6476,7 +6593,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
+    <row r="16" spans="3:13">
       <c r="E16" t="s">
         <v>662</v>
       </c>
@@ -6506,6 +6623,132 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A8:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10">
+      <c r="F17" t="s">
+        <v>603</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10">
+      <c r="G18" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10">
+      <c r="G19" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10">
+      <c r="G20" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1337</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10">
+      <c r="G21" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10">
+      <c r="G22" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10">
+      <c r="G23" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10">
+      <c r="F24" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10">
+      <c r="G25" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10">
+      <c r="G26" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10">
+      <c r="H27" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10">
+      <c r="H28" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:G9"/>
   <sheetViews>
@@ -6602,7 +6845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A16:G182"/>
   <sheetViews>
@@ -7344,7 +7587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H5:K17"/>
   <sheetViews>
@@ -7477,7 +7720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:F14"/>
   <sheetViews>
@@ -7617,7 +7860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:J13"/>
   <sheetViews>
@@ -7757,7 +8000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F23"/>
   <sheetViews>
@@ -7904,7 +8147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W273"/>
   <sheetViews>
@@ -9605,1307 +9848,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:X194"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="D194" sqref="D194"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="4:8">
-      <c r="F2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H2" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="3" spans="4:8">
-      <c r="F3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="H3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="6" spans="4:8">
-      <c r="F6" t="s">
-        <v>1062</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8">
-      <c r="D8" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8">
-      <c r="D9" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8">
-      <c r="D10" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8">
-      <c r="D11" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8">
-      <c r="D12" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8">
-      <c r="D13" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8">
-      <c r="D14" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8">
-      <c r="D15" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="E18" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="E19" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="E20" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="E21" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5">
-      <c r="E22" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="D24" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5">
-      <c r="D25" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5">
-      <c r="D26" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5">
-      <c r="D27" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5">
-      <c r="D28" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5">
-      <c r="D29" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5">
-      <c r="D30" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4">
-      <c r="D38" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4">
-      <c r="D39" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4">
-      <c r="D41" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4">
-      <c r="D42" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4">
-      <c r="D43" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4">
-      <c r="D44" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4">
-      <c r="D45" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4">
-      <c r="D46" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4">
-      <c r="D47" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="48" spans="4:4">
-      <c r="D48" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="49" spans="4:24">
-      <c r="D49" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="52" spans="4:24">
-      <c r="D52" s="4" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="53" spans="4:24">
-      <c r="E53" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="54" spans="4:24">
-      <c r="F54" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="55" spans="4:24">
-      <c r="F55" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="56" spans="4:24">
-      <c r="F56" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="57" spans="4:24">
-      <c r="F57" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="58" spans="4:24">
-      <c r="F58" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="59" spans="4:24">
-      <c r="D59" s="4" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="60" spans="4:24">
-      <c r="E60" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G60" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="61" spans="4:24">
-      <c r="E61" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="62" spans="4:24">
-      <c r="E62" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="63" spans="4:24">
-      <c r="E63" t="s">
-        <v>1125</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>1101</v>
-      </c>
-      <c r="X63" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="64" spans="4:24">
-      <c r="E64" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="65" spans="4:24">
-      <c r="E65" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="66" spans="4:24">
-      <c r="E66" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="67" spans="4:24">
-      <c r="D67" s="4" t="s">
-        <v>1113</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>1102</v>
-      </c>
-      <c r="X67" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="68" spans="4:24">
-      <c r="E68" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F68" t="s">
-        <v>1120</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>1104</v>
-      </c>
-      <c r="X68" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="69" spans="4:24">
-      <c r="E69" t="s">
-        <v>354</v>
-      </c>
-      <c r="F69" t="s">
-        <v>1121</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>1106</v>
-      </c>
-      <c r="X69" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="70" spans="4:24">
-      <c r="E70" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F70" t="s">
-        <v>1122</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>1133</v>
-      </c>
-      <c r="X70" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="71" spans="4:24">
-      <c r="E71" t="s">
-        <v>1116</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>1136</v>
-      </c>
-      <c r="X71" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="72" spans="4:24">
-      <c r="E72" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>1138</v>
-      </c>
-      <c r="X72" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="73" spans="4:24">
-      <c r="E73" t="s">
-        <v>1117</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>1153</v>
-      </c>
-      <c r="X73" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="74" spans="4:24">
-      <c r="E74" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F74" t="s">
-        <v>1123</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>1156</v>
-      </c>
-      <c r="X74" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="75" spans="4:24">
-      <c r="E75" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F75" t="s">
-        <v>1124</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>1160</v>
-      </c>
-      <c r="X75" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="76" spans="4:24">
-      <c r="E76" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1127</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>1186</v>
-      </c>
-      <c r="X76" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="77" spans="4:24">
-      <c r="E77" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F77" t="s">
-        <v>1129</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>1188</v>
-      </c>
-      <c r="X77" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="78" spans="4:24">
-      <c r="E78" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F78" t="s">
-        <v>1131</v>
-      </c>
-      <c r="Q78" s="34" t="s">
-        <v>1194</v>
-      </c>
-      <c r="X78" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="79" spans="4:24">
-      <c r="D79" t="s">
-        <v>1134</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>1196</v>
-      </c>
-      <c r="X79" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="80" spans="4:24">
-      <c r="Q80" t="s">
-        <v>1198</v>
-      </c>
-      <c r="X80" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="81" spans="4:24">
-      <c r="Q81" t="s">
-        <v>1200</v>
-      </c>
-      <c r="X81" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="82" spans="4:24">
-      <c r="Q82" t="s">
-        <v>1226</v>
-      </c>
-      <c r="X82" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="83" spans="4:24">
-      <c r="Q83" t="s">
-        <v>1301</v>
-      </c>
-      <c r="X83" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="84" spans="4:24">
-      <c r="X84" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="85" spans="4:24">
-      <c r="D85" s="4" t="s">
-        <v>1144</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>1310</v>
-      </c>
-      <c r="X85" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="86" spans="4:24">
-      <c r="Q86" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="87" spans="4:24">
-      <c r="Q87" t="s">
-        <v>1308</v>
-      </c>
-      <c r="X87" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="88" spans="4:24">
-      <c r="Q88" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="89" spans="4:24">
-      <c r="Q89" t="s">
-        <v>1237</v>
-      </c>
-      <c r="X89" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="90" spans="4:24">
-      <c r="Q90" t="s">
-        <v>1323</v>
-      </c>
-      <c r="X90" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="92" spans="4:24">
-      <c r="E92" t="s">
-        <v>1145</v>
-      </c>
-      <c r="S92" s="4" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="93" spans="4:24">
-      <c r="E93" t="s">
-        <v>1155</v>
-      </c>
-      <c r="T93" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="95" spans="4:24">
-      <c r="T95" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="96" spans="4:24">
-      <c r="D96" s="4" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E96" s="23"/>
-    </row>
-    <row r="97" spans="4:18">
-      <c r="E97" s="23" t="s">
-        <v>1147</v>
-      </c>
-      <c r="F97" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="98" spans="4:18">
-      <c r="E98" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F98" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="99" spans="4:18">
-      <c r="E99" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F99" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="100" spans="4:18">
-      <c r="E100" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="101" spans="4:18">
-      <c r="E101" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="104" spans="4:18">
-      <c r="D104" s="4" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="105" spans="4:18" ht="52.5" customHeight="1">
-      <c r="E105" s="36" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F105" s="36"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
-      <c r="L105" s="36"/>
-      <c r="M105" s="36"/>
-      <c r="N105" s="36"/>
-      <c r="O105" s="36"/>
-      <c r="P105" s="36"/>
-      <c r="Q105" s="36"/>
-      <c r="R105" s="36"/>
-    </row>
-    <row r="106" spans="4:18">
-      <c r="E106" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="107" spans="4:18">
-      <c r="E107" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="108" spans="4:18">
-      <c r="E108" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="109" spans="4:18">
-      <c r="E109" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="110" spans="4:18">
-      <c r="E110" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="112" spans="4:18">
-      <c r="D112" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E112" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="113" spans="4:18">
-      <c r="D113" s="4" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E113" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="114" spans="4:18">
-      <c r="D114" s="4" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E114" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="116" spans="4:18">
-      <c r="D116" s="4" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="117" spans="4:18">
-      <c r="E117" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F117" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="118" spans="4:18">
-      <c r="F118" t="s">
-        <v>1176</v>
-      </c>
-      <c r="H118" t="s">
-        <v>1178</v>
-      </c>
-      <c r="R118" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="119" spans="4:18">
-      <c r="F119" t="s">
-        <v>1177</v>
-      </c>
-      <c r="H119" t="s">
-        <v>1179</v>
-      </c>
-      <c r="R119" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="120" spans="4:18">
-      <c r="E120" t="s">
-        <v>1182</v>
-      </c>
-      <c r="F120" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="121" spans="4:18">
-      <c r="D121" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E121" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="122" spans="4:18">
-      <c r="D122" s="4" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E122" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="124" spans="4:18">
-      <c r="D124" s="4" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="125" spans="4:18">
-      <c r="D125" t="s">
-        <v>0</v>
-      </c>
-      <c r="E125" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="126" spans="4:18">
-      <c r="D126" t="s">
-        <v>0</v>
-      </c>
-      <c r="E126" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="127" spans="4:18">
-      <c r="D127" t="s">
-        <v>0</v>
-      </c>
-      <c r="E127" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="128" spans="4:18">
-      <c r="D128" t="s">
-        <v>0</v>
-      </c>
-      <c r="E128" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="129" spans="4:8">
-      <c r="D129" t="s">
-        <v>0</v>
-      </c>
-      <c r="E129" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="130" spans="4:8">
-      <c r="E130" t="s">
-        <v>0</v>
-      </c>
-      <c r="F130" s="23" t="s">
-        <v>1205</v>
-      </c>
-      <c r="H130" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="131" spans="4:8">
-      <c r="E131" t="s">
-        <v>0</v>
-      </c>
-      <c r="F131" s="23" t="s">
-        <v>1206</v>
-      </c>
-      <c r="H131" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="132" spans="4:8">
-      <c r="E132" t="s">
-        <v>0</v>
-      </c>
-      <c r="F132" s="23" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="133" spans="4:8">
-      <c r="E133" t="s">
-        <v>0</v>
-      </c>
-      <c r="F133" s="23" t="s">
-        <v>1211</v>
-      </c>
-      <c r="H133" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="134" spans="4:8">
-      <c r="E134" t="s">
-        <v>0</v>
-      </c>
-      <c r="F134" s="23" t="s">
-        <v>1217</v>
-      </c>
-      <c r="H134" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="135" spans="4:8">
-      <c r="D135" t="s">
-        <v>0</v>
-      </c>
-      <c r="E135" t="s">
-        <v>1212</v>
-      </c>
-      <c r="H135" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="136" spans="4:8">
-      <c r="D136" t="s">
-        <v>0</v>
-      </c>
-      <c r="E136" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="138" spans="4:8">
-      <c r="D138" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="139" spans="4:8">
-      <c r="D139" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="140" spans="4:8">
-      <c r="D140" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="141" spans="4:8">
-      <c r="D141" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="142" spans="4:8">
-      <c r="D142" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="143" spans="4:8">
-      <c r="D143" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="145" spans="4:21">
-      <c r="D145" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H145" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="146" spans="4:21">
-      <c r="D146" t="s">
-        <v>1230</v>
-      </c>
-      <c r="H146" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="147" spans="4:21">
-      <c r="D147" t="s">
-        <v>1231</v>
-      </c>
-      <c r="H147" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="148" spans="4:21">
-      <c r="D148" t="s">
-        <v>1233</v>
-      </c>
-      <c r="H148" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="149" spans="4:21">
-      <c r="D149" t="s">
-        <v>1251</v>
-      </c>
-      <c r="H149" t="s">
-        <v>1252</v>
-      </c>
-      <c r="S149">
-        <v>1</v>
-      </c>
-      <c r="T149" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="150" spans="4:21">
-      <c r="U150" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="151" spans="4:21">
-      <c r="D151" s="4" t="s">
-        <v>1236</v>
-      </c>
-      <c r="U151" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="152" spans="4:21">
-      <c r="D152">
-        <v>1</v>
-      </c>
-      <c r="E152" t="s">
-        <v>1237</v>
-      </c>
-      <c r="U152" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="153" spans="4:21">
-      <c r="D153">
-        <v>2</v>
-      </c>
-      <c r="E153" t="s">
-        <v>1238</v>
-      </c>
-      <c r="U153" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="154" spans="4:21">
-      <c r="D154" s="4" t="s">
-        <v>1239</v>
-      </c>
-      <c r="U154" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="155" spans="4:21">
-      <c r="E155" t="s">
-        <v>1240</v>
-      </c>
-      <c r="U155" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="156" spans="4:21">
-      <c r="E156" t="s">
-        <v>1241</v>
-      </c>
-      <c r="U156" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="157" spans="4:21">
-      <c r="U157" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="158" spans="4:21">
-      <c r="D158" s="4" t="s">
-        <v>1242</v>
-      </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="159" spans="4:21">
-      <c r="E159" t="s">
-        <v>1243</v>
-      </c>
-      <c r="U159" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="160" spans="4:21">
-      <c r="E160" t="s">
-        <v>1244</v>
-      </c>
-      <c r="U160" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="161" spans="4:22">
-      <c r="F161" t="s">
-        <v>415</v>
-      </c>
-      <c r="U161" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="162" spans="4:22">
-      <c r="F162" t="s">
-        <v>1245</v>
-      </c>
-      <c r="U162" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="163" spans="4:22">
-      <c r="F163" t="s">
-        <v>1246</v>
-      </c>
-      <c r="H163" t="s">
-        <v>1250</v>
-      </c>
-      <c r="U163" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="164" spans="4:22">
-      <c r="E164" t="s">
-        <v>1249</v>
-      </c>
-      <c r="S164">
-        <v>3</v>
-      </c>
-      <c r="T164" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="165" spans="4:22">
-      <c r="E165" t="s">
-        <v>1248</v>
-      </c>
-      <c r="U165" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="166" spans="4:22">
-      <c r="E166" t="s">
-        <v>1247</v>
-      </c>
-      <c r="U166" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="167" spans="4:22">
-      <c r="U167" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="168" spans="4:22">
-      <c r="D168" s="4" t="s">
-        <v>1287</v>
-      </c>
-      <c r="U168" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="169" spans="4:22">
-      <c r="E169" t="s">
-        <v>1288</v>
-      </c>
-      <c r="U169" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="170" spans="4:22">
-      <c r="E170" t="s">
-        <v>1289</v>
-      </c>
-      <c r="U170" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="171" spans="4:22">
-      <c r="E171" t="s">
-        <v>1290</v>
-      </c>
-      <c r="S171">
-        <v>4</v>
-      </c>
-      <c r="T171" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="172" spans="4:22">
-      <c r="E172" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="173" spans="4:22">
-      <c r="E173" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="174" spans="4:22">
-      <c r="R174" t="s">
-        <v>775</v>
-      </c>
-      <c r="S174" t="s">
-        <v>0</v>
-      </c>
-      <c r="T174" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="175" spans="4:22">
-      <c r="D175" s="4" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E175" t="s">
-        <v>1296</v>
-      </c>
-      <c r="R175" t="s">
-        <v>775</v>
-      </c>
-      <c r="S175" t="s">
-        <v>0</v>
-      </c>
-      <c r="T175" t="s">
-        <v>1157</v>
-      </c>
-      <c r="V175" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="176" spans="4:22">
-      <c r="E176" t="s">
-        <v>1297</v>
-      </c>
-      <c r="R176" t="s">
-        <v>775</v>
-      </c>
-      <c r="S176" t="s">
-        <v>0</v>
-      </c>
-      <c r="T176" t="s">
-        <v>1132</v>
-      </c>
-      <c r="V176" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="177" spans="4:20">
-      <c r="E177" t="s">
-        <v>1298</v>
-      </c>
-      <c r="R177" t="s">
-        <v>775</v>
-      </c>
-      <c r="S177" t="s">
-        <v>0</v>
-      </c>
-      <c r="T177" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="178" spans="4:20">
-      <c r="S178" t="s">
-        <v>0</v>
-      </c>
-      <c r="T178" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="179" spans="4:20">
-      <c r="D179" s="4" t="s">
-        <v>1302</v>
-      </c>
-      <c r="S179" t="s">
-        <v>0</v>
-      </c>
-      <c r="T179" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="180" spans="4:20">
-      <c r="E180" t="s">
-        <v>1303</v>
-      </c>
-      <c r="S180" t="s">
-        <v>0</v>
-      </c>
-      <c r="T180" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="181" spans="4:20">
-      <c r="E181" t="s">
-        <v>1304</v>
-      </c>
-      <c r="S181" t="s">
-        <v>0</v>
-      </c>
-      <c r="T181" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="182" spans="4:20">
-      <c r="E182" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="183" spans="4:20">
-      <c r="E183" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="184" spans="4:20">
-      <c r="E184" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="185" spans="4:20">
-      <c r="E185" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="186" spans="4:20">
-      <c r="F186" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="187" spans="4:20">
-      <c r="F187" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="188" spans="4:20">
-      <c r="F188" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="189" spans="4:20">
-      <c r="F189" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="190" spans="4:20">
-      <c r="D190" s="4" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="191" spans="4:20">
-      <c r="E191" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="192" spans="4:20">
-      <c r="E192" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="194" spans="4:4">
-      <c r="D194" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E105:R105"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:G22"/>
@@ -11065,6 +10007,1307 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:X194"/>
+  <sheetViews>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="D194" sqref="D194"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="4:8">
+      <c r="F2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="3" spans="4:8">
+      <c r="F3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8">
+      <c r="F6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="D8" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8">
+      <c r="D9" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
+      <c r="D10" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
+      <c r="D11" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8">
+      <c r="D12" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="D13" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8">
+      <c r="D14" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8">
+      <c r="D15" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="E18" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="E19" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="E20" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="E21" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="E22" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="49" spans="4:24">
+      <c r="D49" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="52" spans="4:24">
+      <c r="D52" s="4" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="53" spans="4:24">
+      <c r="E53" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="54" spans="4:24">
+      <c r="F54" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="55" spans="4:24">
+      <c r="F55" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="56" spans="4:24">
+      <c r="F56" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="57" spans="4:24">
+      <c r="F57" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="58" spans="4:24">
+      <c r="F58" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="59" spans="4:24">
+      <c r="D59" s="4" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="60" spans="4:24">
+      <c r="E60" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="61" spans="4:24">
+      <c r="E61" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="62" spans="4:24">
+      <c r="E62" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="63" spans="4:24">
+      <c r="E63" t="s">
+        <v>1125</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>1101</v>
+      </c>
+      <c r="X63" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="64" spans="4:24">
+      <c r="E64" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="65" spans="4:24">
+      <c r="E65" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="66" spans="4:24">
+      <c r="E66" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="67" spans="4:24">
+      <c r="D67" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>1102</v>
+      </c>
+      <c r="X67" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="68" spans="4:24">
+      <c r="E68" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>1104</v>
+      </c>
+      <c r="X68" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="69" spans="4:24">
+      <c r="E69" t="s">
+        <v>354</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1121</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>1106</v>
+      </c>
+      <c r="X69" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="70" spans="4:24">
+      <c r="E70" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1122</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>1133</v>
+      </c>
+      <c r="X70" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="71" spans="4:24">
+      <c r="E71" t="s">
+        <v>1116</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>1136</v>
+      </c>
+      <c r="X71" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="72" spans="4:24">
+      <c r="E72" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>1138</v>
+      </c>
+      <c r="X72" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="73" spans="4:24">
+      <c r="E73" t="s">
+        <v>1117</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>1153</v>
+      </c>
+      <c r="X73" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="74" spans="4:24">
+      <c r="E74" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1123</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>1156</v>
+      </c>
+      <c r="X74" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="75" spans="4:24">
+      <c r="E75" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1124</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>1160</v>
+      </c>
+      <c r="X75" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="76" spans="4:24">
+      <c r="E76" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1127</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X76" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="77" spans="4:24">
+      <c r="E77" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>1188</v>
+      </c>
+      <c r="X77" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="78" spans="4:24">
+      <c r="E78" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1131</v>
+      </c>
+      <c r="Q78" s="34" t="s">
+        <v>1194</v>
+      </c>
+      <c r="X78" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="79" spans="4:24">
+      <c r="D79" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>1196</v>
+      </c>
+      <c r="X79" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="80" spans="4:24">
+      <c r="Q80" t="s">
+        <v>1198</v>
+      </c>
+      <c r="X80" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="81" spans="4:24">
+      <c r="Q81" t="s">
+        <v>1200</v>
+      </c>
+      <c r="X81" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="82" spans="4:24">
+      <c r="Q82" t="s">
+        <v>1226</v>
+      </c>
+      <c r="X82" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="83" spans="4:24">
+      <c r="Q83" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X83" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="84" spans="4:24">
+      <c r="X84" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="85" spans="4:24">
+      <c r="D85" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X85" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="86" spans="4:24">
+      <c r="Q86" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="87" spans="4:24">
+      <c r="Q87" t="s">
+        <v>1308</v>
+      </c>
+      <c r="X87" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="88" spans="4:24">
+      <c r="Q88" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="89" spans="4:24">
+      <c r="Q89" t="s">
+        <v>1237</v>
+      </c>
+      <c r="X89" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="90" spans="4:24">
+      <c r="Q90" t="s">
+        <v>1323</v>
+      </c>
+      <c r="X90" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="92" spans="4:24">
+      <c r="E92" t="s">
+        <v>1145</v>
+      </c>
+      <c r="S92" s="4" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="93" spans="4:24">
+      <c r="E93" t="s">
+        <v>1155</v>
+      </c>
+      <c r="T93" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="95" spans="4:24">
+      <c r="T95" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="96" spans="4:24">
+      <c r="D96" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E96" s="23"/>
+    </row>
+    <row r="97" spans="4:18">
+      <c r="E97" s="23" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="98" spans="4:18">
+      <c r="E98" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="99" spans="4:18">
+      <c r="E99" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="100" spans="4:18">
+      <c r="E100" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="101" spans="4:18">
+      <c r="E101" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="104" spans="4:18">
+      <c r="D104" s="4" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="105" spans="4:18" ht="52.5" customHeight="1">
+      <c r="E105" s="36" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
+      <c r="L105" s="36"/>
+      <c r="M105" s="36"/>
+      <c r="N105" s="36"/>
+      <c r="O105" s="36"/>
+      <c r="P105" s="36"/>
+      <c r="Q105" s="36"/>
+      <c r="R105" s="36"/>
+    </row>
+    <row r="106" spans="4:18">
+      <c r="E106" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="107" spans="4:18">
+      <c r="E107" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="108" spans="4:18">
+      <c r="E108" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="109" spans="4:18">
+      <c r="E109" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="110" spans="4:18">
+      <c r="E110" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="112" spans="4:18">
+      <c r="D112" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="113" spans="4:18">
+      <c r="D113" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="114" spans="4:18">
+      <c r="D114" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="116" spans="4:18">
+      <c r="D116" s="4" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="117" spans="4:18">
+      <c r="E117" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="118" spans="4:18">
+      <c r="F118" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1178</v>
+      </c>
+      <c r="R118" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="119" spans="4:18">
+      <c r="F119" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1179</v>
+      </c>
+      <c r="R119" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="120" spans="4:18">
+      <c r="E120" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="121" spans="4:18">
+      <c r="D121" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="122" spans="4:18">
+      <c r="D122" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="124" spans="4:18">
+      <c r="D124" s="4" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="125" spans="4:18">
+      <c r="D125" t="s">
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="126" spans="4:18">
+      <c r="D126" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="127" spans="4:18">
+      <c r="D127" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="128" spans="4:18">
+      <c r="D128" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="129" spans="4:8">
+      <c r="D129" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="130" spans="4:8">
+      <c r="E130" t="s">
+        <v>0</v>
+      </c>
+      <c r="F130" s="23" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="131" spans="4:8">
+      <c r="E131" t="s">
+        <v>0</v>
+      </c>
+      <c r="F131" s="23" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H131" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="132" spans="4:8">
+      <c r="E132" t="s">
+        <v>0</v>
+      </c>
+      <c r="F132" s="23" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="133" spans="4:8">
+      <c r="E133" t="s">
+        <v>0</v>
+      </c>
+      <c r="F133" s="23" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="134" spans="4:8">
+      <c r="E134" t="s">
+        <v>0</v>
+      </c>
+      <c r="F134" s="23" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="135" spans="4:8">
+      <c r="D135" t="s">
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="136" spans="4:8">
+      <c r="D136" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="138" spans="4:8">
+      <c r="D138" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="139" spans="4:8">
+      <c r="D139" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="140" spans="4:8">
+      <c r="D140" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="141" spans="4:8">
+      <c r="D141" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="142" spans="4:8">
+      <c r="D142" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="143" spans="4:8">
+      <c r="D143" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="145" spans="4:21">
+      <c r="D145" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="146" spans="4:21">
+      <c r="D146" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H146" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="147" spans="4:21">
+      <c r="D147" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="148" spans="4:21">
+      <c r="D148" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="149" spans="4:21">
+      <c r="D149" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H149" t="s">
+        <v>1252</v>
+      </c>
+      <c r="S149">
+        <v>1</v>
+      </c>
+      <c r="T149" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="150" spans="4:21">
+      <c r="U150" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="151" spans="4:21">
+      <c r="D151" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="U151" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="152" spans="4:21">
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1237</v>
+      </c>
+      <c r="U152" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="153" spans="4:21">
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1238</v>
+      </c>
+      <c r="U153" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="154" spans="4:21">
+      <c r="D154" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="U154" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="155" spans="4:21">
+      <c r="E155" t="s">
+        <v>1240</v>
+      </c>
+      <c r="U155" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="156" spans="4:21">
+      <c r="E156" t="s">
+        <v>1241</v>
+      </c>
+      <c r="U156" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="157" spans="4:21">
+      <c r="U157" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="158" spans="4:21">
+      <c r="D158" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="159" spans="4:21">
+      <c r="E159" t="s">
+        <v>1243</v>
+      </c>
+      <c r="U159" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="160" spans="4:21">
+      <c r="E160" t="s">
+        <v>1244</v>
+      </c>
+      <c r="U160" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="161" spans="4:22">
+      <c r="F161" t="s">
+        <v>415</v>
+      </c>
+      <c r="U161" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="162" spans="4:22">
+      <c r="F162" t="s">
+        <v>1245</v>
+      </c>
+      <c r="U162" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="163" spans="4:22">
+      <c r="F163" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1250</v>
+      </c>
+      <c r="U163" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="164" spans="4:22">
+      <c r="E164" t="s">
+        <v>1249</v>
+      </c>
+      <c r="S164">
+        <v>3</v>
+      </c>
+      <c r="T164" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="165" spans="4:22">
+      <c r="E165" t="s">
+        <v>1248</v>
+      </c>
+      <c r="U165" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="166" spans="4:22">
+      <c r="E166" t="s">
+        <v>1247</v>
+      </c>
+      <c r="U166" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="167" spans="4:22">
+      <c r="U167" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="168" spans="4:22">
+      <c r="D168" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="U168" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="169" spans="4:22">
+      <c r="E169" t="s">
+        <v>1288</v>
+      </c>
+      <c r="U169" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="170" spans="4:22">
+      <c r="E170" t="s">
+        <v>1289</v>
+      </c>
+      <c r="U170" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="171" spans="4:22">
+      <c r="E171" t="s">
+        <v>1290</v>
+      </c>
+      <c r="S171">
+        <v>4</v>
+      </c>
+      <c r="T171" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="172" spans="4:22">
+      <c r="E172" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="173" spans="4:22">
+      <c r="E173" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="174" spans="4:22">
+      <c r="R174" t="s">
+        <v>775</v>
+      </c>
+      <c r="S174" t="s">
+        <v>0</v>
+      </c>
+      <c r="T174" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="175" spans="4:22">
+      <c r="D175" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1296</v>
+      </c>
+      <c r="R175" t="s">
+        <v>775</v>
+      </c>
+      <c r="S175" t="s">
+        <v>0</v>
+      </c>
+      <c r="T175" t="s">
+        <v>1157</v>
+      </c>
+      <c r="V175" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="176" spans="4:22">
+      <c r="E176" t="s">
+        <v>1297</v>
+      </c>
+      <c r="R176" t="s">
+        <v>775</v>
+      </c>
+      <c r="S176" t="s">
+        <v>0</v>
+      </c>
+      <c r="T176" t="s">
+        <v>1132</v>
+      </c>
+      <c r="V176" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="177" spans="4:20">
+      <c r="E177" t="s">
+        <v>1298</v>
+      </c>
+      <c r="R177" t="s">
+        <v>775</v>
+      </c>
+      <c r="S177" t="s">
+        <v>0</v>
+      </c>
+      <c r="T177" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="178" spans="4:20">
+      <c r="S178" t="s">
+        <v>0</v>
+      </c>
+      <c r="T178" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="179" spans="4:20">
+      <c r="D179" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="S179" t="s">
+        <v>0</v>
+      </c>
+      <c r="T179" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="180" spans="4:20">
+      <c r="E180" t="s">
+        <v>1303</v>
+      </c>
+      <c r="S180" t="s">
+        <v>0</v>
+      </c>
+      <c r="T180" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="181" spans="4:20">
+      <c r="E181" t="s">
+        <v>1304</v>
+      </c>
+      <c r="S181" t="s">
+        <v>0</v>
+      </c>
+      <c r="T181" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="182" spans="4:20">
+      <c r="E182" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="183" spans="4:20">
+      <c r="E183" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="184" spans="4:20">
+      <c r="E184" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="185" spans="4:20">
+      <c r="E185" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="186" spans="4:20">
+      <c r="F186" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="187" spans="4:20">
+      <c r="F187" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="188" spans="4:20">
+      <c r="F188" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="189" spans="4:20">
+      <c r="F189" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="190" spans="4:20">
+      <c r="D190" s="4" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="191" spans="4:20">
+      <c r="E191" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="192" spans="4:20">
+      <c r="E192" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4">
+      <c r="D194" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E105:R105"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="11"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="1371">
   <si>
     <t>-</t>
   </si>
@@ -4144,12 +4144,60 @@
   <si>
     <t>Trong một dự án web, bạn có thể sử dụng cả hai công nghệ này cùng nhau: sử dụng Tailwind CSS để xây dựng giao diện và sử dụng PostCSS để xử lý các plugin hoặc tối ưu hóa CSS của bạn. Dường như có một sự nhầm lẫn trong việc liên kết PostCSS với Tailwind CSS, vì có thể sử dụng PostCSS để xử lý Tailwind CSS nhưng chúng vẫn là hai công nghệ riêng biệt.</t>
   </si>
+  <si>
+    <t>tailwind.config.js</t>
+  </si>
+  <si>
+    <t>tùy chỉnh kích thước responsive</t>
+  </si>
+  <si>
+    <t>font family</t>
+  </si>
+  <si>
+    <t>1. Tailwind CSS IntelliSense: Extension này cung cấp tính năng autocompletion và IntelliSense cho Tailwind CSS trong các file CSS và HTML.</t>
+  </si>
+  <si>
+    <t>2. Tailwind CSS Me: Extension này cung cấp một bộ công cụ cho phép bạn tùy chỉnh thiết lập Tailwind CSS theo ý muốn.</t>
+  </si>
+  <si>
+    <t>3. Tailwind CSS IntelliSense for VS Code: Extension này cung cấp tính năng IntelliSense cho Tailwind CSS trong Visual Studio Code, giúp tăng tốc quá trình viết code và giúp tránh các lỗi cú pháp.</t>
+  </si>
+  <si>
+    <t>4. Tailwind CSS class name autocompletion: Extension này cung cấp tính năng autocompletion cho các class name của Tailwind CSS trong các file CSS và HTML.</t>
+  </si>
+  <si>
+    <t>5. Tailwind CSS Berlin: Extension này giúp bạn tạo các class name CSS của Tailwind dễ dàng thông qua giao diện người dùng trong Visual Studio Code.</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>text-&lt;color&gt;</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:5502/_site/index.html</t>
+  </si>
+  <si>
+    <t>&lt;svg width="32" height="33" viewBox="0 0 32 33" fill="none" xmlns="http://www.w3.org/2000/svg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;path d="M0 32.24H32V0.24H0V32.24Z" fill="black"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>text-justify</t>
+  </si>
+  <si>
+    <t>để nó dàn trải nội dung chữ sát nút 2 biên của trình duyệt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4254,6 +4302,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4324,7 +4378,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4384,6 +4438,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5107,8 +5162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5321,7 +5376,7 @@
       <c r="C26">
         <v>12</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="36" t="s">
         <v>180</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -5332,7 +5387,7 @@
       <c r="C27">
         <v>13</v>
       </c>
-      <c r="D27" s="35"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="8" t="s">
         <v>182</v>
       </c>
@@ -6624,59 +6679,73 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:J28"/>
+  <dimension ref="A8:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:14">
       <c r="E15" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="17" spans="6:10">
+    <row r="16" spans="1:14">
+      <c r="N16" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14">
       <c r="F17" t="s">
         <v>603</v>
       </c>
       <c r="G17" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="18" spans="6:10">
+      <c r="N17" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="18" spans="6:14">
       <c r="G18" t="s">
         <v>1332</v>
       </c>
       <c r="H18" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="19" spans="6:10">
+      <c r="N18" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="19" spans="6:14">
       <c r="G19" t="s">
         <v>1334</v>
       </c>
       <c r="H19" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="20" spans="6:10">
+      <c r="N19" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="20" spans="6:14">
       <c r="G20" t="s">
         <v>1336</v>
       </c>
@@ -6686,8 +6755,11 @@
       <c r="J20" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="21" spans="6:10">
+      <c r="N20" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="21" spans="6:14">
       <c r="G21" t="s">
         <v>1339</v>
       </c>
@@ -6695,7 +6767,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="22" spans="6:10">
+    <row r="22" spans="6:14">
       <c r="G22" t="s">
         <v>1340</v>
       </c>
@@ -6703,7 +6775,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="23" spans="6:10">
+    <row r="23" spans="6:14">
       <c r="G23" t="s">
         <v>1342</v>
       </c>
@@ -6711,12 +6783,12 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="24" spans="6:10">
+    <row r="24" spans="6:14">
       <c r="F24" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="25" spans="6:10">
+    <row r="25" spans="6:14">
       <c r="G25" t="s">
         <v>1346</v>
       </c>
@@ -6724,7 +6796,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="26" spans="6:10">
+    <row r="26" spans="6:14">
       <c r="G26" t="s">
         <v>1348</v>
       </c>
@@ -6732,14 +6804,49 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="27" spans="6:10">
+    <row r="27" spans="6:14">
       <c r="H27" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="28" spans="6:10">
+    <row r="28" spans="6:14">
       <c r="H28" t="s">
         <v>1351</v>
+      </c>
+    </row>
+    <row r="29" spans="6:14">
+      <c r="F29" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="30" spans="6:14">
+      <c r="G30" s="35" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="31" spans="6:14">
+      <c r="F31" s="4" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="32" spans="6:14">
+      <c r="G32" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7">
+      <c r="G34" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7">
+      <c r="G35" t="s">
+        <v>1357</v>
       </c>
     </row>
   </sheetData>
@@ -10012,10 +10119,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:X194"/>
+  <dimension ref="D2:X210"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="D194" sqref="D194"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="Q158" sqref="Q158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10627,22 +10734,22 @@
       </c>
     </row>
     <row r="105" spans="4:18" ht="52.5" customHeight="1">
-      <c r="E105" s="36" t="s">
+      <c r="E105" s="37" t="s">
         <v>1163</v>
       </c>
-      <c r="F105" s="36"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
-      <c r="L105" s="36"/>
-      <c r="M105" s="36"/>
-      <c r="N105" s="36"/>
-      <c r="O105" s="36"/>
-      <c r="P105" s="36"/>
-      <c r="Q105" s="36"/>
-      <c r="R105" s="36"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="37"/>
+      <c r="K105" s="37"/>
+      <c r="L105" s="37"/>
+      <c r="M105" s="37"/>
+      <c r="N105" s="37"/>
+      <c r="O105" s="37"/>
+      <c r="P105" s="37"/>
+      <c r="Q105" s="37"/>
+      <c r="R105" s="37"/>
     </row>
     <row r="106" spans="4:18">
       <c r="E106" t="s">
@@ -11297,17 +11404,40 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="194" spans="4:4">
+    <row r="194" spans="4:20">
       <c r="D194" t="s">
         <v>1325</v>
+      </c>
+    </row>
+    <row r="195" spans="4:20">
+      <c r="T195" s="8" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="208" spans="4:20">
+      <c r="R208" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="209" spans="18:18">
+      <c r="R209" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="210" spans="18:18">
+      <c r="R210" t="s">
+        <v>1368</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E105:R105"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="T195" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13207,10 +13337,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G3:J15"/>
+  <dimension ref="G3:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13336,6 +13466,14 @@
         <v>544</v>
       </c>
     </row>
+    <row r="19" spans="8:9">
+      <c r="H19" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1370</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -14,24 +14,25 @@
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
     <sheet name="MENU JS" sheetId="16" r:id="rId2"/>
-    <sheet name="tiêu chuẩn code" sheetId="9" r:id="rId3"/>
-    <sheet name="WR" sheetId="4" r:id="rId4"/>
-    <sheet name="BE" sheetId="10" r:id="rId5"/>
-    <sheet name="FE" sheetId="12" r:id="rId6"/>
-    <sheet name="JS" sheetId="11" r:id="rId7"/>
-    <sheet name="ajax" sheetId="17" r:id="rId8"/>
-    <sheet name="CSS" sheetId="13" r:id="rId9"/>
-    <sheet name="boostrap" sheetId="14" r:id="rId10"/>
-    <sheet name="jekyll" sheetId="15" r:id="rId11"/>
-    <sheet name="talwind" sheetId="23" r:id="rId12"/>
-    <sheet name="software" sheetId="6" r:id="rId13"/>
-    <sheet name="PHP core" sheetId="1" r:id="rId14"/>
-    <sheet name="mysql" sheetId="7" r:id="rId15"/>
-    <sheet name="git" sheetId="8" r:id="rId16"/>
-    <sheet name="plugin" sheetId="18" r:id="rId17"/>
-    <sheet name="REST API" sheetId="19" r:id="rId18"/>
-    <sheet name="shopify" sheetId="21" r:id="rId19"/>
-    <sheet name="laravel" sheetId="22" r:id="rId20"/>
+    <sheet name="speed web" sheetId="24" r:id="rId3"/>
+    <sheet name="tiêu chuẩn code" sheetId="9" r:id="rId4"/>
+    <sheet name="WR" sheetId="4" r:id="rId5"/>
+    <sheet name="BE" sheetId="10" r:id="rId6"/>
+    <sheet name="FE" sheetId="12" r:id="rId7"/>
+    <sheet name="JS" sheetId="11" r:id="rId8"/>
+    <sheet name="ajax" sheetId="17" r:id="rId9"/>
+    <sheet name="CSS" sheetId="13" r:id="rId10"/>
+    <sheet name="boostrap" sheetId="14" r:id="rId11"/>
+    <sheet name="jekyll" sheetId="15" r:id="rId12"/>
+    <sheet name="talwind" sheetId="23" r:id="rId13"/>
+    <sheet name="software" sheetId="6" r:id="rId14"/>
+    <sheet name="PHP core" sheetId="1" r:id="rId15"/>
+    <sheet name="mysql" sheetId="7" r:id="rId16"/>
+    <sheet name="git" sheetId="8" r:id="rId17"/>
+    <sheet name="plugin" sheetId="18" r:id="rId18"/>
+    <sheet name="REST API" sheetId="19" r:id="rId19"/>
+    <sheet name="shopify" sheetId="21" r:id="rId20"/>
+    <sheet name="laravel" sheetId="22" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="1371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="1406">
   <si>
     <t>-</t>
   </si>
@@ -4192,12 +4193,117 @@
   <si>
     <t>để nó dàn trải nội dung chữ sát nút 2 biên của trình duyệt</t>
   </si>
+  <si>
+    <t>hover</t>
+  </si>
+  <si>
+    <t>muốn hover tổng thì phải đặt class "group" ở thẻ cha</t>
+  </si>
+  <si>
+    <t>Tốc độ trang web phụ thuộc vào nhiều yếu tố</t>
+  </si>
+  <si>
+    <t>tốc độ tải trang</t>
+  </si>
+  <si>
+    <t>thời gian phản hồi</t>
+  </si>
+  <si>
+    <t>tải hình ảnh, script, CSS</t>
+  </si>
+  <si>
+    <t>giải pháp\</t>
+  </si>
+  <si>
+    <t>Tối ưu hóa hình ảnh:</t>
+  </si>
+  <si>
+    <t>Sử dụng CDN (Content Delivery Network): Sử dụng CDN để phân phối tài nguyên trên trang web, giúp giảm thời gian tải và tăng tốc độ trang web.</t>
+  </si>
+  <si>
+    <t>Tối ưu hóa CSS và JavaScript</t>
+  </si>
+  <si>
+    <t>1. Sử dụng caching: Sử dụng caching để lưu trữ các tài nguyên trên trình duyệt của người dùng, giúp giảm thời gian tải trang khi người dùng quay trở lại.</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra hosting và máy chủ: Đảm bảo rằng máy chủ của bạn có khả năng xử lý lượng truy cập và tải nhanh tài nguyên.</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra mã nguồn: Đảm bảo rằng mã nguồn của trang web được tối ưu hóa và không có lỗi.</t>
+  </si>
+  <si>
+    <t>điện thoại và máy tính bảng WR nó xem đều là mobile hết</t>
+  </si>
+  <si>
+    <t>chủ yếu nên sửa ở trang chủ</t>
+  </si>
+  <si>
+    <t>speed web</t>
+  </si>
+  <si>
+    <t>trang dịch vụ</t>
+  </si>
+  <si>
+    <t>D:\laragon\www\dadesign\dadesign\wp-content\plugins\js_composer\include\templates\shortcodes\vc_single_image.php</t>
+  </si>
+  <si>
+    <t>trang dự án</t>
+  </si>
+  <si>
+    <t>D:\laragon\www\dadesign\dadesign\wp-content\plugins\js_composer\include\templates\shortcodes\vc_gitem_zone.php</t>
+  </si>
+  <si>
+    <t>trang protofile</t>
+  </si>
+  <si>
+    <t>D:\laragon\www\dadesign\dadesign\wp-content\plugins\shortcodesdex\shortcodes\shortcodes.php</t>
+  </si>
+  <si>
+    <t>1. WP Super Cache: Plugin này giúp tạo ra các bản sao tĩnh của trang web để giảm tải cho máy chủ và tăng tốc độ tải trang.</t>
+  </si>
+  <si>
+    <t>2. Lazy Load: Plugin này cho phép tải ảnh và nội dung chỉ khi người dùng cuộn xuống trang, giúp giảm thời gian tải trang.</t>
+  </si>
+  <si>
+    <t>3. Smush Image Compression and Optimization: Plugin này giúp tối ưu hóa ảnh trên trang web để giảm dung lượng và tăng tốc độ tải trang.</t>
+  </si>
+  <si>
+    <t>4. Autoptimize: Plugin này giúp tối ưu hóa mã nguồn trang web bằng cách kết hợp, nén và tối ưu hóa các tệp CSS và JavaScript.</t>
+  </si>
+  <si>
+    <t>5. W3 Total Cache: Plugin này cung cấp nhiều công cụ tối ưu hóa trang web như tạo bản sao tĩnh, tối ưu hóa database và tối ưu hóa tệp CSS/JavaScript.</t>
+  </si>
+  <si>
+    <t>6. WP-Optimize: Plugin này giúp tối ưu hóa database của trang web bằng cách loại bỏ các tệp không cần thiết và làm sạch dữ liệu không cần thiết.</t>
+  </si>
+  <si>
+    <t>Nhớ rằng việc chọn plugin phụ thuộc vào nhu cầu cụ thể của trang web và sẽ cần kiểm tra tương thích với theme và các plugin khác trước khi cài đặt.</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>rounded-[5px]</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>rounded-[10px]</t>
+  </si>
+  <si>
+    <t>:lg</t>
+  </si>
+  <si>
+    <t>border-1 border-blacks</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4308,6 +4414,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4378,7 +4490,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4439,6 +4551,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5160,10 +5273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:M64"/>
+  <dimension ref="C2:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5376,7 +5489,7 @@
       <c r="C26">
         <v>12</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="37" t="s">
         <v>180</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -5387,7 +5500,7 @@
       <c r="C27">
         <v>13</v>
       </c>
-      <c r="D27" s="36"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="8" t="s">
         <v>182</v>
       </c>
@@ -5671,6 +5784,70 @@
       </c>
       <c r="E64" t="s">
         <v>702</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8">
+      <c r="G67" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8">
+      <c r="G68" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8">
+      <c r="G69" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8">
+      <c r="G70" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8">
+      <c r="H72" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8">
+      <c r="H73" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8">
+      <c r="H74" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="75" spans="7:8">
+      <c r="H75" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="76" spans="7:8">
+      <c r="H76" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="77" spans="7:8">
+      <c r="H77" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="78" spans="7:8">
+      <c r="H78" t="s">
+        <v>1399</v>
       </c>
     </row>
   </sheetData>
@@ -5703,6 +5880,151 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G3:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="7:10">
+      <c r="H3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="7:10">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>386</v>
+      </c>
+      <c r="I5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="7:10">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>388</v>
+      </c>
+      <c r="I6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="7:10">
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="7:10">
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="7:10">
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="7:10">
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="11" spans="7:10">
+      <c r="H11" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" spans="7:10">
+      <c r="H12" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="13" spans="7:10">
+      <c r="H13" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="14" spans="7:10">
+      <c r="H14" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="15" spans="7:10">
+      <c r="H15" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9">
+      <c r="H19" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6525,7 +6847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M18"/>
   <sheetViews>
@@ -6677,12 +6999,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:N35"/>
+  <dimension ref="A8:T42"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6712,7 +7034,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="17" spans="6:14">
+    <row r="17" spans="6:20">
       <c r="F17" t="s">
         <v>603</v>
       </c>
@@ -6723,7 +7045,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="18" spans="6:14">
+    <row r="18" spans="6:20">
       <c r="G18" t="s">
         <v>1332</v>
       </c>
@@ -6734,7 +7056,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="19" spans="6:14">
+    <row r="19" spans="6:20">
       <c r="G19" t="s">
         <v>1334</v>
       </c>
@@ -6745,7 +7067,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="20" spans="6:14">
+    <row r="20" spans="6:20">
       <c r="G20" t="s">
         <v>1336</v>
       </c>
@@ -6759,7 +7081,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="21" spans="6:14">
+    <row r="21" spans="6:20">
       <c r="G21" t="s">
         <v>1339</v>
       </c>
@@ -6767,7 +7089,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="22" spans="6:14">
+    <row r="22" spans="6:20">
       <c r="G22" t="s">
         <v>1340</v>
       </c>
@@ -6775,7 +7097,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="23" spans="6:14">
+    <row r="23" spans="6:20">
       <c r="G23" t="s">
         <v>1342</v>
       </c>
@@ -6783,12 +7105,12 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="24" spans="6:14">
+    <row r="24" spans="6:20">
       <c r="F24" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="25" spans="6:14">
+    <row r="25" spans="6:20">
       <c r="G25" t="s">
         <v>1346</v>
       </c>
@@ -6796,57 +7118,85 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="26" spans="6:14">
+    <row r="26" spans="6:20">
       <c r="G26" t="s">
         <v>1348</v>
       </c>
       <c r="H26" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="27" spans="6:14">
+      <c r="P26" t="s">
+        <v>1400</v>
+      </c>
+      <c r="T26" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="27" spans="6:20">
       <c r="H27" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="28" spans="6:14">
+      <c r="P27" t="s">
+        <v>1401</v>
+      </c>
+      <c r="T27" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="28" spans="6:20">
       <c r="H28" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="29" spans="6:14">
+      <c r="T28" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="29" spans="6:20">
       <c r="F29" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="30" spans="6:14">
+    <row r="30" spans="6:20">
       <c r="G30" s="35" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="31" spans="6:14">
+    <row r="31" spans="6:20">
       <c r="F31" s="4" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="32" spans="6:14">
+    <row r="32" spans="6:20">
       <c r="G32" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="33" spans="7:7">
+    <row r="33" spans="5:7">
       <c r="G33" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="34" spans="7:7">
+    <row r="34" spans="5:7">
       <c r="G34" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="35" spans="7:7">
+    <row r="35" spans="5:7">
       <c r="G35" t="s">
         <v>1357</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7">
+      <c r="E37" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7">
+      <c r="G42" t="s">
+        <v>1405</v>
       </c>
     </row>
   </sheetData>
@@ -6855,7 +7205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:G9"/>
   <sheetViews>
@@ -6952,7 +7302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A16:G182"/>
   <sheetViews>
@@ -7694,7 +8044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H5:K17"/>
   <sheetViews>
@@ -7827,12 +8177,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7967,7 +8317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:J13"/>
   <sheetViews>
@@ -8107,7 +8457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F23"/>
   <sheetViews>
@@ -8254,7 +8604,169 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="8.85546875" style="5"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:7">
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="G4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7">
+      <c r="E5" s="9">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7">
+      <c r="E6" s="9">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7">
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
+      <c r="E8" s="9">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7">
+      <c r="E9" s="9">
+        <v>7</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
+      <c r="E10" s="9">
+        <v>8</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
+      <c r="E11" s="9">
+        <v>9</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
+      <c r="E12" s="9">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7">
+      <c r="E13" s="9">
+        <v>11</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="5:7">
+      <c r="E14" s="9">
+        <v>12</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="5:7">
+      <c r="E15" s="9">
+        <v>13</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="5:7">
+      <c r="E16" s="9">
+        <v>14</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="9">
+        <v>15</v>
+      </c>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="9">
+        <v>16</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="9">
+        <v>17</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="9">
+        <v>18</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="9">
+        <v>19</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" s="9">
+        <v>20</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W273"/>
   <sheetViews>
@@ -9955,174 +10467,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:G22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="8.85546875" style="5"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="5:7">
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="9">
-        <v>2</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="G4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="5" spans="5:7">
-      <c r="E5" s="9">
-        <v>3</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="6" spans="5:7">
-      <c r="E6" s="9">
-        <v>4</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7">
-      <c r="E7" s="9">
-        <v>5</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7">
-      <c r="E8" s="9">
-        <v>6</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7">
-      <c r="E9" s="9">
-        <v>7</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7">
-      <c r="E10" s="9">
-        <v>8</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7">
-      <c r="E11" s="9">
-        <v>9</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7">
-      <c r="E12" s="9">
-        <v>10</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7">
-      <c r="E13" s="9">
-        <v>11</v>
-      </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="5:7">
-      <c r="E14" s="9">
-        <v>12</v>
-      </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="5:7">
-      <c r="E15" s="9">
-        <v>13</v>
-      </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="5:7">
-      <c r="E16" s="9">
-        <v>14</v>
-      </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="9">
-        <v>15</v>
-      </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="9">
-        <v>16</v>
-      </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="9">
-        <v>17</v>
-      </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="9">
-        <v>18</v>
-      </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21" s="9">
-        <v>19</v>
-      </c>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="5:6">
-      <c r="E22" s="9">
-        <v>20</v>
-      </c>
-      <c r="F22" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:X210"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="Q158" sqref="Q158"/>
+    <sheetView topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10734,22 +11084,22 @@
       </c>
     </row>
     <row r="105" spans="4:18" ht="52.5" customHeight="1">
-      <c r="E105" s="37" t="s">
+      <c r="E105" s="38" t="s">
         <v>1163</v>
       </c>
-      <c r="F105" s="37"/>
-      <c r="G105" s="37"/>
-      <c r="H105" s="37"/>
-      <c r="I105" s="37"/>
-      <c r="J105" s="37"/>
-      <c r="K105" s="37"/>
-      <c r="L105" s="37"/>
-      <c r="M105" s="37"/>
-      <c r="N105" s="37"/>
-      <c r="O105" s="37"/>
-      <c r="P105" s="37"/>
-      <c r="Q105" s="37"/>
-      <c r="R105" s="37"/>
+      <c r="F105" s="38"/>
+      <c r="G105" s="38"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="38"/>
+      <c r="J105" s="38"/>
+      <c r="K105" s="38"/>
+      <c r="L105" s="38"/>
+      <c r="M105" s="38"/>
+      <c r="N105" s="38"/>
+      <c r="O105" s="38"/>
+      <c r="P105" s="38"/>
+      <c r="Q105" s="38"/>
+      <c r="R105" s="38"/>
     </row>
     <row r="106" spans="4:18">
       <c r="E106" t="s">
@@ -11443,6 +11793,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G4:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4" spans="7:8" ht="17.25">
+      <c r="G4" s="36" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="5" spans="7:8" ht="17.25">
+      <c r="H5" s="36" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="6" spans="7:8" ht="17.25">
+      <c r="H6" s="36" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="7" spans="7:8" ht="17.25">
+      <c r="H7" s="36" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="9" spans="7:8">
+      <c r="G9" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="10" spans="7:8">
+      <c r="H10" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="11" spans="7:8">
+      <c r="H11" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="12" spans="7:8">
+      <c r="H12" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="13" spans="7:8">
+      <c r="H13" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="14" spans="7:8">
+      <c r="H14" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="15" spans="7:8">
+      <c r="H15" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:G58"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -11510,7 +11941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K51"/>
   <sheetViews>
@@ -12093,7 +12524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:G25"/>
   <sheetViews>
@@ -12296,7 +12727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:U110"/>
   <sheetViews>
@@ -13023,7 +13454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F31"/>
   <sheetViews>
@@ -13245,12 +13676,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13333,149 +13764,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G3:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="7:10">
-      <c r="H3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="5" spans="7:10">
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>386</v>
-      </c>
-      <c r="I5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="6" spans="7:10">
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>388</v>
-      </c>
-      <c r="I6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="7" spans="7:10">
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="8" spans="7:10">
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="9" spans="7:10">
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="10" spans="7:10">
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="11" spans="7:10">
-      <c r="H11" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="12" spans="7:10">
-      <c r="H12" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="13" spans="7:10">
-      <c r="H13" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="14" spans="7:10">
-      <c r="H14" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="15" spans="7:10">
-      <c r="H15" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9">
-      <c r="H19" t="s">
-        <v>1369</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="1406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="1409">
   <si>
     <t>-</t>
   </si>
@@ -4297,6 +4297,15 @@
   </si>
   <si>
     <t>border-1 border-blacks</t>
+  </si>
+  <si>
+    <t>home ok</t>
+  </si>
+  <si>
+    <t>contact ok</t>
+  </si>
+  <si>
+    <t>chuyển cái mới vào footer</t>
   </si>
 </sst>
 </file>
@@ -5273,10 +5282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:M78"/>
+  <dimension ref="C2:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="O91" sqref="O91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5848,6 +5857,24 @@
     <row r="78" spans="7:8">
       <c r="H78" t="s">
         <v>1399</v>
+      </c>
+    </row>
+    <row r="88" spans="10:15">
+      <c r="J88" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="89" spans="10:15">
+      <c r="K89" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="90" spans="10:15">
+      <c r="K90" t="s">
+        <v>1407</v>
+      </c>
+      <c r="O90" t="s">
+        <v>1408</v>
       </c>
     </row>
   </sheetData>
@@ -7307,7 +7334,7 @@
   <dimension ref="A16:G182"/>
   <sheetViews>
     <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="L157" sqref="L157"/>
+      <selection activeCell="M168" sqref="M168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10471,8 +10498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:X210"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="Y174" sqref="Y174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="20"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="REST API" sheetId="19" r:id="rId19"/>
     <sheet name="shopify" sheetId="21" r:id="rId20"/>
     <sheet name="laravel" sheetId="22" r:id="rId21"/>
+    <sheet name="tax" sheetId="25" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="1409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="1417">
   <si>
     <t>-</t>
   </si>
@@ -4306,6 +4307,30 @@
   </si>
   <si>
     <t>chuyển cái mới vào footer</t>
+  </si>
+  <si>
+    <t>cả 3 đều là trang thương mại điện tử</t>
+  </si>
+  <si>
+    <t>Prestashop</t>
+  </si>
+  <si>
+    <t>shopify</t>
+  </si>
+  <si>
+    <t>các bước</t>
+  </si>
+  <si>
+    <t>đầu tiên phải đăng kí tất cả các loại thuế có liên quan</t>
+  </si>
+  <si>
+    <t>tạo quy tắc thuế cho khoản thuế đó để chỉ định các quốc gia áp dụng thuế</t>
+  </si>
+  <si>
+    <t>đặt quy tắc thuế cho sản phẩm</t>
+  </si>
+  <si>
+    <t>Tìm hiểu về cách thức quản lý thuế trên 3 nền tảng này và tổng kết lại nó</t>
   </si>
 </sst>
 </file>
@@ -10498,7 +10523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:X210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+    <sheetView topLeftCell="A170" workbookViewId="0">
       <selection activeCell="Y174" sqref="Y174"/>
     </sheetView>
   </sheetViews>
@@ -11815,6 +11840,73 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="D2" s="4" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="C5" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="C9" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="D12" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="D13" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="D14" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="21"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="1417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1428">
   <si>
     <t>-</t>
   </si>
@@ -4300,15 +4300,6 @@
     <t>border-1 border-blacks</t>
   </si>
   <si>
-    <t>home ok</t>
-  </si>
-  <si>
-    <t>contact ok</t>
-  </si>
-  <si>
-    <t>chuyển cái mới vào footer</t>
-  </si>
-  <si>
     <t>cả 3 đều là trang thương mại điện tử</t>
   </si>
   <si>
@@ -4331,6 +4322,48 @@
   </si>
   <si>
     <t>Tìm hiểu về cách thức quản lý thuế trên 3 nền tảng này và tổng kết lại nó</t>
+  </si>
+  <si>
+    <t>Dưới đây là một số ví dụ về môi trường chạy của một số ngôn ngữ lập trình phổ biến:</t>
+  </si>
+  <si>
+    <t>Môi trường chạy JavaScript thường là trình duyệt web (ví dụ: Chrome, Firefox).</t>
+  </si>
+  <si>
+    <t>Có các môi trường chạy JavaScript khác như Node.js cho phép chạy JavaScript trên máy chủ.</t>
+  </si>
+  <si>
+    <t>Python có các môi trường chạy như CPython (mặc định), Jython (Python trên Java Virtual Machine), IronPython (Python trên .NET Framework).</t>
+  </si>
+  <si>
+    <t>Môi trường chạy của Java là Java Virtual Machine (JVM), cung cấp môi trường chạy độc lập giữa mã nguồn và hệ điều hành.</t>
+  </si>
+  <si>
+    <t>PHP thường chạy trên các máy chủ web thông qua các máy chủ web như Apache, Nginx, hoặc trên các môi trường phát triển như XAMPP, Wamp, hoặc máy chủ web built-in.</t>
+  </si>
+  <si>
+    <t>1. JavaScript:</t>
+  </si>
+  <si>
+    <t>2. Python:</t>
+  </si>
+  <si>
+    <t>3. Java:</t>
+  </si>
+  <si>
+    <t>4. PHP:</t>
+  </si>
+  <si>
+    <t>Môi trường chạy (runtime environment) của một ngôn ngữ lập trình là môi trường trong đó mã nguồn của chương trình được thực thi và chạy. thư viện, module và các tài nguyên khác mà chương trình cần để hoạt động.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Môi trường chạy cung cấp các thành phần cần thiết để interpeter hoặc compiler có thể chạy mã nguồn và cung cấp các hàm, </t>
+  </si>
+  <si>
+    <t>Mỗi ngôn ngữ lập trình có môi trường chạy riêng, tùy thuộc vào cách cấu trúc và cách hoạt động của ngôn ngữ đó. môi trường chạy tương ứng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Để hiểu rõ hơn về môi trường chạy của một ngôn ngữ cụ thể, bạn cần nghiên cứu về cấu trúc của ngôn ngữ đó và cách mà mã nguồn được thực thi trong </t>
   </si>
 </sst>
 </file>
@@ -5307,10 +5340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:O90"/>
+  <dimension ref="C2:M98"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="O91" sqref="O91"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5884,22 +5917,74 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="88" spans="10:15">
-      <c r="J88" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="89" spans="10:15">
-      <c r="K89" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="90" spans="10:15">
-      <c r="K90" t="s">
-        <v>1407</v>
-      </c>
-      <c r="O90" t="s">
-        <v>1408</v>
+    <row r="81" spans="3:3">
+      <c r="C81" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" t="s">
+        <v>1427</v>
       </c>
     </row>
   </sheetData>
@@ -7056,7 +7141,7 @@
   <dimension ref="A8:T42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11847,7 +11932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -11855,7 +11940,7 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="D2" s="4" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -11863,12 +11948,12 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="C5" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -11878,7 +11963,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="C9" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -11886,22 +11971,22 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="D12" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="D13" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="D14" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
   </sheetData>

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -5342,7 +5342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
@@ -8318,8 +8318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="16"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="shopify" sheetId="21" r:id="rId20"/>
     <sheet name="laravel" sheetId="22" r:id="rId21"/>
     <sheet name="tax" sheetId="25" r:id="rId22"/>
+    <sheet name="task shopify" sheetId="26" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="1554">
   <si>
     <t>-</t>
   </si>
@@ -4365,12 +4366,410 @@
   <si>
     <t xml:space="preserve">Để hiểu rõ hơn về môi trường chạy của một ngôn ngữ cụ thể, bạn cần nghiên cứu về cấu trúc của ngôn ngữ đó và cách mà mã nguồn được thực thi trong </t>
   </si>
+  <si>
+    <t>Packing slips</t>
+  </si>
+  <si>
+    <t>Custom order fulfillment</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Carrier accounts</t>
+  </si>
+  <si>
+    <t>Shopify Shipping</t>
+  </si>
+  <si>
+    <t>Saved packages</t>
+  </si>
+  <si>
+    <t>Delivery customizations</t>
+  </si>
+  <si>
+    <t>chưa</t>
+  </si>
+  <si>
+    <t>Pickup in store</t>
+  </si>
+  <si>
+    <t>Local delivery</t>
+  </si>
+  <si>
+    <t>Order routing</t>
+  </si>
+  <si>
+    <t>Expected delivery dates</t>
+  </si>
+  <si>
+    <t>làm đến đây</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Hong Kong SAR</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>thiếu hungary</t>
+  </si>
+  <si>
+    <t>asia 47/82 mà</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>Update dev2 product details page</t>
+  </si>
+  <si>
+    <t>Cập nhật trang chi tiết sản phẩm trên trang dev2 để trông giống trang chi tiết sản phẩm trực tiếp</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chưa thêm chức năng cho </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tùy biến ván trượt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F2149"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, đó là một nhiệm vụ khác</t>
+    </r>
+  </si>
+  <si>
+    <t>Không sao chép mã trực tiếp từ trực tiếp sang dev vì chủ đề trên dev2 là chủ đề 2.0 phải được giữ sạch sẽ</t>
+  </si>
+  <si>
+    <t>Luôn sử dụng các phương pháp hay nhất</t>
+  </si>
+  <si>
+    <t>trái</t>
+  </si>
+  <si>
+    <t>phải</t>
+  </si>
+  <si>
+    <t>thương hiệu</t>
+  </si>
+  <si>
+    <t>tên sản phẩm</t>
+  </si>
+  <si>
+    <t>giá</t>
+  </si>
+  <si>
+    <t>thông tin</t>
+  </si>
+  <si>
+    <t>mô tả</t>
+  </si>
+  <si>
+    <t>số lượng</t>
+  </si>
+  <si>
+    <t>add sp</t>
+  </si>
+  <si>
+    <t>thông tin thêm</t>
+  </si>
+  <si>
+    <t>mô tả/giao hàng</t>
+  </si>
+  <si>
+    <t>tải theme xuống bằng mail</t>
+  </si>
+  <si>
+    <t>tạo tên của theme</t>
+  </si>
+  <si>
+    <t>wrapAround": true</t>
+  </si>
+  <si>
+    <t>Cho phép cuộn vô hạn qua các mục trong carousel.</t>
+  </si>
+  <si>
+    <t>lazyLoad": true</t>
+  </si>
+  <si>
+    <t>Kích hoạt chức năng tải ảnh lười biếng để tối ưu hóa tốc độ tải trang.</t>
+  </si>
+  <si>
+    <t>autoPlay": 2000</t>
+  </si>
+  <si>
+    <t>Tự động chạy carousel khi trang được tải.</t>
+  </si>
+  <si>
+    <t>cellAlign": "center</t>
+  </si>
+  <si>
+    <t>Căn chỉnh các mục trong carousel theo 'left', 'center', hoặc 'right'.</t>
+  </si>
+  <si>
+    <t>Hiển thị nút "Previous" và "Next" để điều hướng qua các mục trong</t>
+  </si>
+  <si>
+    <t>prevNextButtons": true</t>
+  </si>
+  <si>
+    <t>pageDots": true</t>
+  </si>
+  <si>
+    <t>Hiển thị các dấu chấm trang để biểu thị trạng thái của carousel.</t>
+  </si>
+  <si>
+    <t>groupCells": 2</t>
+  </si>
+  <si>
+    <t>Hiển thị 2 mục trong mỗi nhóm:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"percentPosition": false </t>
+  </si>
+  <si>
+    <t>sử dụng % hoặc px</t>
+  </si>
+  <si>
+    <t>"asNavFor": ".carousel-main"</t>
+  </si>
+  <si>
+    <t>để đồng bộ với 1 slider khác có class ".carousel-main"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"draggable": false, </t>
+  </si>
+  <si>
+    <t>các mục trong carousel sẽ không thể được kéo hoặc chuyển động bằng cách kéo chuột trên màn hình. Điều này chặn khả năng kéo để chuyển đổi giữa các mục trong carousel.</t>
+  </si>
+  <si>
+    <t>tài liệu thiết kế tabs</t>
+  </si>
+  <si>
+    <t>https://websensepro.com/blog/how-to-add-product-tab-description-in-shopify/</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>shopify theme dev --store https://ocd-skateshop-dev-2.myshopify.com</t>
+  </si>
+  <si>
+    <t>shopify theme dev --store ocd-skateshop-dev-2</t>
+  </si>
+  <si>
+    <t>npm install -g @shopify-cli/shopify-cli</t>
+  </si>
+  <si>
+    <t>Pinterest</t>
+  </si>
+  <si>
+    <t>Boost AI Search &amp; Discovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPY PRODUCT DETAIL PAGE </t>
+  </si>
+  <si>
+    <t>SLIDER</t>
+  </si>
+  <si>
+    <t>NỘI DUNG CÔNG VIỆC</t>
+  </si>
+  <si>
+    <t>SỬ DỤNG</t>
+  </si>
+  <si>
+    <t>GHI CHÚ</t>
+  </si>
+  <si>
+    <t>Khi áp vào sản phẩm chi tiết bị conflig tương tự như sp liên quan</t>
+  </si>
+  <si>
+    <t>Tìm slider tương ứng để sử dụng, cái này khác dạng slider live</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Js</t>
+  </si>
+  <si>
+    <t>Css</t>
+  </si>
+  <si>
+    <t>Xử lí click vào slider đứng thì hiển thị ở slider ngang</t>
+  </si>
+  <si>
+    <t>Js, css</t>
+  </si>
+  <si>
+    <t>Xử lí popup slider, click hiển thị đúng hình ảnh được click</t>
+  </si>
+  <si>
+    <t>Hoàn thành</t>
+  </si>
+  <si>
+    <t>Xử lí hiển thị 4 hình ảnh ở slider đứng</t>
+  </si>
+  <si>
+    <t>Tabs</t>
+  </si>
+  <si>
+    <t>Tìm hiều cách tạo tabs trong shopify liquid</t>
+  </si>
+  <si>
+    <t>Js, liquid</t>
+  </si>
+  <si>
+    <t>Docs</t>
+  </si>
+  <si>
+    <t>Truy xuất mô tả sản phẩm</t>
+  </si>
+  <si>
+    <t>Responsive</t>
+  </si>
+  <si>
+    <t>Css, js</t>
+  </si>
+  <si>
+    <t>Chi tiết sản phẩm(bên phải)</t>
+  </si>
+  <si>
+    <t>Tìm hiểu cách truy xuất logo</t>
+  </si>
+  <si>
+    <t>Docs, liquid</t>
+  </si>
+  <si>
+    <t>Tiêu đề có sẵn</t>
+  </si>
+  <si>
+    <t>Giá có sẵn</t>
+  </si>
+  <si>
+    <t>After đang chờ khách hàng phản hồi</t>
+  </si>
+  <si>
+    <t>Tình trạng sản phẩm</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Kéo thả</t>
+  </si>
+  <si>
+    <t>Đang chờ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuấn </t>
+  </si>
+  <si>
+    <t>Size chart, tìm hiểu live sử dụng app nào, config Aize Chart - Avada</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Select Size, không can thiệp được HTML nên css hơi rối, sự kiện click chưa hoàn thành</t>
+  </si>
+  <si>
+    <t>NOT OK</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Add to Cart</t>
+  </si>
+  <si>
+    <t>Tìm hiểu vị trí truy xuất dữ liệu ở admin/setting, thêm code trong file</t>
+  </si>
+  <si>
+    <t>Liquid, js</t>
+  </si>
+  <si>
+    <t>Order before : Tìm hiểu vị trí truy xuất dữ liệu ở admin/setting, thêm code trong file</t>
+  </si>
+  <si>
+    <t>What size: Tìm hiểu vị trí truy xuất dữ liệu ở admin/setting, thêm code trong file</t>
+  </si>
+  <si>
+    <t>Sản phẩm liên quan…</t>
+  </si>
+  <si>
+    <t>Layout destop, di chuyển vị trí trong responsive, đổi thành dạng dropdown</t>
+  </si>
+  <si>
+    <t>Slideshow-component</t>
+  </si>
+  <si>
+    <t>Chị Ngân</t>
+  </si>
+  <si>
+    <t>Tổng thời gian</t>
+  </si>
+  <si>
+    <t>THỜI GIAN (h)</t>
+  </si>
+  <si>
+    <t>Tìm hiểu nhưng vướng mắc</t>
+  </si>
+  <si>
+    <t>Kéo thả, custom</t>
+  </si>
+  <si>
+    <t>Config, css</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4487,8 +4886,46 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F2149"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4512,8 +4949,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -4551,13 +5006,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4619,11 +5111,66 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4973,7 +5520,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1141834</xdr:colOff>
+      <xdr:colOff>770359</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -5010,8 +5557,8 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>98224</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>3031924</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5556,7 +6103,7 @@
       <c r="C26">
         <v>12</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="39" t="s">
         <v>180</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -5567,7 +6114,7 @@
       <c r="C27">
         <v>13</v>
       </c>
-      <c r="D27" s="37"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="8" t="s">
         <v>182</v>
       </c>
@@ -8318,8 +8865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8905,24 +9452,27 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W273"/>
+  <dimension ref="B2:W340"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="S247" sqref="S247"/>
+    <sheetView topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="K339" sqref="K339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
     <col min="18" max="18" width="9.140625" customWidth="1"/>
     <col min="19" max="19" width="15.5703125" customWidth="1"/>
     <col min="20" max="20" width="19.85546875" customWidth="1"/>
-    <col min="21" max="21" width="33.140625" customWidth="1"/>
+    <col min="21" max="21" width="61.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.42578125" customWidth="1"/>
     <col min="23" max="23" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>760</v>
       </c>
@@ -8933,7 +9483,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:13">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -8941,7 +9491,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:13">
       <c r="C5">
         <v>1</v>
       </c>
@@ -8952,12 +9502,12 @@
         <v>775</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:13">
       <c r="D6" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:13">
       <c r="D7" t="s">
         <v>764</v>
       </c>
@@ -8965,7 +9515,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:13">
       <c r="D8" t="s">
         <v>765</v>
       </c>
@@ -8973,12 +9523,12 @@
         <v>767</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:13">
       <c r="M9" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:13">
       <c r="C10">
         <v>2</v>
       </c>
@@ -8986,61 +9536,61 @@
         <v>776</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
-      <c r="M11" t="s">
+    <row r="11" spans="2:13">
+      <c r="H11" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
-      <c r="M13">
+    <row r="13" spans="2:13">
+      <c r="H13">
         <v>1</v>
       </c>
-      <c r="N13" t="s">
+      <c r="I13" t="s">
         <v>770</v>
       </c>
-      <c r="P13" t="s">
+      <c r="K13" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
-      <c r="M14">
+    <row r="14" spans="2:13">
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="N14" t="s">
+      <c r="I14" t="s">
         <v>771</v>
       </c>
-      <c r="P14" t="s">
+      <c r="K14" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
-      <c r="M15">
+    <row r="15" spans="2:13">
+      <c r="H15">
         <v>3</v>
       </c>
-      <c r="N15" t="s">
+      <c r="I15" t="s">
         <v>772</v>
       </c>
-      <c r="P15" t="s">
+      <c r="K15" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
-      <c r="M16">
+    <row r="16" spans="2:13">
+      <c r="H16">
         <v>4</v>
       </c>
-      <c r="N16" t="s">
+      <c r="I16" t="s">
         <v>773</v>
       </c>
-      <c r="P16" t="s">
+      <c r="K16" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="21" spans="10:23">
+    <row r="21" spans="10:21">
       <c r="M21" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="22" spans="10:23">
+    <row r="22" spans="10:21">
       <c r="N22" t="s">
         <v>778</v>
       </c>
@@ -9048,7 +9598,10 @@
         <v>779</v>
       </c>
     </row>
-    <row r="23" spans="10:23">
+    <row r="23" spans="10:21">
+      <c r="M23">
+        <v>1</v>
+      </c>
       <c r="N23" t="s">
         <v>791</v>
       </c>
@@ -9056,15 +9609,24 @@
         <v>792</v>
       </c>
     </row>
-    <row r="24" spans="10:23">
+    <row r="24" spans="10:21">
+      <c r="M24">
+        <v>2</v>
+      </c>
       <c r="N24" t="s">
         <v>793</v>
       </c>
       <c r="Q24" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="25" spans="10:23">
+      <c r="S24" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="25" spans="10:21">
+      <c r="M25">
+        <v>3</v>
+      </c>
       <c r="N25" t="s">
         <v>781</v>
       </c>
@@ -9072,18 +9634,18 @@
         <v>782</v>
       </c>
     </row>
-    <row r="26" spans="10:23">
+    <row r="26" spans="10:21">
       <c r="N26" t="s">
         <v>794</v>
       </c>
       <c r="Q26" t="s">
         <v>783</v>
       </c>
-      <c r="W26" t="s">
+      <c r="U26" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="27" spans="10:23">
+    <row r="27" spans="10:21">
       <c r="N27" t="s">
         <v>796</v>
       </c>
@@ -9091,7 +9653,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="28" spans="10:23">
+    <row r="28" spans="10:21">
       <c r="N28" t="s">
         <v>798</v>
       </c>
@@ -9099,7 +9661,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="31" spans="10:23">
+    <row r="31" spans="10:21">
       <c r="J31">
         <v>1</v>
       </c>
@@ -9107,7 +9669,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="32" spans="10:23">
+    <row r="32" spans="10:21">
       <c r="J32">
         <v>2</v>
       </c>
@@ -10107,7 +10669,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="193" spans="5:8">
+    <row r="193" spans="5:22">
       <c r="F193" t="s">
         <v>962</v>
       </c>
@@ -10115,7 +10677,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="194" spans="5:8">
+    <row r="194" spans="5:22">
       <c r="E194" t="s">
         <v>0</v>
       </c>
@@ -10123,7 +10685,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="195" spans="5:8">
+    <row r="195" spans="5:22">
       <c r="F195" t="s">
         <v>968</v>
       </c>
@@ -10131,7 +10693,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="196" spans="5:8">
+    <row r="196" spans="5:22">
       <c r="F196" t="s">
         <v>969</v>
       </c>
@@ -10139,7 +10701,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="197" spans="5:8">
+    <row r="197" spans="5:22">
       <c r="F197" t="s">
         <v>970</v>
       </c>
@@ -10147,17 +10709,17 @@
         <v>973</v>
       </c>
     </row>
-    <row r="198" spans="5:8">
+    <row r="198" spans="5:22">
       <c r="H198" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="199" spans="5:8">
+    <row r="199" spans="5:22">
       <c r="H199" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="200" spans="5:8">
+    <row r="200" spans="5:22">
       <c r="E200" t="s">
         <v>0</v>
       </c>
@@ -10165,22 +10727,22 @@
         <v>956</v>
       </c>
     </row>
-    <row r="201" spans="5:8">
+    <row r="201" spans="5:22">
       <c r="G201" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="203" spans="5:8">
+    <row r="203" spans="5:22">
       <c r="E203" s="31" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="204" spans="5:8">
+    <row r="204" spans="5:22">
       <c r="F204" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="205" spans="5:8">
+    <row r="205" spans="5:22">
       <c r="F205" t="s">
         <v>975</v>
       </c>
@@ -10188,59 +10750,123 @@
         <v>981</v>
       </c>
     </row>
-    <row r="206" spans="5:8">
+    <row r="206" spans="5:22">
       <c r="F206" t="s">
         <v>976</v>
       </c>
       <c r="G206" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="207" spans="5:8">
+      <c r="U206" t="s">
+        <v>1439</v>
+      </c>
+      <c r="V206" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="207" spans="5:22">
       <c r="F207" t="s">
         <v>977</v>
       </c>
       <c r="G207" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="209" spans="5:13">
+      <c r="U207" t="s">
+        <v>1438</v>
+      </c>
+      <c r="V207" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="208" spans="5:22">
+      <c r="U208" t="s">
+        <v>1437</v>
+      </c>
+      <c r="V208" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="209" spans="5:22">
       <c r="E209" s="31" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="210" spans="5:13">
+      <c r="U209" t="s">
+        <v>1436</v>
+      </c>
+      <c r="V209" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="210" spans="5:22">
       <c r="F210" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="211" spans="5:13">
+      <c r="U210" t="s">
+        <v>1434</v>
+      </c>
+      <c r="V210" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="211" spans="5:22">
       <c r="F211" t="s">
         <v>984</v>
       </c>
       <c r="H211" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="212" spans="5:13">
+      <c r="U211" t="s">
+        <v>1433</v>
+      </c>
+      <c r="V211" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="212" spans="5:22">
       <c r="F212" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="213" spans="5:13">
+      <c r="U212" t="s">
+        <v>1432</v>
+      </c>
+      <c r="V212" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="213" spans="5:22">
       <c r="F213" t="s">
         <v>986</v>
       </c>
       <c r="H213" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="215" spans="5:13">
+      <c r="U213" t="s">
+        <v>1431</v>
+      </c>
+      <c r="V213" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="214" spans="5:22">
+      <c r="U214" t="s">
+        <v>1428</v>
+      </c>
+      <c r="V214" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="215" spans="5:22">
       <c r="E215" s="31" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="216" spans="5:13">
+      <c r="U215" t="s">
+        <v>1429</v>
+      </c>
+      <c r="V215" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="216" spans="5:22">
       <c r="F216" t="s">
         <v>990</v>
       </c>
@@ -10248,7 +10874,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="217" spans="5:13">
+    <row r="217" spans="5:22">
       <c r="F217" t="s">
         <v>991</v>
       </c>
@@ -10256,7 +10882,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="218" spans="5:13">
+    <row r="218" spans="5:22">
       <c r="F218" t="s">
         <v>992</v>
       </c>
@@ -10267,73 +10893,137 @@
         <v>994</v>
       </c>
     </row>
-    <row r="219" spans="5:13">
+    <row r="219" spans="5:22">
       <c r="F219" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="220" spans="5:13">
+      <c r="U219" t="s">
+        <v>1441</v>
+      </c>
+      <c r="V219" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="220" spans="5:22">
       <c r="F220" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="221" spans="5:13">
+      <c r="U220" t="s">
+        <v>1442</v>
+      </c>
+      <c r="V220" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="221" spans="5:22">
       <c r="F221" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="222" spans="5:13">
+      <c r="U221" t="s">
+        <v>1443</v>
+      </c>
+      <c r="V221" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="222" spans="5:22">
       <c r="F222" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="224" spans="5:13">
+      <c r="U222" t="s">
+        <v>1444</v>
+      </c>
+      <c r="V222" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="223" spans="5:22">
+      <c r="U223" t="s">
+        <v>1445</v>
+      </c>
+      <c r="V223" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="224" spans="5:22">
       <c r="E224" s="31" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="225" spans="5:14">
+      <c r="U224" t="s">
+        <v>1446</v>
+      </c>
+      <c r="V224" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="225" spans="5:22">
       <c r="F225" t="s">
         <v>1000</v>
       </c>
       <c r="G225" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="226" spans="5:14">
+      <c r="U225" t="s">
+        <v>1447</v>
+      </c>
+      <c r="V225" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="226" spans="5:22">
       <c r="F226" t="s">
         <v>1001</v>
       </c>
       <c r="G226" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="228" spans="5:14">
+      <c r="U226" t="s">
+        <v>1448</v>
+      </c>
+      <c r="V226" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="227" spans="5:22">
+      <c r="U227" t="s">
+        <v>1449</v>
+      </c>
+      <c r="V227" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="228" spans="5:22">
       <c r="E228" s="31" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="229" spans="5:14">
+      <c r="U228" t="s">
+        <v>1450</v>
+      </c>
+      <c r="V228" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="229" spans="5:22">
       <c r="F229" s="32" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="230" spans="5:14">
+    <row r="230" spans="5:22">
       <c r="F230" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="231" spans="5:14">
+    <row r="231" spans="5:22">
       <c r="F231" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="232" spans="5:14">
+    <row r="232" spans="5:22">
       <c r="F232" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="234" spans="5:14">
+    <row r="234" spans="5:22">
       <c r="E234" s="31" t="s">
         <v>1008</v>
       </c>
@@ -10344,7 +11034,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="235" spans="5:14">
+    <row r="235" spans="5:22">
       <c r="F235" t="s">
         <v>22</v>
       </c>
@@ -10352,27 +11042,27 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="236" spans="5:14">
+    <row r="236" spans="5:22">
       <c r="F236" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="237" spans="5:14">
+    <row r="237" spans="5:22">
       <c r="F237" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="5:14">
+    <row r="238" spans="5:22">
       <c r="F238" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="5:14">
+    <row r="239" spans="5:22">
       <c r="F239" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="240" spans="5:14">
+    <row r="240" spans="5:22">
       <c r="F240" t="s">
         <v>1014</v>
       </c>
@@ -10582,12 +11272,304 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="273" spans="5:6">
+    <row r="273" spans="5:17">
       <c r="E273" t="s">
         <v>1058</v>
       </c>
       <c r="F273" t="s">
         <v>1059</v>
+      </c>
+    </row>
+    <row r="275" spans="5:17">
+      <c r="L275" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="276" spans="5:17">
+      <c r="M276" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="277" spans="5:17" ht="15.75">
+      <c r="N277" s="37" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="278" spans="5:17" ht="15.75">
+      <c r="N278" s="37" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="279" spans="5:17" ht="15.75">
+      <c r="N279" s="37" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="280" spans="5:17" ht="15.75">
+      <c r="N280" s="37" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="283" spans="5:17">
+      <c r="J283" s="38" t="s">
+        <v>1460</v>
+      </c>
+      <c r="O283" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="284" spans="5:17">
+      <c r="J284">
+        <v>1</v>
+      </c>
+      <c r="K284" t="s">
+        <v>623</v>
+      </c>
+      <c r="L284" t="s">
+        <v>775</v>
+      </c>
+      <c r="N284">
+        <v>1</v>
+      </c>
+      <c r="O284" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q284" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="285" spans="5:17">
+      <c r="J285">
+        <v>2</v>
+      </c>
+      <c r="K285" t="s">
+        <v>399</v>
+      </c>
+      <c r="L285" t="s">
+        <v>775</v>
+      </c>
+      <c r="N285">
+        <v>2</v>
+      </c>
+      <c r="O285" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Q285" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="286" spans="5:17">
+      <c r="J286">
+        <v>3</v>
+      </c>
+      <c r="K286" t="s">
+        <v>1470</v>
+      </c>
+      <c r="L286" t="s">
+        <v>775</v>
+      </c>
+      <c r="N286">
+        <v>3</v>
+      </c>
+      <c r="O286" t="s">
+        <v>1464</v>
+      </c>
+      <c r="Q286" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="287" spans="5:17">
+      <c r="N287">
+        <v>4</v>
+      </c>
+      <c r="O287" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="288" spans="5:17">
+      <c r="N288">
+        <v>5</v>
+      </c>
+      <c r="O288" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="289" spans="5:15">
+      <c r="N289">
+        <v>6</v>
+      </c>
+      <c r="O289" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="290" spans="5:15">
+      <c r="N290">
+        <v>7</v>
+      </c>
+      <c r="O290" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="291" spans="5:15">
+      <c r="N291">
+        <v>8</v>
+      </c>
+      <c r="O291" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="292" spans="5:15">
+      <c r="N292">
+        <v>9</v>
+      </c>
+      <c r="O292" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="296" spans="5:15">
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="297" spans="5:15">
+      <c r="E297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="5:15">
+      <c r="E301" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H301" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="302" spans="5:15">
+      <c r="E302" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H302" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="303" spans="5:15">
+      <c r="E303" t="s">
+        <v>1477</v>
+      </c>
+      <c r="H303" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="304" spans="5:15">
+      <c r="E304" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H304" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="305" spans="5:10">
+      <c r="E305" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H305" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="306" spans="5:10">
+      <c r="E306" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H306" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="307" spans="5:10">
+      <c r="E307" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H307" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="308" spans="5:10">
+      <c r="E308" t="s">
+        <v>1487</v>
+      </c>
+      <c r="H308" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="309" spans="5:10">
+      <c r="E309" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H309" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="310" spans="5:10">
+      <c r="E310" t="s">
+        <v>1491</v>
+      </c>
+      <c r="H310" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="318" spans="5:10">
+      <c r="G318" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J318" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="328" spans="8:8">
+      <c r="H328" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="329" spans="8:8">
+      <c r="H329" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="330" spans="8:8">
+      <c r="H330" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="331" spans="8:8">
+      <c r="H331" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="332" spans="8:8">
+      <c r="H332" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="333" spans="8:8">
+      <c r="H333" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="337" spans="7:8">
+      <c r="G337" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="339" spans="7:8">
+      <c r="H339" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="340" spans="7:8">
+      <c r="H340" t="s">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -11221,22 +12203,22 @@
       </c>
     </row>
     <row r="105" spans="4:18" ht="52.5" customHeight="1">
-      <c r="E105" s="38" t="s">
+      <c r="E105" s="40" t="s">
         <v>1163</v>
       </c>
-      <c r="F105" s="38"/>
-      <c r="G105" s="38"/>
-      <c r="H105" s="38"/>
-      <c r="I105" s="38"/>
-      <c r="J105" s="38"/>
-      <c r="K105" s="38"/>
-      <c r="L105" s="38"/>
-      <c r="M105" s="38"/>
-      <c r="N105" s="38"/>
-      <c r="O105" s="38"/>
-      <c r="P105" s="38"/>
-      <c r="Q105" s="38"/>
-      <c r="R105" s="38"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="40"/>
+      <c r="K105" s="40"/>
+      <c r="L105" s="40"/>
+      <c r="M105" s="40"/>
+      <c r="N105" s="40"/>
+      <c r="O105" s="40"/>
+      <c r="P105" s="40"/>
+      <c r="Q105" s="40"/>
+      <c r="R105" s="40"/>
     </row>
     <row r="106" spans="4:18">
       <c r="E106" t="s">
@@ -11990,6 +12972,737 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:I38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="41"/>
+    <col min="2" max="2" width="9.140625" style="42"/>
+    <col min="3" max="3" width="75.28515625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:9" ht="27">
+      <c r="B4" s="49" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>453</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>1505</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="52">
+        <v>1</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="53" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H7" s="51">
+        <f>SUM(H8:H14)</f>
+        <v>23</v>
+      </c>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H8" s="43">
+        <v>1</v>
+      </c>
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H9" s="43">
+        <v>8</v>
+      </c>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H10" s="43">
+        <v>4</v>
+      </c>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H11" s="43">
+        <v>2</v>
+      </c>
+      <c r="I11" s="43"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H12" s="43">
+        <v>4</v>
+      </c>
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F13" s="43"/>
+      <c r="G13" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H13" s="43">
+        <v>2</v>
+      </c>
+      <c r="I13" s="43"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H14" s="43">
+        <v>2</v>
+      </c>
+      <c r="I14" s="43"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="52">
+        <v>2</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="53" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H15" s="51">
+        <f>SUM(H16:H20)</f>
+        <v>8</v>
+      </c>
+      <c r="I15" s="44"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H16" s="43">
+        <v>1</v>
+      </c>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H17" s="43">
+        <v>1</v>
+      </c>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H18" s="43">
+        <v>2</v>
+      </c>
+      <c r="I18" s="43"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H19" s="43">
+        <v>2</v>
+      </c>
+      <c r="I19" s="43"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H20" s="43">
+        <v>2</v>
+      </c>
+      <c r="I20" s="43"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="52">
+        <v>3</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="51">
+        <f>SUM(H22:H34)</f>
+        <v>25.1</v>
+      </c>
+      <c r="I21" s="44"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H22" s="43">
+        <v>2</v>
+      </c>
+      <c r="I22" s="43"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H23" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="I23" s="43"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H24" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="43"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F25" s="43"/>
+      <c r="G25" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H25" s="43">
+        <v>0</v>
+      </c>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H26" s="43">
+        <v>0</v>
+      </c>
+      <c r="I26" s="43"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H27" s="43">
+        <v>3</v>
+      </c>
+      <c r="I27" s="43"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F28" s="43"/>
+      <c r="G28" s="61" t="s">
+        <v>1537</v>
+      </c>
+      <c r="H28" s="43">
+        <v>5</v>
+      </c>
+      <c r="I28" s="43"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F29" s="43"/>
+      <c r="G29" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H29" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="I29" s="43"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F30" s="43"/>
+      <c r="G30" s="61" t="s">
+        <v>1537</v>
+      </c>
+      <c r="H30" s="43">
+        <v>4</v>
+      </c>
+      <c r="I30" s="43"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F31" s="43"/>
+      <c r="G31" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H31" s="43">
+        <v>4</v>
+      </c>
+      <c r="I31" s="43"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H32" s="43">
+        <v>4</v>
+      </c>
+      <c r="I32" s="43"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F33" s="43"/>
+      <c r="G33" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H33" s="43">
+        <v>2</v>
+      </c>
+      <c r="I33" s="43"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F34" s="43"/>
+      <c r="G34" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H34" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="43"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="52">
+        <v>4</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="53" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H35" s="51">
+        <f>SUM(H36)</f>
+        <v>8</v>
+      </c>
+      <c r="I35" s="44"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="43">
+        <v>8</v>
+      </c>
+      <c r="I36" s="43"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="57" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="58" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="56">
+        <f>SUM(H7+H15+H21+H35)</f>
+        <v>64.099999999999994</v>
+      </c>
+      <c r="I38" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B4:I4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="22"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="1554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1606">
   <si>
     <t>-</t>
   </si>
@@ -4486,33 +4486,6 @@
     <t>trái</t>
   </si>
   <si>
-    <t>phải</t>
-  </si>
-  <si>
-    <t>thương hiệu</t>
-  </si>
-  <si>
-    <t>tên sản phẩm</t>
-  </si>
-  <si>
-    <t>giá</t>
-  </si>
-  <si>
-    <t>thông tin</t>
-  </si>
-  <si>
-    <t>mô tả</t>
-  </si>
-  <si>
-    <t>số lượng</t>
-  </si>
-  <si>
-    <t>add sp</t>
-  </si>
-  <si>
-    <t>thông tin thêm</t>
-  </si>
-  <si>
     <t>mô tả/giao hàng</t>
   </si>
   <si>
@@ -4588,9 +4561,6 @@
     <t>https://websensepro.com/blog/how-to-add-product-tab-description-in-shopify/</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>shopify theme dev --store https://ocd-skateshop-dev-2.myshopify.com</t>
   </si>
   <si>
@@ -4763,13 +4733,629 @@
   </si>
   <si>
     <t>Config, css</t>
+  </si>
+  <si>
+    <t>Cái này thì phải hỏi khách hàng là muốn thêm ở đâu !</t>
+  </si>
+  <si>
+    <t>Còn bug mới chỉ giới hạn được 8 sản phẩm</t>
+  </si>
+  <si>
+    <t>Lưu ý</t>
+  </si>
+  <si>
+    <t>Thời gian chỉ là ước chừng</t>
+  </si>
+  <si>
+    <t>Các app đã cài: Size chart - Avada</t>
+  </si>
+  <si>
+    <t>Đường dẫn breadcrumb</t>
+  </si>
+  <si>
+    <t>Home / Globe - Encore 2 Shoes Black/night</t>
+  </si>
+  <si>
+    <t>Liquid, css</t>
+  </si>
+  <si>
+    <t>Đường dẫn tới sản phẩm</t>
+  </si>
+  <si>
+    <t>Decks</t>
+  </si>
+  <si>
+    <t>Trucks</t>
+  </si>
+  <si>
+    <t>Wheels</t>
+  </si>
+  <si>
+    <t>What size deck should I get?</t>
+  </si>
+  <si>
+    <t>ván</t>
+  </si>
+  <si>
+    <t>What size truck should I get?</t>
+  </si>
+  <si>
+    <t>What size wheel should I get?</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>ko xuất hiện ở cate "Gift Cards"</t>
+  </si>
+  <si>
+    <t>tác dụng</t>
+  </si>
+  <si>
+    <t>reiview</t>
+  </si>
+  <si>
+    <t>okendo</t>
+  </si>
+  <si>
+    <t>Các thành phần chính của Liquid</t>
+  </si>
+  <si>
+    <t>1. Biến (Variables):</t>
+  </si>
+  <si>
+    <t>Biến trong Liquid được sử dụng để lưu trữ dữ liệu mà bạn có thể sử dụng lại trong template.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cú pháp: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{{ variable_name }}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ví dụ: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{{ product.title }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị tiêu đề của sản phẩm.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Thẻ (Tags):</t>
+  </si>
+  <si>
+    <t>Thẻ được sử dụng để điều khiển logic và dòng chảy của template.</t>
+  </si>
+  <si>
+    <t>Có hai loại thẻ chính:</t>
+  </si>
+  <si>
+    <r>
+      <t>Thẻ điều khiển (Control flow tags):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Thường dùng cho các điều kiện và vòng lặp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ví dụ: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{% if %}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{% for %}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{% unless %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thẻ logic (Logic tags):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Dùng để thực thi các logic cụ thể trong template.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ví dụ: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{% assign %}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{% capture %}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{% include %}</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Bộ lọc (Filters):</t>
+  </si>
+  <si>
+    <t>Bộ lọc được sử dụng để biến đổi dữ liệu hoặc giá trị của biến.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cú pháp: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{{ variable_name | filter }}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ví dụ: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{{ product.price | money }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sẽ chuyển giá trị của </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>product.price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sang định dạng tiền tệ.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Đối tượng (Objects):</t>
+  </si>
+  <si>
+    <t>Liquid cung cấp nhiều đối tượng được định nghĩa trước, giúp bạn truy cập thông tin cụ thể trong cửa hàng hoặc trang web.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ví dụ: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{{ product }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{{ cart }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{{ collection }}</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Bình luận (Comments):</t>
+  </si>
+  <si>
+    <t>Bình luận trong Liquid giúp bạn chú thích mã mà không ảnh hưởng đến kết quả đầu ra.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cú pháp: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{% comment %} Your comment here {% endcomment %}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hoặc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{% # Your comment here %}</t>
+    </r>
+  </si>
+  <si>
+    <t>Các tính năng nổi bật của Liquid</t>
+  </si>
+  <si>
+    <r>
+      <t>Điều kiện (Conditions):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Giúp bạn kiểm tra các điều kiện và hiển thị nội dung dựa trên kết quả của điều kiện đó.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ví dụ: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{% if user.logged_in %} Welcome back! {% endif %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vòng lặp (Loops):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Giúp lặp qua các tập hợp đối tượng, như danh sách sản phẩm hoặc bài viết.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ví dụ: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{% for product in collection.products %} {{ product.title }} {% endfor %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bao gồm (Includes):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cho phép bạn bao gồm các template con vào một template chính, giúp tái sử dụng mã và tổ chức mã tốt hơn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ví dụ: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{% include 'header' %}</t>
+    </r>
+  </si>
+  <si>
+    <t>Ứng dụng của Liquid</t>
+  </si>
+  <si>
+    <t>Liquid được sử dụng rộng rãi trong:</t>
+  </si>
+  <si>
+    <r>
+      <t>Shopify:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Liquid là ngôn ngữ chính để xây dựng và tùy chỉnh các theme trên nền tảng Shopify.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Jekyll:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Liquid cũng được sử dụng trong Jekyll, một công cụ tĩnh (static site generator) phổ biến.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Các nền tảng thương mại điện tử và CMS khác:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Một số nền tảng khác cũng sử dụng Liquid hoặc các biến thể của nó để quản lý nội dung.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ưu điểm của Liquid</t>
+  </si>
+  <si>
+    <r>
+      <t>Dễ học và dễ sử dụng:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Liquid có cú pháp đơn giản, dễ hiểu và dễ học ngay cả với những người mới bắt đầu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tính linh hoạt:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Liquid cho phép tùy chỉnh cao và linh hoạt, phù hợp với nhiều tình huống khác nhau trong việc xây dựng và tùy chỉnh trang web.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tính bảo mật:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Liquid hạn chế quyền truy cập trực tiếp vào mã back-end, giúp bảo vệ dữ liệu và logic quan trọng.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hạn chế của Liquid</t>
+  </si>
+  <si>
+    <r>
+      <t>Hiệu năng:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Vì Liquid được diễn giải (interpreted) chứ không phải biên dịch (compiled), nên nó có thể chậm hơn trong một số trường hợp so với các ngôn ngữ biên dịch khác.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Giới hạn trong cú pháp:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Liquid không cho phép thực thi mã tùy ý hoặc truy cập trực tiếp vào dữ liệu back-end, điều này làm tăng tính bảo mật nhưng cũng giới hạn một số khả năng tùy chỉnh.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4924,6 +5510,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -5049,7 +5648,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5115,12 +5714,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5138,9 +5731,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5160,6 +5750,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5169,8 +5777,26 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6103,7 +6729,7 @@
       <c r="C26">
         <v>12</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="61" t="s">
         <v>180</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -6114,7 +6740,7 @@
       <c r="C27">
         <v>13</v>
       </c>
-      <c r="D27" s="39"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="8" t="s">
         <v>182</v>
       </c>
@@ -8866,7 +9492,7 @@
   <dimension ref="D4:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9006,7 +9632,7 @@
   <dimension ref="D3:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9145,7 +9771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -9293,7 +9919,7 @@
   <dimension ref="E3:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9452,10 +10078,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W340"/>
+  <dimension ref="B2:W417"/>
   <sheetViews>
-    <sheetView topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="K339" sqref="K339"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9620,7 +10246,7 @@
         <v>780</v>
       </c>
       <c r="S24" t="s">
-        <v>1472</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="25" spans="10:21">
@@ -9635,6 +10261,9 @@
       </c>
     </row>
     <row r="26" spans="10:21">
+      <c r="M26">
+        <v>4</v>
+      </c>
       <c r="N26" t="s">
         <v>794</v>
       </c>
@@ -9646,6 +10275,9 @@
       </c>
     </row>
     <row r="27" spans="10:21">
+      <c r="M27">
+        <v>5</v>
+      </c>
       <c r="N27" t="s">
         <v>796</v>
       </c>
@@ -9654,6 +10286,9 @@
       </c>
     </row>
     <row r="28" spans="10:21">
+      <c r="M28">
+        <v>6</v>
+      </c>
       <c r="N28" t="s">
         <v>798</v>
       </c>
@@ -11272,7 +11907,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="273" spans="5:17">
+    <row r="273" spans="5:14">
       <c r="E273" t="s">
         <v>1058</v>
       </c>
@@ -11280,45 +11915,42 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="275" spans="5:17">
+    <row r="275" spans="5:14">
       <c r="L275" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="276" spans="5:17">
+    <row r="276" spans="5:14">
       <c r="M276" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="277" spans="5:17" ht="15.75">
+    <row r="277" spans="5:14" ht="15.75">
       <c r="N277" s="37" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="278" spans="5:17" ht="15.75">
+    <row r="278" spans="5:14" ht="15.75">
       <c r="N278" s="37" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="279" spans="5:17" ht="15.75">
+    <row r="279" spans="5:14" ht="15.75">
       <c r="N279" s="37" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="280" spans="5:17" ht="15.75">
+    <row r="280" spans="5:14" ht="15.75">
       <c r="N280" s="37" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="283" spans="5:17">
+    <row r="283" spans="5:14">
       <c r="J283" s="38" t="s">
         <v>1460</v>
       </c>
-      <c r="O283" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="284" spans="5:17">
+    </row>
+    <row r="284" spans="5:14">
       <c r="J284">
         <v>1</v>
       </c>
@@ -11328,17 +11960,8 @@
       <c r="L284" t="s">
         <v>775</v>
       </c>
-      <c r="N284">
-        <v>1</v>
-      </c>
-      <c r="O284" t="s">
-        <v>1462</v>
-      </c>
-      <c r="Q284" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="285" spans="5:17">
+    </row>
+    <row r="285" spans="5:14">
       <c r="J285">
         <v>2</v>
       </c>
@@ -11348,188 +11971,122 @@
       <c r="L285" t="s">
         <v>775</v>
       </c>
-      <c r="N285">
-        <v>2</v>
-      </c>
-      <c r="O285" t="s">
-        <v>1463</v>
-      </c>
-      <c r="Q285" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="286" spans="5:17">
+    </row>
+    <row r="286" spans="5:14">
       <c r="J286">
         <v>3</v>
       </c>
       <c r="K286" t="s">
-        <v>1470</v>
+        <v>1461</v>
       </c>
       <c r="L286" t="s">
         <v>775</v>
       </c>
-      <c r="N286">
-        <v>3</v>
-      </c>
-      <c r="O286" t="s">
-        <v>1464</v>
-      </c>
-      <c r="Q286" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="287" spans="5:17">
-      <c r="N287">
-        <v>4</v>
-      </c>
-      <c r="O287" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="288" spans="5:17">
-      <c r="N288">
-        <v>5</v>
-      </c>
-      <c r="O288" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="289" spans="5:15">
-      <c r="N289">
-        <v>6</v>
-      </c>
-      <c r="O289" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="290" spans="5:15">
-      <c r="N290">
-        <v>7</v>
-      </c>
-      <c r="O290" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="291" spans="5:15">
-      <c r="N291">
-        <v>8</v>
-      </c>
-      <c r="O291" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="292" spans="5:15">
-      <c r="N292">
-        <v>9</v>
-      </c>
-      <c r="O292" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="296" spans="5:15">
+    </row>
+    <row r="296" spans="5:8">
       <c r="E296">
         <v>1</v>
       </c>
       <c r="F296" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="297" spans="5:15">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="297" spans="5:8">
       <c r="E297">
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="5:15">
+    <row r="301" spans="5:8">
       <c r="E301" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="H301" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="302" spans="5:15">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="302" spans="5:8">
       <c r="E302" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="H302" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="303" spans="5:15">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="303" spans="5:8">
       <c r="E303" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="H303" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="304" spans="5:15">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="304" spans="5:8">
       <c r="E304" t="s">
-        <v>1479</v>
+        <v>1470</v>
       </c>
       <c r="H304" t="s">
-        <v>1480</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="305" spans="5:10">
       <c r="E305" t="s">
-        <v>1482</v>
+        <v>1473</v>
       </c>
       <c r="H305" t="s">
-        <v>1481</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="306" spans="5:10">
       <c r="E306" t="s">
-        <v>1483</v>
+        <v>1474</v>
       </c>
       <c r="H306" t="s">
-        <v>1484</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="307" spans="5:10">
       <c r="E307" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
       <c r="H307" t="s">
-        <v>1486</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="308" spans="5:10">
       <c r="E308" t="s">
-        <v>1487</v>
+        <v>1478</v>
       </c>
       <c r="H308" t="s">
-        <v>1488</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="309" spans="5:10">
       <c r="E309" t="s">
-        <v>1489</v>
+        <v>1480</v>
       </c>
       <c r="H309" t="s">
-        <v>1490</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="310" spans="5:10">
       <c r="E310" t="s">
-        <v>1491</v>
+        <v>1482</v>
       </c>
       <c r="H310" t="s">
-        <v>1492</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="318" spans="5:10">
       <c r="G318" t="s">
-        <v>1493</v>
-      </c>
-      <c r="J318" t="s">
-        <v>1494</v>
+        <v>1484</v>
+      </c>
+      <c r="J318" s="8" t="s">
+        <v>1485</v>
       </c>
     </row>
     <row r="328" spans="8:8">
       <c r="H328" t="s">
-        <v>1496</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="329" spans="8:8">
@@ -11539,7 +12096,7 @@
     </row>
     <row r="330" spans="8:8">
       <c r="H330" t="s">
-        <v>1497</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="331" spans="8:8">
@@ -11554,22 +12111,319 @@
     </row>
     <row r="333" spans="8:8">
       <c r="H333" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="337" spans="7:8">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="337" spans="3:11">
       <c r="G337" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="339" spans="7:8">
+      <c r="K337" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="339" spans="3:11">
       <c r="H339" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="340" spans="7:8">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="340" spans="3:11">
       <c r="H340" t="s">
-        <v>1500</v>
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="341" spans="3:11">
+      <c r="H341" t="s">
+        <v>1564</v>
+      </c>
+      <c r="K341" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="345" spans="3:11" ht="18">
+      <c r="C345" s="67" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="346" spans="3:11">
+      <c r="C346" s="68"/>
+    </row>
+    <row r="347" spans="3:11">
+      <c r="C347" s="69" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="348" spans="3:11">
+      <c r="C348" s="68"/>
+    </row>
+    <row r="349" spans="3:11">
+      <c r="C349" s="68"/>
+    </row>
+    <row r="350" spans="3:11">
+      <c r="C350" s="70" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="351" spans="3:11">
+      <c r="C351" s="70" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="352" spans="3:11">
+      <c r="C352" s="70" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3">
+      <c r="C353" s="68"/>
+    </row>
+    <row r="354" spans="3:3">
+      <c r="C354" s="69" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="355" spans="3:3">
+      <c r="C355" s="68"/>
+    </row>
+    <row r="356" spans="3:3">
+      <c r="C356" s="68"/>
+    </row>
+    <row r="357" spans="3:3">
+      <c r="C357" s="70" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="358" spans="3:3">
+      <c r="C358" s="70" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3">
+      <c r="C359" s="71" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="360" spans="3:3">
+      <c r="C360" s="72" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="361" spans="3:3">
+      <c r="C361" s="71" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="362" spans="3:3">
+      <c r="C362" s="72" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="363" spans="3:3">
+      <c r="C363" s="68"/>
+    </row>
+    <row r="364" spans="3:3">
+      <c r="C364" s="69" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="365" spans="3:3">
+      <c r="C365" s="68"/>
+    </row>
+    <row r="366" spans="3:3">
+      <c r="C366" s="68"/>
+    </row>
+    <row r="367" spans="3:3">
+      <c r="C367" s="70" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="368" spans="3:3">
+      <c r="C368" s="70" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="369" spans="3:3">
+      <c r="C369" s="70" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="370" spans="3:3">
+      <c r="C370" s="68"/>
+    </row>
+    <row r="371" spans="3:3">
+      <c r="C371" s="69" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="372" spans="3:3">
+      <c r="C372" s="68"/>
+    </row>
+    <row r="373" spans="3:3">
+      <c r="C373" s="68"/>
+    </row>
+    <row r="374" spans="3:3">
+      <c r="C374" s="70" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="375" spans="3:3">
+      <c r="C375" s="70" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="376" spans="3:3">
+      <c r="C376" s="68"/>
+    </row>
+    <row r="377" spans="3:3">
+      <c r="C377" s="69" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="378" spans="3:3">
+      <c r="C378" s="68"/>
+    </row>
+    <row r="379" spans="3:3">
+      <c r="C379" s="68"/>
+    </row>
+    <row r="380" spans="3:3">
+      <c r="C380" s="70" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="381" spans="3:3">
+      <c r="C381" s="70" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="383" spans="3:3" ht="18">
+      <c r="C383" s="67" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="384" spans="3:3">
+      <c r="C384" s="68"/>
+    </row>
+    <row r="385" spans="3:3">
+      <c r="C385" s="69" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="386" spans="3:3">
+      <c r="C386" s="68"/>
+    </row>
+    <row r="387" spans="3:3">
+      <c r="C387" s="68"/>
+    </row>
+    <row r="388" spans="3:3">
+      <c r="C388" s="70" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3">
+      <c r="C389" s="68"/>
+    </row>
+    <row r="390" spans="3:3">
+      <c r="C390" s="69" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="391" spans="3:3">
+      <c r="C391" s="68"/>
+    </row>
+    <row r="392" spans="3:3">
+      <c r="C392" s="68"/>
+    </row>
+    <row r="393" spans="3:3">
+      <c r="C393" s="70" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="394" spans="3:3">
+      <c r="C394" s="68"/>
+    </row>
+    <row r="395" spans="3:3">
+      <c r="C395" s="69" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="396" spans="3:3">
+      <c r="C396" s="68"/>
+    </row>
+    <row r="397" spans="3:3">
+      <c r="C397" s="68"/>
+    </row>
+    <row r="398" spans="3:3">
+      <c r="C398" s="70" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="400" spans="3:3" ht="18">
+      <c r="C400" s="67" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3">
+      <c r="C402" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3">
+      <c r="C403" s="68"/>
+    </row>
+    <row r="404" spans="3:3">
+      <c r="C404" s="69" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3">
+      <c r="C405" s="69" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3">
+      <c r="C406" s="69" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3" ht="18">
+      <c r="C408" s="67" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3">
+      <c r="C409" s="68"/>
+    </row>
+    <row r="410" spans="3:3">
+      <c r="C410" s="69" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3">
+      <c r="C411" s="69" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3">
+      <c r="C412" s="69" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3" ht="18">
+      <c r="C414" s="67" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="415" spans="3:3">
+      <c r="C415" s="68"/>
+    </row>
+    <row r="416" spans="3:3">
+      <c r="C416" s="69" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="417" spans="3:3">
+      <c r="C417" s="69" t="s">
+        <v>1605</v>
       </c>
     </row>
   </sheetData>
@@ -11579,10 +12433,11 @@
     <hyperlink ref="E105" r:id="rId3"/>
     <hyperlink ref="E107" r:id="rId4"/>
     <hyperlink ref="I272" r:id="rId5"/>
+    <hyperlink ref="J318" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -12203,22 +13058,22 @@
       </c>
     </row>
     <row r="105" spans="4:18" ht="52.5" customHeight="1">
-      <c r="E105" s="40" t="s">
+      <c r="E105" s="62" t="s">
         <v>1163</v>
       </c>
-      <c r="F105" s="40"/>
-      <c r="G105" s="40"/>
-      <c r="H105" s="40"/>
-      <c r="I105" s="40"/>
-      <c r="J105" s="40"/>
-      <c r="K105" s="40"/>
-      <c r="L105" s="40"/>
-      <c r="M105" s="40"/>
-      <c r="N105" s="40"/>
-      <c r="O105" s="40"/>
-      <c r="P105" s="40"/>
-      <c r="Q105" s="40"/>
-      <c r="R105" s="40"/>
+      <c r="F105" s="62"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="62"/>
+      <c r="I105" s="62"/>
+      <c r="J105" s="62"/>
+      <c r="K105" s="62"/>
+      <c r="L105" s="62"/>
+      <c r="M105" s="62"/>
+      <c r="N105" s="62"/>
+      <c r="O105" s="62"/>
+      <c r="P105" s="62"/>
+      <c r="Q105" s="62"/>
+      <c r="R105" s="62"/>
     </row>
     <row r="106" spans="4:18">
       <c r="E106" t="s">
@@ -12979,728 +13834,820 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:I38"/>
+  <dimension ref="B3:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView topLeftCell="F19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="41"/>
-    <col min="2" max="2" width="9.140625" style="42"/>
-    <col min="3" max="3" width="75.28515625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="41" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="41"/>
+    <col min="1" max="1" width="9.140625" style="39"/>
+    <col min="2" max="2" width="9.140625" style="40"/>
+    <col min="3" max="3" width="75.28515625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="39" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="39"/>
+    <col min="12" max="12" width="25.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.85546875" style="39" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" ht="27">
-      <c r="B4" s="49" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="54"/>
-      <c r="C6" s="54" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54" t="s">
+    <row r="3" spans="2:15">
+      <c r="L3" s="39" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="27">
+      <c r="B4" s="66" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="L4" s="41" t="s">
+        <v>1553</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>1554</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>1555</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="L5" s="39" t="s">
+        <v>1556</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>1558</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>1559</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>453</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>1540</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="49">
+        <v>1</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="50" t="s">
         <v>1504</v>
       </c>
-      <c r="F6" s="54" t="s">
-        <v>453</v>
-      </c>
-      <c r="G6" s="54" t="s">
-        <v>1505</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>1550</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="52">
-        <v>1</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="53" t="s">
-        <v>1514</v>
-      </c>
-      <c r="H7" s="51">
+      <c r="H7" s="48">
         <f>SUM(H8:H14)</f>
         <v>23</v>
       </c>
-      <c r="I7" s="44"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="55" t="s">
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H8" s="43">
+      <c r="C8" s="41" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H8" s="41">
         <v>1</v>
       </c>
-      <c r="I8" s="43"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="55" t="s">
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="41" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H9" s="41">
+        <v>8</v>
+      </c>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H10" s="41">
+        <v>4</v>
+      </c>
+      <c r="I10" s="41"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H11" s="41">
+        <v>2</v>
+      </c>
+      <c r="I11" s="41"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F12" s="41"/>
+      <c r="G12" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H12" s="41">
+        <v>4</v>
+      </c>
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H13" s="41">
+        <v>2</v>
+      </c>
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H14" s="41">
+        <v>2</v>
+      </c>
+      <c r="I14" s="41"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="49">
+        <v>2</v>
+      </c>
+      <c r="C15" s="48" t="s">
         <v>1506</v>
       </c>
-      <c r="D9" s="43" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>1518</v>
-      </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H9" s="43">
-        <v>8</v>
-      </c>
-      <c r="I9" s="43"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>1508</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H10" s="43">
-        <v>4</v>
-      </c>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>1512</v>
-      </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H11" s="43">
-        <v>2</v>
-      </c>
-      <c r="I11" s="43"/>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>1513</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>1509</v>
-      </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H12" s="43">
-        <v>4</v>
-      </c>
-      <c r="I12" s="43"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>1553</v>
-      </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H13" s="43">
-        <v>2</v>
-      </c>
-      <c r="I13" s="43"/>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H14" s="43">
-        <v>2</v>
-      </c>
-      <c r="I14" s="43"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="52">
-        <v>2</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="53" t="s">
-        <v>1514</v>
-      </c>
-      <c r="H15" s="51">
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="50" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H15" s="48">
         <f>SUM(H16:H20)</f>
         <v>8</v>
       </c>
-      <c r="I15" s="44"/>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="55" t="s">
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="43" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H16" s="43">
+      <c r="C16" s="41" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H16" s="41">
         <v>1</v>
       </c>
-      <c r="I16" s="43"/>
+      <c r="I16" s="41"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="41" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D17" s="41" t="s">
         <v>1520</v>
       </c>
-      <c r="D17" s="43" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H17" s="43">
+      <c r="E17" s="41" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H17" s="41">
         <v>1</v>
       </c>
-      <c r="I17" s="43"/>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>1541</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H18" s="43">
+      <c r="C18" s="41" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H18" s="41">
         <v>2</v>
       </c>
-      <c r="I18" s="43"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="43" t="s">
-        <v>1546</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H19" s="43">
+      <c r="C19" s="41" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="G19" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H19" s="41">
         <v>2</v>
       </c>
-      <c r="I19" s="43"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H20" s="43">
+      <c r="C20" s="41" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F20" s="41"/>
+      <c r="G20" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H20" s="41">
         <v>2</v>
       </c>
-      <c r="I20" s="43"/>
+      <c r="I20" s="41"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="52">
+      <c r="B21" s="49">
         <v>3</v>
       </c>
-      <c r="C21" s="51" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="51">
+      <c r="C21" s="48" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="48">
         <f>SUM(H22:H34)</f>
         <v>25.1</v>
       </c>
-      <c r="I21" s="44"/>
+      <c r="I21" s="42"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="41" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="G22" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H22" s="41">
+        <v>2</v>
+      </c>
+      <c r="I22" s="41"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H23" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="I23" s="41"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H24" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="41"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F25" s="41"/>
+      <c r="G25" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H25" s="41">
+        <v>0</v>
+      </c>
+      <c r="I25" s="41"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H26" s="41">
+        <v>0</v>
+      </c>
+      <c r="I26" s="41"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="41" t="s">
         <v>1524</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D27" s="41" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H27" s="41">
+        <v>3</v>
+      </c>
+      <c r="I27" s="41"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F28" s="41"/>
+      <c r="G28" s="55" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H28" s="41">
+        <v>5</v>
+      </c>
+      <c r="I28" s="41"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F29" s="41"/>
+      <c r="G29" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H29" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="I29" s="41"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="41" t="s">
         <v>1530</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="D30" s="41" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F30" s="41"/>
+      <c r="G30" s="55" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H30" s="41">
+        <v>4</v>
+      </c>
+      <c r="I30" s="41"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F31" s="41"/>
+      <c r="G31" s="46" t="s">
         <v>1525</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="48" t="s">
+      <c r="H31" s="41">
+        <v>4</v>
+      </c>
+      <c r="I31" s="41"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F32" s="41"/>
+      <c r="G32" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H32" s="41">
+        <v>4</v>
+      </c>
+      <c r="I32" s="41" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F33" s="41"/>
+      <c r="G33" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H33" s="41">
+        <v>2</v>
+      </c>
+      <c r="I33" s="41"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F34" s="41"/>
+      <c r="G34" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H34" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="41"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="49">
+        <v>4</v>
+      </c>
+      <c r="C35" s="48" t="s">
         <v>1535</v>
       </c>
-      <c r="H22" s="43">
-        <v>2</v>
-      </c>
-      <c r="I22" s="43"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H23" s="43">
-        <v>0.2</v>
-      </c>
-      <c r="I23" s="43"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>1527</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H24" s="43">
-        <v>0.2</v>
-      </c>
-      <c r="I24" s="43"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H25" s="43">
-        <v>0</v>
-      </c>
-      <c r="I25" s="43"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>1529</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H26" s="43">
-        <v>0</v>
-      </c>
-      <c r="I26" s="43"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>1534</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>1538</v>
-      </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H27" s="43">
-        <v>3</v>
-      </c>
-      <c r="I27" s="43"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>1552</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="61" t="s">
-        <v>1537</v>
-      </c>
-      <c r="H28" s="43">
-        <v>5</v>
-      </c>
-      <c r="I28" s="43"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H29" s="43">
-        <v>0.2</v>
-      </c>
-      <c r="I29" s="43"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>1552</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>1518</v>
-      </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="61" t="s">
-        <v>1537</v>
-      </c>
-      <c r="H30" s="43">
-        <v>4</v>
-      </c>
-      <c r="I30" s="43"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H31" s="43">
-        <v>4</v>
-      </c>
-      <c r="I31" s="43"/>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>1544</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E32" s="43" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H32" s="43">
-        <v>4</v>
-      </c>
-      <c r="I32" s="43"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H33" s="43">
-        <v>2</v>
-      </c>
-      <c r="I33" s="43"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H34" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="I34" s="43"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="52">
-        <v>4</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="53" t="s">
-        <v>1514</v>
-      </c>
-      <c r="H35" s="51">
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="50" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H35" s="48">
         <f>SUM(H36)</f>
         <v>8</v>
       </c>
-      <c r="I35" s="44"/>
+      <c r="I35" s="42"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="41" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="41">
+        <v>8</v>
+      </c>
+      <c r="I36" s="41"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="41"/>
+      <c r="D37" s="54" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="49">
+        <v>5</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="48">
+        <f>SUM(H39)</f>
+        <v>2</v>
+      </c>
+      <c r="I38" s="42"/>
+    </row>
+    <row r="39" spans="2:9" s="58" customFormat="1">
+      <c r="B39" s="59"/>
+      <c r="C39" s="57" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E39" s="57" t="s">
         <v>1551</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="43">
-        <v>8</v>
-      </c>
-      <c r="I36" s="43"/>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="57" t="s">
+      <c r="F39" s="57"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="56">
+        <v>2</v>
+      </c>
+      <c r="I39" s="57" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="63" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="53">
+        <f>SUM(H7+H15+H21+H35+H38)</f>
+        <v>66.099999999999994</v>
+      </c>
+      <c r="I40" s="41"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="40" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="C44" s="39" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="C45" s="39" t="s">
         <v>1548</v>
       </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="58" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="56">
-        <f>SUM(H7+H15+H21+H35)</f>
-        <v>64.099999999999994</v>
-      </c>
-      <c r="I38" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B40:G40"/>
     <mergeCell ref="B4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13793,8 +14740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13862,7 +14809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -14446,7 +15393,7 @@
   <dimension ref="D3:G25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="18"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -31,10 +31,10 @@
     <sheet name="git" sheetId="8" r:id="rId17"/>
     <sheet name="plugin" sheetId="18" r:id="rId18"/>
     <sheet name="REST API" sheetId="19" r:id="rId19"/>
-    <sheet name="shopify" sheetId="21" r:id="rId20"/>
-    <sheet name="laravel" sheetId="22" r:id="rId21"/>
-    <sheet name="tax" sheetId="25" r:id="rId22"/>
-    <sheet name="task shopify" sheetId="26" r:id="rId23"/>
+    <sheet name="laravel" sheetId="22" r:id="rId20"/>
+    <sheet name="tax" sheetId="25" r:id="rId21"/>
+    <sheet name="shopify" sheetId="21" r:id="rId22"/>
+    <sheet name="claude" sheetId="26" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="1579">
   <si>
     <t>-</t>
   </si>
@@ -4445,116 +4445,9 @@
     <t>asia 47/82 mà</t>
   </si>
   <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>Update dev2 product details page</t>
-  </si>
-  <si>
-    <t>Cập nhật trang chi tiết sản phẩm trên trang dev2 để trông giống trang chi tiết sản phẩm trực tiếp</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Chưa thêm chức năng cho </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>tùy biến ván trượt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0F2149"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, đó là một nhiệm vụ khác</t>
-    </r>
-  </si>
-  <si>
-    <t>Không sao chép mã trực tiếp từ trực tiếp sang dev vì chủ đề trên dev2 là chủ đề 2.0 phải được giữ sạch sẽ</t>
-  </si>
-  <si>
-    <t>Luôn sử dụng các phương pháp hay nhất</t>
-  </si>
-  <si>
-    <t>trái</t>
-  </si>
-  <si>
-    <t>mô tả/giao hàng</t>
-  </si>
-  <si>
-    <t>tải theme xuống bằng mail</t>
-  </si>
-  <si>
     <t>tạo tên của theme</t>
   </si>
   <si>
-    <t>wrapAround": true</t>
-  </si>
-  <si>
-    <t>Cho phép cuộn vô hạn qua các mục trong carousel.</t>
-  </si>
-  <si>
-    <t>lazyLoad": true</t>
-  </si>
-  <si>
-    <t>Kích hoạt chức năng tải ảnh lười biếng để tối ưu hóa tốc độ tải trang.</t>
-  </si>
-  <si>
-    <t>autoPlay": 2000</t>
-  </si>
-  <si>
-    <t>Tự động chạy carousel khi trang được tải.</t>
-  </si>
-  <si>
-    <t>cellAlign": "center</t>
-  </si>
-  <si>
-    <t>Căn chỉnh các mục trong carousel theo 'left', 'center', hoặc 'right'.</t>
-  </si>
-  <si>
-    <t>Hiển thị nút "Previous" và "Next" để điều hướng qua các mục trong</t>
-  </si>
-  <si>
-    <t>prevNextButtons": true</t>
-  </si>
-  <si>
-    <t>pageDots": true</t>
-  </si>
-  <si>
-    <t>Hiển thị các dấu chấm trang để biểu thị trạng thái của carousel.</t>
-  </si>
-  <si>
-    <t>groupCells": 2</t>
-  </si>
-  <si>
-    <t>Hiển thị 2 mục trong mỗi nhóm:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"percentPosition": false </t>
-  </si>
-  <si>
-    <t>sử dụng % hoặc px</t>
-  </si>
-  <si>
-    <t>"asNavFor": ".carousel-main"</t>
-  </si>
-  <si>
-    <t>để đồng bộ với 1 slider khác có class ".carousel-main"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"draggable": false, </t>
-  </si>
-  <si>
-    <t>các mục trong carousel sẽ không thể được kéo hoặc chuyển động bằng cách kéo chuột trên màn hình. Điều này chặn khả năng kéo để chuyển đổi giữa các mục trong carousel.</t>
-  </si>
-  <si>
     <t>tài liệu thiết kế tabs</t>
   </si>
   <si>
@@ -4576,217 +4469,7 @@
     <t>Boost AI Search &amp; Discovery</t>
   </si>
   <si>
-    <t xml:space="preserve">COPY PRODUCT DETAIL PAGE </t>
-  </si>
-  <si>
-    <t>SLIDER</t>
-  </si>
-  <si>
-    <t>NỘI DUNG CÔNG VIỆC</t>
-  </si>
-  <si>
-    <t>SỬ DỤNG</t>
-  </si>
-  <si>
-    <t>GHI CHÚ</t>
-  </si>
-  <si>
-    <t>Khi áp vào sản phẩm chi tiết bị conflig tương tự như sp liên quan</t>
-  </si>
-  <si>
-    <t>Tìm slider tương ứng để sử dụng, cái này khác dạng slider live</t>
-  </si>
-  <si>
-    <t>Layout</t>
-  </si>
-  <si>
-    <t>Js</t>
-  </si>
-  <si>
-    <t>Css</t>
-  </si>
-  <si>
-    <t>Xử lí click vào slider đứng thì hiển thị ở slider ngang</t>
-  </si>
-  <si>
-    <t>Js, css</t>
-  </si>
-  <si>
-    <t>Xử lí popup slider, click hiển thị đúng hình ảnh được click</t>
-  </si>
-  <si>
-    <t>Hoàn thành</t>
-  </si>
-  <si>
-    <t>Xử lí hiển thị 4 hình ảnh ở slider đứng</t>
-  </si>
-  <si>
-    <t>Tabs</t>
-  </si>
-  <si>
-    <t>Tìm hiều cách tạo tabs trong shopify liquid</t>
-  </si>
-  <si>
-    <t>Js, liquid</t>
-  </si>
-  <si>
-    <t>Docs</t>
-  </si>
-  <si>
-    <t>Truy xuất mô tả sản phẩm</t>
-  </si>
-  <si>
-    <t>Responsive</t>
-  </si>
-  <si>
-    <t>Css, js</t>
-  </si>
-  <si>
-    <t>Chi tiết sản phẩm(bên phải)</t>
-  </si>
-  <si>
-    <t>Tìm hiểu cách truy xuất logo</t>
-  </si>
-  <si>
-    <t>Docs, liquid</t>
-  </si>
-  <si>
-    <t>Tiêu đề có sẵn</t>
-  </si>
-  <si>
-    <t>Giá có sẵn</t>
-  </si>
-  <si>
-    <t>After đang chờ khách hàng phản hồi</t>
-  </si>
-  <si>
-    <t>Tình trạng sản phẩm</t>
-  </si>
-  <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>Kéo thả</t>
-  </si>
-  <si>
-    <t>Đang chờ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuấn </t>
-  </si>
-  <si>
-    <t>Size chart, tìm hiểu live sử dụng app nào, config Aize Chart - Avada</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Select Size, không can thiệp được HTML nên css hơi rối, sự kiện click chưa hoàn thành</t>
-  </si>
-  <si>
-    <t>NOT OK</t>
-  </si>
-  <si>
     <t>App</t>
-  </si>
-  <si>
-    <t>Số lượng</t>
-  </si>
-  <si>
-    <t>Add to Cart</t>
-  </si>
-  <si>
-    <t>Tìm hiểu vị trí truy xuất dữ liệu ở admin/setting, thêm code trong file</t>
-  </si>
-  <si>
-    <t>Liquid, js</t>
-  </si>
-  <si>
-    <t>Order before : Tìm hiểu vị trí truy xuất dữ liệu ở admin/setting, thêm code trong file</t>
-  </si>
-  <si>
-    <t>What size: Tìm hiểu vị trí truy xuất dữ liệu ở admin/setting, thêm code trong file</t>
-  </si>
-  <si>
-    <t>Sản phẩm liên quan…</t>
-  </si>
-  <si>
-    <t>Layout destop, di chuyển vị trí trong responsive, đổi thành dạng dropdown</t>
-  </si>
-  <si>
-    <t>Slideshow-component</t>
-  </si>
-  <si>
-    <t>Chị Ngân</t>
-  </si>
-  <si>
-    <t>Tổng thời gian</t>
-  </si>
-  <si>
-    <t>THỜI GIAN (h)</t>
-  </si>
-  <si>
-    <t>Tìm hiểu nhưng vướng mắc</t>
-  </si>
-  <si>
-    <t>Kéo thả, custom</t>
-  </si>
-  <si>
-    <t>Config, css</t>
-  </si>
-  <si>
-    <t>Cái này thì phải hỏi khách hàng là muốn thêm ở đâu !</t>
-  </si>
-  <si>
-    <t>Còn bug mới chỉ giới hạn được 8 sản phẩm</t>
-  </si>
-  <si>
-    <t>Lưu ý</t>
-  </si>
-  <si>
-    <t>Thời gian chỉ là ước chừng</t>
-  </si>
-  <si>
-    <t>Các app đã cài: Size chart - Avada</t>
-  </si>
-  <si>
-    <t>Đường dẫn breadcrumb</t>
-  </si>
-  <si>
-    <t>Home / Globe - Encore 2 Shoes Black/night</t>
-  </si>
-  <si>
-    <t>Liquid, css</t>
-  </si>
-  <si>
-    <t>Đường dẫn tới sản phẩm</t>
-  </si>
-  <si>
-    <t>Decks</t>
-  </si>
-  <si>
-    <t>Trucks</t>
-  </si>
-  <si>
-    <t>Wheels</t>
-  </si>
-  <si>
-    <t>What size deck should I get?</t>
-  </si>
-  <si>
-    <t>ván</t>
-  </si>
-  <si>
-    <t>What size truck should I get?</t>
-  </si>
-  <si>
-    <t>What size wheel should I get?</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>ko xuất hiện ở cate "Gift Cards"</t>
   </si>
   <si>
     <t>tác dụng</t>
@@ -5350,12 +5033,409 @@
       <t xml:space="preserve"> Liquid không cho phép thực thi mã tùy ý hoặc truy cập trực tiếp vào dữ liệu back-end, điều này làm tăng tính bảo mật nhưng cũng giới hạn một số khả năng tùy chỉnh.</t>
     </r>
   </si>
+  <si>
+    <t>avada size chart</t>
+  </si>
+  <si>
+    <t>hiển thị kích thước size cho sản phẩm</t>
+  </si>
+  <si>
+    <t>metastock location inventory</t>
+  </si>
+  <si>
+    <t>hiển thị có còn hàng trong kho hay ko</t>
+  </si>
+  <si>
+    <t>hiển thị review</t>
+  </si>
+  <si>
+    <t>checkout plus</t>
+  </si>
+  <si>
+    <t>nâng cao trải nghiệm thanh toán</t>
+  </si>
+  <si>
+    <t>boost AI Search &amp; discovery</t>
+  </si>
+  <si>
+    <t>các loại API</t>
+  </si>
+  <si>
+    <t>Shopify cung cấp nhiều loại API khác nhau để phục vụ các mục đích khác nhau:</t>
+  </si>
+  <si>
+    <r>
+      <t>Admin API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Đây là API chính để quản lý các tài nguyên trong một cửa hàng Shopify, bao gồm sản phẩm, đơn hàng, khách hàng, và nhiều tài nguyên khác. Admin API có thể được truy cập qua các yêu cầu RESTful hoặc GraphQL.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Storefront API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Được sử dụng chủ yếu cho các ứng dụng headless commerce, Storefront API cho phép bạn xây dựng trải nghiệm người dùng tùy chỉnh bên ngoài Shopify mà vẫn tương tác với dữ liệu cửa hàng như sản phẩm, danh mục, và giỏ hàng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Partner API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Được thiết kế cho các đối tác của Shopify để quản lý ứng dụng, tạo và quản lý cửa hàng phát triển, và nhiều tác vụ khác liên quan đến đối tác.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Billing API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: API này cho phép bạn xử lý thanh toán cho các ứng dụng của mình, bao gồm tạo hóa đơn định kỳ và một lần, quản lý đăng ký, v.v.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Payment Apps API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Cho phép tạo các giải pháp thanh toán tùy chỉnh cho Shopify. Điều này hữu ích cho các nhà cung cấp dịch vụ thanh toán muốn tích hợp dịch vụ của họ với Shopify.</t>
+    </r>
+  </si>
+  <si>
+    <t>Authentication (Xác thực)</t>
+  </si>
+  <si>
+    <t>Shopify API yêu cầu xác thực để bảo vệ dữ liệu của cửa hàng. Có hai loại xác thực chính:</t>
+  </si>
+  <si>
+    <r>
+      <t>OAuth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Phương thức xác thực chính cho các ứng dụng Shopify. Khi một ứng dụng yêu cầu quyền truy cập vào một cửa hàng, chủ cửa hàng cần phê duyệt ứng dụng thông qua một quá trình OAuth, sau đó ứng dụng sẽ nhận được một mã thông báo (access token) để thực hiện các yêu cầu API thay mặt cho cửa hàng đó.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>API Key/Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Được sử dụng chủ yếu trong quá trình phát triển hoặc cho các ứng dụng không công khai, API Key và Password có thể được sử dụng để xác thực các yêu cầu API.</t>
+    </r>
+  </si>
+  <si>
+    <t>REST API vs GraphQL API</t>
+  </si>
+  <si>
+    <t>Shopify cung cấp hai giao diện API chính:</t>
+  </si>
+  <si>
+    <r>
+      <t>REST API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Giao diện API truyền thống, dễ tiếp cận và sử dụng. Tuy nhiên, REST API có thể giới hạn trong việc lấy dữ liệu vì thường yêu cầu nhiều cuộc gọi để lấy các tài nguyên liên quan.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GraphQL API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Giao diện API hiện đại, cho phép bạn yêu cầu chính xác dữ liệu bạn cần trong một lần gọi API duy nhất. Điều này giúp giảm bớt số lượng yêu cầu API và tối ưu hóa hiệu suất.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scopes (Phạm vi)</t>
+    </r>
+  </si>
+  <si>
+    <t>Khi bạn yêu cầu quyền truy cập từ một cửa hàng, bạn phải xác định các phạm vi (scopes) cụ thể mà ứng dụng của bạn cần. Các phạm vi này xác định những tài nguyên mà ứng dụng của bạn có thể truy cập và thao tác.</t>
+  </si>
+  <si>
+    <t>Ví dụ về các scopes:</t>
+  </si>
+  <si>
+    <r>
+      <t>read_products</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>write_products</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Cho phép đọc và ghi dữ liệu liên quan đến sản phẩm.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>read_orders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>write_orders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Cho phép đọc và ghi dữ liệu đơn hàng.</t>
+    </r>
+  </si>
+  <si>
+    <t>Webhook</t>
+  </si>
+  <si>
+    <t>Shopify hỗ trợ Webhooks để bạn có thể nhận thông báo khi một sự kiện cụ thể xảy ra trong cửa hàng, như khi một đơn hàng được tạo hoặc khi sản phẩm được cập nhật. Webhooks giúp ứng dụng của bạn hoạt động theo thời gian thực mà không cần liên tục kiểm tra API.</t>
+  </si>
+  <si>
+    <t>các lệnh chạy tạo app</t>
+  </si>
+  <si>
+    <t>npm install -g @shopify/cli@latest</t>
+  </si>
+  <si>
+    <t>shopify app init</t>
+  </si>
+  <si>
+    <t>cd …</t>
+  </si>
+  <si>
+    <t>shopify extension create</t>
+  </si>
+  <si>
+    <t>npm run dev</t>
+  </si>
+  <si>
+    <t>các bước để tạo app shopify bằng laravel</t>
+  </si>
+  <si>
+    <t>tạo dự án laravel</t>
+  </si>
+  <si>
+    <t>laravel 8</t>
+  </si>
+  <si>
+    <t>khởi tạo ứng dụng app</t>
+  </si>
+  <si>
+    <t>cấu hình .env</t>
+  </si>
+  <si>
+    <t>chạy migration</t>
+  </si>
+  <si>
+    <t>kết nối ngrok</t>
+  </si>
+  <si>
+    <t>php artisan config:clear</t>
+  </si>
+  <si>
+    <t>php artisan config:cache</t>
+  </si>
+  <si>
+    <t>tạo app ở shopify partern</t>
+  </si>
+  <si>
+    <t>public app</t>
+  </si>
+  <si>
+    <t>cập nhật config cho ngrok vào</t>
+  </si>
+  <si>
+    <t>"test on dev store"</t>
+  </si>
+  <si>
+    <t>install</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collection </t>
+  </si>
+  <si>
+    <t>Pre Orders</t>
+  </si>
+  <si>
+    <t>product tags</t>
+  </si>
+  <si>
+    <t>có thẻ new arrivals</t>
+  </si>
+  <si>
+    <t>trải nghiệm tìm kiếm, ở trang collection</t>
+  </si>
+  <si>
+    <t>Accentuate app</t>
+  </si>
+  <si>
+    <t>thêm metafields ở trong sản phẩm, collection, meta bình thường chỉ có html text, app này sẽ có thêm image, video….</t>
+  </si>
+  <si>
+    <t>DECO Product Labels &amp; Badges</t>
+  </si>
+  <si>
+    <t>hiển thị label ở collection, sản phẩm như "new"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extendons Hide Price </t>
+  </si>
+  <si>
+    <t>ẩn giá khi người dùng k đăng nhập</t>
+  </si>
+  <si>
+    <t>OrderlyEmail app</t>
+  </si>
+  <si>
+    <t>quản lí email, khi khách hàng đặt hàng, cho admin hoặc cho mail người dùng</t>
+  </si>
+  <si>
+    <t>nó giống như chat GPT</t>
+  </si>
+  <si>
+    <t>tạo văn bản</t>
+  </si>
+  <si>
+    <t>đọc hình ảnh</t>
+  </si>
+  <si>
+    <t>nhúng</t>
+  </si>
+  <si>
+    <t>gọi hàm</t>
+  </si>
+  <si>
+    <t>kiểm duyệt nội dung</t>
+  </si>
+  <si>
+    <t>đánh giá đầu ra của mô hình</t>
+  </si>
+  <si>
+    <t>nhiệm vụ phân loại</t>
+  </si>
+  <si>
+    <t>có bản trả phí</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5473,44 +5553,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF0F2149"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="13.5"/>
       <color theme="1"/>
@@ -5523,8 +5565,22 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF303030"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5548,26 +5604,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5605,50 +5643,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5710,77 +5711,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5797,6 +5728,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6515,7 +6461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M98"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
@@ -6729,7 +6675,7 @@
       <c r="C26">
         <v>12</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="48" t="s">
         <v>180</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -6740,7 +6686,7 @@
       <c r="C27">
         <v>13</v>
       </c>
-      <c r="D27" s="61"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="8" t="s">
         <v>182</v>
       </c>
@@ -8520,7 +8466,7 @@
   <dimension ref="E3:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9771,8 +9717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9919,7 +9865,7 @@
   <dimension ref="E3:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10078,10 +10024,1401 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W417"/>
+  <dimension ref="D2:X210"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="N61" sqref="N61"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="E183" sqref="E183"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="4:8">
+      <c r="F2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="3" spans="4:8">
+      <c r="F3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8">
+      <c r="F6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="D8" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8">
+      <c r="D9" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
+      <c r="D10" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
+      <c r="D11" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8">
+      <c r="D12" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="D13" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8">
+      <c r="D14" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8">
+      <c r="D15" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="E18" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="E19" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="E20" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="E21" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="E22" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="49" spans="4:24">
+      <c r="D49" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="52" spans="4:24">
+      <c r="D52" s="4" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="53" spans="4:24">
+      <c r="E53" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="54" spans="4:24">
+      <c r="F54" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="55" spans="4:24">
+      <c r="F55" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="56" spans="4:24">
+      <c r="F56" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="57" spans="4:24">
+      <c r="F57" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="58" spans="4:24">
+      <c r="F58" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="59" spans="4:24">
+      <c r="D59" s="4" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="60" spans="4:24">
+      <c r="E60" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="61" spans="4:24">
+      <c r="E61" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="62" spans="4:24">
+      <c r="E62" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="63" spans="4:24">
+      <c r="E63" t="s">
+        <v>1125</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>1101</v>
+      </c>
+      <c r="X63" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="64" spans="4:24">
+      <c r="E64" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="65" spans="4:24">
+      <c r="E65" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="66" spans="4:24">
+      <c r="E66" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="67" spans="4:24">
+      <c r="D67" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>1102</v>
+      </c>
+      <c r="X67" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="68" spans="4:24">
+      <c r="E68" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>1104</v>
+      </c>
+      <c r="X68" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="69" spans="4:24">
+      <c r="E69" t="s">
+        <v>354</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1121</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>1106</v>
+      </c>
+      <c r="X69" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="70" spans="4:24">
+      <c r="E70" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1122</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>1133</v>
+      </c>
+      <c r="X70" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="71" spans="4:24">
+      <c r="E71" t="s">
+        <v>1116</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>1136</v>
+      </c>
+      <c r="X71" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="72" spans="4:24">
+      <c r="E72" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>1138</v>
+      </c>
+      <c r="X72" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="73" spans="4:24">
+      <c r="E73" t="s">
+        <v>1117</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>1153</v>
+      </c>
+      <c r="X73" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="74" spans="4:24">
+      <c r="E74" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1123</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>1156</v>
+      </c>
+      <c r="X74" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="75" spans="4:24">
+      <c r="E75" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1124</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>1160</v>
+      </c>
+      <c r="X75" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="76" spans="4:24">
+      <c r="E76" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1127</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X76" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="77" spans="4:24">
+      <c r="E77" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>1188</v>
+      </c>
+      <c r="X77" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="78" spans="4:24">
+      <c r="E78" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1131</v>
+      </c>
+      <c r="Q78" s="34" t="s">
+        <v>1194</v>
+      </c>
+      <c r="X78" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="79" spans="4:24">
+      <c r="D79" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>1196</v>
+      </c>
+      <c r="X79" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="80" spans="4:24">
+      <c r="Q80" t="s">
+        <v>1198</v>
+      </c>
+      <c r="X80" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="81" spans="4:24">
+      <c r="Q81" t="s">
+        <v>1200</v>
+      </c>
+      <c r="X81" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="82" spans="4:24">
+      <c r="Q82" t="s">
+        <v>1226</v>
+      </c>
+      <c r="X82" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="83" spans="4:24">
+      <c r="Q83" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X83" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="84" spans="4:24">
+      <c r="X84" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="85" spans="4:24">
+      <c r="D85" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X85" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="86" spans="4:24">
+      <c r="Q86" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="87" spans="4:24">
+      <c r="Q87" t="s">
+        <v>1308</v>
+      </c>
+      <c r="X87" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="88" spans="4:24">
+      <c r="Q88" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="89" spans="4:24">
+      <c r="Q89" t="s">
+        <v>1237</v>
+      </c>
+      <c r="X89" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="90" spans="4:24">
+      <c r="Q90" t="s">
+        <v>1323</v>
+      </c>
+      <c r="X90" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="92" spans="4:24">
+      <c r="E92" t="s">
+        <v>1145</v>
+      </c>
+      <c r="S92" s="4" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="93" spans="4:24">
+      <c r="E93" t="s">
+        <v>1155</v>
+      </c>
+      <c r="T93" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="95" spans="4:24">
+      <c r="T95" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="96" spans="4:24">
+      <c r="D96" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E96" s="23"/>
+    </row>
+    <row r="97" spans="4:18">
+      <c r="E97" s="23" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="98" spans="4:18">
+      <c r="E98" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="99" spans="4:18">
+      <c r="E99" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="100" spans="4:18">
+      <c r="E100" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="101" spans="4:18">
+      <c r="E101" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="104" spans="4:18">
+      <c r="D104" s="4" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="105" spans="4:18" ht="52.5" customHeight="1">
+      <c r="E105" s="49" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F105" s="49"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="49"/>
+      <c r="I105" s="49"/>
+      <c r="J105" s="49"/>
+      <c r="K105" s="49"/>
+      <c r="L105" s="49"/>
+      <c r="M105" s="49"/>
+      <c r="N105" s="49"/>
+      <c r="O105" s="49"/>
+      <c r="P105" s="49"/>
+      <c r="Q105" s="49"/>
+      <c r="R105" s="49"/>
+    </row>
+    <row r="106" spans="4:18">
+      <c r="E106" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="107" spans="4:18">
+      <c r="E107" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="108" spans="4:18">
+      <c r="E108" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="109" spans="4:18">
+      <c r="E109" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="110" spans="4:18">
+      <c r="E110" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="112" spans="4:18">
+      <c r="D112" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="113" spans="4:18">
+      <c r="D113" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="114" spans="4:18">
+      <c r="D114" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="116" spans="4:18">
+      <c r="D116" s="4" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="117" spans="4:18">
+      <c r="E117" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="118" spans="4:18">
+      <c r="F118" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1178</v>
+      </c>
+      <c r="R118" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="119" spans="4:18">
+      <c r="F119" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1179</v>
+      </c>
+      <c r="R119" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="120" spans="4:18">
+      <c r="E120" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="121" spans="4:18">
+      <c r="D121" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="122" spans="4:18">
+      <c r="D122" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="124" spans="4:18">
+      <c r="D124" s="4" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="125" spans="4:18">
+      <c r="D125" t="s">
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="126" spans="4:18">
+      <c r="D126" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="127" spans="4:18">
+      <c r="D127" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="128" spans="4:18">
+      <c r="D128" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="129" spans="4:8">
+      <c r="D129" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="130" spans="4:8">
+      <c r="E130" t="s">
+        <v>0</v>
+      </c>
+      <c r="F130" s="23" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="131" spans="4:8">
+      <c r="E131" t="s">
+        <v>0</v>
+      </c>
+      <c r="F131" s="23" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H131" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="132" spans="4:8">
+      <c r="E132" t="s">
+        <v>0</v>
+      </c>
+      <c r="F132" s="23" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="133" spans="4:8">
+      <c r="E133" t="s">
+        <v>0</v>
+      </c>
+      <c r="F133" s="23" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="134" spans="4:8">
+      <c r="E134" t="s">
+        <v>0</v>
+      </c>
+      <c r="F134" s="23" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="135" spans="4:8">
+      <c r="D135" t="s">
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="136" spans="4:8">
+      <c r="D136" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="138" spans="4:8">
+      <c r="D138" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="139" spans="4:8">
+      <c r="D139" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="140" spans="4:8">
+      <c r="D140" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="141" spans="4:8">
+      <c r="D141" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="142" spans="4:8">
+      <c r="D142" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="143" spans="4:8">
+      <c r="D143" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="145" spans="4:21">
+      <c r="D145" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="146" spans="4:21">
+      <c r="D146" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H146" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="147" spans="4:21">
+      <c r="D147" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="148" spans="4:21">
+      <c r="D148" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="149" spans="4:21">
+      <c r="D149" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H149" t="s">
+        <v>1252</v>
+      </c>
+      <c r="S149">
+        <v>1</v>
+      </c>
+      <c r="T149" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="150" spans="4:21">
+      <c r="U150" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="151" spans="4:21">
+      <c r="D151" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="U151" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="152" spans="4:21">
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1237</v>
+      </c>
+      <c r="U152" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="153" spans="4:21">
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1238</v>
+      </c>
+      <c r="U153" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="154" spans="4:21">
+      <c r="D154" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="U154" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="155" spans="4:21">
+      <c r="E155" t="s">
+        <v>1240</v>
+      </c>
+      <c r="U155" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="156" spans="4:21">
+      <c r="E156" t="s">
+        <v>1241</v>
+      </c>
+      <c r="U156" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="157" spans="4:21">
+      <c r="U157" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="158" spans="4:21">
+      <c r="D158" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="159" spans="4:21">
+      <c r="E159" t="s">
+        <v>1243</v>
+      </c>
+      <c r="U159" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="160" spans="4:21">
+      <c r="E160" t="s">
+        <v>1244</v>
+      </c>
+      <c r="U160" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="161" spans="4:22">
+      <c r="F161" t="s">
+        <v>415</v>
+      </c>
+      <c r="U161" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="162" spans="4:22">
+      <c r="F162" t="s">
+        <v>1245</v>
+      </c>
+      <c r="U162" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="163" spans="4:22">
+      <c r="F163" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1250</v>
+      </c>
+      <c r="U163" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="164" spans="4:22">
+      <c r="E164" t="s">
+        <v>1249</v>
+      </c>
+      <c r="S164">
+        <v>3</v>
+      </c>
+      <c r="T164" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="165" spans="4:22">
+      <c r="E165" t="s">
+        <v>1248</v>
+      </c>
+      <c r="U165" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="166" spans="4:22">
+      <c r="E166" t="s">
+        <v>1247</v>
+      </c>
+      <c r="U166" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="167" spans="4:22">
+      <c r="U167" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="168" spans="4:22">
+      <c r="D168" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="U168" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="169" spans="4:22">
+      <c r="E169" t="s">
+        <v>1288</v>
+      </c>
+      <c r="U169" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="170" spans="4:22">
+      <c r="E170" t="s">
+        <v>1289</v>
+      </c>
+      <c r="U170" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="171" spans="4:22">
+      <c r="E171" t="s">
+        <v>1290</v>
+      </c>
+      <c r="S171">
+        <v>4</v>
+      </c>
+      <c r="T171" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="172" spans="4:22">
+      <c r="E172" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="173" spans="4:22">
+      <c r="E173" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="174" spans="4:22">
+      <c r="R174" t="s">
+        <v>775</v>
+      </c>
+      <c r="S174" t="s">
+        <v>0</v>
+      </c>
+      <c r="T174" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="175" spans="4:22">
+      <c r="D175" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1296</v>
+      </c>
+      <c r="R175" t="s">
+        <v>775</v>
+      </c>
+      <c r="S175" t="s">
+        <v>0</v>
+      </c>
+      <c r="T175" t="s">
+        <v>1157</v>
+      </c>
+      <c r="V175" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="176" spans="4:22">
+      <c r="E176" t="s">
+        <v>1297</v>
+      </c>
+      <c r="R176" t="s">
+        <v>775</v>
+      </c>
+      <c r="S176" t="s">
+        <v>0</v>
+      </c>
+      <c r="T176" t="s">
+        <v>1132</v>
+      </c>
+      <c r="V176" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="177" spans="4:20">
+      <c r="E177" t="s">
+        <v>1298</v>
+      </c>
+      <c r="R177" t="s">
+        <v>775</v>
+      </c>
+      <c r="S177" t="s">
+        <v>0</v>
+      </c>
+      <c r="T177" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="178" spans="4:20">
+      <c r="S178" t="s">
+        <v>0</v>
+      </c>
+      <c r="T178" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="179" spans="4:20">
+      <c r="D179" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="S179" t="s">
+        <v>0</v>
+      </c>
+      <c r="T179" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="180" spans="4:20">
+      <c r="E180" t="s">
+        <v>1303</v>
+      </c>
+      <c r="S180" t="s">
+        <v>0</v>
+      </c>
+      <c r="T180" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="181" spans="4:20">
+      <c r="E181" t="s">
+        <v>1304</v>
+      </c>
+      <c r="S181" t="s">
+        <v>0</v>
+      </c>
+      <c r="T181" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="182" spans="4:20">
+      <c r="E182" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="183" spans="4:20">
+      <c r="E183" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="184" spans="4:20">
+      <c r="E184" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="185" spans="4:20">
+      <c r="E185" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="186" spans="4:20">
+      <c r="F186" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="187" spans="4:20">
+      <c r="F187" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="188" spans="4:20">
+      <c r="F188" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="189" spans="4:20">
+      <c r="F189" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="190" spans="4:20">
+      <c r="D190" s="4" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="191" spans="4:20">
+      <c r="E191" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="192" spans="4:20">
+      <c r="E192" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="194" spans="4:20">
+      <c r="D194" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="195" spans="4:20">
+      <c r="T195" s="8" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="208" spans="4:20">
+      <c r="R208" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="209" spans="18:18">
+      <c r="R209" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="210" spans="18:18">
+      <c r="R210" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E105:R105"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="T195" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="D2" s="4" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="C5" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="C9" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="D12" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="D13" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="D14" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:W426"/>
+  <sheetViews>
+    <sheetView topLeftCell="A357" workbookViewId="0">
+      <selection activeCell="K376" sqref="K376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10246,7 +11583,7 @@
         <v>780</v>
       </c>
       <c r="S24" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="25" spans="10:21">
@@ -11907,7 +13244,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="273" spans="5:14">
+    <row r="273" spans="5:11">
       <c r="E273" t="s">
         <v>1058</v>
       </c>
@@ -11915,515 +13252,759 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="275" spans="5:14">
-      <c r="L275" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="276" spans="5:14">
-      <c r="M276" t="s">
+    <row r="276" spans="5:11">
+      <c r="G276" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="277" spans="5:14" ht="15.75">
-      <c r="N277" s="37" t="s">
+      <c r="J276" s="8" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="278" spans="5:14" ht="15.75">
-      <c r="N278" s="37" t="s">
+    <row r="279" spans="5:11">
+      <c r="H279" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="279" spans="5:14" ht="15.75">
-      <c r="N279" s="37" t="s">
+    <row r="280" spans="5:11">
+      <c r="H280" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="281" spans="5:11">
+      <c r="H281" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="280" spans="5:14" ht="15.75">
-      <c r="N280" s="37" t="s">
+    <row r="282" spans="5:11">
+      <c r="H282" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="283" spans="5:11">
+      <c r="H283" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="284" spans="5:11">
+      <c r="H284" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="283" spans="5:14">
-      <c r="J283" s="38" t="s">
+    <row r="288" spans="5:11">
+      <c r="G288" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K288" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="290" spans="3:11">
+      <c r="H290" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="284" spans="5:14">
-      <c r="J284">
+    <row r="291" spans="3:11">
+      <c r="H291" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="292" spans="3:11">
+      <c r="H292" t="s">
+        <v>1465</v>
+      </c>
+      <c r="K292" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="296" spans="3:11" ht="18">
+      <c r="C296" s="37" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="297" spans="3:11">
+      <c r="C297" s="38"/>
+    </row>
+    <row r="298" spans="3:11">
+      <c r="C298" s="39" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="299" spans="3:11">
+      <c r="C299" s="38"/>
+    </row>
+    <row r="300" spans="3:11">
+      <c r="C300" s="40" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="301" spans="3:11">
+      <c r="C301" s="40" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="302" spans="3:11">
+      <c r="C302" s="40" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="303" spans="3:11">
+      <c r="C303" s="38"/>
+    </row>
+    <row r="304" spans="3:11">
+      <c r="C304" s="39" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3">
+      <c r="C305" s="38"/>
+    </row>
+    <row r="306" spans="3:3">
+      <c r="C306" s="38"/>
+    </row>
+    <row r="307" spans="3:3">
+      <c r="C307" s="40" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3">
+      <c r="C308" s="40" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3">
+      <c r="C309" s="41" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="310" spans="3:3">
+      <c r="C310" s="42" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3">
+      <c r="C311" s="41" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3">
+      <c r="C312" s="42" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3">
+      <c r="C313" s="38"/>
+    </row>
+    <row r="314" spans="3:3">
+      <c r="C314" s="39" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="315" spans="3:3">
+      <c r="C315" s="38"/>
+    </row>
+    <row r="316" spans="3:3">
+      <c r="C316" s="38"/>
+    </row>
+    <row r="317" spans="3:3">
+      <c r="C317" s="40" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="318" spans="3:3">
+      <c r="C318" s="40" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3">
+      <c r="C319" s="40" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="320" spans="3:3">
+      <c r="C320" s="38"/>
+    </row>
+    <row r="321" spans="3:3">
+      <c r="C321" s="39" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3">
+      <c r="C322" s="38"/>
+    </row>
+    <row r="323" spans="3:3">
+      <c r="C323" s="38"/>
+    </row>
+    <row r="324" spans="3:3">
+      <c r="C324" s="40" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="325" spans="3:3">
+      <c r="C325" s="40" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3">
+      <c r="C326" s="38"/>
+    </row>
+    <row r="327" spans="3:3">
+      <c r="C327" s="39" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="328" spans="3:3">
+      <c r="C328" s="38"/>
+    </row>
+    <row r="329" spans="3:3">
+      <c r="C329" s="38"/>
+    </row>
+    <row r="330" spans="3:3">
+      <c r="C330" s="40" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="331" spans="3:3">
+      <c r="C331" s="40" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="333" spans="3:3" ht="18">
+      <c r="C333" s="37" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="334" spans="3:3">
+      <c r="C334" s="38"/>
+    </row>
+    <row r="335" spans="3:3">
+      <c r="C335" s="39" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="336" spans="3:3">
+      <c r="C336" s="38"/>
+    </row>
+    <row r="337" spans="3:3">
+      <c r="C337" s="40" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3">
+      <c r="C338" s="38"/>
+    </row>
+    <row r="339" spans="3:3">
+      <c r="C339" s="39" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="340" spans="3:3">
+      <c r="C340" s="38"/>
+    </row>
+    <row r="341" spans="3:3">
+      <c r="C341" s="40" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="342" spans="3:3">
+      <c r="C342" s="38"/>
+    </row>
+    <row r="343" spans="3:3">
+      <c r="C343" s="39" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3">
+      <c r="C344" s="38"/>
+    </row>
+    <row r="345" spans="3:3">
+      <c r="C345" s="40" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="347" spans="3:3" ht="18">
+      <c r="C347" s="37" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="349" spans="3:3">
+      <c r="C349" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="350" spans="3:3">
+      <c r="C350" s="38"/>
+    </row>
+    <row r="351" spans="3:3">
+      <c r="C351" s="39" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="352" spans="3:3">
+      <c r="C352" s="39" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="353" spans="3:20">
+      <c r="C353" s="39" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="355" spans="3:20" ht="18">
+      <c r="C355" s="37" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="356" spans="3:20">
+      <c r="C356" s="38"/>
+    </row>
+    <row r="357" spans="3:20">
+      <c r="C357" s="39" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="358" spans="3:20">
+      <c r="C358" s="39" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="359" spans="3:20">
+      <c r="C359" s="39" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="361" spans="3:20" ht="18">
+      <c r="C361" s="37" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="362" spans="3:20">
+      <c r="C362" s="38"/>
+    </row>
+    <row r="363" spans="3:20">
+      <c r="C363" s="39" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="364" spans="3:20">
+      <c r="C364" s="39" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="367" spans="3:20" ht="31.5">
+      <c r="C367" s="47" t="s">
+        <v>1462</v>
+      </c>
+      <c r="S367">
+        <v>2</v>
+      </c>
+      <c r="T367">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="368" spans="3:20">
+      <c r="C368" s="43">
         <v>1</v>
       </c>
-      <c r="K284" t="s">
-        <v>623</v>
-      </c>
-      <c r="L284" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="285" spans="5:14">
-      <c r="J285">
+      <c r="D368" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G368" t="s">
+        <v>1508</v>
+      </c>
+      <c r="S368">
+        <v>4</v>
+      </c>
+      <c r="T368">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="369" spans="3:7">
+      <c r="C369" s="43">
         <v>2</v>
       </c>
-      <c r="K285" t="s">
-        <v>399</v>
-      </c>
-      <c r="L285" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="286" spans="5:14">
-      <c r="J286">
+      <c r="D369" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G369" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="370" spans="3:7">
+      <c r="C370" s="43">
         <v>3</v>
       </c>
-      <c r="K286" t="s">
-        <v>1461</v>
-      </c>
-      <c r="L286" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="296" spans="5:8">
-      <c r="E296">
-        <v>1</v>
-      </c>
-      <c r="F296" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="297" spans="5:8">
-      <c r="E297">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="301" spans="5:8">
-      <c r="E301" t="s">
-        <v>1464</v>
-      </c>
-      <c r="H301" t="s">
+      <c r="D370" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="302" spans="5:8">
-      <c r="E302" t="s">
-        <v>1466</v>
-      </c>
-      <c r="H302" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="303" spans="5:8">
-      <c r="E303" t="s">
-        <v>1468</v>
-      </c>
-      <c r="H303" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="304" spans="5:8">
-      <c r="E304" t="s">
-        <v>1470</v>
-      </c>
-      <c r="H304" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="305" spans="5:10">
-      <c r="E305" t="s">
-        <v>1473</v>
-      </c>
-      <c r="H305" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="306" spans="5:10">
-      <c r="E306" t="s">
-        <v>1474</v>
-      </c>
-      <c r="H306" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="307" spans="5:10">
-      <c r="E307" t="s">
-        <v>1476</v>
-      </c>
-      <c r="H307" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="308" spans="5:10">
-      <c r="E308" t="s">
-        <v>1478</v>
-      </c>
-      <c r="H308" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="309" spans="5:10">
-      <c r="E309" t="s">
-        <v>1480</v>
-      </c>
-      <c r="H309" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="310" spans="5:10">
-      <c r="E310" t="s">
-        <v>1482</v>
-      </c>
-      <c r="H310" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="318" spans="5:10">
-      <c r="G318" t="s">
-        <v>1484</v>
-      </c>
-      <c r="J318" s="8" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="328" spans="8:8">
-      <c r="H328" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="329" spans="8:8">
-      <c r="H329" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="330" spans="8:8">
-      <c r="H330" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="331" spans="8:8">
-      <c r="H331" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="332" spans="8:8">
-      <c r="H332" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="333" spans="8:8">
-      <c r="H333" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="337" spans="3:11">
-      <c r="G337" t="s">
-        <v>1054</v>
-      </c>
-      <c r="K337" t="s">
+      <c r="G370" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="371" spans="3:7">
+      <c r="C371" s="43">
+        <v>4</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G371" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="372" spans="3:7">
+      <c r="C372" s="43">
+        <v>5</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1514</v>
+      </c>
+      <c r="G372" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="373" spans="3:7">
+      <c r="C373" s="43">
+        <v>6</v>
+      </c>
+      <c r="D373" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="339" spans="3:11">
-      <c r="H339" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="340" spans="3:11">
-      <c r="H340" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="341" spans="3:11">
-      <c r="H341" t="s">
+      <c r="G373" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="374" spans="3:7">
+      <c r="C374" s="43">
+        <v>7</v>
+      </c>
+      <c r="D374" t="s">
         <v>1564</v>
       </c>
-      <c r="K341" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="345" spans="3:11" ht="18">
-      <c r="C345" s="67" t="s">
+      <c r="G374" t="s">
         <v>1565</v>
       </c>
     </row>
-    <row r="346" spans="3:11">
-      <c r="C346" s="68"/>
-    </row>
-    <row r="347" spans="3:11">
-      <c r="C347" s="69" t="s">
+    <row r="375" spans="3:7">
+      <c r="C375" s="43">
+        <v>8</v>
+      </c>
+      <c r="D375" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="348" spans="3:11">
-      <c r="C348" s="68"/>
-    </row>
-    <row r="349" spans="3:11">
-      <c r="C349" s="68"/>
-    </row>
-    <row r="350" spans="3:11">
-      <c r="C350" s="70" t="s">
+      <c r="G375" t="s">
         <v>1567</v>
       </c>
     </row>
-    <row r="351" spans="3:11">
-      <c r="C351" s="70" t="s">
+    <row r="376" spans="3:7">
+      <c r="C376" s="43">
+        <v>9</v>
+      </c>
+      <c r="D376" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="352" spans="3:11">
-      <c r="C352" s="70" t="s">
+      <c r="G376" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="353" spans="3:3">
-      <c r="C353" s="68"/>
-    </row>
-    <row r="354" spans="3:3">
-      <c r="C354" s="69" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="355" spans="3:3">
-      <c r="C355" s="68"/>
-    </row>
-    <row r="356" spans="3:3">
-      <c r="C356" s="68"/>
-    </row>
-    <row r="357" spans="3:3">
-      <c r="C357" s="70" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="358" spans="3:3">
-      <c r="C358" s="70" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="359" spans="3:3">
-      <c r="C359" s="71" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="360" spans="3:3">
-      <c r="C360" s="72" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="361" spans="3:3">
-      <c r="C361" s="71" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="362" spans="3:3">
-      <c r="C362" s="72" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="363" spans="3:3">
-      <c r="C363" s="68"/>
-    </row>
-    <row r="364" spans="3:3">
-      <c r="C364" s="69" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="365" spans="3:3">
-      <c r="C365" s="68"/>
-    </row>
-    <row r="366" spans="3:3">
-      <c r="C366" s="68"/>
-    </row>
-    <row r="367" spans="3:3">
-      <c r="C367" s="70" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="368" spans="3:3">
-      <c r="C368" s="70" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="369" spans="3:3">
-      <c r="C369" s="70" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="370" spans="3:3">
-      <c r="C370" s="68"/>
-    </row>
-    <row r="371" spans="3:3">
-      <c r="C371" s="69" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="372" spans="3:3">
-      <c r="C372" s="68"/>
-    </row>
-    <row r="373" spans="3:3">
-      <c r="C373" s="68"/>
-    </row>
-    <row r="374" spans="3:3">
-      <c r="C374" s="70" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="375" spans="3:3">
-      <c r="C375" s="70" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="376" spans="3:3">
-      <c r="C376" s="68"/>
-    </row>
-    <row r="377" spans="3:3">
-      <c r="C377" s="69" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="378" spans="3:3">
-      <c r="C378" s="68"/>
-    </row>
-    <row r="379" spans="3:3">
-      <c r="C379" s="68"/>
-    </row>
-    <row r="380" spans="3:3">
-      <c r="C380" s="70" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="381" spans="3:3">
-      <c r="C381" s="70" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="383" spans="3:3" ht="18">
-      <c r="C383" s="67" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="384" spans="3:3">
-      <c r="C384" s="68"/>
-    </row>
-    <row r="385" spans="3:3">
-      <c r="C385" s="69" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="386" spans="3:3">
-      <c r="C386" s="68"/>
-    </row>
-    <row r="387" spans="3:3">
-      <c r="C387" s="68"/>
-    </row>
-    <row r="388" spans="3:3">
-      <c r="C388" s="70" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="389" spans="3:3">
-      <c r="C389" s="68"/>
-    </row>
-    <row r="390" spans="3:3">
-      <c r="C390" s="69" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="391" spans="3:3">
-      <c r="C391" s="68"/>
-    </row>
-    <row r="392" spans="3:3">
-      <c r="C392" s="68"/>
-    </row>
-    <row r="393" spans="3:3">
-      <c r="C393" s="70" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="394" spans="3:3">
-      <c r="C394" s="68"/>
-    </row>
-    <row r="395" spans="3:3">
-      <c r="C395" s="69" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="396" spans="3:3">
-      <c r="C396" s="68"/>
-    </row>
-    <row r="397" spans="3:3">
-      <c r="C397" s="68"/>
-    </row>
-    <row r="398" spans="3:3">
-      <c r="C398" s="70" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="400" spans="3:3" ht="18">
-      <c r="C400" s="67" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="402" spans="3:3">
-      <c r="C402" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="403" spans="3:3">
-      <c r="C403" s="68"/>
-    </row>
-    <row r="404" spans="3:3">
-      <c r="C404" s="69" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="405" spans="3:3">
-      <c r="C405" s="69" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="406" spans="3:3">
-      <c r="C406" s="69" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="408" spans="3:3" ht="18">
-      <c r="C408" s="67" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="409" spans="3:3">
-      <c r="C409" s="68"/>
-    </row>
-    <row r="410" spans="3:3">
-      <c r="C410" s="69" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="411" spans="3:3">
-      <c r="C411" s="69" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="412" spans="3:3">
-      <c r="C412" s="69" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="414" spans="3:3" ht="18">
-      <c r="C414" s="67" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="415" spans="3:3">
-      <c r="C415" s="68"/>
-    </row>
-    <row r="416" spans="3:3">
-      <c r="C416" s="69" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="417" spans="3:3">
-      <c r="C417" s="69" t="s">
-        <v>1605</v>
+    <row r="378" spans="3:7">
+      <c r="C378" s="44" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E378" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="379" spans="3:7">
+      <c r="C379" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D379" s="44" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="380" spans="3:7">
+      <c r="C380" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D380" s="44" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="381" spans="3:7">
+      <c r="C381" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D381" s="44" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="382" spans="3:7">
+      <c r="C382" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D382" s="44" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="383" spans="3:7">
+      <c r="C383" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D383" s="44" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="384" spans="3:7">
+      <c r="C384" s="44" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="385" spans="3:4">
+      <c r="D385" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="386" spans="3:4">
+      <c r="D386" s="39" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="387" spans="3:4">
+      <c r="D387" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="388" spans="3:4">
+      <c r="C388" s="44" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="389" spans="3:4">
+      <c r="D389" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="390" spans="3:4">
+      <c r="D390" s="39" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="391" spans="3:4">
+      <c r="D391" s="39" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="392" spans="3:4">
+      <c r="C392" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="393" spans="3:4">
+      <c r="D393" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="394" spans="3:4">
+      <c r="D394" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="395" spans="3:4">
+      <c r="D395" s="45" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="396" spans="3:4">
+      <c r="D396" s="45" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="397" spans="3:4">
+      <c r="C397" s="44" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="398" spans="3:4">
+      <c r="D398" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="401" spans="3:7">
+      <c r="C401" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="402" spans="3:7">
+      <c r="D402" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="403" spans="3:7">
+      <c r="D403" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="404" spans="3:7">
+      <c r="D404" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="405" spans="3:7">
+      <c r="D405" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="406" spans="3:7">
+      <c r="D406" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="409" spans="3:7">
+      <c r="C409" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="410" spans="3:7">
+      <c r="C410" t="s">
+        <v>0</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="411" spans="3:7">
+      <c r="D411" t="s">
+        <v>47</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="412" spans="3:7">
+      <c r="C412" t="s">
+        <v>0</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1546</v>
+      </c>
+      <c r="G412" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="413" spans="3:7">
+      <c r="C413" t="s">
+        <v>0</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="414" spans="3:7">
+      <c r="C414" t="s">
+        <v>0</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G414" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="415" spans="3:7">
+      <c r="C415" t="s">
+        <v>0</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="416" spans="3:7">
+      <c r="D416" t="s">
+        <v>47</v>
+      </c>
+      <c r="E416" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="417" spans="3:12">
+      <c r="D417" t="s">
+        <v>47</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="418" spans="3:12">
+      <c r="C418" t="s">
+        <v>0</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="419" spans="3:12">
+      <c r="D419" t="s">
+        <v>47</v>
+      </c>
+      <c r="E419" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="420" spans="3:12">
+      <c r="D420" t="s">
+        <v>47</v>
+      </c>
+      <c r="E420" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="421" spans="3:12">
+      <c r="D421" t="s">
+        <v>47</v>
+      </c>
+      <c r="E421" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="422" spans="3:12">
+      <c r="D422" t="s">
+        <v>47</v>
+      </c>
+      <c r="E422" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="423" spans="3:12">
+      <c r="C423" t="s">
+        <v>0</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G423" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="425" spans="3:12">
+      <c r="J425" t="s">
+        <v>0</v>
+      </c>
+      <c r="K425" t="s">
+        <v>1557</v>
+      </c>
+      <c r="L425" s="46" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="426" spans="3:12">
+      <c r="J426" t="s">
+        <v>0</v>
+      </c>
+      <c r="K426" t="s">
+        <v>1559</v>
+      </c>
+      <c r="L426" t="s">
+        <v>1560</v>
       </c>
     </row>
   </sheetData>
@@ -12433,7 +14014,7 @@
     <hyperlink ref="E105" r:id="rId3"/>
     <hyperlink ref="E107" r:id="rId4"/>
     <hyperlink ref="I272" r:id="rId5"/>
-    <hyperlink ref="J318" r:id="rId6"/>
+    <hyperlink ref="J276" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -12441,2217 +14022,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:X210"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="Y174" sqref="Y174"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="4:8">
-      <c r="F2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H2" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="3" spans="4:8">
-      <c r="F3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="H3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="6" spans="4:8">
-      <c r="F6" t="s">
-        <v>1062</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8">
-      <c r="D8" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8">
-      <c r="D9" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8">
-      <c r="D10" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8">
-      <c r="D11" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8">
-      <c r="D12" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8">
-      <c r="D13" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8">
-      <c r="D14" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8">
-      <c r="D15" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="E18" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="E19" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="E20" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="E21" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5">
-      <c r="E22" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="D24" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5">
-      <c r="D25" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5">
-      <c r="D26" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5">
-      <c r="D27" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5">
-      <c r="D28" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5">
-      <c r="D29" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5">
-      <c r="D30" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4">
-      <c r="D38" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4">
-      <c r="D39" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4">
-      <c r="D41" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4">
-      <c r="D42" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4">
-      <c r="D43" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4">
-      <c r="D44" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4">
-      <c r="D45" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4">
-      <c r="D46" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4">
-      <c r="D47" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="48" spans="4:4">
-      <c r="D48" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="49" spans="4:24">
-      <c r="D49" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="52" spans="4:24">
-      <c r="D52" s="4" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="53" spans="4:24">
-      <c r="E53" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="54" spans="4:24">
-      <c r="F54" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="55" spans="4:24">
-      <c r="F55" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="56" spans="4:24">
-      <c r="F56" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="57" spans="4:24">
-      <c r="F57" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="58" spans="4:24">
-      <c r="F58" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="59" spans="4:24">
-      <c r="D59" s="4" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="60" spans="4:24">
-      <c r="E60" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G60" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="61" spans="4:24">
-      <c r="E61" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="62" spans="4:24">
-      <c r="E62" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="63" spans="4:24">
-      <c r="E63" t="s">
-        <v>1125</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>1101</v>
-      </c>
-      <c r="X63" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="64" spans="4:24">
-      <c r="E64" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="65" spans="4:24">
-      <c r="E65" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="66" spans="4:24">
-      <c r="E66" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="67" spans="4:24">
-      <c r="D67" s="4" t="s">
-        <v>1113</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>1102</v>
-      </c>
-      <c r="X67" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="68" spans="4:24">
-      <c r="E68" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F68" t="s">
-        <v>1120</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>1104</v>
-      </c>
-      <c r="X68" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="69" spans="4:24">
-      <c r="E69" t="s">
-        <v>354</v>
-      </c>
-      <c r="F69" t="s">
-        <v>1121</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>1106</v>
-      </c>
-      <c r="X69" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="70" spans="4:24">
-      <c r="E70" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F70" t="s">
-        <v>1122</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>1133</v>
-      </c>
-      <c r="X70" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="71" spans="4:24">
-      <c r="E71" t="s">
-        <v>1116</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>1136</v>
-      </c>
-      <c r="X71" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="72" spans="4:24">
-      <c r="E72" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>1138</v>
-      </c>
-      <c r="X72" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="73" spans="4:24">
-      <c r="E73" t="s">
-        <v>1117</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>1153</v>
-      </c>
-      <c r="X73" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="74" spans="4:24">
-      <c r="E74" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F74" t="s">
-        <v>1123</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>1156</v>
-      </c>
-      <c r="X74" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="75" spans="4:24">
-      <c r="E75" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F75" t="s">
-        <v>1124</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>1160</v>
-      </c>
-      <c r="X75" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="76" spans="4:24">
-      <c r="E76" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1127</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>1186</v>
-      </c>
-      <c r="X76" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="77" spans="4:24">
-      <c r="E77" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F77" t="s">
-        <v>1129</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>1188</v>
-      </c>
-      <c r="X77" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="78" spans="4:24">
-      <c r="E78" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F78" t="s">
-        <v>1131</v>
-      </c>
-      <c r="Q78" s="34" t="s">
-        <v>1194</v>
-      </c>
-      <c r="X78" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="79" spans="4:24">
-      <c r="D79" t="s">
-        <v>1134</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>1196</v>
-      </c>
-      <c r="X79" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="80" spans="4:24">
-      <c r="Q80" t="s">
-        <v>1198</v>
-      </c>
-      <c r="X80" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="81" spans="4:24">
-      <c r="Q81" t="s">
-        <v>1200</v>
-      </c>
-      <c r="X81" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="82" spans="4:24">
-      <c r="Q82" t="s">
-        <v>1226</v>
-      </c>
-      <c r="X82" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="83" spans="4:24">
-      <c r="Q83" t="s">
-        <v>1301</v>
-      </c>
-      <c r="X83" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="84" spans="4:24">
-      <c r="X84" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="85" spans="4:24">
-      <c r="D85" s="4" t="s">
-        <v>1144</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>1310</v>
-      </c>
-      <c r="X85" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="86" spans="4:24">
-      <c r="Q86" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="87" spans="4:24">
-      <c r="Q87" t="s">
-        <v>1308</v>
-      </c>
-      <c r="X87" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="88" spans="4:24">
-      <c r="Q88" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="89" spans="4:24">
-      <c r="Q89" t="s">
-        <v>1237</v>
-      </c>
-      <c r="X89" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="90" spans="4:24">
-      <c r="Q90" t="s">
-        <v>1323</v>
-      </c>
-      <c r="X90" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="92" spans="4:24">
-      <c r="E92" t="s">
-        <v>1145</v>
-      </c>
-      <c r="S92" s="4" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="93" spans="4:24">
-      <c r="E93" t="s">
-        <v>1155</v>
-      </c>
-      <c r="T93" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="95" spans="4:24">
-      <c r="T95" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="96" spans="4:24">
-      <c r="D96" s="4" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E96" s="23"/>
-    </row>
-    <row r="97" spans="4:18">
-      <c r="E97" s="23" t="s">
-        <v>1147</v>
-      </c>
-      <c r="F97" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="98" spans="4:18">
-      <c r="E98" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F98" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="99" spans="4:18">
-      <c r="E99" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F99" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="100" spans="4:18">
-      <c r="E100" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="101" spans="4:18">
-      <c r="E101" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="104" spans="4:18">
-      <c r="D104" s="4" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="105" spans="4:18" ht="52.5" customHeight="1">
-      <c r="E105" s="62" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F105" s="62"/>
-      <c r="G105" s="62"/>
-      <c r="H105" s="62"/>
-      <c r="I105" s="62"/>
-      <c r="J105" s="62"/>
-      <c r="K105" s="62"/>
-      <c r="L105" s="62"/>
-      <c r="M105" s="62"/>
-      <c r="N105" s="62"/>
-      <c r="O105" s="62"/>
-      <c r="P105" s="62"/>
-      <c r="Q105" s="62"/>
-      <c r="R105" s="62"/>
-    </row>
-    <row r="106" spans="4:18">
-      <c r="E106" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="107" spans="4:18">
-      <c r="E107" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="108" spans="4:18">
-      <c r="E108" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="109" spans="4:18">
-      <c r="E109" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="110" spans="4:18">
-      <c r="E110" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="112" spans="4:18">
-      <c r="D112" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E112" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="113" spans="4:18">
-      <c r="D113" s="4" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E113" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="114" spans="4:18">
-      <c r="D114" s="4" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E114" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="116" spans="4:18">
-      <c r="D116" s="4" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="117" spans="4:18">
-      <c r="E117" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F117" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="118" spans="4:18">
-      <c r="F118" t="s">
-        <v>1176</v>
-      </c>
-      <c r="H118" t="s">
-        <v>1178</v>
-      </c>
-      <c r="R118" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="119" spans="4:18">
-      <c r="F119" t="s">
-        <v>1177</v>
-      </c>
-      <c r="H119" t="s">
-        <v>1179</v>
-      </c>
-      <c r="R119" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="120" spans="4:18">
-      <c r="E120" t="s">
-        <v>1182</v>
-      </c>
-      <c r="F120" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="121" spans="4:18">
-      <c r="D121" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E121" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="122" spans="4:18">
-      <c r="D122" s="4" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E122" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="124" spans="4:18">
-      <c r="D124" s="4" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="125" spans="4:18">
-      <c r="D125" t="s">
-        <v>0</v>
-      </c>
-      <c r="E125" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="126" spans="4:18">
-      <c r="D126" t="s">
-        <v>0</v>
-      </c>
-      <c r="E126" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="127" spans="4:18">
-      <c r="D127" t="s">
-        <v>0</v>
-      </c>
-      <c r="E127" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="128" spans="4:18">
-      <c r="D128" t="s">
-        <v>0</v>
-      </c>
-      <c r="E128" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="129" spans="4:8">
-      <c r="D129" t="s">
-        <v>0</v>
-      </c>
-      <c r="E129" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="130" spans="4:8">
-      <c r="E130" t="s">
-        <v>0</v>
-      </c>
-      <c r="F130" s="23" t="s">
-        <v>1205</v>
-      </c>
-      <c r="H130" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="131" spans="4:8">
-      <c r="E131" t="s">
-        <v>0</v>
-      </c>
-      <c r="F131" s="23" t="s">
-        <v>1206</v>
-      </c>
-      <c r="H131" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="132" spans="4:8">
-      <c r="E132" t="s">
-        <v>0</v>
-      </c>
-      <c r="F132" s="23" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="133" spans="4:8">
-      <c r="E133" t="s">
-        <v>0</v>
-      </c>
-      <c r="F133" s="23" t="s">
-        <v>1211</v>
-      </c>
-      <c r="H133" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="134" spans="4:8">
-      <c r="E134" t="s">
-        <v>0</v>
-      </c>
-      <c r="F134" s="23" t="s">
-        <v>1217</v>
-      </c>
-      <c r="H134" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="135" spans="4:8">
-      <c r="D135" t="s">
-        <v>0</v>
-      </c>
-      <c r="E135" t="s">
-        <v>1212</v>
-      </c>
-      <c r="H135" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="136" spans="4:8">
-      <c r="D136" t="s">
-        <v>0</v>
-      </c>
-      <c r="E136" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="138" spans="4:8">
-      <c r="D138" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="139" spans="4:8">
-      <c r="D139" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="140" spans="4:8">
-      <c r="D140" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="141" spans="4:8">
-      <c r="D141" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="142" spans="4:8">
-      <c r="D142" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="143" spans="4:8">
-      <c r="D143" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="145" spans="4:21">
-      <c r="D145" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H145" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="146" spans="4:21">
-      <c r="D146" t="s">
-        <v>1230</v>
-      </c>
-      <c r="H146" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="147" spans="4:21">
-      <c r="D147" t="s">
-        <v>1231</v>
-      </c>
-      <c r="H147" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="148" spans="4:21">
-      <c r="D148" t="s">
-        <v>1233</v>
-      </c>
-      <c r="H148" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="149" spans="4:21">
-      <c r="D149" t="s">
-        <v>1251</v>
-      </c>
-      <c r="H149" t="s">
-        <v>1252</v>
-      </c>
-      <c r="S149">
-        <v>1</v>
-      </c>
-      <c r="T149" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="150" spans="4:21">
-      <c r="U150" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="151" spans="4:21">
-      <c r="D151" s="4" t="s">
-        <v>1236</v>
-      </c>
-      <c r="U151" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="152" spans="4:21">
-      <c r="D152">
-        <v>1</v>
-      </c>
-      <c r="E152" t="s">
-        <v>1237</v>
-      </c>
-      <c r="U152" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="153" spans="4:21">
-      <c r="D153">
-        <v>2</v>
-      </c>
-      <c r="E153" t="s">
-        <v>1238</v>
-      </c>
-      <c r="U153" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="154" spans="4:21">
-      <c r="D154" s="4" t="s">
-        <v>1239</v>
-      </c>
-      <c r="U154" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="155" spans="4:21">
-      <c r="E155" t="s">
-        <v>1240</v>
-      </c>
-      <c r="U155" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="156" spans="4:21">
-      <c r="E156" t="s">
-        <v>1241</v>
-      </c>
-      <c r="U156" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="157" spans="4:21">
-      <c r="U157" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="158" spans="4:21">
-      <c r="D158" s="4" t="s">
-        <v>1242</v>
-      </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="159" spans="4:21">
-      <c r="E159" t="s">
-        <v>1243</v>
-      </c>
-      <c r="U159" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="160" spans="4:21">
-      <c r="E160" t="s">
-        <v>1244</v>
-      </c>
-      <c r="U160" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="161" spans="4:22">
-      <c r="F161" t="s">
-        <v>415</v>
-      </c>
-      <c r="U161" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="162" spans="4:22">
-      <c r="F162" t="s">
-        <v>1245</v>
-      </c>
-      <c r="U162" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="163" spans="4:22">
-      <c r="F163" t="s">
-        <v>1246</v>
-      </c>
-      <c r="H163" t="s">
-        <v>1250</v>
-      </c>
-      <c r="U163" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="164" spans="4:22">
-      <c r="E164" t="s">
-        <v>1249</v>
-      </c>
-      <c r="S164">
-        <v>3</v>
-      </c>
-      <c r="T164" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="165" spans="4:22">
-      <c r="E165" t="s">
-        <v>1248</v>
-      </c>
-      <c r="U165" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="166" spans="4:22">
-      <c r="E166" t="s">
-        <v>1247</v>
-      </c>
-      <c r="U166" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="167" spans="4:22">
-      <c r="U167" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="168" spans="4:22">
-      <c r="D168" s="4" t="s">
-        <v>1287</v>
-      </c>
-      <c r="U168" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="169" spans="4:22">
-      <c r="E169" t="s">
-        <v>1288</v>
-      </c>
-      <c r="U169" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="170" spans="4:22">
-      <c r="E170" t="s">
-        <v>1289</v>
-      </c>
-      <c r="U170" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="171" spans="4:22">
-      <c r="E171" t="s">
-        <v>1290</v>
-      </c>
-      <c r="S171">
-        <v>4</v>
-      </c>
-      <c r="T171" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="172" spans="4:22">
-      <c r="E172" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="173" spans="4:22">
-      <c r="E173" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="174" spans="4:22">
-      <c r="R174" t="s">
-        <v>775</v>
-      </c>
-      <c r="S174" t="s">
-        <v>0</v>
-      </c>
-      <c r="T174" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="175" spans="4:22">
-      <c r="D175" s="4" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E175" t="s">
-        <v>1296</v>
-      </c>
-      <c r="R175" t="s">
-        <v>775</v>
-      </c>
-      <c r="S175" t="s">
-        <v>0</v>
-      </c>
-      <c r="T175" t="s">
-        <v>1157</v>
-      </c>
-      <c r="V175" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="176" spans="4:22">
-      <c r="E176" t="s">
-        <v>1297</v>
-      </c>
-      <c r="R176" t="s">
-        <v>775</v>
-      </c>
-      <c r="S176" t="s">
-        <v>0</v>
-      </c>
-      <c r="T176" t="s">
-        <v>1132</v>
-      </c>
-      <c r="V176" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="177" spans="4:20">
-      <c r="E177" t="s">
-        <v>1298</v>
-      </c>
-      <c r="R177" t="s">
-        <v>775</v>
-      </c>
-      <c r="S177" t="s">
-        <v>0</v>
-      </c>
-      <c r="T177" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="178" spans="4:20">
-      <c r="S178" t="s">
-        <v>0</v>
-      </c>
-      <c r="T178" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="179" spans="4:20">
-      <c r="D179" s="4" t="s">
-        <v>1302</v>
-      </c>
-      <c r="S179" t="s">
-        <v>0</v>
-      </c>
-      <c r="T179" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="180" spans="4:20">
-      <c r="E180" t="s">
-        <v>1303</v>
-      </c>
-      <c r="S180" t="s">
-        <v>0</v>
-      </c>
-      <c r="T180" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="181" spans="4:20">
-      <c r="E181" t="s">
-        <v>1304</v>
-      </c>
-      <c r="S181" t="s">
-        <v>0</v>
-      </c>
-      <c r="T181" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="182" spans="4:20">
-      <c r="E182" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="183" spans="4:20">
-      <c r="E183" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="184" spans="4:20">
-      <c r="E184" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="185" spans="4:20">
-      <c r="E185" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="186" spans="4:20">
-      <c r="F186" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="187" spans="4:20">
-      <c r="F187" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="188" spans="4:20">
-      <c r="F188" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="189" spans="4:20">
-      <c r="F189" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="190" spans="4:20">
-      <c r="D190" s="4" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="191" spans="4:20">
-      <c r="E191" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="192" spans="4:20">
-      <c r="E192" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="194" spans="4:20">
-      <c r="D194" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="195" spans="4:20">
-      <c r="T195" s="8" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="208" spans="4:20">
-      <c r="R208" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="209" spans="18:18">
-      <c r="R209" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="210" spans="18:18">
-      <c r="R210" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E105:R105"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="T195" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="D2" s="4" t="s">
-        <v>1413</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1570</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>1406</v>
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="D4" t="s">
+        <v>1571</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="C5" t="s">
-        <v>1407</v>
+      <c r="D5" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="D6" t="s">
+        <v>1573</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="C7" t="s">
-        <v>73</v>
+      <c r="D7" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="D8" t="s">
+        <v>1575</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="C9" t="s">
-        <v>1408</v>
+      <c r="D9" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="D10" t="s">
+        <v>1577</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="D12" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="D13" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="D14" t="s">
-        <v>1412</v>
+        <v>1578</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O45"/>
-  <sheetViews>
-    <sheetView topLeftCell="F19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="39"/>
-    <col min="2" max="2" width="9.140625" style="40"/>
-    <col min="3" max="3" width="75.28515625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="39" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="39"/>
-    <col min="12" max="12" width="25.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.85546875" style="39" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="39"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:15">
-      <c r="L3" s="39" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="27">
-      <c r="B4" s="66" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="L4" s="41" t="s">
-        <v>1553</v>
-      </c>
-      <c r="M4" s="41" t="s">
-        <v>1554</v>
-      </c>
-      <c r="N4" s="41" t="s">
-        <v>1555</v>
-      </c>
-      <c r="O4" s="41" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="L5" s="39" t="s">
-        <v>1556</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>1558</v>
-      </c>
-      <c r="N5" s="39" t="s">
-        <v>1559</v>
-      </c>
-      <c r="O5" s="39" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="51"/>
-      <c r="C6" s="51" t="s">
-        <v>1493</v>
-      </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>453</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>1495</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>1540</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="49">
-        <v>1</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>1492</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="50" t="s">
-        <v>1504</v>
-      </c>
-      <c r="H7" s="48">
-        <f>SUM(H8:H14)</f>
-        <v>23</v>
-      </c>
-      <c r="I7" s="42"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>1509</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H8" s="41">
-        <v>1</v>
-      </c>
-      <c r="I8" s="41"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>1496</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H9" s="41">
-        <v>8</v>
-      </c>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H10" s="41">
-        <v>4</v>
-      </c>
-      <c r="I10" s="41"/>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>1501</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>1502</v>
-      </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H11" s="41">
-        <v>2</v>
-      </c>
-      <c r="I11" s="41"/>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H12" s="41">
-        <v>4</v>
-      </c>
-      <c r="I12" s="41"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>1505</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>1543</v>
-      </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H13" s="41">
-        <v>2</v>
-      </c>
-      <c r="I13" s="41"/>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H14" s="41">
-        <v>2</v>
-      </c>
-      <c r="I14" s="41"/>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="49">
-        <v>2</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="50" t="s">
-        <v>1504</v>
-      </c>
-      <c r="H15" s="48">
-        <f>SUM(H16:H20)</f>
-        <v>8</v>
-      </c>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>1509</v>
-      </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H16" s="41">
-        <v>1</v>
-      </c>
-      <c r="I16" s="41"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H17" s="41">
-        <v>1</v>
-      </c>
-      <c r="I17" s="41"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H18" s="41">
-        <v>2</v>
-      </c>
-      <c r="I18" s="41"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>1512</v>
-      </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H19" s="41">
-        <v>2</v>
-      </c>
-      <c r="I19" s="41"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H20" s="41">
-        <v>2</v>
-      </c>
-      <c r="I20" s="41"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="49">
-        <v>3</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>1513</v>
-      </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="48">
-        <f>SUM(H22:H34)</f>
-        <v>25.1</v>
-      </c>
-      <c r="I21" s="42"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E22" s="41" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H22" s="41">
-        <v>2</v>
-      </c>
-      <c r="I22" s="41"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H23" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="I23" s="41"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H24" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="I24" s="41"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H25" s="41">
-        <v>0</v>
-      </c>
-      <c r="I25" s="41"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>1519</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>1523</v>
-      </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H26" s="41">
-        <v>0</v>
-      </c>
-      <c r="I26" s="41"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>1528</v>
-      </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H27" s="41">
-        <v>3</v>
-      </c>
-      <c r="I27" s="41"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>1542</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="55" t="s">
-        <v>1527</v>
-      </c>
-      <c r="H28" s="41">
-        <v>5</v>
-      </c>
-      <c r="I28" s="41"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>1529</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H29" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="I29" s="41"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>1542</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="55" t="s">
-        <v>1527</v>
-      </c>
-      <c r="H30" s="41">
-        <v>4</v>
-      </c>
-      <c r="I30" s="41"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E31" s="41" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H31" s="41">
-        <v>4</v>
-      </c>
-      <c r="I31" s="41"/>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>1534</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H32" s="41">
-        <v>4</v>
-      </c>
-      <c r="I32" s="41" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H33" s="41">
-        <v>2</v>
-      </c>
-      <c r="I33" s="41"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D34" s="41" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H34" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="I34" s="41"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="49">
-        <v>4</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="50" t="s">
-        <v>1504</v>
-      </c>
-      <c r="H35" s="48">
-        <f>SUM(H36)</f>
-        <v>8</v>
-      </c>
-      <c r="I35" s="42"/>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>1541</v>
-      </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="41">
-        <v>8</v>
-      </c>
-      <c r="I36" s="41"/>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="54" t="s">
-        <v>1538</v>
-      </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="46" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="49">
-        <v>5</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="48">
-        <f>SUM(H39)</f>
-        <v>2</v>
-      </c>
-      <c r="I38" s="42"/>
-    </row>
-    <row r="39" spans="2:9" s="58" customFormat="1">
-      <c r="B39" s="59"/>
-      <c r="C39" s="57" t="s">
-        <v>1550</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E39" s="57" t="s">
-        <v>1551</v>
-      </c>
-      <c r="F39" s="57"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="56">
-        <v>2</v>
-      </c>
-      <c r="I39" s="57" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="63" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="53">
-        <f>SUM(H7+H15+H21+H35+H38)</f>
-        <v>66.099999999999994</v>
-      </c>
-      <c r="I40" s="41"/>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="40" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="C44" s="39" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="C45" s="39" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B4:I4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14660,7 +14101,7 @@
   <dimension ref="G4:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14740,7 +14181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="22"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" firstSheet="1" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -35,6 +35,8 @@
     <sheet name="tax" sheetId="25" r:id="rId21"/>
     <sheet name="shopify" sheetId="21" r:id="rId22"/>
     <sheet name="claude" sheetId="26" r:id="rId23"/>
+    <sheet name="cursor" sheetId="28" r:id="rId24"/>
+    <sheet name="Sheet2" sheetId="27" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="1579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="1646">
   <si>
     <t>-</t>
   </si>
@@ -4179,15 +4181,6 @@
   </si>
   <si>
     <t>http://127.0.0.1:5502/_site/index.html</t>
-  </si>
-  <si>
-    <t>&lt;svg width="32" height="33" viewBox="0 0 32 33" fill="none" xmlns="http://www.w3.org/2000/svg"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;path d="M0 32.24H32V0.24H0V32.24Z" fill="black"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/svg&gt;</t>
   </si>
   <si>
     <t>text-justify</t>
@@ -5430,12 +5423,222 @@
   <si>
     <t>có bản trả phí</t>
   </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>Promo Banner</t>
+  </si>
+  <si>
+    <t>Home hero</t>
+  </si>
+  <si>
+    <t>Home brands</t>
+  </si>
+  <si>
+    <t>Product carousel 3</t>
+  </si>
+  <si>
+    <t>Product carousel 1</t>
+  </si>
+  <si>
+    <t>Product carousel 2</t>
+  </si>
+  <si>
+    <t>Home Three up</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Team Picks</t>
+  </si>
+  <si>
+    <t>Product carousel 4</t>
+  </si>
+  <si>
+    <t>Home blog</t>
+  </si>
+  <si>
+    <t>Top picks</t>
+  </si>
+  <si>
+    <t>Latest shoes</t>
+  </si>
+  <si>
+    <t>Latest decks</t>
+  </si>
+  <si>
+    <t>Announcement bar</t>
+  </si>
+  <si>
+    <t>Image banner</t>
+  </si>
+  <si>
+    <t>Banner Slick Slider</t>
+  </si>
+  <si>
+    <t>Featured collection 1</t>
+  </si>
+  <si>
+    <t>Featured collection 2</t>
+  </si>
+  <si>
+    <t>Multicolumn 2</t>
+  </si>
+  <si>
+    <t>Multicolumn 1</t>
+  </si>
+  <si>
+    <t>Featured collection 3</t>
+  </si>
+  <si>
+    <t>Three Up Image</t>
+  </si>
+  <si>
+    <t>Featured collection 4</t>
+  </si>
+  <si>
+    <t>Blog post</t>
+  </si>
+  <si>
+    <t>theme customize</t>
+  </si>
+  <si>
+    <t>Home Two up 1</t>
+  </si>
+  <si>
+    <t>How Two Up 2</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>https://admin.shopify.com/store/ocd-skateshop/menus/162653143194</t>
+  </si>
+  <si>
+    <t>https://admin.shopify.com/store/ocd-skateshop/menus/168993751194</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>https://admin.shopify.com/store/ocd-skateshop/pages/68482859162</t>
+  </si>
+  <si>
+    <t>menu pc</t>
+  </si>
+  <si>
+    <t>menu mobile</t>
+  </si>
+  <si>
+    <t>our brands page</t>
+  </si>
+  <si>
+    <t>đã gọi được api của nó</t>
+  </si>
+  <si>
+    <t>dự án nằm ở thư mục</t>
+  </si>
+  <si>
+    <t>D:\laravel-claude-api</t>
+  </si>
+  <si>
+    <t>cursor</t>
+  </si>
+  <si>
+    <t>là 1 AI IDE</t>
+  </si>
+  <si>
+    <t>sử dụng nền của vs code</t>
+  </si>
+  <si>
+    <t>tích hợp chatgpt và claude ai vào được</t>
+  </si>
+  <si>
+    <t>cung cấp gợi ý code thông minh, tự động</t>
+  </si>
+  <si>
+    <t>có thể sửa trên nhiều dòng cùng 1 lúc</t>
+  </si>
+  <si>
+    <t>người dùng có thể chat trực tiếp với AI</t>
+  </si>
+  <si>
+    <t>Ctrl + K: Mở khung chat để tương tác với Cursor.</t>
+  </si>
+  <si>
+    <t>Ctrl + L: Chọn một đoạn mã và yêu cầu Cursor giải thích nghĩa của mã.</t>
+  </si>
+  <si>
+    <t>Ctrl + Enter: Thực thi đoạn mã đã chọn trong khung soạn thảo hiện tại.</t>
+  </si>
+  <si>
+    <t>Ctrl + Delete: Xóa lịch sử chat trong khung chat của Cursor.</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + K: Sao chép đoạn mã đã chọn trong khung soạn thảo hiện tại.</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + L: Dán đoạn mã đã sao chép vào khung soạn thảo hiện tại.</t>
+  </si>
+  <si>
+    <t>theme 2.0 sẽ được tích hợp trực tiếp vào luôn</t>
+  </si>
+  <si>
+    <t>theme 1.0 sẽ phải custom code</t>
+  </si>
+  <si>
+    <t>chỉ cho tích hợp ở collection, còn ở product detail thì phải kéo thả block</t>
+  </si>
+  <si>
+    <t>nội dung của các task gần đây</t>
+  </si>
+  <si>
+    <t>metafield k nhận được định dạng JSON</t>
+  </si>
+  <si>
+    <t>rating star ko hiển thị ở theme 1.0, giải quyết bằng cách chèn code vào file js render ra</t>
+  </si>
+  <si>
+    <t>conflic giữa 2 app metasotck và boost AI. Giải quyết bằng  cách custom code để chuyển hướng khi click vào select options button</t>
+  </si>
+  <si>
+    <t>tích hợp tìm kiếm search trên header vào boost AI app</t>
+  </si>
+  <si>
+    <t>các ứng dụng thay đổi cấu hình của UI sẽ được on ở trong admin customize</t>
+  </si>
+  <si>
+    <t>có thể chèn bằng app</t>
+  </si>
+  <si>
+    <t>hoặc custom code</t>
+  </si>
+  <si>
+    <t>thay đổi giao diện ở trang collection</t>
+  </si>
+  <si>
+    <t>bug hệ thống thì hỏi tổ hỗ trợ</t>
+  </si>
+  <si>
+    <t>có thể hiển thị ở sp chi tiết</t>
+  </si>
+  <si>
+    <t>có thể hiển thị ở collection</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5579,6 +5782,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5649,7 +5874,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5738,12 +5963,28 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -6675,7 +6916,7 @@
       <c r="C26">
         <v>12</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="55" t="s">
         <v>180</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -6686,7 +6927,7 @@
       <c r="C27">
         <v>13</v>
       </c>
-      <c r="D27" s="48"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="8" t="s">
         <v>182</v>
       </c>
@@ -6974,136 +7215,136 @@
     </row>
     <row r="67" spans="7:8">
       <c r="G67" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="68" spans="7:8">
       <c r="G68" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="H68" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="69" spans="7:8">
       <c r="G69" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="H69" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="70" spans="7:8">
       <c r="G70" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="H70" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="72" spans="7:8">
       <c r="H72" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="73" spans="7:8">
       <c r="H73" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="74" spans="7:8">
       <c r="H74" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="75" spans="7:8">
       <c r="H75" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="76" spans="7:8">
       <c r="H76" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="77" spans="7:8">
       <c r="H77" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="78" spans="7:8">
       <c r="H78" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
   </sheetData>
@@ -7267,10 +7508,10 @@
     </row>
     <row r="19" spans="8:9">
       <c r="H19" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="I19" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
   </sheetData>
@@ -8382,10 +8623,10 @@
         <v>1347</v>
       </c>
       <c r="P26" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="T26" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="27" spans="6:20">
@@ -8393,10 +8634,10 @@
         <v>1350</v>
       </c>
       <c r="P27" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="T27" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="28" spans="6:20">
@@ -8404,7 +8645,7 @@
         <v>1351</v>
       </c>
       <c r="T28" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="29" spans="6:20">
@@ -8444,15 +8685,15 @@
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="F37" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="G42" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
   </sheetData>
@@ -10024,9 +10265,9 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:X210"/>
+  <dimension ref="D2:X195"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
+    <sheetView topLeftCell="A163" workbookViewId="0">
       <selection activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
@@ -10639,22 +10880,22 @@
       </c>
     </row>
     <row r="105" spans="4:18" ht="52.5" customHeight="1">
-      <c r="E105" s="49" t="s">
+      <c r="E105" s="56" t="s">
         <v>1163</v>
       </c>
-      <c r="F105" s="49"/>
-      <c r="G105" s="49"/>
-      <c r="H105" s="49"/>
-      <c r="I105" s="49"/>
-      <c r="J105" s="49"/>
-      <c r="K105" s="49"/>
-      <c r="L105" s="49"/>
-      <c r="M105" s="49"/>
-      <c r="N105" s="49"/>
-      <c r="O105" s="49"/>
-      <c r="P105" s="49"/>
-      <c r="Q105" s="49"/>
-      <c r="R105" s="49"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="56"/>
+      <c r="I105" s="56"/>
+      <c r="J105" s="56"/>
+      <c r="K105" s="56"/>
+      <c r="L105" s="56"/>
+      <c r="M105" s="56"/>
+      <c r="N105" s="56"/>
+      <c r="O105" s="56"/>
+      <c r="P105" s="56"/>
+      <c r="Q105" s="56"/>
+      <c r="R105" s="56"/>
     </row>
     <row r="106" spans="4:18">
       <c r="E106" t="s">
@@ -11317,21 +11558,6 @@
     <row r="195" spans="4:20">
       <c r="T195" s="8" t="s">
         <v>1365</v>
-      </c>
-    </row>
-    <row r="208" spans="4:20">
-      <c r="R208" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="209" spans="18:18">
-      <c r="R209" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="210" spans="18:18">
-      <c r="R210" t="s">
-        <v>1368</v>
       </c>
     </row>
   </sheetData>
@@ -11358,7 +11584,7 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="D2" s="4" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -11366,12 +11592,12 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="C5" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -11381,7 +11607,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="C9" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -11389,22 +11615,22 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="D12" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="D13" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="D14" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
   </sheetData>
@@ -11415,10 +11641,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W426"/>
+  <dimension ref="B2:W446"/>
   <sheetViews>
-    <sheetView topLeftCell="A357" workbookViewId="0">
-      <selection activeCell="K376" sqref="K376"/>
+    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="G387" sqref="G387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11583,7 +11809,7 @@
         <v>780</v>
       </c>
       <c r="S24" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="25" spans="10:21">
@@ -12730,10 +12956,10 @@
         <v>980</v>
       </c>
       <c r="U206" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="V206" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="207" spans="5:22">
@@ -12744,7 +12970,7 @@
         <v>979</v>
       </c>
       <c r="U207" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="V207" t="s">
         <v>775</v>
@@ -12752,7 +12978,7 @@
     </row>
     <row r="208" spans="5:22">
       <c r="U208" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="V208" t="s">
         <v>775</v>
@@ -12763,7 +12989,7 @@
         <v>982</v>
       </c>
       <c r="U209" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="V209" t="s">
         <v>775</v>
@@ -12774,10 +13000,10 @@
         <v>983</v>
       </c>
       <c r="U210" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="V210" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="211" spans="5:22">
@@ -12788,10 +13014,10 @@
         <v>988</v>
       </c>
       <c r="U211" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="V211" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="212" spans="5:22">
@@ -12799,10 +13025,10 @@
         <v>985</v>
       </c>
       <c r="U212" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="V212" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="213" spans="5:22">
@@ -12813,15 +13039,15 @@
         <v>987</v>
       </c>
       <c r="U213" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="V213" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="214" spans="5:22">
       <c r="U214" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="V214" t="s">
         <v>775</v>
@@ -12832,10 +13058,10 @@
         <v>989</v>
       </c>
       <c r="U215" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="V215" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="216" spans="5:22">
@@ -12870,7 +13096,7 @@
         <v>995</v>
       </c>
       <c r="U219" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="V219" t="s">
         <v>775</v>
@@ -12881,7 +13107,7 @@
         <v>996</v>
       </c>
       <c r="U220" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="V220" t="s">
         <v>775</v>
@@ -12892,7 +13118,7 @@
         <v>997</v>
       </c>
       <c r="U221" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="V221" t="s">
         <v>775</v>
@@ -12903,15 +13129,15 @@
         <v>998</v>
       </c>
       <c r="U222" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="V222" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="223" spans="5:22">
       <c r="U223" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="V223" t="s">
         <v>775</v>
@@ -12922,10 +13148,10 @@
         <v>999</v>
       </c>
       <c r="U224" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="V224" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="225" spans="5:22">
@@ -12936,7 +13162,7 @@
         <v>775</v>
       </c>
       <c r="U225" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="V225" t="s">
         <v>775</v>
@@ -12950,7 +13176,7 @@
         <v>1002</v>
       </c>
       <c r="U226" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="V226" t="s">
         <v>775</v>
@@ -12958,7 +13184,7 @@
     </row>
     <row r="227" spans="5:22">
       <c r="U227" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="V227" t="s">
         <v>775</v>
@@ -12969,10 +13195,10 @@
         <v>1003</v>
       </c>
       <c r="U228" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="V228" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="229" spans="5:22">
@@ -13254,15 +13480,15 @@
     </row>
     <row r="276" spans="5:11">
       <c r="G276" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="J276" s="8" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="279" spans="5:11">
       <c r="H279" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="280" spans="5:11">
@@ -13272,7 +13498,7 @@
     </row>
     <row r="281" spans="5:11">
       <c r="H281" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="282" spans="5:11">
@@ -13287,7 +13513,7 @@
     </row>
     <row r="284" spans="5:11">
       <c r="H284" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="288" spans="5:11">
@@ -13295,30 +13521,30 @@
         <v>1054</v>
       </c>
       <c r="K288" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="290" spans="3:11">
       <c r="H290" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="291" spans="3:11">
       <c r="H291" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="292" spans="3:11">
       <c r="H292" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="K292" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="296" spans="3:11" ht="18">
       <c r="C296" s="37" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="297" spans="3:11">
@@ -13326,7 +13552,7 @@
     </row>
     <row r="298" spans="3:11">
       <c r="C298" s="39" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="299" spans="3:11">
@@ -13334,17 +13560,17 @@
     </row>
     <row r="300" spans="3:11">
       <c r="C300" s="40" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="301" spans="3:11">
       <c r="C301" s="40" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="302" spans="3:11">
       <c r="C302" s="40" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="303" spans="3:11">
@@ -13352,7 +13578,7 @@
     </row>
     <row r="304" spans="3:11">
       <c r="C304" s="39" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="305" spans="3:3">
@@ -13363,32 +13589,32 @@
     </row>
     <row r="307" spans="3:3">
       <c r="C307" s="40" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="308" spans="3:3">
       <c r="C308" s="40" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="309" spans="3:3">
       <c r="C309" s="41" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="310" spans="3:3">
       <c r="C310" s="42" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="311" spans="3:3">
       <c r="C311" s="41" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="312" spans="3:3">
       <c r="C312" s="42" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="313" spans="3:3">
@@ -13396,7 +13622,7 @@
     </row>
     <row r="314" spans="3:3">
       <c r="C314" s="39" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="315" spans="3:3">
@@ -13407,17 +13633,17 @@
     </row>
     <row r="317" spans="3:3">
       <c r="C317" s="40" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="318" spans="3:3">
       <c r="C318" s="40" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="319" spans="3:3">
       <c r="C319" s="40" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="320" spans="3:3">
@@ -13425,7 +13651,7 @@
     </row>
     <row r="321" spans="3:3">
       <c r="C321" s="39" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="322" spans="3:3">
@@ -13436,12 +13662,12 @@
     </row>
     <row r="324" spans="3:3">
       <c r="C324" s="40" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="325" spans="3:3">
       <c r="C325" s="40" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="326" spans="3:3">
@@ -13449,7 +13675,7 @@
     </row>
     <row r="327" spans="3:3">
       <c r="C327" s="39" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="328" spans="3:3">
@@ -13460,17 +13686,17 @@
     </row>
     <row r="330" spans="3:3">
       <c r="C330" s="40" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="331" spans="3:3">
       <c r="C331" s="40" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="333" spans="3:3" ht="18">
       <c r="C333" s="37" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="334" spans="3:3">
@@ -13478,7 +13704,7 @@
     </row>
     <row r="335" spans="3:3">
       <c r="C335" s="39" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="336" spans="3:3">
@@ -13486,7 +13712,7 @@
     </row>
     <row r="337" spans="3:3">
       <c r="C337" s="40" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="338" spans="3:3">
@@ -13494,7 +13720,7 @@
     </row>
     <row r="339" spans="3:3">
       <c r="C339" s="39" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="340" spans="3:3">
@@ -13502,7 +13728,7 @@
     </row>
     <row r="341" spans="3:3">
       <c r="C341" s="40" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="342" spans="3:3">
@@ -13510,7 +13736,7 @@
     </row>
     <row r="343" spans="3:3">
       <c r="C343" s="39" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="344" spans="3:3">
@@ -13518,17 +13744,17 @@
     </row>
     <row r="345" spans="3:3">
       <c r="C345" s="40" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="347" spans="3:3" ht="18">
       <c r="C347" s="37" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="349" spans="3:3">
       <c r="C349" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="350" spans="3:3">
@@ -13536,22 +13762,22 @@
     </row>
     <row r="351" spans="3:3">
       <c r="C351" s="39" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="352" spans="3:3">
       <c r="C352" s="39" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="353" spans="3:20">
       <c r="C353" s="39" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="355" spans="3:20" ht="18">
       <c r="C355" s="37" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="356" spans="3:20">
@@ -13559,22 +13785,22 @@
     </row>
     <row r="357" spans="3:20">
       <c r="C357" s="39" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="358" spans="3:20">
       <c r="C358" s="39" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="359" spans="3:20">
       <c r="C359" s="39" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="361" spans="3:20" ht="18">
       <c r="C361" s="37" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="362" spans="3:20">
@@ -13582,17 +13808,17 @@
     </row>
     <row r="363" spans="3:20">
       <c r="C363" s="39" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="364" spans="3:20">
       <c r="C364" s="39" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="367" spans="3:20" ht="31.5">
       <c r="C367" s="47" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="S367">
         <v>2</v>
@@ -13605,11 +13831,11 @@
       <c r="C368" s="43">
         <v>1</v>
       </c>
-      <c r="D368" t="s">
-        <v>1507</v>
+      <c r="D368" s="4" t="s">
+        <v>1504</v>
       </c>
       <c r="G368" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="S368">
         <v>4</v>
@@ -13622,389 +13848,524 @@
       <c r="C369" s="43">
         <v>2</v>
       </c>
-      <c r="D369" t="s">
-        <v>1509</v>
-      </c>
-      <c r="G369" t="s">
-        <v>1510</v>
+      <c r="D369" s="4" t="s">
+        <v>1506</v>
       </c>
     </row>
     <row r="370" spans="3:7">
-      <c r="C370" s="43">
-        <v>3</v>
-      </c>
-      <c r="D370" t="s">
-        <v>1465</v>
+      <c r="C370" s="43"/>
+      <c r="F370" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="G370" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="371" spans="3:7">
-      <c r="C371" s="43">
-        <v>4</v>
-      </c>
-      <c r="D371" t="s">
-        <v>1512</v>
+      <c r="C371" s="43"/>
+      <c r="F371" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="G371" t="s">
-        <v>1513</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="372" spans="3:7">
-      <c r="C372" s="43">
-        <v>5</v>
-      </c>
-      <c r="D372" t="s">
-        <v>1514</v>
+      <c r="C372" s="43"/>
+      <c r="F372" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="G372" t="s">
-        <v>1561</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="373" spans="3:7">
       <c r="C373" s="43">
+        <v>3</v>
+      </c>
+      <c r="D373" s="4" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F373" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G373" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="374" spans="3:7">
+      <c r="C374" s="43"/>
+      <c r="F374" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G374" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="375" spans="3:7">
+      <c r="C375" s="43"/>
+      <c r="F375" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G375" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="376" spans="3:7">
+      <c r="C376" s="43"/>
+      <c r="F376" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G376" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="377" spans="3:7">
+      <c r="C377" s="43">
+        <v>4</v>
+      </c>
+      <c r="D377" s="4" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G377" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="378" spans="3:7">
+      <c r="C378" s="43">
+        <v>5</v>
+      </c>
+      <c r="D378" s="4" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="379" spans="3:7">
+      <c r="C379" s="43"/>
+      <c r="F379" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G379" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="380" spans="3:7">
+      <c r="C380" s="43"/>
+      <c r="F380" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G380" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="381" spans="3:7">
+      <c r="C381" s="43"/>
+      <c r="F381" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G381" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="382" spans="3:7">
+      <c r="C382" s="43">
         <v>6</v>
       </c>
-      <c r="D373" t="s">
+      <c r="D382" s="4" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G382" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="383" spans="3:7">
+      <c r="C383" s="43">
+        <v>7</v>
+      </c>
+      <c r="D383" s="4" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G383" t="s">
         <v>1562</v>
       </c>
-      <c r="G373" t="s">
+    </row>
+    <row r="384" spans="3:7">
+      <c r="C384" s="43"/>
+      <c r="G384" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="385" spans="3:7">
+      <c r="C385" s="43"/>
+      <c r="G385" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="386" spans="3:7">
+      <c r="C386" s="43">
+        <v>8</v>
+      </c>
+      <c r="D386" s="4" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="374" spans="3:7">
-      <c r="C374" s="43">
-        <v>7</v>
-      </c>
-      <c r="D374" t="s">
+      <c r="G386" t="s">
         <v>1564</v>
       </c>
-      <c r="G374" t="s">
+    </row>
+    <row r="387" spans="3:7">
+      <c r="C387" s="43">
+        <v>9</v>
+      </c>
+      <c r="D387" s="4" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="375" spans="3:7">
-      <c r="C375" s="43">
-        <v>8</v>
-      </c>
-      <c r="D375" t="s">
+      <c r="G387" t="s">
         <v>1566</v>
       </c>
-      <c r="G375" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="376" spans="3:7">
-      <c r="C376" s="43">
-        <v>9</v>
-      </c>
-      <c r="D376" t="s">
-        <v>1568</v>
-      </c>
-      <c r="G376" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="378" spans="3:7">
-      <c r="C378" s="44" t="s">
+    </row>
+    <row r="389" spans="3:7">
+      <c r="C389" s="44" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E389" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="390" spans="3:7">
+      <c r="C390" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D390" s="44" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="391" spans="3:7">
+      <c r="C391" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D391" s="44" t="s">
         <v>1515</v>
       </c>
-      <c r="E378" t="s">
+    </row>
+    <row r="392" spans="3:7">
+      <c r="C392" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D392" s="44" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="379" spans="3:7">
-      <c r="C379" s="43" t="s">
+    <row r="393" spans="3:7">
+      <c r="C393" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D379" s="44" t="s">
+      <c r="D393" s="44" t="s">
         <v>1517</v>
       </c>
     </row>
-    <row r="380" spans="3:7">
-      <c r="C380" s="43" t="s">
+    <row r="394" spans="3:7">
+      <c r="C394" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D380" s="44" t="s">
+      <c r="D394" s="44" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="381" spans="3:7">
-      <c r="C381" s="43" t="s">
+    <row r="395" spans="3:7">
+      <c r="C395" s="44" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="396" spans="3:7">
+      <c r="D396" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="397" spans="3:7">
+      <c r="D397" s="39" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="398" spans="3:7">
+      <c r="D398" s="39" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="399" spans="3:7">
+      <c r="C399" s="44" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="400" spans="3:7">
+      <c r="D400" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="401" spans="3:4">
+      <c r="D401" s="39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="402" spans="3:4">
+      <c r="D402" s="39" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="403" spans="3:4">
+      <c r="C403" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="404" spans="3:4">
+      <c r="D404" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="405" spans="3:4">
+      <c r="D405" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="406" spans="3:4">
+      <c r="D406" s="45" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="407" spans="3:4">
+      <c r="D407" s="45" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="408" spans="3:4">
+      <c r="C408" s="44" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="409" spans="3:4">
+      <c r="D409" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="412" spans="3:4">
+      <c r="C412" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="413" spans="3:4">
+      <c r="D413" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="414" spans="3:4">
+      <c r="D414" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="415" spans="3:4">
+      <c r="D415" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="416" spans="3:4">
+      <c r="D416" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="417" spans="3:7">
+      <c r="D417" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="420" spans="3:7">
+      <c r="C420" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="421" spans="3:7">
+      <c r="C421" t="s">
         <v>0</v>
       </c>
-      <c r="D381" s="44" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="382" spans="3:7">
-      <c r="C382" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D382" s="44" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="383" spans="3:7">
-      <c r="C383" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D383" s="44" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="384" spans="3:7">
-      <c r="C384" s="44" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="385" spans="3:4">
-      <c r="D385" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="386" spans="3:4">
-      <c r="D386" s="39" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="387" spans="3:4">
-      <c r="D387" s="39" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="388" spans="3:4">
-      <c r="C388" s="44" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="389" spans="3:4">
-      <c r="D389" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="390" spans="3:4">
-      <c r="D390" s="39" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="391" spans="3:4">
-      <c r="D391" s="39" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="392" spans="3:4">
-      <c r="C392" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="393" spans="3:4">
-      <c r="D393" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="394" spans="3:4">
-      <c r="D394" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="395" spans="3:4">
-      <c r="D395" s="45" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="396" spans="3:4">
-      <c r="D396" s="45" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="397" spans="3:4">
-      <c r="C397" s="44" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="398" spans="3:4">
-      <c r="D398" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="401" spans="3:7">
-      <c r="C401" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="402" spans="3:7">
-      <c r="D402" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="403" spans="3:7">
-      <c r="D403" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="404" spans="3:7">
-      <c r="D404" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="405" spans="3:7">
-      <c r="D405" t="s">
+      <c r="D421" t="s">
         <v>1541</v>
       </c>
     </row>
-    <row r="406" spans="3:7">
-      <c r="D406" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="409" spans="3:7">
-      <c r="C409" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="410" spans="3:7">
-      <c r="C410" t="s">
-        <v>0</v>
-      </c>
-      <c r="D410" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="411" spans="3:7">
-      <c r="D411" t="s">
-        <v>47</v>
-      </c>
-      <c r="E411" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="412" spans="3:7">
-      <c r="C412" t="s">
-        <v>0</v>
-      </c>
-      <c r="D412" t="s">
-        <v>1546</v>
-      </c>
-      <c r="G412" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="413" spans="3:7">
-      <c r="C413" t="s">
-        <v>0</v>
-      </c>
-      <c r="D413" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="414" spans="3:7">
-      <c r="C414" t="s">
-        <v>0</v>
-      </c>
-      <c r="D414" t="s">
-        <v>1548</v>
-      </c>
-      <c r="G414" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="415" spans="3:7">
-      <c r="C415" t="s">
-        <v>0</v>
-      </c>
-      <c r="D415" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="416" spans="3:7">
-      <c r="D416" t="s">
-        <v>47</v>
-      </c>
-      <c r="E416" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="417" spans="3:12">
-      <c r="D417" t="s">
-        <v>47</v>
-      </c>
-      <c r="E417" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="418" spans="3:12">
-      <c r="C418" t="s">
-        <v>0</v>
-      </c>
-      <c r="D418" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="419" spans="3:12">
-      <c r="D419" t="s">
-        <v>47</v>
-      </c>
-      <c r="E419" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="420" spans="3:12">
-      <c r="D420" t="s">
-        <v>47</v>
-      </c>
-      <c r="E420" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="421" spans="3:12">
-      <c r="D421" t="s">
-        <v>47</v>
-      </c>
-      <c r="E421" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="422" spans="3:12">
+    <row r="422" spans="3:7">
       <c r="D422" t="s">
         <v>47</v>
       </c>
       <c r="E422" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="423" spans="3:12">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="423" spans="3:7">
       <c r="C423" t="s">
         <v>0</v>
       </c>
       <c r="D423" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G423" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="424" spans="3:7">
+      <c r="C424" t="s">
+        <v>0</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="425" spans="3:7">
+      <c r="C425" t="s">
+        <v>0</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G425" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="426" spans="3:7">
+      <c r="C426" t="s">
+        <v>0</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="427" spans="3:7">
+      <c r="D427" t="s">
+        <v>47</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="428" spans="3:7">
+      <c r="D428" t="s">
+        <v>47</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="429" spans="3:7">
+      <c r="C429" t="s">
+        <v>0</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="430" spans="3:7">
+      <c r="D430" t="s">
+        <v>47</v>
+      </c>
+      <c r="E430" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="431" spans="3:7">
+      <c r="D431" t="s">
+        <v>47</v>
+      </c>
+      <c r="E431" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="432" spans="3:7">
+      <c r="D432" t="s">
+        <v>47</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="433" spans="2:12">
+      <c r="D433" t="s">
+        <v>47</v>
+      </c>
+      <c r="E433" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="434" spans="2:12">
+      <c r="C434" t="s">
+        <v>0</v>
+      </c>
+      <c r="D434" t="s">
         <v>1105</v>
       </c>
-      <c r="G423" t="s">
+      <c r="G434" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="425" spans="3:12">
-      <c r="J425" t="s">
+    <row r="436" spans="2:12">
+      <c r="J436" t="s">
         <v>0</v>
       </c>
-      <c r="K425" t="s">
+      <c r="K436" t="s">
+        <v>1554</v>
+      </c>
+      <c r="L436" s="46" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="437" spans="2:12">
+      <c r="J437" t="s">
+        <v>0</v>
+      </c>
+      <c r="K437" t="s">
+        <v>1556</v>
+      </c>
+      <c r="L437" t="s">
         <v>1557</v>
       </c>
-      <c r="L425" s="46" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="426" spans="3:12">
-      <c r="J426" t="s">
-        <v>0</v>
-      </c>
-      <c r="K426" t="s">
-        <v>1559</v>
-      </c>
-      <c r="L426" t="s">
-        <v>1560</v>
+    </row>
+    <row r="441" spans="2:12">
+      <c r="B441" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="442" spans="2:12">
+      <c r="B442">
+        <v>1</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="443" spans="2:12">
+      <c r="B443">
+        <v>2</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="444" spans="2:12">
+      <c r="B444">
+        <v>3</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="445" spans="2:12">
+      <c r="B445">
+        <v>4</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="446" spans="2:12">
+      <c r="B446">
+        <v>5</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1639</v>
       </c>
     </row>
   </sheetData>
@@ -14024,10 +14385,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14037,7 +14398,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -14045,42 +14406,42 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="D4" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="D5" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="D6" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="D7" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="D8" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="D9" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="D10" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -14088,10 +14449,606 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="C14" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="C15" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="4:6" ht="21">
+      <c r="F3" s="57" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6">
+      <c r="D5" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="D6" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="D7" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="D8" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="D10" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="D11" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="D13" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="D14" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="D15" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="D16" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H7:O48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="65.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="8:13" ht="15.75">
+      <c r="H7" s="51"/>
+      <c r="I7" s="52" t="s">
+        <v>1576</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K7" s="53"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="48" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="8" spans="8:13" ht="15.75">
+      <c r="H8" s="50"/>
+      <c r="I8" s="50" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>1612</v>
+      </c>
+      <c r="M8" s="54" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="9" spans="8:13" ht="15.75">
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>1613</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="10" spans="8:13" ht="15.75">
+      <c r="H10" s="49">
+        <v>1</v>
+      </c>
+      <c r="I10" s="50" t="s">
         <v>1578</v>
       </c>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="8:13" ht="15.75">
+      <c r="H11" s="49">
+        <v>2</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>1614</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="12" spans="8:13" ht="15.75">
+      <c r="H12" s="49">
+        <v>3</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="8:13" ht="15.75">
+      <c r="H13" s="49">
+        <v>4</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>1589</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="8:13" ht="15.75">
+      <c r="H14" s="49">
+        <v>5</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>1604</v>
+      </c>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="8:13" ht="15.75">
+      <c r="H15" s="49">
+        <v>6</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J15" s="50" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="8:13" ht="15.75">
+      <c r="H16" s="49">
+        <v>7</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>1605</v>
+      </c>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="8:13" ht="15.75">
+      <c r="H17" s="49">
+        <v>8</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J17" s="50" t="s">
+        <v>1591</v>
+      </c>
+      <c r="K17" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="8:13" ht="15.75">
+      <c r="H18" s="49">
+        <v>9</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="8:13" ht="15.75">
+      <c r="H19" s="49">
+        <v>10</v>
+      </c>
+      <c r="I19" s="50" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J19" s="50" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K19" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="8:13" ht="15.75">
+      <c r="H20" s="49">
+        <v>11</v>
+      </c>
+      <c r="I20" s="50" t="s">
+        <v>1588</v>
+      </c>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="8:13" ht="15.75">
+      <c r="H21" s="51"/>
+      <c r="I21" s="52" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="8:13" ht="15.75">
+      <c r="H22" s="49">
+        <v>1</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>1592</v>
+      </c>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="8:13" ht="15.75">
+      <c r="H23" s="49">
+        <v>2</v>
+      </c>
+      <c r="I23" s="50" t="s">
+        <v>1593</v>
+      </c>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="8:13" ht="15.75">
+      <c r="H24" s="49">
+        <v>3</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="8:13" ht="15.75">
+      <c r="H25" s="49">
+        <v>4</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>1589</v>
+      </c>
+      <c r="K25" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="8:13" ht="15.75">
+      <c r="H26" s="49">
+        <v>5</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>1598</v>
+      </c>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="8:13" ht="15.75">
+      <c r="H27" s="49">
+        <v>6</v>
+      </c>
+      <c r="I27" s="50" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J27" s="50" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K27" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="8:13" ht="15.75">
+      <c r="H28" s="49">
+        <v>7</v>
+      </c>
+      <c r="I28" s="50" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="8:13" ht="15.75">
+      <c r="H29" s="49">
+        <v>8</v>
+      </c>
+      <c r="I29" s="50" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J29" s="50" t="s">
+        <v>1591</v>
+      </c>
+      <c r="K29" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="8:13" ht="15.75">
+      <c r="H30" s="49">
+        <v>9</v>
+      </c>
+      <c r="I30" s="50" t="s">
+        <v>1600</v>
+      </c>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="8:13" ht="15.75">
+      <c r="H31" s="49">
+        <v>10</v>
+      </c>
+      <c r="I31" s="50" t="s">
+        <v>1601</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K31" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="8:13" ht="15.75">
+      <c r="H32" s="49">
+        <v>11</v>
+      </c>
+      <c r="I32" s="50" t="s">
+        <v>1602</v>
+      </c>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="37" spans="13:15">
+      <c r="M37">
+        <v>21</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="13:15">
+      <c r="M38">
+        <v>22</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="13:15">
+      <c r="M39">
+        <v>23</v>
+      </c>
+      <c r="O39">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="13:15">
+      <c r="M40">
+        <v>23</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="13:15">
+      <c r="N48">
+        <f>SUM(N37:N45)</f>
+        <v>5</v>
+      </c>
+      <c r="O48">
+        <f>SUM(O37:O45)</f>
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M8" r:id="rId1"/>
+    <hyperlink ref="M9" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14108,67 +15065,67 @@
   <sheetData>
     <row r="4" spans="7:8" ht="17.25">
       <c r="G4" s="36" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="5" spans="7:8" ht="17.25">
       <c r="H5" s="36" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="6" spans="7:8" ht="17.25">
       <c r="H6" s="36" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="7" spans="7:8" ht="17.25">
       <c r="H7" s="36" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="9" spans="7:8">
       <c r="G9" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="10" spans="7:8">
       <c r="H10" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="11" spans="7:8">
       <c r="H11" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="12" spans="7:8">
       <c r="H12" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="13" spans="7:8">
       <c r="H13" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="14" spans="7:8">
       <c r="H14" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="15" spans="7:8">
       <c r="H15" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="18" spans="7:7">
       <c r="G18" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="19" spans="7:7">
       <c r="G19" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
   </sheetData>

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" firstSheet="1" activeTab="21"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" firstSheet="1" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -34,9 +34,9 @@
     <sheet name="laravel" sheetId="22" r:id="rId20"/>
     <sheet name="tax" sheetId="25" r:id="rId21"/>
     <sheet name="shopify" sheetId="21" r:id="rId22"/>
-    <sheet name="claude" sheetId="26" r:id="rId23"/>
-    <sheet name="cursor" sheetId="28" r:id="rId24"/>
-    <sheet name="Sheet2" sheetId="27" r:id="rId25"/>
+    <sheet name="Sheet1" sheetId="29" r:id="rId23"/>
+    <sheet name="claude" sheetId="26" r:id="rId24"/>
+    <sheet name="cursor" sheetId="28" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="1646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="1704">
   <si>
     <t>-</t>
   </si>
@@ -5424,123 +5424,6 @@
     <t>có bản trả phí</t>
   </si>
   <si>
-    <t>Live</t>
-  </si>
-  <si>
-    <t>Dev</t>
-  </si>
-  <si>
-    <t>Promo Banner</t>
-  </si>
-  <si>
-    <t>Home hero</t>
-  </si>
-  <si>
-    <t>Home brands</t>
-  </si>
-  <si>
-    <t>Product carousel 3</t>
-  </si>
-  <si>
-    <t>Product carousel 1</t>
-  </si>
-  <si>
-    <t>Product carousel 2</t>
-  </si>
-  <si>
-    <t>Home Three up</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Team Picks</t>
-  </si>
-  <si>
-    <t>Product carousel 4</t>
-  </si>
-  <si>
-    <t>Home blog</t>
-  </si>
-  <si>
-    <t>Top picks</t>
-  </si>
-  <si>
-    <t>Latest shoes</t>
-  </si>
-  <si>
-    <t>Latest decks</t>
-  </si>
-  <si>
-    <t>Announcement bar</t>
-  </si>
-  <si>
-    <t>Image banner</t>
-  </si>
-  <si>
-    <t>Banner Slick Slider</t>
-  </si>
-  <si>
-    <t>Featured collection 1</t>
-  </si>
-  <si>
-    <t>Featured collection 2</t>
-  </si>
-  <si>
-    <t>Multicolumn 2</t>
-  </si>
-  <si>
-    <t>Multicolumn 1</t>
-  </si>
-  <si>
-    <t>Featured collection 3</t>
-  </si>
-  <si>
-    <t>Three Up Image</t>
-  </si>
-  <si>
-    <t>Featured collection 4</t>
-  </si>
-  <si>
-    <t>Blog post</t>
-  </si>
-  <si>
-    <t>theme customize</t>
-  </si>
-  <si>
-    <t>Home Two up 1</t>
-  </si>
-  <si>
-    <t>How Two Up 2</t>
-  </si>
-  <si>
-    <t>Header</t>
-  </si>
-  <si>
-    <t>https://admin.shopify.com/store/ocd-skateshop/menus/162653143194</t>
-  </si>
-  <si>
-    <t>https://admin.shopify.com/store/ocd-skateshop/menus/168993751194</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>https://admin.shopify.com/store/ocd-skateshop/pages/68482859162</t>
-  </si>
-  <si>
-    <t>menu pc</t>
-  </si>
-  <si>
-    <t>menu mobile</t>
-  </si>
-  <si>
-    <t>our brands page</t>
-  </si>
-  <si>
     <t>đã gọi được api của nó</t>
   </si>
   <si>
@@ -5632,13 +5515,340 @@
   </si>
   <si>
     <t>có thể hiển thị ở collection</t>
+  </si>
+  <si>
+    <t>vscode kết hợp AI</t>
+  </si>
+  <si>
+    <t>các công cụ hỗ trợ thiết kế và phát triển theme</t>
+  </si>
+  <si>
+    <r>
+      <t>Shopify CLI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Dành cho các nhà phát triển để tạo, phát triển và thử nghiệm theme.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Shopify Partners</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Shopify cung cấp một tài khoản đối tác miễn phí cho các nhà phát triển để xây dựng và thử nghiệm theme trên các cửa hàng thử nghiệm.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Shopify Theme Kit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Công cụ hỗ trợ đồng bộ code giữa máy tính và Shopify store, giúp dễ dàng chỉnh sửa trực tiếp các tệp trong theme từ máy tính. K cần thao tác qua shopify admin</t>
+    </r>
+  </si>
+  <si>
+    <t>tạo 1 theme ở local sau đó đẩy nó lên server</t>
+  </si>
+  <si>
+    <t>code đồng bộ cập nhật trực tiếp lên server luôn</t>
+  </si>
+  <si>
+    <t>tạo dự án reactjs bằng storenfont</t>
+  </si>
+  <si>
+    <t>Xây dựng ứng dụng bán hàng trực tuyến sử dụng Shopify Storefront API</t>
+  </si>
+  <si>
+    <t>Sử dụng ReactJS để xây dựng giao diện người dùng</t>
+  </si>
+  <si>
+    <t>Tích hợp Shopify Storefront API để lấy dữ liệu sản phẩm và xử lý giỏ hàng</t>
+  </si>
+  <si>
+    <t>Thiết lập dự án React:</t>
+  </si>
+  <si>
+    <t>Hãy thực hiện thêm một số thao tác và làm theo các bước hướng dẫn bên dưới</t>
+  </si>
+  <si>
+    <t>Bài tập: Xây dựng ứng dụng cửa hàng trực tuyến với Shopify Storefront API</t>
+  </si>
+  <si>
+    <t>Mục tiêu:</t>
+  </si>
+  <si>
+    <t>• Sử dụng ReactJS để xây dựng giao diện người dùng cho cửa hàng trực tuyến.</t>
+  </si>
+  <si>
+    <t>• Tích hợp Shopify Storefront API để lấy dữ liệu sản phẩm và thực hiện các thao tác giỏ hàng.</t>
+  </si>
+  <si>
+    <t>Bước 1: Thiết lập dự án</t>
+  </si>
+  <si>
+    <t>1. </t>
+  </si>
+  <si>
+    <t>Tạo dự án React:</t>
+  </si>
+  <si>
+    <t>• Sử dụng Create React App để tạo dự án React:</t>
+  </si>
+  <si>
+    <t>npx create-react-app shopify-store</t>
+  </si>
+  <si>
+    <t>• Cài đặt các thư viện cần thiết:</t>
+  </si>
+  <si>
+    <t>npm install shopify-buy axios</t>
+  </si>
+  <si>
+    <t>Tạo ứng dụng riêng tư trên Shopify:</t>
+  </si>
+  <si>
+    <t>• Đăng nhập vào trang quản trị Shopify.</t>
+  </si>
+  <si>
+    <t>• Đi tới Apps &gt; Manage private apps &gt; Create a new private app.</t>
+  </si>
+  <si>
+    <t>• Cấp quyền truy cập cho Storefront API.</t>
+  </si>
+  <si>
+    <t>Bước 2: Thiết lập kết nối với Shopify Storefront API</t>
+  </si>
+  <si>
+    <t>Cấu hình Shopify Client:</t>
+  </si>
+  <si>
+    <t>• src/shopifyClient.js:</t>
+  </si>
+  <si>
+    <t>import Client from 'shopify-buy';</t>
+  </si>
+  <si>
+    <t>const client = Client.buildClient({</t>
+  </si>
+  <si>
+    <t>domain: 'your-shop-name.myshopify.com',</t>
+  </si>
+  <si>
+    <t>storefrontAccessToken: 'your-storefront-access-token'</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>export default client;</t>
+  </si>
+  <si>
+    <t>Tạo các component React để hiển thị sản phẩm:</t>
+  </si>
+  <si>
+    <t>• src/components/ProductList.js:</t>
+  </si>
+  <si>
+    <t>import React, { useEffect, useState } from 'react';</t>
+  </si>
+  <si>
+    <t>import client from '../shopifyClient';</t>
+  </si>
+  <si>
+    <t>const ProductList = () =&gt; {</t>
+  </si>
+  <si>
+    <t>const [products, setProducts] = useState([]);</t>
+  </si>
+  <si>
+    <t>useEffect(() =&gt; {</t>
+  </si>
+  <si>
+    <t>client.product.fetchAll().then((products) =&gt; {</t>
+  </si>
+  <si>
+    <t>setProducts(products);</t>
+  </si>
+  <si>
+    <t>}, []);</t>
+  </si>
+  <si>
+    <t>return (</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Products&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;</t>
+  </si>
+  <si>
+    <t>{products.map((product) =&gt; (</t>
+  </si>
+  <si>
+    <t>&lt;li key={product.id}&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;{product.title}&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src={product.images[0].src} alt={product.title} /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;{product.description}&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>))}</t>
+  </si>
+  <si>
+    <t>&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>export default ProductList;</t>
+  </si>
+  <si>
+    <t>Bước 3: Thêm chức năng giỏ hàng</t>
+  </si>
+  <si>
+    <t>Tạo component giỏ hàng:</t>
+  </si>
+  <si>
+    <t>• src/components/Cart.js:</t>
+  </si>
+  <si>
+    <t>import React, { useState } from 'react';</t>
+  </si>
+  <si>
+    <t>const Cart = () =&gt; {</t>
+  </si>
+  <si>
+    <t>const [checkout, setCheckout] = useState(null);</t>
+  </si>
+  <si>
+    <t>const createCheckout = () =&gt; {</t>
+  </si>
+  <si>
+    <t>client.checkout.create().then((checkout) =&gt; {</t>
+  </si>
+  <si>
+    <t>setCheckout(checkout);</t>
+  </si>
+  <si>
+    <t>const addItemToCheckout = (variantId, quantity) =&gt; {</t>
+  </si>
+  <si>
+    <t>const lineItemsToAdd = [</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>variantId,</t>
+  </si>
+  <si>
+    <t>quantity,</t>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <t>];</t>
+  </si>
+  <si>
+    <t>client.checkout.addLineItems(checkout.id, lineItemsToAdd).then((checkout) =&gt; {</t>
+  </si>
+  <si>
+    <t>&lt;button onClick={createCheckout}&gt;Create Checkout&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>{checkout &amp;&amp; (</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Checkout ID: {checkout.id}&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;button onClick={() =&gt; addItemToCheckout('variant-id', 1)}&gt;Add Item&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>)}</t>
+  </si>
+  <si>
+    <t>export default Cart;</t>
+  </si>
+  <si>
+    <t>Bước 4: Kết nối các component và hoàn thiện ứng dụng</t>
+  </si>
+  <si>
+    <t>Tích hợp các component vào ứng dụng chính:</t>
+  </si>
+  <si>
+    <t>• src/App.js:</t>
+  </si>
+  <si>
+    <t>import React from 'react';</t>
+  </si>
+  <si>
+    <t>import ProductList from './components/ProductList';</t>
+  </si>
+  <si>
+    <t>import Cart from './components/Cart';</t>
+  </si>
+  <si>
+    <t>const App = () =&gt; {</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Shopify Store&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ProductList /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Cart /&gt;</t>
+  </si>
+  <si>
+    <t>export default App;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5783,21 +5993,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -5874,7 +6069,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5963,28 +6158,13 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -6702,7 +6882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M98"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
@@ -6916,7 +7096,7 @@
       <c r="C26">
         <v>12</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="49" t="s">
         <v>180</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -6927,7 +7107,7 @@
       <c r="C27">
         <v>13</v>
       </c>
-      <c r="D27" s="55"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="8" t="s">
         <v>182</v>
       </c>
@@ -7524,8 +7704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8349,7 +8529,7 @@
   <dimension ref="C2:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8500,8 +8680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:T42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8704,17 +8884,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:G9"/>
+  <dimension ref="E3:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="8.85546875" style="5"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="5:7">
@@ -8792,6 +8972,17 @@
       </c>
       <c r="G9" s="12" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
+      <c r="E10" s="9">
+        <v>8</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>1579</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>1607</v>
       </c>
     </row>
   </sheetData>
@@ -8803,8 +8994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A16:G182"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="M168" sqref="M168"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9819,13 +10010,13 @@
   <dimension ref="D3:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:10">
@@ -9959,7 +10150,7 @@
   <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10106,7 +10297,7 @@
   <dimension ref="E3:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10267,7 +10458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:X195"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
       <selection activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
@@ -10880,22 +11071,22 @@
       </c>
     </row>
     <row r="105" spans="4:18" ht="52.5" customHeight="1">
-      <c r="E105" s="56" t="s">
+      <c r="E105" s="50" t="s">
         <v>1163</v>
       </c>
-      <c r="F105" s="56"/>
-      <c r="G105" s="56"/>
-      <c r="H105" s="56"/>
-      <c r="I105" s="56"/>
-      <c r="J105" s="56"/>
-      <c r="K105" s="56"/>
-      <c r="L105" s="56"/>
-      <c r="M105" s="56"/>
-      <c r="N105" s="56"/>
-      <c r="O105" s="56"/>
-      <c r="P105" s="56"/>
-      <c r="Q105" s="56"/>
-      <c r="R105" s="56"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="50"/>
+      <c r="I105" s="50"/>
+      <c r="J105" s="50"/>
+      <c r="K105" s="50"/>
+      <c r="L105" s="50"/>
+      <c r="M105" s="50"/>
+      <c r="N105" s="50"/>
+      <c r="O105" s="50"/>
+      <c r="P105" s="50"/>
+      <c r="Q105" s="50"/>
+      <c r="R105" s="50"/>
     </row>
     <row r="106" spans="4:18">
       <c r="E106" t="s">
@@ -11577,7 +11768,7 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11641,10 +11832,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W446"/>
+  <dimension ref="B2:W465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="G387" sqref="G387"/>
+    <sheetView topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="F442" sqref="F442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13867,7 +14058,7 @@
         <v>47</v>
       </c>
       <c r="G371" t="s">
-        <v>1644</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="372" spans="3:7">
@@ -13876,7 +14067,7 @@
         <v>47</v>
       </c>
       <c r="G372" t="s">
-        <v>1645</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="373" spans="3:7">
@@ -13899,7 +14090,7 @@
         <v>47</v>
       </c>
       <c r="G374" t="s">
-        <v>1631</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="375" spans="3:7">
@@ -13908,7 +14099,7 @@
         <v>47</v>
       </c>
       <c r="G375" t="s">
-        <v>1632</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="376" spans="3:7">
@@ -13917,7 +14108,7 @@
         <v>47</v>
       </c>
       <c r="G376" t="s">
-        <v>1633</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="377" spans="3:7">
@@ -13954,7 +14145,7 @@
         <v>47</v>
       </c>
       <c r="G380" t="s">
-        <v>1642</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="381" spans="3:7">
@@ -13963,7 +14154,7 @@
         <v>47</v>
       </c>
       <c r="G381" t="s">
-        <v>1643</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="382" spans="3:7">
@@ -13991,13 +14182,13 @@
     <row r="384" spans="3:7">
       <c r="C384" s="43"/>
       <c r="G384" t="s">
-        <v>1640</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="385" spans="3:7">
       <c r="C385" s="43"/>
       <c r="G385" t="s">
-        <v>1641</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="386" spans="3:7">
@@ -14325,7 +14516,7 @@
     </row>
     <row r="441" spans="2:12">
       <c r="B441" t="s">
-        <v>1634</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="442" spans="2:12">
@@ -14333,7 +14524,7 @@
         <v>1</v>
       </c>
       <c r="C442" t="s">
-        <v>1635</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="443" spans="2:12">
@@ -14341,7 +14532,7 @@
         <v>2</v>
       </c>
       <c r="C443" t="s">
-        <v>1636</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="444" spans="2:12">
@@ -14349,7 +14540,7 @@
         <v>3</v>
       </c>
       <c r="C444" t="s">
-        <v>1637</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="445" spans="2:12">
@@ -14357,7 +14548,7 @@
         <v>4</v>
       </c>
       <c r="C445" t="s">
-        <v>1638</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="446" spans="2:12">
@@ -14365,7 +14556,76 @@
         <v>5</v>
       </c>
       <c r="C446" t="s">
-        <v>1639</v>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="449" spans="2:5">
+      <c r="B449" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="450" spans="2:5">
+      <c r="C450" s="44" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="451" spans="2:5">
+      <c r="C451" s="44"/>
+      <c r="D451" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="452" spans="2:5">
+      <c r="C452" s="44" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="453" spans="2:5">
+      <c r="C453" s="44"/>
+      <c r="E453" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="454" spans="2:5">
+      <c r="C454" s="44" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="459" spans="2:5">
+      <c r="B459" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="461" spans="2:5">
+      <c r="B461">
+        <v>1</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="462" spans="2:5">
+      <c r="B462">
+        <v>2</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="463" spans="2:5">
+      <c r="B463">
+        <v>3</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="465" spans="3:4">
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1618</v>
       </c>
     </row>
   </sheetData>
@@ -14385,10 +14645,593 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:D113"/>
+  <sheetViews>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="N112" sqref="N112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="3:4">
+      <c r="D5" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="D6" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="D7" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="D8" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="D9" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="D10" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="D12" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="D13" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="D14" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="D15" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="D16" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="D18" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="D19" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="D20" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="D21" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="D22" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="D24" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="D25" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="D26" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="D27" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="D28" s="8" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="D29" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="D30" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="D31" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="8" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="D49" s="8" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="D50" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="D51" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="D52" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="D53" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="D54" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="D55" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="D56" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="D57" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="D58" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="D59" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="D61" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="D62" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="D63" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4">
+      <c r="D64" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" s="8" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" s="8" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="D108" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="D110" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="D111" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4">
+      <c r="D112" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D28" r:id="rId1" display="https://your-shop-name.myshopify.com/"/>
+    <hyperlink ref="D40" r:id="rId2" display="https://client.product.fetchall/"/>
+    <hyperlink ref="D49" r:id="rId3" display="https://product.id/"/>
+    <hyperlink ref="D69" r:id="rId4" display="https://client.checkout.create/"/>
+    <hyperlink ref="D89" r:id="rId5" display="https://checkout.id/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14457,134 +15300,17 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>1615</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="C14" t="s">
-        <v>1616</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="C15" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3" spans="4:6" ht="21">
-      <c r="F3" s="57" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6">
-      <c r="D5" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6">
-      <c r="D6" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6">
-      <c r="D7" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6">
-      <c r="D8" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6">
-      <c r="D9" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6">
-      <c r="D10" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6">
-      <c r="D11" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6">
-      <c r="D12" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6">
-      <c r="D13" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6">
-      <c r="D14" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6">
-      <c r="D15" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6">
-      <c r="D16" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1630</v>
+        <v>1578</v>
       </c>
     </row>
   </sheetData>
@@ -14595,461 +15321,118 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H7:O48"/>
+  <dimension ref="D3:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="8" max="8" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="65.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="7" spans="8:13" ht="15.75">
-      <c r="H7" s="51"/>
-      <c r="I7" s="52" t="s">
-        <v>1576</v>
-      </c>
-      <c r="J7" s="52" t="s">
+    <row r="3" spans="4:6" ht="21">
+      <c r="F3" s="48" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6">
+      <c r="D5" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="D6" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="D7" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="D8" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="D10" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>1585</v>
       </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="48" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="8" spans="8:13" ht="15.75">
-      <c r="H8" s="50"/>
-      <c r="I8" s="50" t="s">
-        <v>1606</v>
-      </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50" t="s">
-        <v>1609</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>1612</v>
-      </c>
-      <c r="M8" s="54" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="9" spans="8:13" ht="15.75">
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50" t="s">
-        <v>1609</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>1613</v>
-      </c>
-      <c r="M9" s="54" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="10" spans="8:13" ht="15.75">
-      <c r="H10" s="49">
-        <v>1</v>
-      </c>
-      <c r="I10" s="50" t="s">
-        <v>1578</v>
-      </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="8:13" ht="15.75">
-      <c r="H11" s="49">
-        <v>2</v>
-      </c>
-      <c r="I11" s="50" t="s">
-        <v>1579</v>
-      </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>1614</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="12" spans="8:13" ht="15.75">
-      <c r="H12" s="49">
-        <v>3</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>1580</v>
-      </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="8:13" ht="15.75">
-      <c r="H13" s="49">
-        <v>4</v>
-      </c>
-      <c r="I13" s="50" t="s">
-        <v>1582</v>
-      </c>
-      <c r="J13" s="50" t="s">
+    </row>
+    <row r="11" spans="4:6">
+      <c r="D11" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="D13" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="D14" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>1589</v>
       </c>
-      <c r="K13" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="8:13" ht="15.75">
-      <c r="H14" s="49">
-        <v>5</v>
-      </c>
-      <c r="I14" s="50" t="s">
-        <v>1604</v>
-      </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="8:13" ht="15.75">
-      <c r="H15" s="49">
-        <v>6</v>
-      </c>
-      <c r="I15" s="50" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J15" s="50" t="s">
+    </row>
+    <row r="15" spans="4:6">
+      <c r="D15" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>1590</v>
       </c>
-      <c r="K15" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="8:13" ht="15.75">
-      <c r="H16" s="49">
-        <v>7</v>
-      </c>
-      <c r="I16" s="50" t="s">
-        <v>1605</v>
-      </c>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="8:13" ht="15.75">
-      <c r="H17" s="49">
-        <v>8</v>
-      </c>
-      <c r="I17" s="50" t="s">
-        <v>1581</v>
-      </c>
-      <c r="J17" s="50" t="s">
+    </row>
+    <row r="16" spans="4:6">
+      <c r="D16" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
         <v>1591</v>
       </c>
-      <c r="K17" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="8:13" ht="15.75">
-      <c r="H18" s="49">
-        <v>9</v>
-      </c>
-      <c r="I18" s="50" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="8:13" ht="15.75">
-      <c r="H19" s="49">
-        <v>10</v>
-      </c>
-      <c r="I19" s="50" t="s">
-        <v>1587</v>
-      </c>
-      <c r="J19" s="50" t="s">
-        <v>1586</v>
-      </c>
-      <c r="K19" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="8:13" ht="15.75">
-      <c r="H20" s="49">
-        <v>11</v>
-      </c>
-      <c r="I20" s="50" t="s">
-        <v>1588</v>
-      </c>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="8:13" ht="15.75">
-      <c r="H21" s="51"/>
-      <c r="I21" s="52" t="s">
-        <v>1577</v>
-      </c>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="8:13" ht="15.75">
-      <c r="H22" s="49">
-        <v>1</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>1592</v>
-      </c>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="8:13" ht="15.75">
-      <c r="H23" s="49">
-        <v>2</v>
-      </c>
-      <c r="I23" s="50" t="s">
-        <v>1593</v>
-      </c>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="8:13" ht="15.75">
-      <c r="H24" s="49">
-        <v>3</v>
-      </c>
-      <c r="I24" s="50" t="s">
-        <v>1594</v>
-      </c>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-    </row>
-    <row r="25" spans="8:13" ht="15.75">
-      <c r="H25" s="49">
-        <v>4</v>
-      </c>
-      <c r="I25" s="50" t="s">
-        <v>1595</v>
-      </c>
-      <c r="J25" s="50" t="s">
-        <v>1589</v>
-      </c>
-      <c r="K25" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-    </row>
-    <row r="26" spans="8:13" ht="15.75">
-      <c r="H26" s="49">
-        <v>5</v>
-      </c>
-      <c r="I26" s="50" t="s">
-        <v>1598</v>
-      </c>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-    </row>
-    <row r="27" spans="8:13" ht="15.75">
-      <c r="H27" s="49">
-        <v>6</v>
-      </c>
-      <c r="I27" s="50" t="s">
-        <v>1596</v>
-      </c>
-      <c r="J27" s="50" t="s">
-        <v>1590</v>
-      </c>
-      <c r="K27" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-    </row>
-    <row r="28" spans="8:13" ht="15.75">
-      <c r="H28" s="49">
-        <v>7</v>
-      </c>
-      <c r="I28" s="50" t="s">
-        <v>1597</v>
-      </c>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-    </row>
-    <row r="29" spans="8:13" ht="15.75">
-      <c r="H29" s="49">
-        <v>8</v>
-      </c>
-      <c r="I29" s="50" t="s">
-        <v>1599</v>
-      </c>
-      <c r="J29" s="50" t="s">
-        <v>1591</v>
-      </c>
-      <c r="K29" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="8:13" ht="15.75">
-      <c r="H30" s="49">
-        <v>9</v>
-      </c>
-      <c r="I30" s="50" t="s">
-        <v>1600</v>
-      </c>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-    </row>
-    <row r="31" spans="8:13" ht="15.75">
-      <c r="H31" s="49">
-        <v>10</v>
-      </c>
-      <c r="I31" s="50" t="s">
-        <v>1601</v>
-      </c>
-      <c r="J31" s="50" t="s">
-        <v>1586</v>
-      </c>
-      <c r="K31" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-    </row>
-    <row r="32" spans="8:13" ht="15.75">
-      <c r="H32" s="49">
-        <v>11</v>
-      </c>
-      <c r="I32" s="50" t="s">
-        <v>1602</v>
-      </c>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-    </row>
-    <row r="37" spans="13:15">
-      <c r="M37">
-        <v>21</v>
-      </c>
-      <c r="N37">
-        <v>2</v>
-      </c>
-      <c r="O37">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="13:15">
-      <c r="M38">
-        <v>22</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="13:15">
-      <c r="M39">
-        <v>23</v>
-      </c>
-      <c r="O39">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="13:15">
-      <c r="M40">
-        <v>23</v>
-      </c>
-      <c r="N40">
-        <v>2</v>
-      </c>
-      <c r="O40">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="13:15">
-      <c r="N48">
-        <f>SUM(N37:N45)</f>
-        <v>5</v>
-      </c>
-      <c r="O48">
-        <f>SUM(O37:O45)</f>
-        <v>195</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M8" r:id="rId1"/>
-    <hyperlink ref="M9" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15138,8 +15521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15207,8 +15590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15790,8 +16173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15993,8 +16376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:U110"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+    <sheetView topLeftCell="B82" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -9,34 +9,35 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" firstSheet="1" activeTab="19"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
-    <sheet name="MENU JS" sheetId="16" r:id="rId2"/>
-    <sheet name="speed web" sheetId="24" r:id="rId3"/>
-    <sheet name="tiêu chuẩn code" sheetId="9" r:id="rId4"/>
-    <sheet name="WR" sheetId="4" r:id="rId5"/>
-    <sheet name="BE" sheetId="10" r:id="rId6"/>
-    <sheet name="FE" sheetId="12" r:id="rId7"/>
-    <sheet name="JS" sheetId="11" r:id="rId8"/>
-    <sheet name="ajax" sheetId="17" r:id="rId9"/>
-    <sheet name="CSS" sheetId="13" r:id="rId10"/>
-    <sheet name="boostrap" sheetId="14" r:id="rId11"/>
-    <sheet name="jekyll" sheetId="15" r:id="rId12"/>
-    <sheet name="talwind" sheetId="23" r:id="rId13"/>
-    <sheet name="software" sheetId="6" r:id="rId14"/>
-    <sheet name="PHP core" sheetId="1" r:id="rId15"/>
-    <sheet name="mysql" sheetId="7" r:id="rId16"/>
-    <sheet name="git" sheetId="8" r:id="rId17"/>
-    <sheet name="plugin" sheetId="18" r:id="rId18"/>
-    <sheet name="REST API" sheetId="19" r:id="rId19"/>
-    <sheet name="laravel" sheetId="22" r:id="rId20"/>
-    <sheet name="tax" sheetId="25" r:id="rId21"/>
-    <sheet name="shopify" sheetId="21" r:id="rId22"/>
-    <sheet name="Sheet1" sheetId="29" r:id="rId23"/>
-    <sheet name="claude" sheetId="26" r:id="rId24"/>
-    <sheet name="cursor" sheetId="28" r:id="rId25"/>
+    <sheet name="Sheet2" sheetId="30" r:id="rId2"/>
+    <sheet name="MENU JS" sheetId="16" r:id="rId3"/>
+    <sheet name="speed web" sheetId="24" r:id="rId4"/>
+    <sheet name="tiêu chuẩn code" sheetId="9" r:id="rId5"/>
+    <sheet name="WR" sheetId="4" r:id="rId6"/>
+    <sheet name="BE" sheetId="10" r:id="rId7"/>
+    <sheet name="FE" sheetId="12" r:id="rId8"/>
+    <sheet name="JS" sheetId="11" r:id="rId9"/>
+    <sheet name="ajax" sheetId="17" r:id="rId10"/>
+    <sheet name="CSS" sheetId="13" r:id="rId11"/>
+    <sheet name="boostrap" sheetId="14" r:id="rId12"/>
+    <sheet name="jekyll" sheetId="15" r:id="rId13"/>
+    <sheet name="talwind" sheetId="23" r:id="rId14"/>
+    <sheet name="software" sheetId="6" r:id="rId15"/>
+    <sheet name="PHP core" sheetId="1" r:id="rId16"/>
+    <sheet name="mysql" sheetId="7" r:id="rId17"/>
+    <sheet name="git" sheetId="8" r:id="rId18"/>
+    <sheet name="plugin" sheetId="18" r:id="rId19"/>
+    <sheet name="REST API" sheetId="19" r:id="rId20"/>
+    <sheet name="laravel" sheetId="22" r:id="rId21"/>
+    <sheet name="tax" sheetId="25" r:id="rId22"/>
+    <sheet name="shopify" sheetId="21" r:id="rId23"/>
+    <sheet name="Sheet1" sheetId="29" r:id="rId24"/>
+    <sheet name="claude" sheetId="26" r:id="rId25"/>
+    <sheet name="cursor" sheetId="28" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="1704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="1722">
   <si>
     <t>-</t>
   </si>
@@ -5842,6 +5843,60 @@
   </si>
   <si>
     <t>export default App;</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>cách thay đổi url để đẹp hơn</t>
+  </si>
+  <si>
+    <t>hình ảnh banner quá lớn</t>
+  </si>
+  <si>
+    <t>tại sao có thể liên kết logo với trang chủ</t>
+  </si>
+  <si>
+    <t>đổi tên header home</t>
+  </si>
+  <si>
+    <t>để 4 danh mục ở trên phần "featured recordings</t>
+  </si>
+  <si>
+    <t>thay vì hover dropdown, show 4 danh mục lên header luôn</t>
+  </si>
+  <si>
+    <t>bỏ phần đăng kí email</t>
+  </si>
+  <si>
+    <t>xóa logo paypal</t>
+  </si>
+  <si>
+    <t>bỏ AUD trong phần giá sản phẩm</t>
+  </si>
+  <si>
+    <t>hình ảnh ở "you may also like" chưa đẹp</t>
+  </si>
+  <si>
+    <t>TRANG CHỦ</t>
+  </si>
+  <si>
+    <t>TRANG CHI TIẾT SẢN PHẨM</t>
+  </si>
+  <si>
+    <t>đưa video lên = hình ảnh</t>
+  </si>
+  <si>
+    <t>thêm button add to cart ở dưới sản phẩm luôn</t>
+  </si>
+  <si>
+    <t>tạo đồng hồ hẹn giờ</t>
+  </si>
+  <si>
+    <t>CHUNG</t>
+  </si>
+  <si>
+    <t>hiển thị danh mục ở bên dưới sản phẩm chi tiết</t>
   </si>
 </sst>
 </file>
@@ -6882,8 +6937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M98"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="M129" sqref="M129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7557,6 +7612,96 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="4:5">
+      <c r="D3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5">
+      <c r="D5" s="23" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="E6" s="23" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="E7" s="23" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="E8" s="23" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="23" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="E11" s="23" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="E12" s="23" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="23" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="E14" s="23" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="E15" s="23" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" s="23" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" t="s">
+        <v>706</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G3:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7700,7 +7845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X41"/>
   <sheetViews>
@@ -8524,7 +8669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M18"/>
   <sheetViews>
@@ -8676,7 +8821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:T42"/>
   <sheetViews>
@@ -8882,7 +9027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:G10"/>
   <sheetViews>
@@ -8990,7 +9135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A16:G182"/>
   <sheetViews>
@@ -9732,7 +9877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H5:K17"/>
   <sheetViews>
@@ -9865,7 +10010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:F14"/>
   <sheetViews>
@@ -10005,7 +10150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:J13"/>
   <sheetViews>
@@ -10145,7 +10290,160 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E7:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:7">
+      <c r="F7" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1704</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7">
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7">
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7">
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7">
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="F19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="F25" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="F26" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F23"/>
   <sheetViews>
@@ -10292,173 +10590,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:G22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="8.85546875" style="5"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="5:7">
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="9">
-        <v>2</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="G4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="5" spans="5:7">
-      <c r="E5" s="9">
-        <v>3</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="6" spans="5:7">
-      <c r="E6" s="9">
-        <v>4</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7">
-      <c r="E7" s="9">
-        <v>5</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7">
-      <c r="E8" s="9">
-        <v>6</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7">
-      <c r="E9" s="9">
-        <v>7</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7">
-      <c r="E10" s="9">
-        <v>8</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7">
-      <c r="E11" s="9">
-        <v>9</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7">
-      <c r="E12" s="9">
-        <v>10</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7">
-      <c r="E13" s="9">
-        <v>11</v>
-      </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="5:7">
-      <c r="E14" s="9">
-        <v>12</v>
-      </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="5:7">
-      <c r="E15" s="9">
-        <v>13</v>
-      </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="5:7">
-      <c r="E16" s="9">
-        <v>14</v>
-      </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="9">
-        <v>15</v>
-      </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="9">
-        <v>16</v>
-      </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="9">
-        <v>17</v>
-      </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="9">
-        <v>18</v>
-      </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21" s="9">
-        <v>19</v>
-      </c>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="5:6">
-      <c r="E22" s="9">
-        <v>20</v>
-      </c>
-      <c r="F22" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:X195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+    <sheetView topLeftCell="A163" workbookViewId="0">
       <selection activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
@@ -11763,7 +11899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D14"/>
   <sheetViews>
@@ -11830,7 +11966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W465"/>
   <sheetViews>
@@ -14643,7 +14779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:D113"/>
   <sheetViews>
@@ -15226,7 +15362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D15"/>
   <sheetViews>
@@ -15319,7 +15455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:F16"/>
   <sheetViews>
@@ -15438,6 +15574,168 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="8.85546875" style="5"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:7">
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="G4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7">
+      <c r="E5" s="9">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7">
+      <c r="E6" s="9">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7">
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
+      <c r="E8" s="9">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7">
+      <c r="E9" s="9">
+        <v>7</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
+      <c r="E10" s="9">
+        <v>8</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
+      <c r="E11" s="9">
+        <v>9</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
+      <c r="E12" s="9">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7">
+      <c r="E13" s="9">
+        <v>11</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="5:7">
+      <c r="E14" s="9">
+        <v>12</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="5:7">
+      <c r="E15" s="9">
+        <v>13</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="5:7">
+      <c r="E16" s="9">
+        <v>14</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="9">
+        <v>15</v>
+      </c>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="9">
+        <v>16</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="9">
+        <v>17</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="9">
+        <v>18</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="9">
+        <v>19</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" s="9">
+        <v>20</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G4:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15517,7 +15815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:G58"/>
   <sheetViews>
@@ -15586,7 +15884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K51"/>
   <sheetViews>
@@ -16169,7 +16467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:G25"/>
   <sheetViews>
@@ -16372,7 +16670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:U110"/>
   <sheetViews>
@@ -17099,7 +17397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F31"/>
   <sheetViews>
@@ -17319,94 +17617,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3" spans="4:5">
-      <c r="D3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5">
-      <c r="D5" s="23" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5">
-      <c r="E6" s="23" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5">
-      <c r="E7" s="23" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5">
-      <c r="E8" s="23" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5">
-      <c r="D10" s="23" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5">
-      <c r="E11" s="23" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5">
-      <c r="E12" s="23" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5">
-      <c r="D13" s="23" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5">
-      <c r="E14" s="23" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="15" spans="4:5">
-      <c r="E15" s="23" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="16" spans="4:5">
-      <c r="D16" s="23" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" t="s">
-        <v>706</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="1722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="1767">
   <si>
     <t>-</t>
   </si>
@@ -5898,12 +5898,147 @@
   <si>
     <t>hiển thị danh mục ở bên dưới sản phẩm chi tiết</t>
   </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>Reduce the banner image size</t>
+  </si>
+  <si>
+    <t>Display category details in the header menu</t>
+  </si>
+  <si>
+    <t>Remove the email subscription section</t>
+  </si>
+  <si>
+    <t>Remove the PayPal logo</t>
+  </si>
+  <si>
+    <t>Remove 'AUD' from the product price</t>
+  </si>
+  <si>
+    <t>Add an 'Add to Cart' button below the product</t>
+  </si>
+  <si>
+    <t>Product detail</t>
+  </si>
+  <si>
+    <t>Add a 'You may also like' section</t>
+  </si>
+  <si>
+    <t>Align the images</t>
+  </si>
+  <si>
+    <t>Move the video to the top</t>
+  </si>
+  <si>
+    <t>Create a countdown clock</t>
+  </si>
+  <si>
+    <t>Common section</t>
+  </si>
+  <si>
+    <t>Apply value-added tax (VAT) to the product</t>
+  </si>
+  <si>
+    <t>not done yet</t>
+  </si>
+  <si>
+    <t>vui lòng xem video này trước vì nó chứa một số chức năng tương tự với những gì tôi muốn phát triển</t>
+  </si>
+  <si>
+    <t>Phát triển chatbot sử dụng AI để trò chuyện với người dùng trên trang web</t>
+  </si>
+  <si>
+    <t>Client sẽ cung cấp danh sách các câu hỏi để hỏi người dùng</t>
+  </si>
+  <si>
+    <t>Chatbot có thể yêu cầu và lưu trữ một số thông tin khách hàng như Công ty, Tên, Điện thoại, Email. Bây giờ chỉ cần lưu trữ cục bộ trong n8n, sau này chúng tôi sẽ gửi tới Zoho API</t>
+  </si>
+  <si>
+    <t>Một trong những câu hỏi có thể là: Bạn có muốn tôi giới thiệu một số sản phẩm cho bạn không?</t>
+  </si>
+  <si>
+    <t>Sau đó, nếu người dùng trả lời "Có", chatbot sẽ hỏi một số câu hỏi khám phá như</t>
+  </si>
+  <si>
+    <t>Sản phẩm dành cho dịp hoặc sự kiện nào?</t>
+  </si>
+  <si>
+    <t>Sản phẩm dành cho loại hình kinh doanh nào?</t>
+  </si>
+  <si>
+    <t>Từ những câu trả lời này, nó có thể đề xuất một số sản phẩm từ customgear.com.au có thể bằng cách sử dụng API Magento. Bạn có thể muốn hỏi Xuân Hạnh về vấn đề này khi anh ấy phát triển một số phương pháp API để tạo các trang Gatsby mà bạn có thể sử dụng</t>
+  </si>
+  <si>
+    <t>Trước tiên hãy bắt đầu với cách thực hiện rất đơn giản, bạn có thể lưu trữ một số sản phẩm trong cửa hàng véc tơ Pinecone theo cách thủ công để chúng tôi có thể thấy nó hoạt động</t>
+  </si>
+  <si>
+    <t>Essential Countdown</t>
+  </si>
+  <si>
+    <t>đồng hợp đếm ngược</t>
+  </si>
+  <si>
+    <t>Quy tắc phát âm ed trong Tiếng Anh</t>
+  </si>
+  <si>
+    <t>GẤP ĐÔI VỐN TỪ VỰNG CỦA BẠN VỚI 40 CẶP TỪ ĐỒNG NGHĨA THÔNG DỤNG NHẤT</t>
+  </si>
+  <si>
+    <t>Phương pháp Phonics và hướng dẫn cách phát âm tiếng Anh chuẩn nhất</t>
+  </si>
+  <si>
+    <t>Giới Từ Chỉ Địa Điểm</t>
+  </si>
+  <si>
+    <t>Tìm hiểu từ A – Z về câu mệnh lệnh trong tiếng Anh.</t>
+  </si>
+  <si>
+    <t>Có thể dùng những từ vựng nào để nói về các thành viên trong gia đình?</t>
+  </si>
+  <si>
+    <t>Tiếng Anh và câu cảm thán</t>
+  </si>
+  <si>
+    <t>Các mẫu câu giao tiếp để con luyện tập cùng bố mẹ</t>
+  </si>
+  <si>
+    <t>Nhạc Giáng Sinh Tiếng Anh Hay Nhất Mọi Thời Đại</t>
+  </si>
+  <si>
+    <t>Từ vựng tiếng Anh chủ đề cảm xúc đầy đủ nhất</t>
+  </si>
+  <si>
+    <t>Tên các loài động vật bằng tiếng Anh</t>
+  </si>
+  <si>
+    <t>Cách học từ đồng nghĩa tiếng Anh để sử dụng một cách hiệu quả</t>
+  </si>
+  <si>
+    <t>Những câu động viên tiếng Anh thường gặp nhất trong cuộc sống</t>
+  </si>
+  <si>
+    <t>các bước thao tác với git trong quá trình làm ở local</t>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>git pull --rebase</t>
+  </si>
+  <si>
+    <t>git push</t>
+  </si>
+  <si>
+    <t>shopify theme serve</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6054,6 +6189,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1A1F2A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -6124,7 +6265,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6214,6 +6355,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7151,7 +7303,7 @@
       <c r="C26">
         <v>12</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="54" t="s">
         <v>180</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -7162,7 +7314,7 @@
       <c r="C27">
         <v>13</v>
       </c>
-      <c r="D27" s="49"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="8" t="s">
         <v>182</v>
       </c>
@@ -10152,10 +10304,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:J13"/>
+  <dimension ref="D3:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10284,6 +10436,23 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
+    <row r="19" spans="14:15">
+      <c r="N19">
+        <v>362.73</v>
+      </c>
+      <c r="O19" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="14:15">
+      <c r="N20">
+        <f>N19*O20/O19</f>
+        <v>399.00300000000004</v>
+      </c>
+      <c r="O20" s="53">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10292,23 +10461,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E7:G26"/>
+  <dimension ref="D7:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:7">
+    <row r="7" spans="4:17">
       <c r="F7" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="4:17">
       <c r="E8">
         <v>1</v>
       </c>
@@ -10318,109 +10489,264 @@
       <c r="G8" t="s">
         <v>1705</v>
       </c>
-    </row>
-    <row r="9" spans="5:7">
+      <c r="N8" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>1722</v>
+      </c>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" spans="4:17">
+      <c r="D9" t="s">
+        <v>775</v>
+      </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>1706</v>
       </c>
-    </row>
-    <row r="10" spans="5:7">
+      <c r="N9" s="9"/>
+      <c r="O9" s="49">
+        <v>1</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>1723</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="10" spans="4:17">
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>1707</v>
       </c>
-    </row>
-    <row r="11" spans="5:7">
+      <c r="N10" s="9"/>
+      <c r="O10" s="49">
+        <v>2</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>1724</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="11" spans="4:17">
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>1708</v>
       </c>
-    </row>
-    <row r="12" spans="5:7">
+      <c r="N11" s="9"/>
+      <c r="O11" s="49">
+        <v>3</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>1725</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17">
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="13" spans="5:7">
+      <c r="N12" s="9"/>
+      <c r="O12" s="49">
+        <v>4</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>1726</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="13" spans="4:17">
       <c r="F13" t="s">
         <v>0</v>
       </c>
       <c r="G13" t="s">
         <v>1709</v>
       </c>
-    </row>
-    <row r="14" spans="5:7">
+      <c r="N13" s="9"/>
+      <c r="O13" s="49">
+        <v>5</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>1727</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="14" spans="4:17">
       <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>1710</v>
       </c>
-    </row>
-    <row r="15" spans="5:7">
+      <c r="N14" s="9"/>
+      <c r="O14" s="49">
+        <v>6</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>1728</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="15" spans="4:17">
+      <c r="D15" t="s">
+        <v>775</v>
+      </c>
       <c r="E15">
         <v>6</v>
       </c>
       <c r="F15" t="s">
         <v>1711</v>
       </c>
-    </row>
-    <row r="16" spans="5:7">
+      <c r="N15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>1729</v>
+      </c>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="4:17">
+      <c r="D16" t="s">
+        <v>775</v>
+      </c>
       <c r="E16">
         <v>7</v>
       </c>
       <c r="F16" t="s">
         <v>1712</v>
       </c>
-    </row>
-    <row r="17" spans="5:6">
+      <c r="N16" s="12"/>
+      <c r="O16" s="49">
+        <v>1</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17">
+      <c r="D17" t="s">
+        <v>775</v>
+      </c>
       <c r="E17">
         <v>8</v>
       </c>
       <c r="F17" t="s">
         <v>1713</v>
       </c>
-    </row>
-    <row r="18" spans="5:6">
+      <c r="N17" s="12"/>
+      <c r="O17" s="49">
+        <v>2</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>1731</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17">
+      <c r="D18" t="s">
+        <v>775</v>
+      </c>
       <c r="E18">
         <v>9</v>
       </c>
       <c r="F18" t="s">
         <v>1718</v>
       </c>
-    </row>
-    <row r="19" spans="5:6">
+      <c r="N18" s="12"/>
+      <c r="O18" s="49">
+        <v>3</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>1732</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17">
       <c r="F19" t="s">
         <v>1716</v>
       </c>
-    </row>
-    <row r="20" spans="5:6">
+      <c r="N19" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>1734</v>
+      </c>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="4:17">
+      <c r="D20" t="s">
+        <v>775</v>
+      </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>1714</v>
       </c>
-    </row>
-    <row r="21" spans="5:6">
+      <c r="N20" s="12"/>
+      <c r="O20" s="51">
+        <v>1</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>1735</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17">
+      <c r="D21" t="s">
+        <v>775</v>
+      </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>1717</v>
       </c>
-    </row>
-    <row r="22" spans="5:6">
+      <c r="N21" s="12"/>
+      <c r="O21" s="50">
+        <v>2</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>1733</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17">
       <c r="E22">
         <v>3</v>
       </c>
@@ -10428,18 +10754,87 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="25" spans="5:6">
+    <row r="25" spans="4:17">
       <c r="F25" t="s">
         <v>1720</v>
       </c>
     </row>
-    <row r="26" spans="5:6">
+    <row r="26" spans="4:17">
       <c r="F26" t="s">
         <v>1719</v>
       </c>
     </row>
+    <row r="30" spans="4:17" ht="15.75">
+      <c r="E30" s="52" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" ht="15.75">
+      <c r="E31" s="52"/>
+    </row>
+    <row r="32" spans="4:17" ht="15.75">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" ht="15.75">
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" ht="15.75">
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" s="52" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" ht="15.75">
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" s="52" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" ht="15.75">
+      <c r="G36" s="52" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" ht="15.75">
+      <c r="G37" s="52" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" ht="15.75">
+      <c r="G38" s="52" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7">
+      <c r="E41" t="s">
+        <v>1746</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11207,22 +11602,22 @@
       </c>
     </row>
     <row r="105" spans="4:18" ht="52.5" customHeight="1">
-      <c r="E105" s="50" t="s">
+      <c r="E105" s="55" t="s">
         <v>1163</v>
       </c>
-      <c r="F105" s="50"/>
-      <c r="G105" s="50"/>
-      <c r="H105" s="50"/>
-      <c r="I105" s="50"/>
-      <c r="J105" s="50"/>
-      <c r="K105" s="50"/>
-      <c r="L105" s="50"/>
-      <c r="M105" s="50"/>
-      <c r="N105" s="50"/>
-      <c r="O105" s="50"/>
-      <c r="P105" s="50"/>
-      <c r="Q105" s="50"/>
-      <c r="R105" s="50"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="55"/>
+      <c r="J105" s="55"/>
+      <c r="K105" s="55"/>
+      <c r="L105" s="55"/>
+      <c r="M105" s="55"/>
+      <c r="N105" s="55"/>
+      <c r="O105" s="55"/>
+      <c r="P105" s="55"/>
+      <c r="Q105" s="55"/>
+      <c r="R105" s="55"/>
     </row>
     <row r="106" spans="4:18">
       <c r="E106" t="s">
@@ -11968,10 +12363,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W465"/>
+  <dimension ref="B2:W487"/>
   <sheetViews>
-    <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="F442" sqref="F442"/>
+    <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
+      <selection activeCell="L467" sqref="L467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14349,208 +14744,188 @@
         <v>1566</v>
       </c>
     </row>
+    <row r="388" spans="3:7">
+      <c r="C388" s="43">
+        <v>10</v>
+      </c>
+      <c r="D388" s="4" t="s">
+        <v>1747</v>
+      </c>
+      <c r="G388" t="s">
+        <v>1748</v>
+      </c>
+    </row>
     <row r="389" spans="3:7">
-      <c r="C389" s="44" t="s">
+      <c r="C389" s="43"/>
+    </row>
+    <row r="390" spans="3:7">
+      <c r="C390" s="43"/>
+    </row>
+    <row r="391" spans="3:7">
+      <c r="C391" s="43"/>
+    </row>
+    <row r="392" spans="3:7">
+      <c r="C392" s="43"/>
+    </row>
+    <row r="393" spans="3:7">
+      <c r="C393" s="43"/>
+    </row>
+    <row r="394" spans="3:7">
+      <c r="C394" s="44" t="s">
         <v>1512</v>
       </c>
-      <c r="E389" t="s">
+      <c r="E394" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="390" spans="3:7">
-      <c r="C390" s="43" t="s">
+    <row r="395" spans="3:7">
+      <c r="C395" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D390" s="44" t="s">
+      <c r="D395" s="44" t="s">
         <v>1514</v>
       </c>
     </row>
-    <row r="391" spans="3:7">
-      <c r="C391" s="43" t="s">
+    <row r="396" spans="3:7">
+      <c r="C396" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D391" s="44" t="s">
+      <c r="D396" s="44" t="s">
         <v>1515</v>
       </c>
     </row>
-    <row r="392" spans="3:7">
-      <c r="C392" s="43" t="s">
+    <row r="397" spans="3:7">
+      <c r="C397" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D392" s="44" t="s">
+      <c r="D397" s="44" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="393" spans="3:7">
-      <c r="C393" s="43" t="s">
+    <row r="398" spans="3:7">
+      <c r="C398" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D393" s="44" t="s">
+      <c r="D398" s="44" t="s">
         <v>1517</v>
       </c>
     </row>
-    <row r="394" spans="3:7">
-      <c r="C394" s="43" t="s">
+    <row r="399" spans="3:7">
+      <c r="C399" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D394" s="44" t="s">
+      <c r="D399" s="44" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="395" spans="3:7">
-      <c r="C395" s="44" t="s">
+    <row r="400" spans="3:7">
+      <c r="C400" s="44" t="s">
         <v>1519</v>
       </c>
     </row>
-    <row r="396" spans="3:7">
-      <c r="D396" t="s">
+    <row r="401" spans="3:4">
+      <c r="D401" t="s">
         <v>1520</v>
-      </c>
-    </row>
-    <row r="397" spans="3:7">
-      <c r="D397" s="39" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="398" spans="3:7">
-      <c r="D398" s="39" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="399" spans="3:7">
-      <c r="C399" s="44" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="400" spans="3:7">
-      <c r="D400" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="401" spans="3:4">
-      <c r="D401" s="39" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="402" spans="3:4">
       <c r="D402" s="39" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="403" spans="3:4">
-      <c r="C403" t="s">
-        <v>1527</v>
+      <c r="D403" s="39" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="404" spans="3:4">
-      <c r="D404" t="s">
-        <v>1528</v>
+      <c r="C404" s="44" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="405" spans="3:4">
       <c r="D405" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="406" spans="3:4">
-      <c r="D406" s="45" t="s">
-        <v>1530</v>
+      <c r="D406" s="39" t="s">
+        <v>1525</v>
       </c>
     </row>
     <row r="407" spans="3:4">
-      <c r="D407" s="45" t="s">
-        <v>1531</v>
+      <c r="D407" s="39" t="s">
+        <v>1526</v>
       </c>
     </row>
     <row r="408" spans="3:4">
-      <c r="C408" s="44" t="s">
-        <v>1532</v>
+      <c r="C408" t="s">
+        <v>1527</v>
       </c>
     </row>
     <row r="409" spans="3:4">
       <c r="D409" t="s">
-        <v>1533</v>
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="410" spans="3:4">
+      <c r="D410" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="411" spans="3:4">
+      <c r="D411" s="45" t="s">
+        <v>1530</v>
       </c>
     </row>
     <row r="412" spans="3:4">
-      <c r="C412" t="s">
-        <v>1534</v>
+      <c r="D412" s="45" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="413" spans="3:4">
-      <c r="D413" t="s">
-        <v>1535</v>
+      <c r="C413" s="44" t="s">
+        <v>1532</v>
       </c>
     </row>
     <row r="414" spans="3:4">
       <c r="D414" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="417" spans="3:7">
+      <c r="C417" s="4" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="418" spans="3:7">
+      <c r="D418" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="419" spans="3:7">
+      <c r="D419" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="415" spans="3:4">
-      <c r="D415" t="s">
+    <row r="420" spans="3:7">
+      <c r="D420" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="416" spans="3:4">
-      <c r="D416" t="s">
+    <row r="421" spans="3:7">
+      <c r="D421" t="s">
         <v>1538</v>
-      </c>
-    </row>
-    <row r="417" spans="3:7">
-      <c r="D417" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="420" spans="3:7">
-      <c r="C420" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="421" spans="3:7">
-      <c r="C421" t="s">
-        <v>0</v>
-      </c>
-      <c r="D421" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="422" spans="3:7">
       <c r="D422" t="s">
-        <v>47</v>
-      </c>
-      <c r="E422" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="423" spans="3:7">
-      <c r="C423" t="s">
-        <v>0</v>
-      </c>
-      <c r="D423" t="s">
-        <v>1543</v>
-      </c>
-      <c r="G423" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="424" spans="3:7">
-      <c r="C424" t="s">
-        <v>0</v>
-      </c>
-      <c r="D424" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="425" spans="3:7">
-      <c r="C425" t="s">
-        <v>0</v>
-      </c>
-      <c r="D425" t="s">
-        <v>1545</v>
-      </c>
-      <c r="G425" t="s">
-        <v>1101</v>
+      <c r="C425" s="4" t="s">
+        <v>1540</v>
       </c>
     </row>
     <row r="426" spans="3:7">
@@ -14558,7 +14933,7 @@
         <v>0</v>
       </c>
       <c r="D426" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="427" spans="3:7">
@@ -14566,15 +14941,18 @@
         <v>47</v>
       </c>
       <c r="E427" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="428" spans="3:7">
+      <c r="C428" t="s">
+        <v>0</v>
+      </c>
       <c r="D428" t="s">
-        <v>47</v>
-      </c>
-      <c r="E428" t="s">
-        <v>1548</v>
+        <v>1543</v>
+      </c>
+      <c r="G428" t="s">
+        <v>1536</v>
       </c>
     </row>
     <row r="429" spans="3:7">
@@ -14582,23 +14960,26 @@
         <v>0</v>
       </c>
       <c r="D429" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="430" spans="3:7">
+      <c r="C430" t="s">
+        <v>0</v>
+      </c>
       <c r="D430" t="s">
-        <v>47</v>
-      </c>
-      <c r="E430" t="s">
-        <v>1550</v>
+        <v>1545</v>
+      </c>
+      <c r="G430" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="431" spans="3:7">
+      <c r="C431" t="s">
+        <v>0</v>
+      </c>
       <c r="D431" t="s">
-        <v>47</v>
-      </c>
-      <c r="E431" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="432" spans="3:7">
@@ -14606,7 +14987,7 @@
         <v>47</v>
       </c>
       <c r="E432" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="433" spans="2:12">
@@ -14614,7 +14995,7 @@
         <v>47</v>
       </c>
       <c r="E433" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="434" spans="2:12">
@@ -14622,146 +15003,357 @@
         <v>0</v>
       </c>
       <c r="D434" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="435" spans="2:12">
+      <c r="D435" t="s">
+        <v>47</v>
+      </c>
+      <c r="E435" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="436" spans="2:12">
+      <c r="D436" t="s">
+        <v>47</v>
+      </c>
+      <c r="E436" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="437" spans="2:12">
+      <c r="D437" t="s">
+        <v>47</v>
+      </c>
+      <c r="E437" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="438" spans="2:12">
+      <c r="D438" t="s">
+        <v>47</v>
+      </c>
+      <c r="E438" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="439" spans="2:12">
+      <c r="C439" t="s">
+        <v>0</v>
+      </c>
+      <c r="D439" t="s">
         <v>1105</v>
       </c>
-      <c r="G434" t="s">
+      <c r="G439" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="436" spans="2:12">
-      <c r="J436" t="s">
+    <row r="441" spans="2:12">
+      <c r="J441" t="s">
         <v>0</v>
       </c>
-      <c r="K436" t="s">
+      <c r="K441" t="s">
         <v>1554</v>
       </c>
-      <c r="L436" s="46" t="s">
+      <c r="L441" s="46" t="s">
         <v>1555</v>
       </c>
     </row>
-    <row r="437" spans="2:12">
-      <c r="J437" t="s">
+    <row r="442" spans="2:12">
+      <c r="J442" t="s">
         <v>0</v>
       </c>
-      <c r="K437" t="s">
+      <c r="K442" t="s">
         <v>1556</v>
       </c>
-      <c r="L437" t="s">
+      <c r="L442" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="441" spans="2:12">
-      <c r="B441" t="s">
+    <row r="446" spans="2:12">
+      <c r="B446" t="s">
         <v>1595</v>
       </c>
     </row>
-    <row r="442" spans="2:12">
-      <c r="B442">
+    <row r="447" spans="2:12">
+      <c r="B447">
         <v>1</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C447" t="s">
         <v>1596</v>
       </c>
     </row>
-    <row r="443" spans="2:12">
-      <c r="B443">
+    <row r="448" spans="2:12">
+      <c r="B448">
         <v>2</v>
       </c>
-      <c r="C443" t="s">
+      <c r="C448" t="s">
         <v>1597</v>
       </c>
     </row>
-    <row r="444" spans="2:12">
-      <c r="B444">
+    <row r="449" spans="2:16">
+      <c r="B449">
         <v>3</v>
       </c>
-      <c r="C444" t="s">
+      <c r="C449" t="s">
         <v>1598</v>
       </c>
     </row>
-    <row r="445" spans="2:12">
-      <c r="B445">
+    <row r="450" spans="2:16">
+      <c r="B450">
         <v>4</v>
       </c>
-      <c r="C445" t="s">
+      <c r="C450" t="s">
         <v>1599</v>
       </c>
     </row>
-    <row r="446" spans="2:12">
-      <c r="B446">
+    <row r="451" spans="2:16">
+      <c r="B451">
         <v>5</v>
       </c>
-      <c r="C446" t="s">
+      <c r="C451" t="s">
         <v>1600</v>
       </c>
     </row>
-    <row r="449" spans="2:5">
-      <c r="B449" t="s">
+    <row r="454" spans="2:16">
+      <c r="B454" t="s">
         <v>1608</v>
       </c>
     </row>
-    <row r="450" spans="2:5">
-      <c r="C450" s="44" t="s">
+    <row r="455" spans="2:16">
+      <c r="C455" s="44" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="451" spans="2:5">
-      <c r="C451" s="44"/>
-      <c r="D451" t="s">
+    <row r="456" spans="2:16">
+      <c r="C456" s="44"/>
+      <c r="D456" t="s">
         <v>1612</v>
       </c>
     </row>
-    <row r="452" spans="2:5">
-      <c r="C452" s="44" t="s">
+    <row r="457" spans="2:16">
+      <c r="C457" s="44" t="s">
         <v>1611</v>
       </c>
     </row>
-    <row r="453" spans="2:5">
-      <c r="C453" s="44"/>
-      <c r="E453" t="s">
+    <row r="458" spans="2:16">
+      <c r="C458" s="44"/>
+      <c r="E458" t="s">
         <v>1613</v>
       </c>
     </row>
-    <row r="454" spans="2:5">
-      <c r="C454" s="44" t="s">
+    <row r="459" spans="2:16">
+      <c r="C459" s="44" t="s">
         <v>1610</v>
       </c>
     </row>
-    <row r="459" spans="2:5">
-      <c r="B459" t="s">
+    <row r="462" spans="2:16">
+      <c r="O462" s="1" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="463" spans="2:16">
+      <c r="O463" t="s">
+        <v>1763</v>
+      </c>
+      <c r="P463" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="464" spans="2:16">
+      <c r="B464" t="s">
         <v>1614</v>
       </c>
-    </row>
-    <row r="461" spans="2:5">
-      <c r="B461">
+      <c r="O464" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="465" spans="2:15">
+      <c r="O465" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="466" spans="2:15">
+      <c r="B466">
         <v>1</v>
       </c>
-      <c r="C461" t="s">
+      <c r="C466" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="462" spans="2:5">
-      <c r="B462">
+      <c r="O466" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="467" spans="2:15">
+      <c r="B467">
         <v>2</v>
       </c>
-      <c r="C462" t="s">
+      <c r="C467" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="463" spans="2:5">
-      <c r="B463">
+    <row r="468" spans="2:15">
+      <c r="B468">
         <v>3</v>
       </c>
-      <c r="C463" t="s">
+      <c r="C468" t="s">
         <v>1617</v>
       </c>
     </row>
-    <row r="465" spans="3:4">
-      <c r="C465">
+    <row r="470" spans="2:15">
+      <c r="C470">
         <v>1</v>
       </c>
-      <c r="D465" t="s">
+      <c r="D470" t="s">
         <v>1618</v>
+      </c>
+    </row>
+    <row r="473" spans="2:15">
+      <c r="D473" t="s">
+        <v>775</v>
+      </c>
+      <c r="E473">
+        <v>1</v>
+      </c>
+      <c r="F473" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="474" spans="2:15">
+      <c r="D474" t="s">
+        <v>775</v>
+      </c>
+      <c r="E474">
+        <v>2</v>
+      </c>
+      <c r="F474" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="475" spans="2:15">
+      <c r="D475" t="s">
+        <v>775</v>
+      </c>
+      <c r="E475">
+        <v>3</v>
+      </c>
+      <c r="F475" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="476" spans="2:15">
+      <c r="D476" t="s">
+        <v>775</v>
+      </c>
+      <c r="E476">
+        <v>4</v>
+      </c>
+      <c r="F476" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="477" spans="2:15">
+      <c r="D477" t="s">
+        <v>775</v>
+      </c>
+      <c r="E477">
+        <v>5</v>
+      </c>
+      <c r="F477" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="478" spans="2:15">
+      <c r="D478" t="s">
+        <v>775</v>
+      </c>
+      <c r="E478">
+        <v>6</v>
+      </c>
+      <c r="F478" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="479" spans="2:15">
+      <c r="D479" t="s">
+        <v>775</v>
+      </c>
+      <c r="E479">
+        <v>7</v>
+      </c>
+      <c r="F479" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="480" spans="2:15">
+      <c r="D480" t="s">
+        <v>775</v>
+      </c>
+      <c r="E480">
+        <v>8</v>
+      </c>
+      <c r="F480" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="481" spans="4:6">
+      <c r="D481" t="s">
+        <v>775</v>
+      </c>
+      <c r="E481">
+        <v>9</v>
+      </c>
+      <c r="F481" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="482" spans="4:6">
+      <c r="E482">
+        <v>10</v>
+      </c>
+      <c r="F482" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="483" spans="4:6">
+      <c r="E483">
+        <v>11</v>
+      </c>
+      <c r="F483" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="484" spans="4:6">
+      <c r="E484">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="485" spans="4:6">
+      <c r="E485">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="486" spans="4:6">
+      <c r="D486" t="s">
+        <v>775</v>
+      </c>
+      <c r="E486">
+        <v>14</v>
+      </c>
+      <c r="F486" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="487" spans="4:6">
+      <c r="D487" t="s">
+        <v>775</v>
+      </c>
+      <c r="E487">
+        <v>15</v>
+      </c>
+      <c r="F487" t="s">
+        <v>1760</v>
       </c>
     </row>
   </sheetData>

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -9,35 +9,35 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="22"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" firstSheet="2" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="30" r:id="rId2"/>
-    <sheet name="MENU JS" sheetId="16" r:id="rId3"/>
-    <sheet name="speed web" sheetId="24" r:id="rId4"/>
-    <sheet name="tiêu chuẩn code" sheetId="9" r:id="rId5"/>
-    <sheet name="WR" sheetId="4" r:id="rId6"/>
-    <sheet name="BE" sheetId="10" r:id="rId7"/>
-    <sheet name="FE" sheetId="12" r:id="rId8"/>
-    <sheet name="JS" sheetId="11" r:id="rId9"/>
-    <sheet name="ajax" sheetId="17" r:id="rId10"/>
-    <sheet name="CSS" sheetId="13" r:id="rId11"/>
-    <sheet name="boostrap" sheetId="14" r:id="rId12"/>
-    <sheet name="jekyll" sheetId="15" r:id="rId13"/>
-    <sheet name="talwind" sheetId="23" r:id="rId14"/>
-    <sheet name="software" sheetId="6" r:id="rId15"/>
-    <sheet name="PHP core" sheetId="1" r:id="rId16"/>
-    <sheet name="mysql" sheetId="7" r:id="rId17"/>
-    <sheet name="git" sheetId="8" r:id="rId18"/>
-    <sheet name="plugin" sheetId="18" r:id="rId19"/>
-    <sheet name="REST API" sheetId="19" r:id="rId20"/>
-    <sheet name="laravel" sheetId="22" r:id="rId21"/>
-    <sheet name="tax" sheetId="25" r:id="rId22"/>
-    <sheet name="shopify" sheetId="21" r:id="rId23"/>
-    <sheet name="Sheet1" sheetId="29" r:id="rId24"/>
-    <sheet name="claude" sheetId="26" r:id="rId25"/>
-    <sheet name="cursor" sheetId="28" r:id="rId26"/>
+    <sheet name="MENU JS" sheetId="16" r:id="rId2"/>
+    <sheet name="speed web" sheetId="24" r:id="rId3"/>
+    <sheet name="tiêu chuẩn code" sheetId="9" r:id="rId4"/>
+    <sheet name="WR" sheetId="4" r:id="rId5"/>
+    <sheet name="BE" sheetId="10" r:id="rId6"/>
+    <sheet name="FE" sheetId="12" r:id="rId7"/>
+    <sheet name="JS" sheetId="11" r:id="rId8"/>
+    <sheet name="ajax" sheetId="17" r:id="rId9"/>
+    <sheet name="CSS" sheetId="13" r:id="rId10"/>
+    <sheet name="boostrap" sheetId="14" r:id="rId11"/>
+    <sheet name="jekyll" sheetId="15" r:id="rId12"/>
+    <sheet name="talwind" sheetId="23" r:id="rId13"/>
+    <sheet name="software" sheetId="6" r:id="rId14"/>
+    <sheet name="PHP core" sheetId="1" r:id="rId15"/>
+    <sheet name="mysql" sheetId="7" r:id="rId16"/>
+    <sheet name="git" sheetId="8" r:id="rId17"/>
+    <sheet name="plugin" sheetId="18" r:id="rId18"/>
+    <sheet name="REST API" sheetId="19" r:id="rId19"/>
+    <sheet name="laravel" sheetId="22" r:id="rId20"/>
+    <sheet name="tax" sheetId="25" r:id="rId21"/>
+    <sheet name="shopify" sheetId="21" r:id="rId22"/>
+    <sheet name="Sheet1" sheetId="29" r:id="rId23"/>
+    <sheet name="claude" sheetId="26" r:id="rId24"/>
+    <sheet name="cursor" sheetId="28" r:id="rId25"/>
+    <sheet name="TypeScript" sheetId="31" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="1767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="1738">
   <si>
     <t>-</t>
   </si>
@@ -5845,180 +5845,12 @@
     <t>export default App;</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>cách thay đổi url để đẹp hơn</t>
-  </si>
-  <si>
-    <t>hình ảnh banner quá lớn</t>
-  </si>
-  <si>
-    <t>tại sao có thể liên kết logo với trang chủ</t>
-  </si>
-  <si>
-    <t>đổi tên header home</t>
-  </si>
-  <si>
-    <t>để 4 danh mục ở trên phần "featured recordings</t>
-  </si>
-  <si>
-    <t>thay vì hover dropdown, show 4 danh mục lên header luôn</t>
-  </si>
-  <si>
-    <t>bỏ phần đăng kí email</t>
-  </si>
-  <si>
-    <t>xóa logo paypal</t>
-  </si>
-  <si>
-    <t>bỏ AUD trong phần giá sản phẩm</t>
-  </si>
-  <si>
-    <t>hình ảnh ở "you may also like" chưa đẹp</t>
-  </si>
-  <si>
-    <t>TRANG CHỦ</t>
-  </si>
-  <si>
-    <t>TRANG CHI TIẾT SẢN PHẨM</t>
-  </si>
-  <si>
-    <t>đưa video lên = hình ảnh</t>
-  </si>
-  <si>
-    <t>thêm button add to cart ở dưới sản phẩm luôn</t>
-  </si>
-  <si>
-    <t>tạo đồng hồ hẹn giờ</t>
-  </si>
-  <si>
-    <t>CHUNG</t>
-  </si>
-  <si>
-    <t>hiển thị danh mục ở bên dưới sản phẩm chi tiết</t>
-  </si>
-  <si>
-    <t>Home page</t>
-  </si>
-  <si>
-    <t>Reduce the banner image size</t>
-  </si>
-  <si>
-    <t>Display category details in the header menu</t>
-  </si>
-  <si>
-    <t>Remove the email subscription section</t>
-  </si>
-  <si>
-    <t>Remove the PayPal logo</t>
-  </si>
-  <si>
-    <t>Remove 'AUD' from the product price</t>
-  </si>
-  <si>
-    <t>Add an 'Add to Cart' button below the product</t>
-  </si>
-  <si>
-    <t>Product detail</t>
-  </si>
-  <si>
-    <t>Add a 'You may also like' section</t>
-  </si>
-  <si>
-    <t>Align the images</t>
-  </si>
-  <si>
-    <t>Move the video to the top</t>
-  </si>
-  <si>
-    <t>Create a countdown clock</t>
-  </si>
-  <si>
-    <t>Common section</t>
-  </si>
-  <si>
-    <t>Apply value-added tax (VAT) to the product</t>
-  </si>
-  <si>
-    <t>not done yet</t>
-  </si>
-  <si>
-    <t>vui lòng xem video này trước vì nó chứa một số chức năng tương tự với những gì tôi muốn phát triển</t>
-  </si>
-  <si>
-    <t>Phát triển chatbot sử dụng AI để trò chuyện với người dùng trên trang web</t>
-  </si>
-  <si>
-    <t>Client sẽ cung cấp danh sách các câu hỏi để hỏi người dùng</t>
-  </si>
-  <si>
-    <t>Chatbot có thể yêu cầu và lưu trữ một số thông tin khách hàng như Công ty, Tên, Điện thoại, Email. Bây giờ chỉ cần lưu trữ cục bộ trong n8n, sau này chúng tôi sẽ gửi tới Zoho API</t>
-  </si>
-  <si>
-    <t>Một trong những câu hỏi có thể là: Bạn có muốn tôi giới thiệu một số sản phẩm cho bạn không?</t>
-  </si>
-  <si>
-    <t>Sau đó, nếu người dùng trả lời "Có", chatbot sẽ hỏi một số câu hỏi khám phá như</t>
-  </si>
-  <si>
-    <t>Sản phẩm dành cho dịp hoặc sự kiện nào?</t>
-  </si>
-  <si>
-    <t>Sản phẩm dành cho loại hình kinh doanh nào?</t>
-  </si>
-  <si>
-    <t>Từ những câu trả lời này, nó có thể đề xuất một số sản phẩm từ customgear.com.au có thể bằng cách sử dụng API Magento. Bạn có thể muốn hỏi Xuân Hạnh về vấn đề này khi anh ấy phát triển một số phương pháp API để tạo các trang Gatsby mà bạn có thể sử dụng</t>
-  </si>
-  <si>
-    <t>Trước tiên hãy bắt đầu với cách thực hiện rất đơn giản, bạn có thể lưu trữ một số sản phẩm trong cửa hàng véc tơ Pinecone theo cách thủ công để chúng tôi có thể thấy nó hoạt động</t>
-  </si>
-  <si>
     <t>Essential Countdown</t>
   </si>
   <si>
     <t>đồng hợp đếm ngược</t>
   </si>
   <si>
-    <t>Quy tắc phát âm ed trong Tiếng Anh</t>
-  </si>
-  <si>
-    <t>GẤP ĐÔI VỐN TỪ VỰNG CỦA BẠN VỚI 40 CẶP TỪ ĐỒNG NGHĨA THÔNG DỤNG NHẤT</t>
-  </si>
-  <si>
-    <t>Phương pháp Phonics và hướng dẫn cách phát âm tiếng Anh chuẩn nhất</t>
-  </si>
-  <si>
-    <t>Giới Từ Chỉ Địa Điểm</t>
-  </si>
-  <si>
-    <t>Tìm hiểu từ A – Z về câu mệnh lệnh trong tiếng Anh.</t>
-  </si>
-  <si>
-    <t>Có thể dùng những từ vựng nào để nói về các thành viên trong gia đình?</t>
-  </si>
-  <si>
-    <t>Tiếng Anh và câu cảm thán</t>
-  </si>
-  <si>
-    <t>Các mẫu câu giao tiếp để con luyện tập cùng bố mẹ</t>
-  </si>
-  <si>
-    <t>Nhạc Giáng Sinh Tiếng Anh Hay Nhất Mọi Thời Đại</t>
-  </si>
-  <si>
-    <t>Từ vựng tiếng Anh chủ đề cảm xúc đầy đủ nhất</t>
-  </si>
-  <si>
-    <t>Tên các loài động vật bằng tiếng Anh</t>
-  </si>
-  <si>
-    <t>Cách học từ đồng nghĩa tiếng Anh để sử dụng một cách hiệu quả</t>
-  </si>
-  <si>
-    <t>Những câu động viên tiếng Anh thường gặp nhất trong cuộc sống</t>
-  </si>
-  <si>
     <t>các bước thao tác với git trong quá trình làm ở local</t>
   </si>
   <si>
@@ -6032,13 +5864,202 @@
   </si>
   <si>
     <t>shopify theme serve</t>
+  </si>
+  <si>
+    <t>tạo 1 theme shopify</t>
+  </si>
+  <si>
+    <t>yêu cầu</t>
+  </si>
+  <si>
+    <r>
+      <t>Độc quyền trên Theme Store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Chủ đề phải được phân phối độc quyền qua Shopify Theme Store và không được chứa các liên kết tiếp thị bên ngoài hoặc tín dụng nhà thiết kế.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tính độc đáo so với các chủ đề khác</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Chủ đề cần có sự khác biệt đáng kể về thiết kế và chức năng so với các chủ đề hiện có, bao gồm mã nguồn, nhận diện, hướng nghệ thuật và các tùy chọn tùy chỉnh.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tính năng bắt buộc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Chủ đề phải hỗ trợ các tính năng như "Sections Everywhere" (tương thích với Online Store 2.0), hiển thị giảm giá, nút thanh toán nhanh trên trang sản phẩm và giỏ hàng, bộ lọc tìm kiếm theo thuộc tính, thẻ quà tặng, và nhiều tính năng khác.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hiệu suất và khả năng truy cập</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Chủ đề phải đạt điểm cao về hiệu suất và khả năng truy cập, được đánh giá bằng công cụ Lighthouse.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tương thích trình duyệt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Chủ đề cần hoạt động tốt trên các trình duyệt phổ biến như Chrome, Firefox, Safari và Edge.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tối ưu hóa SEO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Chủ đề phải được tối ưu hóa cho công cụ tìm kiếm để cải thiện khả năng hiển thị trực tuyến.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thiết kế và trải nghiệm người dùng (UX)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Chủ đề cần có thiết kế nhất quán, chuyên nghiệp và cung cấp trải nghiệm người dùng tốt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hỗ trợ hình ảnh đáp ứng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Chủ đề phải sử dụng hình ảnh đáp ứng để đảm bảo hiển thị tốt trên các thiết bị khác nhau.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tài liệu và hỗ trợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Cung cấp tài liệu chi tiết và biểu mẫu liên hệ để hỗ trợ người dùng.</t>
+    </r>
+  </si>
+  <si>
+    <t>tìm hiểu</t>
+  </si>
+  <si>
+    <t>online store 2.0</t>
+  </si>
+  <si>
+    <t>sử dụng Shopify CLI</t>
+  </si>
+  <si>
+    <t>git để quản lí</t>
+  </si>
+  <si>
+    <t>cấu trúc theme</t>
+  </si>
+  <si>
+    <t>/sections: Chứa các thành phần có thể tái sử dụng.</t>
+  </si>
+  <si>
+    <t>/templates: Chứa các mẫu hiển thị cho từng trang (sản phẩm, giỏ hàng, v.v.).</t>
+  </si>
+  <si>
+    <t>/assets: Chứa các file CSS, JS, hình ảnh.</t>
+  </si>
+  <si>
+    <t>/snippets: Các đoạn mã nhỏ có thể tái sử dụng.</t>
+  </si>
+  <si>
+    <t>/config: Lưu cấu hình của theme.</t>
+  </si>
+  <si>
+    <t>tối ưu hóa SEO</t>
+  </si>
+  <si>
+    <t>Giảm thiểu CSS, JS, và tối ưu hình ảnh</t>
+  </si>
+  <si>
+    <t>Kiếm tra và nộp theme</t>
+  </si>
+  <si>
+    <t>Dễ dàng quản lý: Người dùng không cần phải am hiểu lập trình để tùy chỉnh cửa hàng.</t>
+  </si>
+  <si>
+    <t>Hiệu suất cao hơn: Hỗ trợ các công cụ tối ưu hóa hiệu suất như JSON, metafields.</t>
+  </si>
+  <si>
+    <t>Tích hợp ứng dụng mượt mà: Nhờ app blocks và cấu trúc theme sạch sẽ.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6189,12 +6210,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1A1F2A"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -6265,7 +6280,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6355,17 +6370,14 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7303,7 +7315,7 @@
       <c r="C26">
         <v>12</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="53" t="s">
         <v>180</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -7314,7 +7326,7 @@
       <c r="C27">
         <v>13</v>
       </c>
-      <c r="D27" s="54"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="8" t="s">
         <v>182</v>
       </c>
@@ -7764,96 +7776,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3" spans="4:5">
-      <c r="D3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5">
-      <c r="D5" s="23" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5">
-      <c r="E6" s="23" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5">
-      <c r="E7" s="23" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5">
-      <c r="E8" s="23" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5">
-      <c r="D10" s="23" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5">
-      <c r="E11" s="23" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5">
-      <c r="E12" s="23" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5">
-      <c r="D13" s="23" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5">
-      <c r="E14" s="23" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="15" spans="4:5">
-      <c r="E15" s="23" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="16" spans="4:5">
-      <c r="D16" s="23" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" t="s">
-        <v>706</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G3:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7997,7 +7919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X41"/>
   <sheetViews>
@@ -8821,7 +8743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M18"/>
   <sheetViews>
@@ -8973,7 +8895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:T42"/>
   <sheetViews>
@@ -9179,7 +9101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:G10"/>
   <sheetViews>
@@ -9287,7 +9209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A16:G182"/>
   <sheetViews>
@@ -10029,7 +9951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H5:K17"/>
   <sheetViews>
@@ -10162,7 +10084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:F14"/>
   <sheetViews>
@@ -10302,7 +10224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:O20"/>
   <sheetViews>
@@ -10440,7 +10362,7 @@
       <c r="N19">
         <v>362.73</v>
       </c>
-      <c r="O19" s="53">
+      <c r="O19" s="49">
         <v>1</v>
       </c>
     </row>
@@ -10449,7 +10371,7 @@
         <f>N19*O20/O19</f>
         <v>399.00300000000004</v>
       </c>
-      <c r="O20" s="53">
+      <c r="O20" s="49">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -10459,386 +10381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:Q41"/>
-  <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="4:17">
-      <c r="F7" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="8" spans="4:17">
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1704</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1705</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>1722</v>
-      </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-    </row>
-    <row r="9" spans="4:17">
-      <c r="D9" t="s">
-        <v>775</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1706</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="49">
-        <v>1</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>1723</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="10" spans="4:17">
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1707</v>
-      </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="49">
-        <v>2</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>1724</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="11" spans="4:17">
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1708</v>
-      </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="49">
-        <v>3</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>1725</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="12" spans="4:17">
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1267</v>
-      </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="49">
-        <v>4</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>1726</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="13" spans="4:17">
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1709</v>
-      </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="49">
-        <v>5</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>1727</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="14" spans="4:17">
-      <c r="F14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1710</v>
-      </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="49">
-        <v>6</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>1728</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="15" spans="4:17">
-      <c r="D15" t="s">
-        <v>775</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1711</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>1729</v>
-      </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="9"/>
-    </row>
-    <row r="16" spans="4:17">
-      <c r="D16" t="s">
-        <v>775</v>
-      </c>
-      <c r="E16">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1712</v>
-      </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="49">
-        <v>1</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>1730</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="17" spans="4:17">
-      <c r="D17" t="s">
-        <v>775</v>
-      </c>
-      <c r="E17">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1713</v>
-      </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="49">
-        <v>2</v>
-      </c>
-      <c r="P17" s="12" t="s">
-        <v>1731</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="18" spans="4:17">
-      <c r="D18" t="s">
-        <v>775</v>
-      </c>
-      <c r="E18">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1718</v>
-      </c>
-      <c r="N18" s="12"/>
-      <c r="O18" s="49">
-        <v>3</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>1732</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="19" spans="4:17">
-      <c r="F19" t="s">
-        <v>1716</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>1734</v>
-      </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="9"/>
-    </row>
-    <row r="20" spans="4:17">
-      <c r="D20" t="s">
-        <v>775</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1714</v>
-      </c>
-      <c r="N20" s="12"/>
-      <c r="O20" s="51">
-        <v>1</v>
-      </c>
-      <c r="P20" s="20" t="s">
-        <v>1735</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="21" spans="4:17">
-      <c r="D21" t="s">
-        <v>775</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1717</v>
-      </c>
-      <c r="N21" s="12"/>
-      <c r="O21" s="50">
-        <v>2</v>
-      </c>
-      <c r="P21" s="20" t="s">
-        <v>1733</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="22" spans="4:17">
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="25" spans="4:17">
-      <c r="F25" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="26" spans="4:17">
-      <c r="F26" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="30" spans="4:17" ht="15.75">
-      <c r="E30" s="52" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="31" spans="4:17" ht="15.75">
-      <c r="E31" s="52"/>
-    </row>
-    <row r="32" spans="4:17" ht="15.75">
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7" ht="15.75">
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33" s="52" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7" ht="15.75">
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34" s="52" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7" ht="15.75">
-      <c r="E35">
-        <v>4</v>
-      </c>
-      <c r="F35" s="52" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7" ht="15.75">
-      <c r="G36" s="52" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7" ht="15.75">
-      <c r="G37" s="52" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7" ht="15.75">
-      <c r="G38" s="52" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7">
-      <c r="E39">
-        <v>5</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="41" spans="5:7">
-      <c r="E41" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F23"/>
   <sheetViews>
@@ -10985,7 +10528,169 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="8.85546875" style="5"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:7">
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="G4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7">
+      <c r="E5" s="9">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7">
+      <c r="E6" s="9">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7">
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
+      <c r="E8" s="9">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7">
+      <c r="E9" s="9">
+        <v>7</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
+      <c r="E10" s="9">
+        <v>8</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
+      <c r="E11" s="9">
+        <v>9</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
+      <c r="E12" s="9">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7">
+      <c r="E13" s="9">
+        <v>11</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="5:7">
+      <c r="E14" s="9">
+        <v>12</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="5:7">
+      <c r="E15" s="9">
+        <v>13</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="5:7">
+      <c r="E16" s="9">
+        <v>14</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="9">
+        <v>15</v>
+      </c>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="9">
+        <v>16</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="9">
+        <v>17</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="9">
+        <v>18</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="9">
+        <v>19</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" s="9">
+        <v>20</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:X195"/>
   <sheetViews>
@@ -11602,22 +11307,22 @@
       </c>
     </row>
     <row r="105" spans="4:18" ht="52.5" customHeight="1">
-      <c r="E105" s="55" t="s">
+      <c r="E105" s="54" t="s">
         <v>1163</v>
       </c>
-      <c r="F105" s="55"/>
-      <c r="G105" s="55"/>
-      <c r="H105" s="55"/>
-      <c r="I105" s="55"/>
-      <c r="J105" s="55"/>
-      <c r="K105" s="55"/>
-      <c r="L105" s="55"/>
-      <c r="M105" s="55"/>
-      <c r="N105" s="55"/>
-      <c r="O105" s="55"/>
-      <c r="P105" s="55"/>
-      <c r="Q105" s="55"/>
-      <c r="R105" s="55"/>
+      <c r="F105" s="54"/>
+      <c r="G105" s="54"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="54"/>
+      <c r="J105" s="54"/>
+      <c r="K105" s="54"/>
+      <c r="L105" s="54"/>
+      <c r="M105" s="54"/>
+      <c r="N105" s="54"/>
+      <c r="O105" s="54"/>
+      <c r="P105" s="54"/>
+      <c r="Q105" s="54"/>
+      <c r="R105" s="54"/>
     </row>
     <row r="106" spans="4:18">
       <c r="E106" t="s">
@@ -12294,7 +11999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D14"/>
   <sheetViews>
@@ -12361,12 +12066,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W487"/>
+  <dimension ref="B2:W504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
-      <selection activeCell="L467" sqref="L467"/>
+    <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
+      <selection activeCell="O495" sqref="O495:Q498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14749,10 +14454,10 @@
         <v>10</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>1747</v>
+        <v>1704</v>
       </c>
       <c r="G388" t="s">
-        <v>1748</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="389" spans="3:7">
@@ -15150,15 +14855,15 @@
     </row>
     <row r="462" spans="2:16">
       <c r="O462" s="1" t="s">
-        <v>1762</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="463" spans="2:16">
       <c r="O463" t="s">
-        <v>1763</v>
+        <v>1707</v>
       </c>
       <c r="P463" t="s">
-        <v>1764</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="464" spans="2:16">
@@ -15171,7 +14876,7 @@
     </row>
     <row r="465" spans="2:15">
       <c r="O465" t="s">
-        <v>1765</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="466" spans="2:15">
@@ -15182,7 +14887,7 @@
         <v>1615</v>
       </c>
       <c r="O466" t="s">
-        <v>1766</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="467" spans="2:15">
@@ -15209,151 +14914,223 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="473" spans="2:15">
-      <c r="D473" t="s">
-        <v>775</v>
-      </c>
-      <c r="E473">
+    <row r="474" spans="2:15" ht="21">
+      <c r="C474" s="15" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="476" spans="2:15">
+      <c r="C476" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="478" spans="2:15">
+      <c r="B478" s="5">
         <v>1</v>
       </c>
-      <c r="F473" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="474" spans="2:15">
-      <c r="D474" t="s">
-        <v>775</v>
-      </c>
-      <c r="E474">
+      <c r="C478" s="44" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="479" spans="2:15">
+      <c r="B479" s="5">
         <v>2</v>
       </c>
-      <c r="F474" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="475" spans="2:15">
-      <c r="D475" t="s">
-        <v>775</v>
-      </c>
-      <c r="E475">
+      <c r="C479" s="44" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="480" spans="2:15">
+      <c r="B480" s="5">
         <v>3</v>
       </c>
-      <c r="F475" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="476" spans="2:15">
-      <c r="D476" t="s">
-        <v>775</v>
-      </c>
-      <c r="E476">
+      <c r="C480" s="44" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="481" spans="2:16">
+      <c r="B481" s="5">
         <v>4</v>
       </c>
-      <c r="F476" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="477" spans="2:15">
-      <c r="D477" t="s">
-        <v>775</v>
-      </c>
-      <c r="E477">
+      <c r="C481" s="44" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="482" spans="2:16">
+      <c r="B482" s="5">
         <v>5</v>
       </c>
-      <c r="F477" t="s">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="478" spans="2:15">
-      <c r="D478" t="s">
-        <v>775</v>
-      </c>
-      <c r="E478">
+      <c r="C482" s="44" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="483" spans="2:16">
+      <c r="B483" s="5">
         <v>6</v>
       </c>
-      <c r="F478" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="479" spans="2:15">
-      <c r="D479" t="s">
-        <v>775</v>
-      </c>
-      <c r="E479">
+      <c r="C483" s="44" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="484" spans="2:16">
+      <c r="B484" s="5">
         <v>7</v>
       </c>
-      <c r="F479" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="480" spans="2:15">
-      <c r="D480" t="s">
-        <v>775</v>
-      </c>
-      <c r="E480">
+      <c r="C484" s="44" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="485" spans="2:16">
+      <c r="B485" s="5">
         <v>8</v>
       </c>
-      <c r="F480" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="481" spans="4:6">
-      <c r="D481" t="s">
-        <v>775</v>
-      </c>
-      <c r="E481">
+      <c r="C485" s="44" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="486" spans="2:16">
+      <c r="B486" s="5">
         <v>9</v>
       </c>
-      <c r="F481" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="482" spans="4:6">
-      <c r="E482">
-        <v>10</v>
-      </c>
-      <c r="F482" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="483" spans="4:6">
-      <c r="E483">
-        <v>11</v>
-      </c>
-      <c r="F483" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="484" spans="4:6">
-      <c r="E484">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="485" spans="4:6">
-      <c r="E485">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="486" spans="4:6">
-      <c r="D486" t="s">
-        <v>775</v>
-      </c>
-      <c r="E486">
-        <v>14</v>
-      </c>
-      <c r="F486" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="487" spans="4:6">
-      <c r="D487" t="s">
-        <v>775</v>
-      </c>
-      <c r="E487">
-        <v>15</v>
-      </c>
-      <c r="F487" t="s">
-        <v>1760</v>
+      <c r="C486" s="44" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="488" spans="2:16">
+      <c r="C488" s="44" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="489" spans="2:16">
+      <c r="C489" s="44"/>
+    </row>
+    <row r="490" spans="2:16">
+      <c r="B490" s="51">
+        <v>1</v>
+      </c>
+      <c r="C490" s="52" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D490" s="52"/>
+    </row>
+    <row r="491" spans="2:16">
+      <c r="B491" s="51"/>
+      <c r="C491" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D491" s="52" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="492" spans="2:16">
+      <c r="B492" s="51"/>
+      <c r="C492" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D492" s="52" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="493" spans="2:16">
+      <c r="B493" s="51"/>
+      <c r="C493" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D493" s="52" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="494" spans="2:16">
+      <c r="B494" s="51">
+        <v>2</v>
+      </c>
+      <c r="C494" s="52" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D494" s="52"/>
+    </row>
+    <row r="495" spans="2:16">
+      <c r="B495" s="51">
+        <v>3</v>
+      </c>
+      <c r="C495" s="52" t="s">
+        <v>1725</v>
+      </c>
+      <c r="O495">
+        <v>1</v>
+      </c>
+      <c r="P495">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="496" spans="2:16">
+      <c r="B496" s="51">
+        <v>4</v>
+      </c>
+      <c r="C496" s="52" t="s">
+        <v>1726</v>
+      </c>
+      <c r="O496">
+        <v>2</v>
+      </c>
+      <c r="P496">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="497" spans="2:17">
+      <c r="D497" t="s">
+        <v>1727</v>
+      </c>
+      <c r="O497">
+        <v>3</v>
+      </c>
+      <c r="Q497">
+        <f>10/200</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="498" spans="2:17">
+      <c r="D498" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="499" spans="2:17">
+      <c r="D499" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="500" spans="2:17">
+      <c r="D500" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="501" spans="2:17">
+      <c r="D501" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="502" spans="2:17">
+      <c r="B502" s="5">
+        <v>5</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="503" spans="2:17">
+      <c r="B503" s="5">
+        <v>6</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="504" spans="2:17">
+      <c r="B504" s="5">
+        <v>7</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1734</v>
       </c>
     </row>
   </sheetData>
@@ -15371,12 +15148,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:D113"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="N112" sqref="N112"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15954,12 +15731,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16039,6 +15816,123 @@
     <row r="15" spans="2:4">
       <c r="C15" t="s">
         <v>1578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="4:6" ht="21">
+      <c r="F3" s="48" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6">
+      <c r="D5" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="D6" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="D7" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="D8" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="D10" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="D11" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="D13" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="D14" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="D15" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="D16" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1591</v>
       </c>
     </row>
   </sheetData>
@@ -16049,289 +15943,24 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:F16"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3" spans="4:6" ht="21">
-      <c r="F3" s="48" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6">
-      <c r="D5" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6">
-      <c r="D6" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6">
-      <c r="D7" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6">
-      <c r="D8" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6">
-      <c r="D9" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6">
-      <c r="D10" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6">
-      <c r="D11" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6">
-      <c r="D12" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6">
-      <c r="D13" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6">
-      <c r="D14" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6">
-      <c r="D15" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6">
-      <c r="D16" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:G22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="8.85546875" style="5"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="5:7">
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="9">
-        <v>2</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="G4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="5" spans="5:7">
-      <c r="E5" s="9">
-        <v>3</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="6" spans="5:7">
-      <c r="E6" s="9">
-        <v>4</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7">
-      <c r="E7" s="9">
-        <v>5</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7">
-      <c r="E8" s="9">
-        <v>6</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7">
-      <c r="E9" s="9">
-        <v>7</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7">
-      <c r="E10" s="9">
-        <v>8</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7">
-      <c r="E11" s="9">
-        <v>9</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7">
-      <c r="E12" s="9">
-        <v>10</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7">
-      <c r="E13" s="9">
-        <v>11</v>
-      </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="5:7">
-      <c r="E14" s="9">
-        <v>12</v>
-      </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="5:7">
-      <c r="E15" s="9">
-        <v>13</v>
-      </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="5:7">
-      <c r="E16" s="9">
-        <v>14</v>
-      </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="9">
-        <v>15</v>
-      </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="9">
-        <v>16</v>
-      </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="9">
-        <v>17</v>
-      </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="9">
-        <v>18</v>
-      </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21" s="9">
-        <v>19</v>
-      </c>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="5:6">
-      <c r="E22" s="9">
-        <v>20</v>
-      </c>
-      <c r="F22" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G4:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16407,12 +16036,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="U43" sqref="U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16476,7 +16105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K51"/>
   <sheetViews>
@@ -17059,7 +16688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:G25"/>
   <sheetViews>
@@ -17262,7 +16891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:U110"/>
   <sheetViews>
@@ -17989,7 +17618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F31"/>
   <sheetViews>
@@ -18209,4 +17838,94 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="4:5">
+      <c r="D3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5">
+      <c r="D5" s="23" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="E6" s="23" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="E7" s="23" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="E8" s="23" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="23" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="E11" s="23" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="E12" s="23" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="23" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="E14" s="23" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="E15" s="23" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" s="23" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" t="s">
+        <v>706</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" firstSheet="2" activeTab="21"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" firstSheet="3" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -34,10 +34,11 @@
     <sheet name="laravel" sheetId="22" r:id="rId20"/>
     <sheet name="tax" sheetId="25" r:id="rId21"/>
     <sheet name="shopify" sheetId="21" r:id="rId22"/>
-    <sheet name="Sheet1" sheetId="29" r:id="rId23"/>
-    <sheet name="claude" sheetId="26" r:id="rId24"/>
-    <sheet name="cursor" sheetId="28" r:id="rId25"/>
-    <sheet name="TypeScript" sheetId="31" r:id="rId26"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId23"/>
+    <sheet name="Sheet1" sheetId="29" r:id="rId24"/>
+    <sheet name="claude" sheetId="26" r:id="rId25"/>
+    <sheet name="cursor" sheetId="28" r:id="rId26"/>
+    <sheet name="TypeScript" sheetId="31" r:id="rId27"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="1738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="1761">
   <si>
     <t>-</t>
   </si>
@@ -6053,6 +6054,75 @@
   </si>
   <si>
     <t>Tích hợp ứng dụng mượt mà: Nhờ app blocks và cấu trúc theme sạch sẽ.</t>
+  </si>
+  <si>
+    <t>Dịch chuyển vị trí logo bằng code liquid</t>
+  </si>
+  <si>
+    <t>Tạo Menu mới từ admin</t>
+  </si>
+  <si>
+    <t>Thêm vị trí nhập số điện thoại bằng code liquid</t>
+  </si>
+  <si>
+    <t>Thêm 2 header menu: sale, all products bằng code liquid</t>
+  </si>
+  <si>
+    <t>Thêm giỏ hàng, Tổng tiền, svg</t>
+  </si>
+  <si>
+    <t>Code để cấu hình cho người dùng có thể nhập sdt, giá sale, tổng sản phẩm, url …</t>
+  </si>
+  <si>
+    <t>Deskop</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Di chuyển sdt vào hamburger menu bằng code liquid</t>
+  </si>
+  <si>
+    <t>Di chuyển 2 section footer vào hamburger menu bằng code liquid</t>
+  </si>
+  <si>
+    <t>Di chuyển sale, all products vào hamburger menu bằng code liquid</t>
+  </si>
+  <si>
+    <t>Thêm buttion search, giỏ hàng, trò chuyện vào</t>
+  </si>
+  <si>
+    <t>Thay đổi vị trí hamburger menu và logo bằng Javascript</t>
+  </si>
+  <si>
+    <t>Thay đổi vị trí input search bằng code liquid</t>
+  </si>
+  <si>
+    <t>Ẩn hiện input search bằng javascript</t>
+  </si>
+  <si>
+    <t>Thêm phần input search</t>
+  </si>
+  <si>
+    <t>Bug pull về local mất icon</t>
+  </si>
+  <si>
+    <t>Staters</t>
+  </si>
+  <si>
+    <t>Movers</t>
+  </si>
+  <si>
+    <t>Flyers</t>
+  </si>
+  <si>
+    <t>Ket</t>
+  </si>
+  <si>
+    <t>Pet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -6799,6 +6869,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>494</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>199177</xdr:colOff>
+      <xdr:row>504</xdr:row>
+      <xdr:rowOff>28337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8353425" y="94611825"/>
+          <a:ext cx="6780952" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12070,8 +12178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
-      <selection activeCell="O495" sqref="O495:Q498"/>
+    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
+      <selection activeCell="L509" sqref="L509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13563,6 +13671,9 @@
       </c>
     </row>
     <row r="223" spans="5:22">
+      <c r="G223" t="s">
+        <v>1760</v>
+      </c>
       <c r="U223" t="s">
         <v>1442</v>
       </c>
@@ -14599,7 +14710,7 @@
       </c>
     </row>
     <row r="417" spans="3:7">
-      <c r="C417" s="4" t="s">
+      <c r="C417" s="1" t="s">
         <v>1534</v>
       </c>
     </row>
@@ -14629,7 +14740,7 @@
       </c>
     </row>
     <row r="425" spans="3:7">
-      <c r="C425" s="4" t="s">
+      <c r="C425" s="1" t="s">
         <v>1540</v>
       </c>
     </row>
@@ -14948,7 +15059,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="481" spans="2:16">
+    <row r="481" spans="2:4">
       <c r="B481" s="5">
         <v>4</v>
       </c>
@@ -14956,7 +15067,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="482" spans="2:16">
+    <row r="482" spans="2:4">
       <c r="B482" s="5">
         <v>5</v>
       </c>
@@ -14964,7 +15075,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="483" spans="2:16">
+    <row r="483" spans="2:4">
       <c r="B483" s="5">
         <v>6</v>
       </c>
@@ -14972,7 +15083,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="484" spans="2:16">
+    <row r="484" spans="2:4">
       <c r="B484" s="5">
         <v>7</v>
       </c>
@@ -14980,7 +15091,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="485" spans="2:16">
+    <row r="485" spans="2:4">
       <c r="B485" s="5">
         <v>8</v>
       </c>
@@ -14988,7 +15099,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="486" spans="2:16">
+    <row r="486" spans="2:4">
       <c r="B486" s="5">
         <v>9</v>
       </c>
@@ -14996,15 +15107,15 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="488" spans="2:16">
+    <row r="488" spans="2:4">
       <c r="C488" s="44" t="s">
         <v>1722</v>
       </c>
     </row>
-    <row r="489" spans="2:16">
+    <row r="489" spans="2:4">
       <c r="C489" s="44"/>
     </row>
-    <row r="490" spans="2:16">
+    <row r="490" spans="2:4">
       <c r="B490" s="51">
         <v>1</v>
       </c>
@@ -15013,7 +15124,7 @@
       </c>
       <c r="D490" s="52"/>
     </row>
-    <row r="491" spans="2:16">
+    <row r="491" spans="2:4">
       <c r="B491" s="51"/>
       <c r="C491" s="50" t="s">
         <v>0</v>
@@ -15022,7 +15133,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="492" spans="2:16">
+    <row r="492" spans="2:4">
       <c r="B492" s="51"/>
       <c r="C492" s="51" t="s">
         <v>0</v>
@@ -15031,7 +15142,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="493" spans="2:16">
+    <row r="493" spans="2:4">
       <c r="B493" s="51"/>
       <c r="C493" s="50" t="s">
         <v>0</v>
@@ -15040,7 +15151,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="494" spans="2:16">
+    <row r="494" spans="2:4">
       <c r="B494" s="51">
         <v>2</v>
       </c>
@@ -15049,67 +15160,48 @@
       </c>
       <c r="D494" s="52"/>
     </row>
-    <row r="495" spans="2:16">
+    <row r="495" spans="2:4">
       <c r="B495" s="51">
         <v>3</v>
       </c>
       <c r="C495" s="52" t="s">
         <v>1725</v>
       </c>
-      <c r="O495">
-        <v>1</v>
-      </c>
-      <c r="P495">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="496" spans="2:16">
+    </row>
+    <row r="496" spans="2:4">
       <c r="B496" s="51">
         <v>4</v>
       </c>
       <c r="C496" s="52" t="s">
         <v>1726</v>
       </c>
-      <c r="O496">
-        <v>2</v>
-      </c>
-      <c r="P496">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="497" spans="2:17">
+    </row>
+    <row r="497" spans="2:4">
       <c r="D497" t="s">
         <v>1727</v>
       </c>
-      <c r="O497">
-        <v>3</v>
-      </c>
-      <c r="Q497">
-        <f>10/200</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="498" spans="2:17">
+    </row>
+    <row r="498" spans="2:4">
       <c r="D498" t="s">
         <v>1728</v>
       </c>
     </row>
-    <row r="499" spans="2:17">
+    <row r="499" spans="2:4">
       <c r="D499" t="s">
         <v>1729</v>
       </c>
     </row>
-    <row r="500" spans="2:17">
+    <row r="500" spans="2:4">
       <c r="D500" t="s">
         <v>1730</v>
       </c>
     </row>
-    <row r="501" spans="2:17">
+    <row r="501" spans="2:4">
       <c r="D501" t="s">
         <v>1731</v>
       </c>
     </row>
-    <row r="502" spans="2:17">
+    <row r="502" spans="2:4">
       <c r="B502" s="5">
         <v>5</v>
       </c>
@@ -15117,7 +15209,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="503" spans="2:17">
+    <row r="503" spans="2:4">
       <c r="B503" s="5">
         <v>6</v>
       </c>
@@ -15125,7 +15217,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="504" spans="2:17">
+    <row r="504" spans="2:4">
       <c r="B504" s="5">
         <v>7</v>
       </c>
@@ -15150,6 +15242,231 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E4:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="72.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:11">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>1744</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="5:11">
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G5" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="5:11">
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G6" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11">
+      <c r="E7" s="9">
+        <v>3</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G7" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11">
+      <c r="E8" s="9">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>1739</v>
+      </c>
+      <c r="G8" s="12">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11">
+      <c r="E9" s="9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G9" s="12">
+        <v>60</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11">
+      <c r="E10" s="9">
+        <v>6</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>1742</v>
+      </c>
+      <c r="G10" s="12">
+        <v>60</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11">
+      <c r="E11" s="9">
+        <v>7</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>1743</v>
+      </c>
+      <c r="G11" s="12">
+        <v>180</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11">
+      <c r="E12" s="9">
+        <v>8</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G12" s="12">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11">
+      <c r="E13" s="9"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="5:11">
+      <c r="E14" s="9"/>
+      <c r="F14" s="12" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="5:11">
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G15" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11">
+      <c r="E16" s="9">
+        <v>2</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G16" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" s="9">
+        <v>3</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>1747</v>
+      </c>
+      <c r="G17" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" s="9">
+        <v>4</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G18" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" s="9">
+        <v>5</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G19" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" s="9">
+        <v>6</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>1751</v>
+      </c>
+      <c r="G20" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" s="9">
+        <v>7</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G21" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22" s="9"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12">
+        <f>SUM(G5:G21)/60</f>
+        <v>12.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:D113"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
@@ -15731,7 +16048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D15"/>
   <sheetViews>
@@ -15824,7 +16141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:F16"/>
   <sheetViews>
@@ -15941,7 +16258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" firstSheet="3" activeTab="21"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="903" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -34,11 +34,10 @@
     <sheet name="laravel" sheetId="22" r:id="rId20"/>
     <sheet name="tax" sheetId="25" r:id="rId21"/>
     <sheet name="shopify" sheetId="21" r:id="rId22"/>
-    <sheet name="Sheet2" sheetId="32" r:id="rId23"/>
-    <sheet name="Sheet1" sheetId="29" r:id="rId24"/>
-    <sheet name="claude" sheetId="26" r:id="rId25"/>
-    <sheet name="cursor" sheetId="28" r:id="rId26"/>
-    <sheet name="TypeScript" sheetId="31" r:id="rId27"/>
+    <sheet name="Sheet1" sheetId="29" r:id="rId23"/>
+    <sheet name="claude" sheetId="26" r:id="rId24"/>
+    <sheet name="cursor" sheetId="28" r:id="rId25"/>
+    <sheet name="TypeScript" sheetId="31" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="1761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="1764">
   <si>
     <t>-</t>
   </si>
@@ -6056,80 +6055,390 @@
     <t>Tích hợp ứng dụng mượt mà: Nhờ app blocks và cấu trúc theme sạch sẽ.</t>
   </si>
   <si>
-    <t>Dịch chuyển vị trí logo bằng code liquid</t>
-  </si>
-  <si>
-    <t>Tạo Menu mới từ admin</t>
-  </si>
-  <si>
-    <t>Thêm vị trí nhập số điện thoại bằng code liquid</t>
-  </si>
-  <si>
-    <t>Thêm 2 header menu: sale, all products bằng code liquid</t>
-  </si>
-  <si>
-    <t>Thêm giỏ hàng, Tổng tiền, svg</t>
-  </si>
-  <si>
-    <t>Code để cấu hình cho người dùng có thể nhập sdt, giá sale, tổng sản phẩm, url …</t>
-  </si>
-  <si>
-    <t>Deskop</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Di chuyển sdt vào hamburger menu bằng code liquid</t>
-  </si>
-  <si>
-    <t>Di chuyển 2 section footer vào hamburger menu bằng code liquid</t>
-  </si>
-  <si>
-    <t>Di chuyển sale, all products vào hamburger menu bằng code liquid</t>
-  </si>
-  <si>
-    <t>Thêm buttion search, giỏ hàng, trò chuyện vào</t>
-  </si>
-  <si>
-    <t>Thay đổi vị trí hamburger menu và logo bằng Javascript</t>
-  </si>
-  <si>
-    <t>Thay đổi vị trí input search bằng code liquid</t>
-  </si>
-  <si>
-    <t>Ẩn hiện input search bằng javascript</t>
-  </si>
-  <si>
-    <t>Thêm phần input search</t>
-  </si>
-  <si>
-    <t>Bug pull về local mất icon</t>
-  </si>
-  <si>
-    <t>Staters</t>
-  </si>
-  <si>
-    <t>Movers</t>
-  </si>
-  <si>
-    <t>Flyers</t>
-  </si>
-  <si>
-    <t>Ket</t>
-  </si>
-  <si>
-    <t>Pet</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Superset của JavaScript</t>
+    </r>
+  </si>
+  <si>
+    <t>Mọi mã JavaScript hợp lệ đều có thể chạy trong TypeScript mà không cần thay đổi.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TypeScript thêm vào các tính năng mà JavaScript không có, đặc biệt là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kiểu tĩnh (static typing)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Typing System (Hệ thống kiểu)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TypeScript cho phép bạn định nghĩa kiểu dữ liệu (data types) như </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>boolean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>enum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, và kiểu tùy chỉnh (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>Điều này giúp phát hiện lỗi sớm hơn trong quá trình phát triển.</t>
+  </si>
+  <si>
+    <t>3. Công cụ phát triển mạnh mẽ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Với TypeScript, bạn có thể sử dụng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>autocomplete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>refactoring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>static analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dễ dàng hơn nhờ các IDE như Visual Studio Code.</t>
+    </r>
+  </si>
+  <si>
+    <t>TypeScript giúp cải thiện năng suất bằng cách bắt lỗi ngay từ khi viết code.</t>
+  </si>
+  <si>
+    <t>4. Hỗ trợ các tính năng mới của JavaScript</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TypeScript hỗ trợ các tính năng mới của JavaScript, ngay cả khi chúng chưa được hỗ trợ trong các trình duyệt hiện tại. Sau đó, TypeScript sẽ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>biên dịch (transpile)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> code thành JavaScript để chạy trên các môi trường khác nhau.</t>
+    </r>
+  </si>
+  <si>
+    <t>6. Tính năng bổ sung</t>
+  </si>
+  <si>
+    <r>
+      <t>Generics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Hỗ trợ định nghĩa kiểu tổng quát.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Namespace và Module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Giúp tổ chức và tái sử dụng mã nguồn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Decorator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Được sử dụng trong Angular để định nghĩa metadata</t>
+    </r>
+  </si>
+  <si>
+    <t>7. Tích hợp với Frameworks</t>
+  </si>
+  <si>
+    <t>TypeScript được sử dụng rộng rãi trong các framework như Angular, và tương thích với React, Vue.js.</t>
+  </si>
+  <si>
+    <t>5. Hỗ trợ lập trình hướng đối tượng (OOP)</t>
+  </si>
+  <si>
+    <t>TypeScript là một ngôn ngữ lập trình mã nguồn mở được phát triển bởi Microsoft. Nó là một superset của JavaScript, nghĩa là nó mở rộng cú pháp và tính năng của JavaScript để hỗ trợ các ứng dụng lớn và phức tạp.</t>
+  </si>
+  <si>
+    <t>ngày ngỉ trong tháng 01/2025</t>
+  </si>
+  <si>
+    <t>1 buổi chiều thứ 6 9/1/25</t>
+  </si>
+  <si>
+    <t>1 buổi</t>
+  </si>
+  <si>
+    <t>tổng 3 buổi</t>
+  </si>
+  <si>
+    <t>10Web Booster</t>
+  </si>
+  <si>
+    <t>10Web Booster là plugin tốt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6280,6 +6589,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -6350,7 +6665,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6448,12 +6763,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -7207,10 +7526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:M98"/>
+  <dimension ref="C2:M112"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="M129" sqref="M129"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7423,7 +7742,7 @@
       <c r="C26">
         <v>12</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="54" t="s">
         <v>180</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -7434,7 +7753,7 @@
       <c r="C27">
         <v>13</v>
       </c>
-      <c r="D27" s="53"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="8" t="s">
         <v>182</v>
       </c>
@@ -7844,14 +8163,39 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:4">
       <c r="C97" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="98" spans="3:3">
+    <row r="98" spans="3:4">
       <c r="C98" t="s">
         <v>1424</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4">
+      <c r="D107" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4">
+      <c r="D108" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4">
+      <c r="D109" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4">
+      <c r="D110" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4">
+      <c r="D112" t="s">
+        <v>1761</v>
       </c>
     </row>
   </sheetData>
@@ -7887,7 +8231,7 @@
   <dimension ref="G3:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8031,8 +8375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9007,8 +9351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:T42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9214,7 +9558,7 @@
   <dimension ref="E3:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10064,7 +10408,7 @@
   <dimension ref="H5:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10197,7 +10541,7 @@
   <dimension ref="D4:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10337,7 +10681,7 @@
   <dimension ref="D3:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="N18" sqref="N18:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10459,29 +10803,22 @@
         <v>736</v>
       </c>
     </row>
-    <row r="13" spans="4:10">
+    <row r="13" spans="4:10" ht="16.5">
       <c r="D13" s="25">
         <v>10</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="19" spans="14:15">
-      <c r="N19">
-        <v>362.73</v>
-      </c>
-      <c r="O19" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="14:15">
-      <c r="N20">
-        <f>N19*O20/O19</f>
-        <v>399.00300000000004</v>
-      </c>
-      <c r="O20" s="49">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="E13" s="56" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="19" spans="15:15">
+      <c r="O19" s="49"/>
+    </row>
+    <row r="20" spans="15:15">
+      <c r="O20" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10494,7 +10831,7 @@
   <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10641,7 +10978,7 @@
   <dimension ref="E3:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10802,8 +11139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:X195"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="E183" sqref="E183"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="R192" sqref="R192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11415,22 +11752,22 @@
       </c>
     </row>
     <row r="105" spans="4:18" ht="52.5" customHeight="1">
-      <c r="E105" s="54" t="s">
+      <c r="E105" s="55" t="s">
         <v>1163</v>
       </c>
-      <c r="F105" s="54"/>
-      <c r="G105" s="54"/>
-      <c r="H105" s="54"/>
-      <c r="I105" s="54"/>
-      <c r="J105" s="54"/>
-      <c r="K105" s="54"/>
-      <c r="L105" s="54"/>
-      <c r="M105" s="54"/>
-      <c r="N105" s="54"/>
-      <c r="O105" s="54"/>
-      <c r="P105" s="54"/>
-      <c r="Q105" s="54"/>
-      <c r="R105" s="54"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="55"/>
+      <c r="J105" s="55"/>
+      <c r="K105" s="55"/>
+      <c r="L105" s="55"/>
+      <c r="M105" s="55"/>
+      <c r="N105" s="55"/>
+      <c r="O105" s="55"/>
+      <c r="P105" s="55"/>
+      <c r="Q105" s="55"/>
+      <c r="R105" s="55"/>
     </row>
     <row r="106" spans="4:18">
       <c r="E106" t="s">
@@ -12112,7 +12449,7 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12178,8 +12515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="L509" sqref="L509"/>
+    <sheetView topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="M515" sqref="M515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13672,7 +14009,7 @@
     </row>
     <row r="223" spans="5:22">
       <c r="G223" t="s">
-        <v>1760</v>
+        <v>1738</v>
       </c>
       <c r="U223" t="s">
         <v>1442</v>
@@ -15242,235 +15579,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="6" max="6" width="72.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="5:11">
-      <c r="E4" s="12"/>
-      <c r="F4" s="12" t="s">
-        <v>1744</v>
-      </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="5:11">
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>1738</v>
-      </c>
-      <c r="G5" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="5:11">
-      <c r="E6" s="9">
-        <v>2</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>1740</v>
-      </c>
-      <c r="G6" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="5:11">
-      <c r="E7" s="9">
-        <v>3</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>1753</v>
-      </c>
-      <c r="G7" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="5:11">
-      <c r="E8" s="9">
-        <v>4</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>1739</v>
-      </c>
-      <c r="G8" s="12">
-        <v>15</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="9" spans="5:11">
-      <c r="E9" s="9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>1741</v>
-      </c>
-      <c r="G9" s="12">
-        <v>60</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="10" spans="5:11">
-      <c r="E10" s="9">
-        <v>6</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>1742</v>
-      </c>
-      <c r="G10" s="12">
-        <v>60</v>
-      </c>
-      <c r="K10" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="11" spans="5:11">
-      <c r="E11" s="9">
-        <v>7</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>1743</v>
-      </c>
-      <c r="G11" s="12">
-        <v>180</v>
-      </c>
-      <c r="K11" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="12" spans="5:11">
-      <c r="E12" s="9">
-        <v>8</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>1754</v>
-      </c>
-      <c r="G12" s="12">
-        <v>30</v>
-      </c>
-      <c r="K12" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="13" spans="5:11">
-      <c r="E13" s="9"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="5:11">
-      <c r="E14" s="9"/>
-      <c r="F14" s="12" t="s">
-        <v>1745</v>
-      </c>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="5:11">
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>1748</v>
-      </c>
-      <c r="G15" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="5:11">
-      <c r="E16" s="9">
-        <v>2</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>1746</v>
-      </c>
-      <c r="G16" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7">
-      <c r="E17" s="9">
-        <v>3</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>1747</v>
-      </c>
-      <c r="G17" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7">
-      <c r="E18" s="9">
-        <v>4</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>1749</v>
-      </c>
-      <c r="G18" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7">
-      <c r="E19" s="9">
-        <v>5</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>1750</v>
-      </c>
-      <c r="G19" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7">
-      <c r="E20" s="9">
-        <v>6</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>1751</v>
-      </c>
-      <c r="G20" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7">
-      <c r="E21" s="9">
-        <v>7</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>1752</v>
-      </c>
-      <c r="G21" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7">
-      <c r="E22" s="9"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12">
-        <f>SUM(G5:G21)/60</f>
-        <v>12.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:D113"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="P97" sqref="P97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16048,7 +16160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D15"/>
   <sheetViews>
@@ -16141,7 +16253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:F16"/>
   <sheetViews>
@@ -16258,26 +16370,126 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C30:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="30" spans="4:4">
+      <c r="D30" s="53" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="D34" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="D35" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="D37" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="D38" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="44" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" s="38"/>
+      <c r="D40" s="38" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="D41" s="38" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="44" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" s="38"/>
+      <c r="D43" s="38" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" s="44" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46" s="44" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" s="38"/>
+      <c r="D47" s="39" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="D48" s="39" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="D49" s="39" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="44" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="D51" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G4:H19"/>
+  <dimension ref="G4:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16345,6 +16557,11 @@
     <row r="19" spans="7:7">
       <c r="G19" t="s">
         <v>1382</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" t="s">
+        <v>1763</v>
       </c>
     </row>
   </sheetData>
@@ -16426,8 +16643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17010,7 +17227,7 @@
   <dimension ref="D3:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17212,8 +17429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:U110"/>
   <sheetViews>
-    <sheetView topLeftCell="B82" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17940,7 +18157,7 @@
   <dimension ref="B3:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18162,7 +18379,7 @@
   <dimension ref="D3:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/MENU.xlsx
+++ b/MENU.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="2057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="2064">
   <si>
     <t>-</t>
   </si>
@@ -7349,6 +7349,47 @@
   </si>
   <si>
     <t>Livewire tự update giao diện mà bạn không cần viết JS nào hết.</t>
+  </si>
+  <si>
+    <t>component blade</t>
+  </si>
+  <si>
+    <t>&lt;x-home-layout&gt;</t>
+  </si>
+  <si>
+    <t>khi tải sourcecode từ git về thì chạy lệnh</t>
+  </si>
+  <si>
+    <t>composer install</t>
+  </si>
+  <si>
+    <t>npm i</t>
+  </si>
+  <si>
+    <t>&lt;livewire:hero/&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vendor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ là nơi chứa toàn bộ thư viện và dependency mà dự án của bạn sử dụng, được quản lý bởi Composer (trình quản lý gói PHP).</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -13192,10 +13233,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:X310"/>
+  <dimension ref="D2:X313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="G316" sqref="G316"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="Q248" sqref="Q248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14523,12 +14564,12 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="296" spans="4:6" ht="21">
+    <row r="296" spans="4:22" ht="21">
       <c r="D296" s="15" t="s">
         <v>1748</v>
       </c>
     </row>
-    <row r="297" spans="4:6">
+    <row r="297" spans="4:22">
       <c r="D297" s="5" t="s">
         <v>0</v>
       </c>
@@ -14536,7 +14577,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="298" spans="4:6">
+    <row r="298" spans="4:22">
       <c r="E298" s="5" t="s">
         <v>47</v>
       </c>
@@ -14544,39 +14585,53 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="299" spans="4:6">
+    <row r="299" spans="4:22">
       <c r="E299" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F299" t="s">
         <v>1751</v>
       </c>
-    </row>
-    <row r="300" spans="4:6">
+      <c r="U299" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="300" spans="4:22">
       <c r="E300" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F300" t="s">
         <v>1752</v>
       </c>
-    </row>
-    <row r="301" spans="4:6">
+      <c r="V300" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="301" spans="4:22">
       <c r="E301" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F301" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="303" spans="4:6">
-      <c r="E303" s="41" t="s">
+      <c r="V301" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="302" spans="4:22">
+      <c r="V302" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="303" spans="4:22">
+      <c r="E303" s="1" t="s">
         <v>2049</v>
       </c>
       <c r="F303" t="s">
         <v>2050</v>
       </c>
     </row>
-    <row r="304" spans="4:6">
+    <row r="304" spans="4:22">
       <c r="E304" s="5" t="s">
         <v>47</v>
       </c>
@@ -14614,6 +14669,22 @@
     </row>
     <row r="310" spans="4:7" ht="21">
       <c r="D310" s="15"/>
+      <c r="E310" t="s">
+        <v>2057</v>
+      </c>
+      <c r="G310" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="311" spans="4:7">
+      <c r="G311" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="313" spans="4:7">
+      <c r="E313" t="s">
+        <v>2063</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
